--- a/Denmark Division 1/Denmark Division 1.xlsx
+++ b/Denmark Division 1/Denmark Division 1.xlsx
@@ -9623,7 +9623,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>3685228</v>
+        <v>3594808</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9635,40 +9635,40 @@
         <v>44407.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K103">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="N103">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="O103">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P103">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R103">
         <v>2</v>
@@ -9677,34 +9677,34 @@
         <v>1.85</v>
       </c>
       <c r="T103">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V103">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z103">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA103">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
       <c r="AB103">
+        <v>0.475</v>
+      </c>
+      <c r="AC103">
         <v>-0.5</v>
-      </c>
-      <c r="AC103">
-        <v>0.5125</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9712,7 +9712,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>3594808</v>
+        <v>3685228</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9724,40 +9724,40 @@
         <v>44407.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K104">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M104">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="N104">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="O104">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P104">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="Q104">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R104">
         <v>2</v>
@@ -9766,34 +9766,34 @@
         <v>1.85</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y104">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
+        <v>0</v>
+      </c>
+      <c r="AA104">
+        <v>-0</v>
+      </c>
+      <c r="AB104">
         <v>-0.5</v>
       </c>
-      <c r="AA104">
-        <v>0.425</v>
-      </c>
-      <c r="AB104">
-        <v>0.475</v>
-      </c>
       <c r="AC104">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9801,7 +9801,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>3688271</v>
+        <v>3688272</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9813,40 +9813,40 @@
         <v>44408.35416666666</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G105" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J105" t="s">
         <v>51</v>
       </c>
       <c r="K105">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="L105">
         <v>3.5</v>
       </c>
       <c r="M105">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105">
         <v>3.5</v>
       </c>
-      <c r="O105">
-        <v>4</v>
-      </c>
       <c r="P105">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="Q105">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
         <v>1.875</v>
@@ -9855,7 +9855,7 @@
         <v>1.975</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
         <v>1.825</v>
@@ -9870,7 +9870,7 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0.8500000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="Z105">
         <v>-1</v>
@@ -9890,7 +9890,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>3688272</v>
+        <v>3688271</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9902,40 +9902,40 @@
         <v>44408.35416666666</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J106" t="s">
         <v>51</v>
       </c>
       <c r="K106">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="L106">
         <v>3.5</v>
       </c>
       <c r="M106">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="N106">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O106">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P106">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q106">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R106">
         <v>1.875</v>
@@ -9944,7 +9944,7 @@
         <v>1.975</v>
       </c>
       <c r="T106">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
         <v>1.825</v>
@@ -9959,7 +9959,7 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>1.3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z106">
         <v>-1</v>
@@ -22706,7 +22706,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>4819845</v>
+        <v>4819846</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22718,76 +22718,76 @@
         <v>44674.375</v>
       </c>
       <c r="F250" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G250" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K250">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="L250">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M250">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="N250">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="O250">
         <v>3.5</v>
       </c>
       <c r="P250">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="Q250">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R250">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S250">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T250">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U250">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V250">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W250">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X250">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y250">
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA250">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB250">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC250">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22795,7 +22795,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>4819846</v>
+        <v>4819845</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22807,76 +22807,76 @@
         <v>44674.375</v>
       </c>
       <c r="F251" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G251" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J251" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K251">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="L251">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M251">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="N251">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="O251">
         <v>3.5</v>
       </c>
       <c r="P251">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="Q251">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R251">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S251">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T251">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U251">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V251">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W251">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X251">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y251">
         <v>-1</v>
       </c>
       <c r="Z251">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA251">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB251">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC251">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -25643,7 +25643,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>4819878</v>
+        <v>4819880</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25655,73 +25655,73 @@
         <v>44709.39583333334</v>
       </c>
       <c r="F283" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G283" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H283">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I283">
         <v>4</v>
       </c>
       <c r="J283" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K283">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L283">
+        <v>3.5</v>
+      </c>
+      <c r="M283">
         <v>3.3</v>
       </c>
-      <c r="M283">
-        <v>3.25</v>
-      </c>
       <c r="N283">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="O283">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P283">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="Q283">
         <v>0</v>
       </c>
       <c r="R283">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S283">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T283">
         <v>3</v>
       </c>
       <c r="U283">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V283">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W283">
         <v>-1</v>
       </c>
       <c r="X283">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y283">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z283">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA283">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB283">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC283">
         <v>-1</v>
@@ -25821,7 +25821,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>4819880</v>
+        <v>4819878</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25833,73 +25833,73 @@
         <v>44709.39583333334</v>
       </c>
       <c r="F285" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G285" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I285">
         <v>4</v>
       </c>
       <c r="J285" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K285">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L285">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M285">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N285">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="O285">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P285">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q285">
         <v>0</v>
       </c>
       <c r="R285">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S285">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T285">
         <v>3</v>
       </c>
       <c r="U285">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V285">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W285">
         <v>-1</v>
       </c>
       <c r="X285">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y285">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z285">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA285">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB285">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC285">
         <v>-1</v>
@@ -30449,7 +30449,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>5128191</v>
+        <v>5128498</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30461,76 +30461,76 @@
         <v>44813.58333333334</v>
       </c>
       <c r="F337" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G337" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I337">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J337" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K337">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L337">
+        <v>3.5</v>
+      </c>
+      <c r="M337">
+        <v>3.5</v>
+      </c>
+      <c r="N337">
+        <v>2</v>
+      </c>
+      <c r="O337">
         <v>3.6</v>
       </c>
-      <c r="M337">
-        <v>2.75</v>
-      </c>
-      <c r="N337">
-        <v>2.2</v>
-      </c>
-      <c r="O337">
-        <v>3.75</v>
-      </c>
       <c r="P337">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q337">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R337">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S337">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T337">
         <v>2.75</v>
       </c>
       <c r="U337">
+        <v>1.95</v>
+      </c>
+      <c r="V337">
         <v>1.9</v>
       </c>
-      <c r="V337">
-        <v>1.95</v>
-      </c>
       <c r="W337">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X337">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y337">
         <v>-1</v>
       </c>
       <c r="Z337">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA337">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB337">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC337">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -30538,7 +30538,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>5128498</v>
+        <v>5128191</v>
       </c>
       <c r="C338" t="s">
         <v>28</v>
@@ -30550,76 +30550,76 @@
         <v>44813.58333333334</v>
       </c>
       <c r="F338" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G338" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H338">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I338">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J338" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K338">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L338">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M338">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N338">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O338">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P338">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q338">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R338">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S338">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T338">
         <v>2.75</v>
       </c>
       <c r="U338">
+        <v>1.9</v>
+      </c>
+      <c r="V338">
         <v>1.95</v>
       </c>
-      <c r="V338">
-        <v>1.9</v>
-      </c>
       <c r="W338">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X338">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y338">
         <v>-1</v>
       </c>
       <c r="Z338">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA338">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB338">
+        <v>-1</v>
+      </c>
+      <c r="AC338">
         <v>0.95</v>
-      </c>
-      <c r="AC338">
-        <v>-1</v>
       </c>
     </row>
     <row r="339" spans="1:29">
@@ -32051,7 +32051,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>5128505</v>
+        <v>5128552</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32063,55 +32063,55 @@
         <v>44841.5625</v>
       </c>
       <c r="F355" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G355" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H355">
+        <v>0</v>
+      </c>
+      <c r="I355">
         <v>1</v>
-      </c>
-      <c r="I355">
-        <v>4</v>
       </c>
       <c r="J355" t="s">
         <v>51</v>
       </c>
       <c r="K355">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="L355">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="M355">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="N355">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="O355">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P355">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="Q355">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R355">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S355">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T355">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U355">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V355">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W355">
         <v>-1</v>
@@ -32120,19 +32120,19 @@
         <v>-1</v>
       </c>
       <c r="Y355">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="Z355">
         <v>-1</v>
       </c>
       <c r="AA355">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB355">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC355">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="356" spans="1:29">
@@ -32140,7 +32140,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>5128552</v>
+        <v>5128505</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32152,56 +32152,56 @@
         <v>44841.5625</v>
       </c>
       <c r="F356" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G356" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I356">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J356" t="s">
         <v>51</v>
       </c>
       <c r="K356">
-        <v>1.55</v>
+        <v>4</v>
       </c>
       <c r="L356">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="M356">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="N356">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="O356">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P356">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="Q356">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R356">
+        <v>1.925</v>
+      </c>
+      <c r="S356">
+        <v>1.925</v>
+      </c>
+      <c r="T356">
+        <v>2.75</v>
+      </c>
+      <c r="U356">
+        <v>1.975</v>
+      </c>
+      <c r="V356">
         <v>1.875</v>
       </c>
-      <c r="S356">
-        <v>1.975</v>
-      </c>
-      <c r="T356">
-        <v>3.25</v>
-      </c>
-      <c r="U356">
-        <v>2.025</v>
-      </c>
-      <c r="V356">
-        <v>1.825</v>
-      </c>
       <c r="W356">
         <v>-1</v>
       </c>
@@ -32209,19 +32209,19 @@
         <v>-1</v>
       </c>
       <c r="Y356">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="Z356">
         <v>-1</v>
       </c>
       <c r="AA356">
+        <v>0.925</v>
+      </c>
+      <c r="AB356">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB356">
-        <v>-1</v>
-      </c>
       <c r="AC356">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="357" spans="1:29">
@@ -32674,7 +32674,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>5128194</v>
+        <v>5128554</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32686,73 +32686,73 @@
         <v>44848.5625</v>
       </c>
       <c r="F362" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G362" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H362">
+        <v>3</v>
+      </c>
+      <c r="I362">
         <v>0</v>
       </c>
-      <c r="I362">
+      <c r="J362" t="s">
+        <v>52</v>
+      </c>
+      <c r="K362">
+        <v>5.25</v>
+      </c>
+      <c r="L362">
         <v>4</v>
       </c>
-      <c r="J362" t="s">
-        <v>51</v>
-      </c>
-      <c r="K362">
-        <v>1.7</v>
-      </c>
-      <c r="L362">
+      <c r="M362">
+        <v>1.571</v>
+      </c>
+      <c r="N362">
+        <v>6.5</v>
+      </c>
+      <c r="O362">
         <v>3.6</v>
       </c>
-      <c r="M362">
-        <v>4.5</v>
-      </c>
-      <c r="N362">
-        <v>1.727</v>
-      </c>
-      <c r="O362">
-        <v>3.75</v>
-      </c>
       <c r="P362">
-        <v>5</v>
+        <v>1.571</v>
       </c>
       <c r="Q362">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R362">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S362">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T362">
         <v>2.5</v>
       </c>
       <c r="U362">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V362">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W362">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="X362">
         <v>-1</v>
       </c>
       <c r="Y362">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z362">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA362">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB362">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC362">
         <v>-1</v>
@@ -32763,7 +32763,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>5128554</v>
+        <v>5128194</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32775,73 +32775,73 @@
         <v>44848.5625</v>
       </c>
       <c r="F363" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G363" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H363">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J363" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K363">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="L363">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M363">
-        <v>1.571</v>
+        <v>4.5</v>
       </c>
       <c r="N363">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="O363">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P363">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="Q363">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R363">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S363">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T363">
         <v>2.5</v>
       </c>
       <c r="U363">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V363">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W363">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="X363">
         <v>-1</v>
       </c>
       <c r="Y363">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z363">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA363">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB363">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC363">
         <v>-1</v>
@@ -33475,7 +33475,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>5128556</v>
+        <v>5128509</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33487,76 +33487,76 @@
         <v>44857.375</v>
       </c>
       <c r="F371" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G371" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I371">
         <v>0</v>
       </c>
       <c r="J371" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K371">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L371">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M371">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N371">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O371">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P371">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q371">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R371">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S371">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T371">
         <v>2.5</v>
       </c>
       <c r="U371">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V371">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W371">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X371">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y371">
         <v>-1</v>
       </c>
       <c r="Z371">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA371">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB371">
         <v>-1</v>
       </c>
       <c r="AC371">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33564,7 +33564,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>5128509</v>
+        <v>5128556</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33576,76 +33576,76 @@
         <v>44857.375</v>
       </c>
       <c r="F372" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G372" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372">
         <v>0</v>
       </c>
       <c r="J372" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K372">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L372">
+        <v>3.5</v>
+      </c>
+      <c r="M372">
         <v>3.6</v>
       </c>
-      <c r="M372">
-        <v>3</v>
-      </c>
       <c r="N372">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O372">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P372">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q372">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R372">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S372">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T372">
         <v>2.5</v>
       </c>
       <c r="U372">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V372">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W372">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X372">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y372">
         <v>-1</v>
       </c>
       <c r="Z372">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA372">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB372">
         <v>-1</v>
       </c>
       <c r="AC372">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -35611,7 +35611,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>5128520</v>
+        <v>5128299</v>
       </c>
       <c r="C395" t="s">
         <v>28</v>
@@ -35623,76 +35623,76 @@
         <v>44976.41666666666</v>
       </c>
       <c r="F395" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G395" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H395">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J395" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K395">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="L395">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M395">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N395">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="O395">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P395">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q395">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R395">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S395">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T395">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U395">
+        <v>1.975</v>
+      </c>
+      <c r="V395">
         <v>1.875</v>
       </c>
-      <c r="V395">
-        <v>1.975</v>
-      </c>
       <c r="W395">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X395">
         <v>-1</v>
       </c>
       <c r="Y395">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z395">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA395">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB395">
+        <v>-1</v>
+      </c>
+      <c r="AC395">
         <v>0.875</v>
-      </c>
-      <c r="AC395">
-        <v>-1</v>
       </c>
     </row>
     <row r="396" spans="1:29">
@@ -35700,7 +35700,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>5128299</v>
+        <v>5128520</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35712,76 +35712,76 @@
         <v>44976.41666666666</v>
       </c>
       <c r="F396" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G396" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I396">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J396" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K396">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="L396">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M396">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="N396">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="O396">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P396">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q396">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R396">
+        <v>2.05</v>
+      </c>
+      <c r="S396">
+        <v>1.8</v>
+      </c>
+      <c r="T396">
+        <v>2.25</v>
+      </c>
+      <c r="U396">
+        <v>1.875</v>
+      </c>
+      <c r="V396">
         <v>1.975</v>
       </c>
-      <c r="S396">
-        <v>1.875</v>
-      </c>
-      <c r="T396">
-        <v>2.75</v>
-      </c>
-      <c r="U396">
-        <v>1.975</v>
-      </c>
-      <c r="V396">
-        <v>1.875</v>
-      </c>
       <c r="W396">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X396">
         <v>-1</v>
       </c>
       <c r="Y396">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z396">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA396">
+        <v>-1</v>
+      </c>
+      <c r="AB396">
         <v>0.875</v>
       </c>
-      <c r="AB396">
-        <v>-1</v>
-      </c>
       <c r="AC396">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="397" spans="1:29">
@@ -39972,7 +39972,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>6428353</v>
+        <v>6428352</v>
       </c>
       <c r="C444" t="s">
         <v>28</v>
@@ -39984,76 +39984,76 @@
         <v>45044.5625</v>
       </c>
       <c r="F444" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G444" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H444">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444">
         <v>1</v>
       </c>
       <c r="J444" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K444">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L444">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M444">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N444">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="O444">
         <v>3.8</v>
       </c>
       <c r="P444">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="Q444">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R444">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S444">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T444">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U444">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V444">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W444">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X444">
         <v>-1</v>
       </c>
       <c r="Y444">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z444">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA444">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB444">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC444">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="445" spans="1:29">
@@ -40061,7 +40061,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>6428352</v>
+        <v>6428353</v>
       </c>
       <c r="C445" t="s">
         <v>28</v>
@@ -40073,76 +40073,76 @@
         <v>45044.5625</v>
       </c>
       <c r="F445" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G445" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I445">
         <v>1</v>
       </c>
       <c r="J445" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K445">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L445">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M445">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="N445">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="O445">
         <v>3.8</v>
       </c>
       <c r="P445">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="Q445">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R445">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S445">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T445">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U445">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V445">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W445">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X445">
         <v>-1</v>
       </c>
       <c r="Y445">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z445">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA445">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB445">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC445">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446" spans="1:29">
@@ -42642,7 +42642,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>6428367</v>
+        <v>6428368</v>
       </c>
       <c r="C474" t="s">
         <v>28</v>
@@ -42654,76 +42654,76 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F474" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G474" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I474">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J474" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K474">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L474">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M474">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N474">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="O474">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P474">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="Q474">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R474">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S474">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T474">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U474">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V474">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W474">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X474">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y474">
         <v>-1</v>
       </c>
       <c r="Z474">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA474">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB474">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC474">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="475" spans="1:29">
@@ -42731,7 +42731,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>6428368</v>
+        <v>6428367</v>
       </c>
       <c r="C475" t="s">
         <v>28</v>
@@ -42743,76 +42743,76 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F475" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G475" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H475">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I475">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J475" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K475">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L475">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M475">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N475">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="O475">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P475">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="Q475">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R475">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S475">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T475">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U475">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V475">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W475">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X475">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y475">
         <v>-1</v>
       </c>
       <c r="Z475">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA475">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB475">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC475">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="476" spans="1:29">
@@ -43443,7 +43443,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>6799248</v>
+        <v>6799247</v>
       </c>
       <c r="C483" t="s">
         <v>28</v>
@@ -43455,76 +43455,76 @@
         <v>45130.375</v>
       </c>
       <c r="F483" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G483" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H483">
+        <v>0</v>
+      </c>
+      <c r="I483">
         <v>2</v>
       </c>
-      <c r="I483">
-        <v>1</v>
-      </c>
       <c r="J483" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K483">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="L483">
         <v>3.6</v>
       </c>
       <c r="M483">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N483">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O483">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P483">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="Q483">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R483">
+        <v>1.875</v>
+      </c>
+      <c r="S483">
         <v>1.975</v>
-      </c>
-      <c r="S483">
-        <v>1.875</v>
       </c>
       <c r="T483">
         <v>2.75</v>
       </c>
       <c r="U483">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V483">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W483">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X483">
         <v>-1</v>
       </c>
       <c r="Y483">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z483">
+        <v>-1</v>
+      </c>
+      <c r="AA483">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA483">
-        <v>-1</v>
-      </c>
       <c r="AB483">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC483">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="484" spans="1:29">
@@ -43532,7 +43532,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>6799247</v>
+        <v>6799248</v>
       </c>
       <c r="C484" t="s">
         <v>28</v>
@@ -43544,76 +43544,76 @@
         <v>45130.375</v>
       </c>
       <c r="F484" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G484" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J484" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K484">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="L484">
         <v>3.6</v>
       </c>
       <c r="M484">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N484">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O484">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P484">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q484">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R484">
+        <v>1.975</v>
+      </c>
+      <c r="S484">
         <v>1.875</v>
-      </c>
-      <c r="S484">
-        <v>1.975</v>
       </c>
       <c r="T484">
         <v>2.75</v>
       </c>
       <c r="U484">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V484">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W484">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X484">
         <v>-1</v>
       </c>
       <c r="Y484">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z484">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA484">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB484">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC484">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="485" spans="1:29">
@@ -45490,7 +45490,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>6798551</v>
+        <v>6800832</v>
       </c>
       <c r="C506" t="s">
         <v>28</v>
@@ -45502,56 +45502,56 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F506" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G506" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I506">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J506" t="s">
         <v>51</v>
       </c>
       <c r="K506">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L506">
         <v>3.4</v>
       </c>
       <c r="M506">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N506">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="O506">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P506">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="Q506">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R506">
+        <v>1.825</v>
+      </c>
+      <c r="S506">
+        <v>2.025</v>
+      </c>
+      <c r="T506">
+        <v>3</v>
+      </c>
+      <c r="U506">
         <v>1.8</v>
       </c>
-      <c r="S506">
+      <c r="V506">
         <v>2.05</v>
       </c>
-      <c r="T506">
-        <v>2.75</v>
-      </c>
-      <c r="U506">
-        <v>1.875</v>
-      </c>
-      <c r="V506">
-        <v>1.975</v>
-      </c>
       <c r="W506">
         <v>-1</v>
       </c>
@@ -45559,16 +45559,16 @@
         <v>-1</v>
       </c>
       <c r="Y506">
-        <v>1.375</v>
+        <v>1.8</v>
       </c>
       <c r="Z506">
         <v>-1</v>
       </c>
       <c r="AA506">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB506">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC506">
         <v>-1</v>
@@ -45579,7 +45579,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>6800832</v>
+        <v>6798551</v>
       </c>
       <c r="C507" t="s">
         <v>28</v>
@@ -45591,55 +45591,55 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F507" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G507" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I507">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J507" t="s">
         <v>51</v>
       </c>
       <c r="K507">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L507">
         <v>3.4</v>
       </c>
       <c r="M507">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N507">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="O507">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P507">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q507">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R507">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S507">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T507">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U507">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V507">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W507">
         <v>-1</v>
@@ -45648,16 +45648,16 @@
         <v>-1</v>
       </c>
       <c r="Y507">
-        <v>1.8</v>
+        <v>1.375</v>
       </c>
       <c r="Z507">
         <v>-1</v>
       </c>
       <c r="AA507">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB507">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC507">
         <v>-1</v>
@@ -48516,7 +48516,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>6798873</v>
+        <v>6799279</v>
       </c>
       <c r="C540" t="s">
         <v>28</v>
@@ -48528,49 +48528,49 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F540" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G540" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H540">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I540">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J540" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K540">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="L540">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M540">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="N540">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="O540">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P540">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="Q540">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R540">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S540">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T540">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U540">
         <v>1.9</v>
@@ -48582,22 +48582,22 @@
         <v>-1</v>
       </c>
       <c r="X540">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y540">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z540">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA540">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB540">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC540">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="541" spans="1:29">
@@ -48605,7 +48605,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>6799279</v>
+        <v>6798873</v>
       </c>
       <c r="C541" t="s">
         <v>28</v>
@@ -48617,49 +48617,49 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F541" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G541" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I541">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J541" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K541">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="L541">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M541">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="N541">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="O541">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P541">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="Q541">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R541">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S541">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T541">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U541">
         <v>1.9</v>
@@ -48671,22 +48671,22 @@
         <v>-1</v>
       </c>
       <c r="X541">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y541">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z541">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA541">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB541">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC541">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="542" spans="1:29">
@@ -49139,7 +49139,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>6798874</v>
+        <v>6800824</v>
       </c>
       <c r="C547" t="s">
         <v>28</v>
@@ -49151,55 +49151,55 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F547" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G547" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H547">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I547">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J547" t="s">
         <v>51</v>
       </c>
       <c r="K547">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L547">
         <v>3.75</v>
       </c>
       <c r="M547">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="N547">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O547">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P547">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q547">
         <v>0.5</v>
       </c>
       <c r="R547">
+        <v>1.875</v>
+      </c>
+      <c r="S547">
         <v>1.975</v>
       </c>
-      <c r="S547">
-        <v>1.875</v>
-      </c>
       <c r="T547">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U547">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V547">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W547">
         <v>-1</v>
@@ -49208,19 +49208,19 @@
         <v>-1</v>
       </c>
       <c r="Y547">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z547">
         <v>-1</v>
       </c>
       <c r="AA547">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB547">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC547">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="548" spans="1:29">
@@ -49228,7 +49228,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>6800824</v>
+        <v>6798874</v>
       </c>
       <c r="C548" t="s">
         <v>28</v>
@@ -49240,55 +49240,55 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F548" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G548" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I548">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J548" t="s">
         <v>51</v>
       </c>
       <c r="K548">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L548">
         <v>3.75</v>
       </c>
       <c r="M548">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="N548">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O548">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P548">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q548">
         <v>0.5</v>
       </c>
       <c r="R548">
+        <v>1.975</v>
+      </c>
+      <c r="S548">
         <v>1.875</v>
       </c>
-      <c r="S548">
+      <c r="T548">
+        <v>2.5</v>
+      </c>
+      <c r="U548">
         <v>1.975</v>
       </c>
-      <c r="T548">
-        <v>3</v>
-      </c>
-      <c r="U548">
-        <v>2</v>
-      </c>
       <c r="V548">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W548">
         <v>-1</v>
@@ -49297,19 +49297,19 @@
         <v>-1</v>
       </c>
       <c r="Y548">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z548">
         <v>-1</v>
       </c>
       <c r="AA548">
+        <v>0.875</v>
+      </c>
+      <c r="AB548">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB548">
-        <v>0</v>
-      </c>
       <c r="AC548">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="549" spans="1:29">
@@ -49673,7 +49673,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>6799286</v>
+        <v>6799287</v>
       </c>
       <c r="C553" t="s">
         <v>28</v>
@@ -49685,67 +49685,67 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F553" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G553" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H553">
         <v>1</v>
       </c>
       <c r="I553">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J553" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K553">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="L553">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M553">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="N553">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="O553">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P553">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q553">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R553">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S553">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T553">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U553">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V553">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W553">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X553">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y553">
         <v>-1</v>
       </c>
       <c r="Z553">
-        <v>0.45</v>
+        <v>0.5125</v>
       </c>
       <c r="AA553">
         <v>-0.5</v>
@@ -49754,7 +49754,7 @@
         <v>-1</v>
       </c>
       <c r="AC553">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="554" spans="1:29">
@@ -49762,7 +49762,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>6799287</v>
+        <v>6799286</v>
       </c>
       <c r="C554" t="s">
         <v>28</v>
@@ -49774,67 +49774,67 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F554" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G554" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H554">
         <v>1</v>
       </c>
       <c r="I554">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J554" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K554">
+        <v>3.5</v>
+      </c>
+      <c r="L554">
+        <v>3.6</v>
+      </c>
+      <c r="M554">
+        <v>1.909</v>
+      </c>
+      <c r="N554">
+        <v>3.1</v>
+      </c>
+      <c r="O554">
+        <v>3.6</v>
+      </c>
+      <c r="P554">
+        <v>2.2</v>
+      </c>
+      <c r="Q554">
+        <v>0.25</v>
+      </c>
+      <c r="R554">
+        <v>1.9</v>
+      </c>
+      <c r="S554">
+        <v>1.95</v>
+      </c>
+      <c r="T554">
+        <v>3</v>
+      </c>
+      <c r="U554">
+        <v>2</v>
+      </c>
+      <c r="V554">
         <v>1.85</v>
       </c>
-      <c r="L554">
-        <v>3.75</v>
-      </c>
-      <c r="M554">
-        <v>3.8</v>
-      </c>
-      <c r="N554">
-        <v>1.8</v>
-      </c>
-      <c r="O554">
-        <v>3.75</v>
-      </c>
-      <c r="P554">
-        <v>4.75</v>
-      </c>
-      <c r="Q554">
-        <v>-0.75</v>
-      </c>
-      <c r="R554">
-        <v>2.025</v>
-      </c>
-      <c r="S554">
-        <v>1.825</v>
-      </c>
-      <c r="T554">
-        <v>2.5</v>
-      </c>
-      <c r="U554">
-        <v>2.025</v>
-      </c>
-      <c r="V554">
-        <v>1.825</v>
-      </c>
       <c r="W554">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X554">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y554">
         <v>-1</v>
       </c>
       <c r="Z554">
-        <v>0.5125</v>
+        <v>0.45</v>
       </c>
       <c r="AA554">
         <v>-0.5</v>
@@ -49843,7 +49843,7 @@
         <v>-1</v>
       </c>
       <c r="AC554">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="555" spans="1:29">
@@ -51275,7 +51275,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>6800819</v>
+        <v>6799295</v>
       </c>
       <c r="C571" t="s">
         <v>28</v>
@@ -51287,76 +51287,76 @@
         <v>45240.625</v>
       </c>
       <c r="F571" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G571" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H571">
+        <v>1</v>
+      </c>
+      <c r="I571">
+        <v>4</v>
+      </c>
+      <c r="J571" t="s">
+        <v>51</v>
+      </c>
+      <c r="K571">
+        <v>7.5</v>
+      </c>
+      <c r="L571">
+        <v>5</v>
+      </c>
+      <c r="M571">
+        <v>1.333</v>
+      </c>
+      <c r="N571">
+        <v>6.5</v>
+      </c>
+      <c r="O571">
+        <v>4.75</v>
+      </c>
+      <c r="P571">
+        <v>1.45</v>
+      </c>
+      <c r="Q571">
+        <v>1.25</v>
+      </c>
+      <c r="R571">
+        <v>1.925</v>
+      </c>
+      <c r="S571">
+        <v>1.925</v>
+      </c>
+      <c r="T571">
+        <v>3.25</v>
+      </c>
+      <c r="U571">
+        <v>1.85</v>
+      </c>
+      <c r="V571">
         <v>2</v>
       </c>
-      <c r="I571">
-        <v>0</v>
-      </c>
-      <c r="J571" t="s">
-        <v>52</v>
-      </c>
-      <c r="K571">
-        <v>2.5</v>
-      </c>
-      <c r="L571">
-        <v>3.4</v>
-      </c>
-      <c r="M571">
-        <v>2.55</v>
-      </c>
-      <c r="N571">
-        <v>2.45</v>
-      </c>
-      <c r="O571">
-        <v>3.5</v>
-      </c>
-      <c r="P571">
-        <v>2.8</v>
-      </c>
-      <c r="Q571">
-        <v>0</v>
-      </c>
-      <c r="R571">
-        <v>1.8</v>
-      </c>
-      <c r="S571">
-        <v>2.05</v>
-      </c>
-      <c r="T571">
-        <v>2.75</v>
-      </c>
-      <c r="U571">
-        <v>1.9</v>
-      </c>
-      <c r="V571">
-        <v>1.95</v>
-      </c>
       <c r="W571">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X571">
         <v>-1</v>
       </c>
       <c r="Y571">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z571">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA571">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB571">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC571">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="572" spans="1:29">
@@ -51364,7 +51364,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>6799295</v>
+        <v>6800819</v>
       </c>
       <c r="C572" t="s">
         <v>28</v>
@@ -51376,76 +51376,76 @@
         <v>45240.625</v>
       </c>
       <c r="F572" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G572" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H572">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I572">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J572" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K572">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="L572">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M572">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="N572">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="O572">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P572">
+        <v>2.8</v>
+      </c>
+      <c r="Q572">
+        <v>0</v>
+      </c>
+      <c r="R572">
+        <v>1.8</v>
+      </c>
+      <c r="S572">
+        <v>2.05</v>
+      </c>
+      <c r="T572">
+        <v>2.75</v>
+      </c>
+      <c r="U572">
+        <v>1.9</v>
+      </c>
+      <c r="V572">
+        <v>1.95</v>
+      </c>
+      <c r="W572">
         <v>1.45</v>
       </c>
-      <c r="Q572">
-        <v>1.25</v>
-      </c>
-      <c r="R572">
-        <v>1.925</v>
-      </c>
-      <c r="S572">
-        <v>1.925</v>
-      </c>
-      <c r="T572">
-        <v>3.25</v>
-      </c>
-      <c r="U572">
-        <v>1.85</v>
-      </c>
-      <c r="V572">
-        <v>2</v>
-      </c>
-      <c r="W572">
-        <v>-1</v>
-      </c>
       <c r="X572">
         <v>-1</v>
       </c>
       <c r="Y572">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z572">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA572">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB572">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC572">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="573" spans="1:29">

--- a/Denmark Division 1/Denmark Division 1.xlsx
+++ b/Denmark Division 1/Denmark Division 1.xlsx
@@ -32674,7 +32674,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>5128554</v>
+        <v>5128194</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32686,73 +32686,73 @@
         <v>44848.5625</v>
       </c>
       <c r="F362" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G362" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H362">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J362" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K362">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="L362">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M362">
-        <v>1.571</v>
+        <v>4.5</v>
       </c>
       <c r="N362">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="O362">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P362">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="Q362">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R362">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S362">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T362">
         <v>2.5</v>
       </c>
       <c r="U362">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V362">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W362">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="X362">
         <v>-1</v>
       </c>
       <c r="Y362">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z362">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA362">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB362">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC362">
         <v>-1</v>
@@ -32763,7 +32763,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>5128194</v>
+        <v>5128554</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32775,73 +32775,73 @@
         <v>44848.5625</v>
       </c>
       <c r="F363" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G363" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H363">
+        <v>3</v>
+      </c>
+      <c r="I363">
         <v>0</v>
       </c>
-      <c r="I363">
+      <c r="J363" t="s">
+        <v>52</v>
+      </c>
+      <c r="K363">
+        <v>5.25</v>
+      </c>
+      <c r="L363">
         <v>4</v>
       </c>
-      <c r="J363" t="s">
-        <v>51</v>
-      </c>
-      <c r="K363">
-        <v>1.7</v>
-      </c>
-      <c r="L363">
+      <c r="M363">
+        <v>1.571</v>
+      </c>
+      <c r="N363">
+        <v>6.5</v>
+      </c>
+      <c r="O363">
         <v>3.6</v>
       </c>
-      <c r="M363">
-        <v>4.5</v>
-      </c>
-      <c r="N363">
-        <v>1.727</v>
-      </c>
-      <c r="O363">
-        <v>3.75</v>
-      </c>
       <c r="P363">
-        <v>5</v>
+        <v>1.571</v>
       </c>
       <c r="Q363">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R363">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S363">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T363">
         <v>2.5</v>
       </c>
       <c r="U363">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V363">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W363">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="X363">
         <v>-1</v>
       </c>
       <c r="Y363">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z363">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA363">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB363">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC363">
         <v>-1</v>
@@ -33475,7 +33475,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>5128509</v>
+        <v>5128556</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33487,76 +33487,76 @@
         <v>44857.375</v>
       </c>
       <c r="F371" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G371" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371">
         <v>0</v>
       </c>
       <c r="J371" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K371">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L371">
+        <v>3.5</v>
+      </c>
+      <c r="M371">
         <v>3.6</v>
       </c>
-      <c r="M371">
-        <v>3</v>
-      </c>
       <c r="N371">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O371">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P371">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q371">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R371">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S371">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T371">
         <v>2.5</v>
       </c>
       <c r="U371">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V371">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W371">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X371">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y371">
         <v>-1</v>
       </c>
       <c r="Z371">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA371">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB371">
         <v>-1</v>
       </c>
       <c r="AC371">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33564,7 +33564,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>5128556</v>
+        <v>5128509</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33576,76 +33576,76 @@
         <v>44857.375</v>
       </c>
       <c r="F372" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G372" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I372">
         <v>0</v>
       </c>
       <c r="J372" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K372">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L372">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M372">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N372">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O372">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P372">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q372">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R372">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S372">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T372">
         <v>2.5</v>
       </c>
       <c r="U372">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V372">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W372">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X372">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y372">
         <v>-1</v>
       </c>
       <c r="Z372">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA372">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB372">
         <v>-1</v>
       </c>
       <c r="AC372">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -39527,7 +39527,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>6428349</v>
+        <v>6428321</v>
       </c>
       <c r="C439" t="s">
         <v>28</v>
@@ -39539,40 +39539,40 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F439" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G439" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I439">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J439" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K439">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="L439">
         <v>3.5</v>
       </c>
       <c r="M439">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="N439">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="O439">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P439">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q439">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R439">
         <v>1.925</v>
@@ -39581,7 +39581,7 @@
         <v>1.925</v>
       </c>
       <c r="T439">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U439">
         <v>1.9</v>
@@ -39590,25 +39590,25 @@
         <v>1.95</v>
       </c>
       <c r="W439">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X439">
         <v>-1</v>
       </c>
       <c r="Y439">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z439">
+        <v>-1</v>
+      </c>
+      <c r="AA439">
         <v>0.925</v>
       </c>
-      <c r="AA439">
-        <v>-1</v>
-      </c>
       <c r="AB439">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC439">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="440" spans="1:29">
@@ -39616,7 +39616,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>6428321</v>
+        <v>6428349</v>
       </c>
       <c r="C440" t="s">
         <v>28</v>
@@ -39628,40 +39628,40 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F440" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G440" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H440">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I440">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J440" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K440">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="L440">
         <v>3.5</v>
       </c>
       <c r="M440">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="N440">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="O440">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P440">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="Q440">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R440">
         <v>1.925</v>
@@ -39670,7 +39670,7 @@
         <v>1.925</v>
       </c>
       <c r="T440">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U440">
         <v>1.9</v>
@@ -39679,25 +39679,25 @@
         <v>1.95</v>
       </c>
       <c r="W440">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X440">
         <v>-1</v>
       </c>
       <c r="Y440">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z440">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA440">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB440">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC440">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="441" spans="1:29">
@@ -48516,7 +48516,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>6799279</v>
+        <v>6798873</v>
       </c>
       <c r="C540" t="s">
         <v>28</v>
@@ -48528,49 +48528,49 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F540" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G540" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I540">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J540" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K540">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="L540">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M540">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="N540">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="O540">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P540">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="Q540">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R540">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S540">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T540">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U540">
         <v>1.9</v>
@@ -48582,22 +48582,22 @@
         <v>-1</v>
       </c>
       <c r="X540">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y540">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z540">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA540">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB540">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC540">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="541" spans="1:29">
@@ -48605,7 +48605,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>6798873</v>
+        <v>6799279</v>
       </c>
       <c r="C541" t="s">
         <v>28</v>
@@ -48617,49 +48617,49 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F541" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G541" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H541">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I541">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J541" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K541">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="L541">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M541">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="N541">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="O541">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P541">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="Q541">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R541">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S541">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T541">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U541">
         <v>1.9</v>
@@ -48671,22 +48671,22 @@
         <v>-1</v>
       </c>
       <c r="X541">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y541">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z541">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA541">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB541">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC541">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="542" spans="1:29">
@@ -49139,7 +49139,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>6800824</v>
+        <v>6798874</v>
       </c>
       <c r="C547" t="s">
         <v>28</v>
@@ -49151,55 +49151,55 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F547" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G547" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I547">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J547" t="s">
         <v>51</v>
       </c>
       <c r="K547">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L547">
         <v>3.75</v>
       </c>
       <c r="M547">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="N547">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O547">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P547">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q547">
         <v>0.5</v>
       </c>
       <c r="R547">
+        <v>1.975</v>
+      </c>
+      <c r="S547">
         <v>1.875</v>
       </c>
-      <c r="S547">
+      <c r="T547">
+        <v>2.5</v>
+      </c>
+      <c r="U547">
         <v>1.975</v>
       </c>
-      <c r="T547">
-        <v>3</v>
-      </c>
-      <c r="U547">
-        <v>2</v>
-      </c>
       <c r="V547">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W547">
         <v>-1</v>
@@ -49208,19 +49208,19 @@
         <v>-1</v>
       </c>
       <c r="Y547">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z547">
         <v>-1</v>
       </c>
       <c r="AA547">
+        <v>0.875</v>
+      </c>
+      <c r="AB547">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB547">
-        <v>0</v>
-      </c>
       <c r="AC547">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="548" spans="1:29">
@@ -49228,7 +49228,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>6798874</v>
+        <v>6800824</v>
       </c>
       <c r="C548" t="s">
         <v>28</v>
@@ -49240,55 +49240,55 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F548" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G548" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H548">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I548">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J548" t="s">
         <v>51</v>
       </c>
       <c r="K548">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L548">
         <v>3.75</v>
       </c>
       <c r="M548">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="N548">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O548">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P548">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q548">
         <v>0.5</v>
       </c>
       <c r="R548">
+        <v>1.875</v>
+      </c>
+      <c r="S548">
         <v>1.975</v>
       </c>
-      <c r="S548">
-        <v>1.875</v>
-      </c>
       <c r="T548">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U548">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V548">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W548">
         <v>-1</v>
@@ -49297,19 +49297,19 @@
         <v>-1</v>
       </c>
       <c r="Y548">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z548">
         <v>-1</v>
       </c>
       <c r="AA548">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB548">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC548">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="549" spans="1:29">

--- a/Denmark Division 1/Denmark Division 1.xlsx
+++ b/Denmark Division 1/Denmark Division 1.xlsx
@@ -25376,7 +25376,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>4819833</v>
+        <v>4819831</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25388,67 +25388,67 @@
         <v>44704.58333333334</v>
       </c>
       <c r="F280" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G280" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J280" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K280">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="L280">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M280">
-        <v>1.416</v>
+        <v>1.9</v>
       </c>
       <c r="N280">
-        <v>8.5</v>
+        <v>3.3</v>
       </c>
       <c r="O280">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P280">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="Q280">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R280">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S280">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T280">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U280">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V280">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W280">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X280">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y280">
         <v>-1</v>
       </c>
       <c r="Z280">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA280">
         <v>-1</v>
@@ -25457,7 +25457,7 @@
         <v>-1</v>
       </c>
       <c r="AC280">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25465,7 +25465,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>4819831</v>
+        <v>4819833</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25477,67 +25477,67 @@
         <v>44704.58333333334</v>
       </c>
       <c r="F281" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G281" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J281" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K281">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="L281">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M281">
+        <v>1.416</v>
+      </c>
+      <c r="N281">
+        <v>8.5</v>
+      </c>
+      <c r="O281">
+        <v>5.25</v>
+      </c>
+      <c r="P281">
+        <v>1.363</v>
+      </c>
+      <c r="Q281">
+        <v>1.5</v>
+      </c>
+      <c r="R281">
+        <v>1.875</v>
+      </c>
+      <c r="S281">
+        <v>1.975</v>
+      </c>
+      <c r="T281">
+        <v>3.25</v>
+      </c>
+      <c r="U281">
+        <v>1.95</v>
+      </c>
+      <c r="V281">
         <v>1.9</v>
       </c>
-      <c r="N281">
-        <v>3.3</v>
-      </c>
-      <c r="O281">
-        <v>3.8</v>
-      </c>
-      <c r="P281">
-        <v>2</v>
-      </c>
-      <c r="Q281">
-        <v>0.5</v>
-      </c>
-      <c r="R281">
-        <v>1.825</v>
-      </c>
-      <c r="S281">
-        <v>2.025</v>
-      </c>
-      <c r="T281">
-        <v>3</v>
-      </c>
-      <c r="U281">
-        <v>2.025</v>
-      </c>
-      <c r="V281">
-        <v>1.825</v>
-      </c>
       <c r="W281">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X281">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y281">
         <v>-1</v>
       </c>
       <c r="Z281">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA281">
         <v>-1</v>
@@ -25546,7 +25546,7 @@
         <v>-1</v>
       </c>
       <c r="AC281">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -30449,7 +30449,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>5128498</v>
+        <v>5128191</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30461,76 +30461,76 @@
         <v>44813.58333333334</v>
       </c>
       <c r="F337" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G337" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H337">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I337">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J337" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K337">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L337">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M337">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N337">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O337">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P337">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q337">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R337">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S337">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T337">
         <v>2.75</v>
       </c>
       <c r="U337">
+        <v>1.9</v>
+      </c>
+      <c r="V337">
         <v>1.95</v>
       </c>
-      <c r="V337">
-        <v>1.9</v>
-      </c>
       <c r="W337">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X337">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y337">
         <v>-1</v>
       </c>
       <c r="Z337">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA337">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB337">
+        <v>-1</v>
+      </c>
+      <c r="AC337">
         <v>0.95</v>
-      </c>
-      <c r="AC337">
-        <v>-1</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -30538,7 +30538,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>5128191</v>
+        <v>5128498</v>
       </c>
       <c r="C338" t="s">
         <v>28</v>
@@ -30550,76 +30550,76 @@
         <v>44813.58333333334</v>
       </c>
       <c r="F338" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G338" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I338">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J338" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K338">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L338">
+        <v>3.5</v>
+      </c>
+      <c r="M338">
+        <v>3.5</v>
+      </c>
+      <c r="N338">
+        <v>2</v>
+      </c>
+      <c r="O338">
         <v>3.6</v>
       </c>
-      <c r="M338">
-        <v>2.75</v>
-      </c>
-      <c r="N338">
-        <v>2.2</v>
-      </c>
-      <c r="O338">
-        <v>3.75</v>
-      </c>
       <c r="P338">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q338">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R338">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S338">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T338">
         <v>2.75</v>
       </c>
       <c r="U338">
+        <v>1.95</v>
+      </c>
+      <c r="V338">
         <v>1.9</v>
       </c>
-      <c r="V338">
-        <v>1.95</v>
-      </c>
       <c r="W338">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X338">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y338">
         <v>-1</v>
       </c>
       <c r="Z338">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA338">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB338">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC338">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="339" spans="1:29">
@@ -32674,7 +32674,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>5128194</v>
+        <v>5128554</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32686,73 +32686,73 @@
         <v>44848.5625</v>
       </c>
       <c r="F362" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G362" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H362">
+        <v>3</v>
+      </c>
+      <c r="I362">
         <v>0</v>
       </c>
-      <c r="I362">
+      <c r="J362" t="s">
+        <v>52</v>
+      </c>
+      <c r="K362">
+        <v>5.25</v>
+      </c>
+      <c r="L362">
         <v>4</v>
       </c>
-      <c r="J362" t="s">
-        <v>51</v>
-      </c>
-      <c r="K362">
-        <v>1.7</v>
-      </c>
-      <c r="L362">
+      <c r="M362">
+        <v>1.571</v>
+      </c>
+      <c r="N362">
+        <v>6.5</v>
+      </c>
+      <c r="O362">
         <v>3.6</v>
       </c>
-      <c r="M362">
-        <v>4.5</v>
-      </c>
-      <c r="N362">
-        <v>1.727</v>
-      </c>
-      <c r="O362">
-        <v>3.75</v>
-      </c>
       <c r="P362">
-        <v>5</v>
+        <v>1.571</v>
       </c>
       <c r="Q362">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R362">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S362">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T362">
         <v>2.5</v>
       </c>
       <c r="U362">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V362">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W362">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="X362">
         <v>-1</v>
       </c>
       <c r="Y362">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z362">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA362">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB362">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC362">
         <v>-1</v>
@@ -32763,7 +32763,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>5128554</v>
+        <v>5128194</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32775,73 +32775,73 @@
         <v>44848.5625</v>
       </c>
       <c r="F363" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G363" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H363">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J363" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K363">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="L363">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M363">
-        <v>1.571</v>
+        <v>4.5</v>
       </c>
       <c r="N363">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="O363">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P363">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="Q363">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R363">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S363">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T363">
         <v>2.5</v>
       </c>
       <c r="U363">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V363">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W363">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="X363">
         <v>-1</v>
       </c>
       <c r="Y363">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z363">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA363">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB363">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC363">
         <v>-1</v>
@@ -33475,7 +33475,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>5128556</v>
+        <v>5128509</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33487,76 +33487,76 @@
         <v>44857.375</v>
       </c>
       <c r="F371" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G371" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I371">
         <v>0</v>
       </c>
       <c r="J371" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K371">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L371">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M371">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N371">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O371">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P371">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q371">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R371">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S371">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T371">
         <v>2.5</v>
       </c>
       <c r="U371">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V371">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W371">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X371">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y371">
         <v>-1</v>
       </c>
       <c r="Z371">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA371">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB371">
         <v>-1</v>
       </c>
       <c r="AC371">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33564,7 +33564,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>5128509</v>
+        <v>5128556</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33576,76 +33576,76 @@
         <v>44857.375</v>
       </c>
       <c r="F372" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G372" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372">
         <v>0</v>
       </c>
       <c r="J372" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K372">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L372">
+        <v>3.5</v>
+      </c>
+      <c r="M372">
         <v>3.6</v>
       </c>
-      <c r="M372">
-        <v>3</v>
-      </c>
       <c r="N372">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O372">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P372">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q372">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R372">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S372">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T372">
         <v>2.5</v>
       </c>
       <c r="U372">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V372">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W372">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X372">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y372">
         <v>-1</v>
       </c>
       <c r="Z372">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA372">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB372">
         <v>-1</v>
       </c>
       <c r="AC372">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -39527,7 +39527,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>6428321</v>
+        <v>6428349</v>
       </c>
       <c r="C439" t="s">
         <v>28</v>
@@ -39539,40 +39539,40 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F439" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G439" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H439">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I439">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J439" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K439">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="L439">
         <v>3.5</v>
       </c>
       <c r="M439">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="N439">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="O439">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P439">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="Q439">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R439">
         <v>1.925</v>
@@ -39581,7 +39581,7 @@
         <v>1.925</v>
       </c>
       <c r="T439">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U439">
         <v>1.9</v>
@@ -39590,25 +39590,25 @@
         <v>1.95</v>
       </c>
       <c r="W439">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X439">
         <v>-1</v>
       </c>
       <c r="Y439">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z439">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA439">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB439">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC439">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="440" spans="1:29">
@@ -39616,7 +39616,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>6428349</v>
+        <v>6428321</v>
       </c>
       <c r="C440" t="s">
         <v>28</v>
@@ -39628,40 +39628,40 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F440" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G440" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I440">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J440" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K440">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="L440">
         <v>3.5</v>
       </c>
       <c r="M440">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="N440">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="O440">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P440">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q440">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R440">
         <v>1.925</v>
@@ -39670,7 +39670,7 @@
         <v>1.925</v>
       </c>
       <c r="T440">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U440">
         <v>1.9</v>
@@ -39679,25 +39679,25 @@
         <v>1.95</v>
       </c>
       <c r="W440">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X440">
         <v>-1</v>
       </c>
       <c r="Y440">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z440">
+        <v>-1</v>
+      </c>
+      <c r="AA440">
         <v>0.925</v>
       </c>
-      <c r="AA440">
-        <v>-1</v>
-      </c>
       <c r="AB440">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC440">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="441" spans="1:29">
@@ -48516,7 +48516,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>6798873</v>
+        <v>6799279</v>
       </c>
       <c r="C540" t="s">
         <v>28</v>
@@ -48528,49 +48528,49 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F540" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G540" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H540">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I540">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J540" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K540">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="L540">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M540">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="N540">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="O540">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P540">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="Q540">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R540">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S540">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T540">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U540">
         <v>1.9</v>
@@ -48582,22 +48582,22 @@
         <v>-1</v>
       </c>
       <c r="X540">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y540">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z540">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA540">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB540">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC540">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="541" spans="1:29">
@@ -48605,7 +48605,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>6799279</v>
+        <v>6798873</v>
       </c>
       <c r="C541" t="s">
         <v>28</v>
@@ -48617,49 +48617,49 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F541" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G541" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I541">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J541" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K541">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="L541">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M541">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="N541">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="O541">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P541">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="Q541">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R541">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S541">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T541">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U541">
         <v>1.9</v>
@@ -48671,22 +48671,22 @@
         <v>-1</v>
       </c>
       <c r="X541">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y541">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z541">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA541">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB541">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC541">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="542" spans="1:29">
@@ -49139,7 +49139,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>6798874</v>
+        <v>6800824</v>
       </c>
       <c r="C547" t="s">
         <v>28</v>
@@ -49151,55 +49151,55 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F547" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G547" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H547">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I547">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J547" t="s">
         <v>51</v>
       </c>
       <c r="K547">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L547">
         <v>3.75</v>
       </c>
       <c r="M547">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="N547">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O547">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P547">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q547">
         <v>0.5</v>
       </c>
       <c r="R547">
+        <v>1.875</v>
+      </c>
+      <c r="S547">
         <v>1.975</v>
       </c>
-      <c r="S547">
-        <v>1.875</v>
-      </c>
       <c r="T547">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U547">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V547">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W547">
         <v>-1</v>
@@ -49208,19 +49208,19 @@
         <v>-1</v>
       </c>
       <c r="Y547">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z547">
         <v>-1</v>
       </c>
       <c r="AA547">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB547">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC547">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="548" spans="1:29">
@@ -49228,7 +49228,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>6800824</v>
+        <v>6798874</v>
       </c>
       <c r="C548" t="s">
         <v>28</v>
@@ -49240,55 +49240,55 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F548" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G548" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I548">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J548" t="s">
         <v>51</v>
       </c>
       <c r="K548">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L548">
         <v>3.75</v>
       </c>
       <c r="M548">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="N548">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O548">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P548">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q548">
         <v>0.5</v>
       </c>
       <c r="R548">
+        <v>1.975</v>
+      </c>
+      <c r="S548">
         <v>1.875</v>
       </c>
-      <c r="S548">
+      <c r="T548">
+        <v>2.5</v>
+      </c>
+      <c r="U548">
         <v>1.975</v>
       </c>
-      <c r="T548">
-        <v>3</v>
-      </c>
-      <c r="U548">
-        <v>2</v>
-      </c>
       <c r="V548">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W548">
         <v>-1</v>
@@ -49297,19 +49297,19 @@
         <v>-1</v>
       </c>
       <c r="Y548">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z548">
         <v>-1</v>
       </c>
       <c r="AA548">
+        <v>0.875</v>
+      </c>
+      <c r="AB548">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB548">
-        <v>0</v>
-      </c>
       <c r="AC548">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="549" spans="1:29">

--- a/Denmark Division 1/Denmark Division 1.xlsx
+++ b/Denmark Division 1/Denmark Division 1.xlsx
@@ -32674,7 +32674,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>5128554</v>
+        <v>5128194</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32686,73 +32686,73 @@
         <v>44848.5625</v>
       </c>
       <c r="F362" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G362" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H362">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J362" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K362">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="L362">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M362">
-        <v>1.571</v>
+        <v>4.5</v>
       </c>
       <c r="N362">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="O362">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P362">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="Q362">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R362">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S362">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T362">
         <v>2.5</v>
       </c>
       <c r="U362">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V362">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W362">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="X362">
         <v>-1</v>
       </c>
       <c r="Y362">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z362">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA362">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB362">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC362">
         <v>-1</v>
@@ -32763,7 +32763,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>5128194</v>
+        <v>5128554</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32775,73 +32775,73 @@
         <v>44848.5625</v>
       </c>
       <c r="F363" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G363" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H363">
+        <v>3</v>
+      </c>
+      <c r="I363">
         <v>0</v>
       </c>
-      <c r="I363">
+      <c r="J363" t="s">
+        <v>52</v>
+      </c>
+      <c r="K363">
+        <v>5.25</v>
+      </c>
+      <c r="L363">
         <v>4</v>
       </c>
-      <c r="J363" t="s">
-        <v>51</v>
-      </c>
-      <c r="K363">
-        <v>1.7</v>
-      </c>
-      <c r="L363">
+      <c r="M363">
+        <v>1.571</v>
+      </c>
+      <c r="N363">
+        <v>6.5</v>
+      </c>
+      <c r="O363">
         <v>3.6</v>
       </c>
-      <c r="M363">
-        <v>4.5</v>
-      </c>
-      <c r="N363">
-        <v>1.727</v>
-      </c>
-      <c r="O363">
-        <v>3.75</v>
-      </c>
       <c r="P363">
-        <v>5</v>
+        <v>1.571</v>
       </c>
       <c r="Q363">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R363">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S363">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T363">
         <v>2.5</v>
       </c>
       <c r="U363">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V363">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W363">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="X363">
         <v>-1</v>
       </c>
       <c r="Y363">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z363">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA363">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB363">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC363">
         <v>-1</v>
@@ -33475,7 +33475,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>5128509</v>
+        <v>5128556</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33487,76 +33487,76 @@
         <v>44857.375</v>
       </c>
       <c r="F371" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G371" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371">
         <v>0</v>
       </c>
       <c r="J371" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K371">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L371">
+        <v>3.5</v>
+      </c>
+      <c r="M371">
         <v>3.6</v>
       </c>
-      <c r="M371">
-        <v>3</v>
-      </c>
       <c r="N371">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O371">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P371">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q371">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R371">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S371">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T371">
         <v>2.5</v>
       </c>
       <c r="U371">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V371">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W371">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X371">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y371">
         <v>-1</v>
       </c>
       <c r="Z371">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA371">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB371">
         <v>-1</v>
       </c>
       <c r="AC371">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33564,7 +33564,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>5128556</v>
+        <v>5128509</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33576,76 +33576,76 @@
         <v>44857.375</v>
       </c>
       <c r="F372" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G372" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I372">
         <v>0</v>
       </c>
       <c r="J372" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K372">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L372">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M372">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N372">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O372">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P372">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q372">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R372">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S372">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T372">
         <v>2.5</v>
       </c>
       <c r="U372">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V372">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W372">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X372">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y372">
         <v>-1</v>
       </c>
       <c r="Z372">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA372">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB372">
         <v>-1</v>
       </c>
       <c r="AC372">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -34009,7 +34009,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>5128196</v>
+        <v>5128512</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34021,76 +34021,76 @@
         <v>44864.375</v>
       </c>
       <c r="F377" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G377" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I377">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J377" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K377">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="L377">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M377">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="N377">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="O377">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P377">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q377">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R377">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S377">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T377">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U377">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V377">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W377">
         <v>-1</v>
       </c>
       <c r="X377">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y377">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z377">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA377">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB377">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC377">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="378" spans="1:29">
@@ -34098,7 +34098,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>5128512</v>
+        <v>5128196</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34110,76 +34110,76 @@
         <v>44864.375</v>
       </c>
       <c r="F378" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G378" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J378" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K378">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="L378">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M378">
+        <v>2.55</v>
+      </c>
+      <c r="N378">
+        <v>2.375</v>
+      </c>
+      <c r="O378">
+        <v>3.3</v>
+      </c>
+      <c r="P378">
+        <v>3.1</v>
+      </c>
+      <c r="Q378">
+        <v>-0.25</v>
+      </c>
+      <c r="R378">
+        <v>2.05</v>
+      </c>
+      <c r="S378">
+        <v>1.8</v>
+      </c>
+      <c r="T378">
         <v>2.25</v>
       </c>
-      <c r="N378">
-        <v>3</v>
-      </c>
-      <c r="O378">
-        <v>4</v>
-      </c>
-      <c r="P378">
-        <v>2.15</v>
-      </c>
-      <c r="Q378">
-        <v>0.25</v>
-      </c>
-      <c r="R378">
-        <v>2</v>
-      </c>
-      <c r="S378">
-        <v>1.85</v>
-      </c>
-      <c r="T378">
-        <v>3</v>
-      </c>
       <c r="U378">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V378">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W378">
         <v>-1</v>
       </c>
       <c r="X378">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y378">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z378">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA378">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB378">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC378">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -39972,7 +39972,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>6428352</v>
+        <v>6428353</v>
       </c>
       <c r="C444" t="s">
         <v>28</v>
@@ -39984,76 +39984,76 @@
         <v>45044.5625</v>
       </c>
       <c r="F444" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G444" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I444">
         <v>1</v>
       </c>
       <c r="J444" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K444">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L444">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M444">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="N444">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="O444">
         <v>3.8</v>
       </c>
       <c r="P444">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="Q444">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R444">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S444">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T444">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U444">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V444">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W444">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X444">
         <v>-1</v>
       </c>
       <c r="Y444">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z444">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA444">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB444">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC444">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="445" spans="1:29">
@@ -40061,7 +40061,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>6428353</v>
+        <v>6428352</v>
       </c>
       <c r="C445" t="s">
         <v>28</v>
@@ -40073,76 +40073,76 @@
         <v>45044.5625</v>
       </c>
       <c r="F445" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G445" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H445">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I445">
         <v>1</v>
       </c>
       <c r="J445" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K445">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L445">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M445">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N445">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="O445">
         <v>3.8</v>
       </c>
       <c r="P445">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="Q445">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R445">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S445">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T445">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U445">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V445">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W445">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X445">
         <v>-1</v>
       </c>
       <c r="Y445">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z445">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA445">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB445">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC445">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="446" spans="1:29">

--- a/Denmark Division 1/Denmark Division 1.xlsx
+++ b/Denmark Division 1/Denmark Division 1.xlsx
@@ -42642,7 +42642,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>6428368</v>
+        <v>6428367</v>
       </c>
       <c r="C474" t="s">
         <v>28</v>
@@ -42654,76 +42654,76 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F474" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G474" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H474">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I474">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J474" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K474">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L474">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M474">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N474">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="O474">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P474">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="Q474">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R474">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S474">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T474">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U474">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V474">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W474">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X474">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y474">
         <v>-1</v>
       </c>
       <c r="Z474">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA474">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB474">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC474">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="475" spans="1:29">
@@ -42731,7 +42731,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>6428367</v>
+        <v>6428368</v>
       </c>
       <c r="C475" t="s">
         <v>28</v>
@@ -42743,76 +42743,76 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F475" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G475" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I475">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J475" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K475">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L475">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M475">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N475">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="O475">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P475">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="Q475">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R475">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S475">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T475">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U475">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V475">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W475">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X475">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y475">
         <v>-1</v>
       </c>
       <c r="Z475">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA475">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB475">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC475">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="476" spans="1:29">
@@ -43443,7 +43443,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>6799247</v>
+        <v>6799248</v>
       </c>
       <c r="C483" t="s">
         <v>28</v>
@@ -43455,76 +43455,76 @@
         <v>45130.375</v>
       </c>
       <c r="F483" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G483" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J483" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K483">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="L483">
         <v>3.6</v>
       </c>
       <c r="M483">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N483">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O483">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P483">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q483">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R483">
+        <v>1.975</v>
+      </c>
+      <c r="S483">
         <v>1.875</v>
-      </c>
-      <c r="S483">
-        <v>1.975</v>
       </c>
       <c r="T483">
         <v>2.75</v>
       </c>
       <c r="U483">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V483">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W483">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X483">
         <v>-1</v>
       </c>
       <c r="Y483">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z483">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA483">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB483">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC483">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="484" spans="1:29">
@@ -43532,7 +43532,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>6799248</v>
+        <v>6799247</v>
       </c>
       <c r="C484" t="s">
         <v>28</v>
@@ -43544,76 +43544,76 @@
         <v>45130.375</v>
       </c>
       <c r="F484" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G484" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H484">
+        <v>0</v>
+      </c>
+      <c r="I484">
         <v>2</v>
       </c>
-      <c r="I484">
-        <v>1</v>
-      </c>
       <c r="J484" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K484">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="L484">
         <v>3.6</v>
       </c>
       <c r="M484">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N484">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O484">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P484">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="Q484">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R484">
+        <v>1.875</v>
+      </c>
+      <c r="S484">
         <v>1.975</v>
-      </c>
-      <c r="S484">
-        <v>1.875</v>
       </c>
       <c r="T484">
         <v>2.75</v>
       </c>
       <c r="U484">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V484">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W484">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X484">
         <v>-1</v>
       </c>
       <c r="Y484">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z484">
+        <v>-1</v>
+      </c>
+      <c r="AA484">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA484">
-        <v>-1</v>
-      </c>
       <c r="AB484">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC484">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="485" spans="1:29">
@@ -45490,7 +45490,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>6800832</v>
+        <v>6798551</v>
       </c>
       <c r="C506" t="s">
         <v>28</v>
@@ -45502,55 +45502,55 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F506" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G506" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I506">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J506" t="s">
         <v>51</v>
       </c>
       <c r="K506">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L506">
         <v>3.4</v>
       </c>
       <c r="M506">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N506">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="O506">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P506">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q506">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R506">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S506">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T506">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U506">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V506">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W506">
         <v>-1</v>
@@ -45559,16 +45559,16 @@
         <v>-1</v>
       </c>
       <c r="Y506">
-        <v>1.8</v>
+        <v>1.375</v>
       </c>
       <c r="Z506">
         <v>-1</v>
       </c>
       <c r="AA506">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB506">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC506">
         <v>-1</v>
@@ -45579,7 +45579,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>6798551</v>
+        <v>6800832</v>
       </c>
       <c r="C507" t="s">
         <v>28</v>
@@ -45591,56 +45591,56 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F507" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G507" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H507">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I507">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J507" t="s">
         <v>51</v>
       </c>
       <c r="K507">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L507">
         <v>3.4</v>
       </c>
       <c r="M507">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N507">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="O507">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P507">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="Q507">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R507">
+        <v>1.825</v>
+      </c>
+      <c r="S507">
+        <v>2.025</v>
+      </c>
+      <c r="T507">
+        <v>3</v>
+      </c>
+      <c r="U507">
         <v>1.8</v>
       </c>
-      <c r="S507">
+      <c r="V507">
         <v>2.05</v>
       </c>
-      <c r="T507">
-        <v>2.75</v>
-      </c>
-      <c r="U507">
-        <v>1.875</v>
-      </c>
-      <c r="V507">
-        <v>1.975</v>
-      </c>
       <c r="W507">
         <v>-1</v>
       </c>
@@ -45648,16 +45648,16 @@
         <v>-1</v>
       </c>
       <c r="Y507">
-        <v>1.375</v>
+        <v>1.8</v>
       </c>
       <c r="Z507">
         <v>-1</v>
       </c>
       <c r="AA507">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB507">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC507">
         <v>-1</v>
@@ -48516,7 +48516,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>6799279</v>
+        <v>6798873</v>
       </c>
       <c r="C540" t="s">
         <v>28</v>
@@ -48528,49 +48528,49 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F540" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G540" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I540">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J540" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K540">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="L540">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M540">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="N540">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="O540">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P540">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="Q540">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R540">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S540">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T540">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U540">
         <v>1.9</v>
@@ -48582,22 +48582,22 @@
         <v>-1</v>
       </c>
       <c r="X540">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y540">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z540">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA540">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB540">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC540">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="541" spans="1:29">
@@ -48605,7 +48605,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>6798873</v>
+        <v>6799279</v>
       </c>
       <c r="C541" t="s">
         <v>28</v>
@@ -48617,49 +48617,49 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F541" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G541" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H541">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I541">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J541" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K541">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="L541">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M541">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="N541">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="O541">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P541">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="Q541">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R541">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S541">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T541">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U541">
         <v>1.9</v>
@@ -48671,22 +48671,22 @@
         <v>-1</v>
       </c>
       <c r="X541">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y541">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z541">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA541">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB541">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC541">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="542" spans="1:29">
@@ -49139,7 +49139,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>6800824</v>
+        <v>6798874</v>
       </c>
       <c r="C547" t="s">
         <v>28</v>
@@ -49151,55 +49151,55 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F547" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G547" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I547">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J547" t="s">
         <v>51</v>
       </c>
       <c r="K547">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L547">
         <v>3.75</v>
       </c>
       <c r="M547">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="N547">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O547">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P547">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q547">
         <v>0.5</v>
       </c>
       <c r="R547">
+        <v>1.975</v>
+      </c>
+      <c r="S547">
         <v>1.875</v>
       </c>
-      <c r="S547">
+      <c r="T547">
+        <v>2.5</v>
+      </c>
+      <c r="U547">
         <v>1.975</v>
       </c>
-      <c r="T547">
-        <v>3</v>
-      </c>
-      <c r="U547">
-        <v>2</v>
-      </c>
       <c r="V547">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W547">
         <v>-1</v>
@@ -49208,19 +49208,19 @@
         <v>-1</v>
       </c>
       <c r="Y547">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z547">
         <v>-1</v>
       </c>
       <c r="AA547">
+        <v>0.875</v>
+      </c>
+      <c r="AB547">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB547">
-        <v>0</v>
-      </c>
       <c r="AC547">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="548" spans="1:29">
@@ -49228,7 +49228,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>6798874</v>
+        <v>6800824</v>
       </c>
       <c r="C548" t="s">
         <v>28</v>
@@ -49240,55 +49240,55 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F548" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G548" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H548">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I548">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J548" t="s">
         <v>51</v>
       </c>
       <c r="K548">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L548">
         <v>3.75</v>
       </c>
       <c r="M548">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="N548">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O548">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P548">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q548">
         <v>0.5</v>
       </c>
       <c r="R548">
+        <v>1.875</v>
+      </c>
+      <c r="S548">
         <v>1.975</v>
       </c>
-      <c r="S548">
-        <v>1.875</v>
-      </c>
       <c r="T548">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U548">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V548">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W548">
         <v>-1</v>
@@ -49297,19 +49297,19 @@
         <v>-1</v>
       </c>
       <c r="Y548">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z548">
         <v>-1</v>
       </c>
       <c r="AA548">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB548">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC548">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="549" spans="1:29">
@@ -49673,7 +49673,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>6799287</v>
+        <v>6799286</v>
       </c>
       <c r="C553" t="s">
         <v>28</v>
@@ -49685,67 +49685,67 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F553" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G553" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H553">
         <v>1</v>
       </c>
       <c r="I553">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J553" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K553">
+        <v>3.5</v>
+      </c>
+      <c r="L553">
+        <v>3.6</v>
+      </c>
+      <c r="M553">
+        <v>1.909</v>
+      </c>
+      <c r="N553">
+        <v>3.1</v>
+      </c>
+      <c r="O553">
+        <v>3.6</v>
+      </c>
+      <c r="P553">
+        <v>2.2</v>
+      </c>
+      <c r="Q553">
+        <v>0.25</v>
+      </c>
+      <c r="R553">
+        <v>1.9</v>
+      </c>
+      <c r="S553">
+        <v>1.95</v>
+      </c>
+      <c r="T553">
+        <v>3</v>
+      </c>
+      <c r="U553">
+        <v>2</v>
+      </c>
+      <c r="V553">
         <v>1.85</v>
       </c>
-      <c r="L553">
-        <v>3.75</v>
-      </c>
-      <c r="M553">
-        <v>3.8</v>
-      </c>
-      <c r="N553">
-        <v>1.8</v>
-      </c>
-      <c r="O553">
-        <v>3.75</v>
-      </c>
-      <c r="P553">
-        <v>4.75</v>
-      </c>
-      <c r="Q553">
-        <v>-0.75</v>
-      </c>
-      <c r="R553">
-        <v>2.025</v>
-      </c>
-      <c r="S553">
-        <v>1.825</v>
-      </c>
-      <c r="T553">
-        <v>2.5</v>
-      </c>
-      <c r="U553">
-        <v>2.025</v>
-      </c>
-      <c r="V553">
-        <v>1.825</v>
-      </c>
       <c r="W553">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X553">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y553">
         <v>-1</v>
       </c>
       <c r="Z553">
-        <v>0.5125</v>
+        <v>0.45</v>
       </c>
       <c r="AA553">
         <v>-0.5</v>
@@ -49754,7 +49754,7 @@
         <v>-1</v>
       </c>
       <c r="AC553">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="554" spans="1:29">
@@ -49762,7 +49762,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>6799286</v>
+        <v>6799287</v>
       </c>
       <c r="C554" t="s">
         <v>28</v>
@@ -49774,67 +49774,67 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F554" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G554" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H554">
         <v>1</v>
       </c>
       <c r="I554">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J554" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K554">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="L554">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M554">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="N554">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="O554">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P554">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q554">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R554">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S554">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T554">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U554">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V554">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W554">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X554">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y554">
         <v>-1</v>
       </c>
       <c r="Z554">
-        <v>0.45</v>
+        <v>0.5125</v>
       </c>
       <c r="AA554">
         <v>-0.5</v>
@@ -49843,7 +49843,7 @@
         <v>-1</v>
       </c>
       <c r="AC554">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="555" spans="1:29">
@@ -51275,7 +51275,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>6799295</v>
+        <v>6800819</v>
       </c>
       <c r="C571" t="s">
         <v>28</v>
@@ -51287,76 +51287,76 @@
         <v>45240.625</v>
       </c>
       <c r="F571" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G571" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H571">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I571">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J571" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K571">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="L571">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M571">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="N571">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="O571">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P571">
+        <v>2.8</v>
+      </c>
+      <c r="Q571">
+        <v>0</v>
+      </c>
+      <c r="R571">
+        <v>1.8</v>
+      </c>
+      <c r="S571">
+        <v>2.05</v>
+      </c>
+      <c r="T571">
+        <v>2.75</v>
+      </c>
+      <c r="U571">
+        <v>1.9</v>
+      </c>
+      <c r="V571">
+        <v>1.95</v>
+      </c>
+      <c r="W571">
         <v>1.45</v>
       </c>
-      <c r="Q571">
-        <v>1.25</v>
-      </c>
-      <c r="R571">
-        <v>1.925</v>
-      </c>
-      <c r="S571">
-        <v>1.925</v>
-      </c>
-      <c r="T571">
-        <v>3.25</v>
-      </c>
-      <c r="U571">
-        <v>1.85</v>
-      </c>
-      <c r="V571">
-        <v>2</v>
-      </c>
-      <c r="W571">
-        <v>-1</v>
-      </c>
       <c r="X571">
         <v>-1</v>
       </c>
       <c r="Y571">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z571">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA571">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB571">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC571">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="572" spans="1:29">
@@ -51364,7 +51364,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>6800819</v>
+        <v>6799295</v>
       </c>
       <c r="C572" t="s">
         <v>28</v>
@@ -51376,76 +51376,76 @@
         <v>45240.625</v>
       </c>
       <c r="F572" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G572" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H572">
+        <v>1</v>
+      </c>
+      <c r="I572">
+        <v>4</v>
+      </c>
+      <c r="J572" t="s">
+        <v>51</v>
+      </c>
+      <c r="K572">
+        <v>7.5</v>
+      </c>
+      <c r="L572">
+        <v>5</v>
+      </c>
+      <c r="M572">
+        <v>1.333</v>
+      </c>
+      <c r="N572">
+        <v>6.5</v>
+      </c>
+      <c r="O572">
+        <v>4.75</v>
+      </c>
+      <c r="P572">
+        <v>1.45</v>
+      </c>
+      <c r="Q572">
+        <v>1.25</v>
+      </c>
+      <c r="R572">
+        <v>1.925</v>
+      </c>
+      <c r="S572">
+        <v>1.925</v>
+      </c>
+      <c r="T572">
+        <v>3.25</v>
+      </c>
+      <c r="U572">
+        <v>1.85</v>
+      </c>
+      <c r="V572">
         <v>2</v>
       </c>
-      <c r="I572">
-        <v>0</v>
-      </c>
-      <c r="J572" t="s">
-        <v>52</v>
-      </c>
-      <c r="K572">
-        <v>2.5</v>
-      </c>
-      <c r="L572">
-        <v>3.4</v>
-      </c>
-      <c r="M572">
-        <v>2.55</v>
-      </c>
-      <c r="N572">
-        <v>2.45</v>
-      </c>
-      <c r="O572">
-        <v>3.5</v>
-      </c>
-      <c r="P572">
-        <v>2.8</v>
-      </c>
-      <c r="Q572">
-        <v>0</v>
-      </c>
-      <c r="R572">
-        <v>1.8</v>
-      </c>
-      <c r="S572">
-        <v>2.05</v>
-      </c>
-      <c r="T572">
-        <v>2.75</v>
-      </c>
-      <c r="U572">
-        <v>1.9</v>
-      </c>
-      <c r="V572">
-        <v>1.95</v>
-      </c>
       <c r="W572">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X572">
         <v>-1</v>
       </c>
       <c r="Y572">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z572">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA572">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB572">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC572">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="573" spans="1:29">

--- a/Denmark Division 1/Denmark Division 1.xlsx
+++ b/Denmark Division 1/Denmark Division 1.xlsx
@@ -22706,7 +22706,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>4819846</v>
+        <v>4819845</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22718,76 +22718,76 @@
         <v>44674.375</v>
       </c>
       <c r="F250" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G250" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J250" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K250">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="L250">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M250">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="N250">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="O250">
         <v>3.5</v>
       </c>
       <c r="P250">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="Q250">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R250">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S250">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T250">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U250">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V250">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W250">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X250">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y250">
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA250">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB250">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC250">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22795,7 +22795,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>4819845</v>
+        <v>4819846</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22807,76 +22807,76 @@
         <v>44674.375</v>
       </c>
       <c r="F251" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G251" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K251">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="L251">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M251">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="N251">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="O251">
         <v>3.5</v>
       </c>
       <c r="P251">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="Q251">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R251">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S251">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T251">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U251">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V251">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W251">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X251">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y251">
         <v>-1</v>
       </c>
       <c r="Z251">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA251">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC251">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -25376,7 +25376,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>4819831</v>
+        <v>4819833</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25388,67 +25388,67 @@
         <v>44704.58333333334</v>
       </c>
       <c r="F280" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G280" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K280">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="L280">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M280">
+        <v>1.416</v>
+      </c>
+      <c r="N280">
+        <v>8.5</v>
+      </c>
+      <c r="O280">
+        <v>5.25</v>
+      </c>
+      <c r="P280">
+        <v>1.363</v>
+      </c>
+      <c r="Q280">
+        <v>1.5</v>
+      </c>
+      <c r="R280">
+        <v>1.875</v>
+      </c>
+      <c r="S280">
+        <v>1.975</v>
+      </c>
+      <c r="T280">
+        <v>3.25</v>
+      </c>
+      <c r="U280">
+        <v>1.95</v>
+      </c>
+      <c r="V280">
         <v>1.9</v>
       </c>
-      <c r="N280">
-        <v>3.3</v>
-      </c>
-      <c r="O280">
-        <v>3.8</v>
-      </c>
-      <c r="P280">
-        <v>2</v>
-      </c>
-      <c r="Q280">
-        <v>0.5</v>
-      </c>
-      <c r="R280">
-        <v>1.825</v>
-      </c>
-      <c r="S280">
-        <v>2.025</v>
-      </c>
-      <c r="T280">
-        <v>3</v>
-      </c>
-      <c r="U280">
-        <v>2.025</v>
-      </c>
-      <c r="V280">
-        <v>1.825</v>
-      </c>
       <c r="W280">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X280">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y280">
         <v>-1</v>
       </c>
       <c r="Z280">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA280">
         <v>-1</v>
@@ -25457,7 +25457,7 @@
         <v>-1</v>
       </c>
       <c r="AC280">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25465,7 +25465,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>4819833</v>
+        <v>4819831</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25477,67 +25477,67 @@
         <v>44704.58333333334</v>
       </c>
       <c r="F281" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G281" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J281" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K281">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="L281">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M281">
-        <v>1.416</v>
+        <v>1.9</v>
       </c>
       <c r="N281">
-        <v>8.5</v>
+        <v>3.3</v>
       </c>
       <c r="O281">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P281">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="Q281">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R281">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S281">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T281">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U281">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V281">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W281">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X281">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y281">
         <v>-1</v>
       </c>
       <c r="Z281">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA281">
         <v>-1</v>
@@ -25546,7 +25546,7 @@
         <v>-1</v>
       </c>
       <c r="AC281">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -27868,7 +27868,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>5128187</v>
+        <v>5128487</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27880,76 +27880,76 @@
         <v>44785.5625</v>
       </c>
       <c r="F308" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G308" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H308">
         <v>0</v>
       </c>
       <c r="I308">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J308" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K308">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="L308">
         <v>3.6</v>
       </c>
       <c r="M308">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="N308">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="O308">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P308">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="Q308">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R308">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S308">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T308">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U308">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V308">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W308">
         <v>-1</v>
       </c>
       <c r="X308">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y308">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z308">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA308">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB308">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC308">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -27957,7 +27957,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>5128487</v>
+        <v>5128538</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27969,16 +27969,16 @@
         <v>44785.5625</v>
       </c>
       <c r="F309" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G309" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H309">
         <v>0</v>
       </c>
       <c r="I309">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J309" t="s">
         <v>51</v>
@@ -27987,37 +27987,37 @@
         <v>3.5</v>
       </c>
       <c r="L309">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M309">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N309">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="O309">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P309">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="Q309">
         <v>0.75</v>
       </c>
       <c r="R309">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S309">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T309">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U309">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V309">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W309">
         <v>-1</v>
@@ -28026,19 +28026,19 @@
         <v>-1</v>
       </c>
       <c r="Y309">
-        <v>0.6499999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z309">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA309">
-        <v>0.8500000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AB309">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC309">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28046,7 +28046,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>5128538</v>
+        <v>5128187</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28058,76 +28058,76 @@
         <v>44785.5625</v>
       </c>
       <c r="F310" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G310" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H310">
         <v>0</v>
       </c>
       <c r="I310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J310" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K310">
+        <v>2.2</v>
+      </c>
+      <c r="L310">
+        <v>3.6</v>
+      </c>
+      <c r="M310">
+        <v>2.8</v>
+      </c>
+      <c r="N310">
+        <v>2.875</v>
+      </c>
+      <c r="O310">
         <v>3.5</v>
       </c>
-      <c r="L310">
-        <v>3.8</v>
-      </c>
-      <c r="M310">
-        <v>1.95</v>
-      </c>
-      <c r="N310">
-        <v>4.2</v>
-      </c>
-      <c r="O310">
-        <v>4</v>
-      </c>
       <c r="P310">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q310">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R310">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S310">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T310">
         <v>2.75</v>
       </c>
       <c r="U310">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V310">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W310">
         <v>-1</v>
       </c>
       <c r="X310">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y310">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z310">
+        <v>0.375</v>
+      </c>
+      <c r="AA310">
         <v>-0.5</v>
       </c>
-      <c r="AA310">
-        <v>0.5125</v>
-      </c>
       <c r="AB310">
         <v>-1</v>
       </c>
       <c r="AC310">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28313,7 +28313,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>5128490</v>
+        <v>5128489</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28325,73 +28325,73 @@
         <v>44789.5625</v>
       </c>
       <c r="F313" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G313" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H313">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I313">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J313" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K313">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="L313">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M313">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N313">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="O313">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P313">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q313">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R313">
+        <v>1.8</v>
+      </c>
+      <c r="S313">
+        <v>2.05</v>
+      </c>
+      <c r="T313">
+        <v>3</v>
+      </c>
+      <c r="U313">
         <v>1.975</v>
       </c>
-      <c r="S313">
+      <c r="V313">
         <v>1.875</v>
       </c>
-      <c r="T313">
-        <v>2.75</v>
-      </c>
-      <c r="U313">
-        <v>1.825</v>
-      </c>
-      <c r="V313">
-        <v>2.025</v>
-      </c>
       <c r="W313">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X313">
         <v>-1</v>
       </c>
       <c r="Y313">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z313">
+        <v>-1</v>
+      </c>
+      <c r="AA313">
+        <v>1.05</v>
+      </c>
+      <c r="AB313">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA313">
-        <v>-1</v>
-      </c>
-      <c r="AB313">
-        <v>0.825</v>
       </c>
       <c r="AC313">
         <v>-1</v>
@@ -28402,7 +28402,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>5128489</v>
+        <v>5128490</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28414,73 +28414,73 @@
         <v>44789.5625</v>
       </c>
       <c r="F314" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G314" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I314">
+        <v>1</v>
+      </c>
+      <c r="J314" t="s">
+        <v>52</v>
+      </c>
+      <c r="K314">
+        <v>1.75</v>
+      </c>
+      <c r="L314">
+        <v>3.6</v>
+      </c>
+      <c r="M314">
         <v>4</v>
       </c>
-      <c r="J314" t="s">
-        <v>51</v>
-      </c>
-      <c r="K314">
-        <v>1.666</v>
-      </c>
-      <c r="L314">
-        <v>3.8</v>
-      </c>
-      <c r="M314">
-        <v>4.333</v>
-      </c>
       <c r="N314">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="O314">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P314">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q314">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R314">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S314">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T314">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U314">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V314">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W314">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X314">
         <v>-1</v>
       </c>
       <c r="Y314">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z314">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA314">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB314">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC314">
         <v>-1</v>
@@ -30449,7 +30449,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>5128191</v>
+        <v>5128498</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30461,76 +30461,76 @@
         <v>44813.58333333334</v>
       </c>
       <c r="F337" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G337" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I337">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J337" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K337">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L337">
+        <v>3.5</v>
+      </c>
+      <c r="M337">
+        <v>3.5</v>
+      </c>
+      <c r="N337">
+        <v>2</v>
+      </c>
+      <c r="O337">
         <v>3.6</v>
       </c>
-      <c r="M337">
-        <v>2.75</v>
-      </c>
-      <c r="N337">
-        <v>2.2</v>
-      </c>
-      <c r="O337">
-        <v>3.75</v>
-      </c>
       <c r="P337">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q337">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R337">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S337">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T337">
         <v>2.75</v>
       </c>
       <c r="U337">
+        <v>1.95</v>
+      </c>
+      <c r="V337">
         <v>1.9</v>
       </c>
-      <c r="V337">
-        <v>1.95</v>
-      </c>
       <c r="W337">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X337">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y337">
         <v>-1</v>
       </c>
       <c r="Z337">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA337">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB337">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC337">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -30538,7 +30538,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>5128498</v>
+        <v>5128191</v>
       </c>
       <c r="C338" t="s">
         <v>28</v>
@@ -30550,76 +30550,76 @@
         <v>44813.58333333334</v>
       </c>
       <c r="F338" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G338" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H338">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I338">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J338" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K338">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L338">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M338">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N338">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O338">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P338">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q338">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R338">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S338">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T338">
         <v>2.75</v>
       </c>
       <c r="U338">
+        <v>1.9</v>
+      </c>
+      <c r="V338">
         <v>1.95</v>
       </c>
-      <c r="V338">
-        <v>1.9</v>
-      </c>
       <c r="W338">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X338">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y338">
         <v>-1</v>
       </c>
       <c r="Z338">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA338">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB338">
+        <v>-1</v>
+      </c>
+      <c r="AC338">
         <v>0.95</v>
-      </c>
-      <c r="AC338">
-        <v>-1</v>
       </c>
     </row>
     <row r="339" spans="1:29">
@@ -32051,7 +32051,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>5128552</v>
+        <v>5128505</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32063,56 +32063,56 @@
         <v>44841.5625</v>
       </c>
       <c r="F355" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G355" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I355">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J355" t="s">
         <v>51</v>
       </c>
       <c r="K355">
-        <v>1.55</v>
+        <v>4</v>
       </c>
       <c r="L355">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="M355">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="N355">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="O355">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P355">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="Q355">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R355">
+        <v>1.925</v>
+      </c>
+      <c r="S355">
+        <v>1.925</v>
+      </c>
+      <c r="T355">
+        <v>2.75</v>
+      </c>
+      <c r="U355">
+        <v>1.975</v>
+      </c>
+      <c r="V355">
         <v>1.875</v>
       </c>
-      <c r="S355">
-        <v>1.975</v>
-      </c>
-      <c r="T355">
-        <v>3.25</v>
-      </c>
-      <c r="U355">
-        <v>2.025</v>
-      </c>
-      <c r="V355">
-        <v>1.825</v>
-      </c>
       <c r="W355">
         <v>-1</v>
       </c>
@@ -32120,19 +32120,19 @@
         <v>-1</v>
       </c>
       <c r="Y355">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="Z355">
         <v>-1</v>
       </c>
       <c r="AA355">
+        <v>0.925</v>
+      </c>
+      <c r="AB355">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB355">
-        <v>-1</v>
-      </c>
       <c r="AC355">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="356" spans="1:29">
@@ -32140,7 +32140,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>5128505</v>
+        <v>5128552</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32152,55 +32152,55 @@
         <v>44841.5625</v>
       </c>
       <c r="F356" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G356" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H356">
+        <v>0</v>
+      </c>
+      <c r="I356">
         <v>1</v>
-      </c>
-      <c r="I356">
-        <v>4</v>
       </c>
       <c r="J356" t="s">
         <v>51</v>
       </c>
       <c r="K356">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="L356">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="M356">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="N356">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="O356">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P356">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="Q356">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R356">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S356">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T356">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U356">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V356">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W356">
         <v>-1</v>
@@ -32209,19 +32209,19 @@
         <v>-1</v>
       </c>
       <c r="Y356">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="Z356">
         <v>-1</v>
       </c>
       <c r="AA356">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB356">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC356">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="357" spans="1:29">
@@ -34009,7 +34009,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>5128512</v>
+        <v>5128196</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34021,76 +34021,76 @@
         <v>44864.375</v>
       </c>
       <c r="F377" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G377" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J377" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K377">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="L377">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M377">
+        <v>2.55</v>
+      </c>
+      <c r="N377">
+        <v>2.375</v>
+      </c>
+      <c r="O377">
+        <v>3.3</v>
+      </c>
+      <c r="P377">
+        <v>3.1</v>
+      </c>
+      <c r="Q377">
+        <v>-0.25</v>
+      </c>
+      <c r="R377">
+        <v>2.05</v>
+      </c>
+      <c r="S377">
+        <v>1.8</v>
+      </c>
+      <c r="T377">
         <v>2.25</v>
       </c>
-      <c r="N377">
-        <v>3</v>
-      </c>
-      <c r="O377">
-        <v>4</v>
-      </c>
-      <c r="P377">
-        <v>2.15</v>
-      </c>
-      <c r="Q377">
-        <v>0.25</v>
-      </c>
-      <c r="R377">
-        <v>2</v>
-      </c>
-      <c r="S377">
-        <v>1.85</v>
-      </c>
-      <c r="T377">
-        <v>3</v>
-      </c>
       <c r="U377">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V377">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W377">
         <v>-1</v>
       </c>
       <c r="X377">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y377">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z377">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA377">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB377">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC377">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="378" spans="1:29">
@@ -34098,7 +34098,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>5128196</v>
+        <v>5128512</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34110,76 +34110,76 @@
         <v>44864.375</v>
       </c>
       <c r="F378" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G378" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I378">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J378" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K378">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="L378">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M378">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="N378">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="O378">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P378">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q378">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R378">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S378">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T378">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U378">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V378">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W378">
         <v>-1</v>
       </c>
       <c r="X378">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y378">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z378">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA378">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB378">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC378">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -39972,7 +39972,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>6428353</v>
+        <v>6428352</v>
       </c>
       <c r="C444" t="s">
         <v>28</v>
@@ -39984,76 +39984,76 @@
         <v>45044.5625</v>
       </c>
       <c r="F444" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G444" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H444">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444">
         <v>1</v>
       </c>
       <c r="J444" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K444">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L444">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M444">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N444">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="O444">
         <v>3.8</v>
       </c>
       <c r="P444">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="Q444">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R444">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S444">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T444">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U444">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V444">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W444">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X444">
         <v>-1</v>
       </c>
       <c r="Y444">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z444">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA444">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB444">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC444">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="445" spans="1:29">
@@ -40061,7 +40061,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>6428352</v>
+        <v>6428353</v>
       </c>
       <c r="C445" t="s">
         <v>28</v>
@@ -40073,76 +40073,76 @@
         <v>45044.5625</v>
       </c>
       <c r="F445" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G445" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I445">
         <v>1</v>
       </c>
       <c r="J445" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K445">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L445">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M445">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="N445">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="O445">
         <v>3.8</v>
       </c>
       <c r="P445">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="Q445">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R445">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S445">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T445">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U445">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V445">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W445">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X445">
         <v>-1</v>
       </c>
       <c r="Y445">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z445">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA445">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB445">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC445">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446" spans="1:29">
@@ -42642,7 +42642,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>6428367</v>
+        <v>6428368</v>
       </c>
       <c r="C474" t="s">
         <v>28</v>
@@ -42654,76 +42654,76 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F474" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G474" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I474">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J474" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K474">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L474">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M474">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N474">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="O474">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P474">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="Q474">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R474">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S474">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T474">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U474">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V474">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W474">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X474">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y474">
         <v>-1</v>
       </c>
       <c r="Z474">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA474">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB474">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC474">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="475" spans="1:29">
@@ -42731,7 +42731,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>6428368</v>
+        <v>6428367</v>
       </c>
       <c r="C475" t="s">
         <v>28</v>
@@ -42743,76 +42743,76 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F475" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G475" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H475">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I475">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J475" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K475">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L475">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M475">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N475">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="O475">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P475">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="Q475">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R475">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S475">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T475">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U475">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V475">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W475">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X475">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y475">
         <v>-1</v>
       </c>
       <c r="Z475">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA475">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB475">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC475">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="476" spans="1:29">
@@ -43443,7 +43443,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>6799248</v>
+        <v>6799247</v>
       </c>
       <c r="C483" t="s">
         <v>28</v>
@@ -43455,76 +43455,76 @@
         <v>45130.375</v>
       </c>
       <c r="F483" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G483" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H483">
+        <v>0</v>
+      </c>
+      <c r="I483">
         <v>2</v>
       </c>
-      <c r="I483">
-        <v>1</v>
-      </c>
       <c r="J483" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K483">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="L483">
         <v>3.6</v>
       </c>
       <c r="M483">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N483">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O483">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P483">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="Q483">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R483">
+        <v>1.875</v>
+      </c>
+      <c r="S483">
         <v>1.975</v>
-      </c>
-      <c r="S483">
-        <v>1.875</v>
       </c>
       <c r="T483">
         <v>2.75</v>
       </c>
       <c r="U483">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V483">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W483">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X483">
         <v>-1</v>
       </c>
       <c r="Y483">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z483">
+        <v>-1</v>
+      </c>
+      <c r="AA483">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA483">
-        <v>-1</v>
-      </c>
       <c r="AB483">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC483">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="484" spans="1:29">
@@ -43532,7 +43532,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>6799247</v>
+        <v>6799248</v>
       </c>
       <c r="C484" t="s">
         <v>28</v>
@@ -43544,76 +43544,76 @@
         <v>45130.375</v>
       </c>
       <c r="F484" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G484" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J484" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K484">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="L484">
         <v>3.6</v>
       </c>
       <c r="M484">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N484">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O484">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P484">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q484">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R484">
+        <v>1.975</v>
+      </c>
+      <c r="S484">
         <v>1.875</v>
-      </c>
-      <c r="S484">
-        <v>1.975</v>
       </c>
       <c r="T484">
         <v>2.75</v>
       </c>
       <c r="U484">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V484">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W484">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X484">
         <v>-1</v>
       </c>
       <c r="Y484">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z484">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA484">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB484">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC484">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="485" spans="1:29">
@@ -45490,7 +45490,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>6798551</v>
+        <v>6800832</v>
       </c>
       <c r="C506" t="s">
         <v>28</v>
@@ -45502,56 +45502,56 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F506" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G506" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I506">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J506" t="s">
         <v>51</v>
       </c>
       <c r="K506">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L506">
         <v>3.4</v>
       </c>
       <c r="M506">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N506">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="O506">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P506">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="Q506">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R506">
+        <v>1.825</v>
+      </c>
+      <c r="S506">
+        <v>2.025</v>
+      </c>
+      <c r="T506">
+        <v>3</v>
+      </c>
+      <c r="U506">
         <v>1.8</v>
       </c>
-      <c r="S506">
+      <c r="V506">
         <v>2.05</v>
       </c>
-      <c r="T506">
-        <v>2.75</v>
-      </c>
-      <c r="U506">
-        <v>1.875</v>
-      </c>
-      <c r="V506">
-        <v>1.975</v>
-      </c>
       <c r="W506">
         <v>-1</v>
       </c>
@@ -45559,16 +45559,16 @@
         <v>-1</v>
       </c>
       <c r="Y506">
-        <v>1.375</v>
+        <v>1.8</v>
       </c>
       <c r="Z506">
         <v>-1</v>
       </c>
       <c r="AA506">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB506">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC506">
         <v>-1</v>
@@ -45579,7 +45579,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>6800832</v>
+        <v>6798551</v>
       </c>
       <c r="C507" t="s">
         <v>28</v>
@@ -45591,55 +45591,55 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F507" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G507" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I507">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J507" t="s">
         <v>51</v>
       </c>
       <c r="K507">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L507">
         <v>3.4</v>
       </c>
       <c r="M507">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N507">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="O507">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P507">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q507">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R507">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S507">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T507">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U507">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V507">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W507">
         <v>-1</v>
@@ -45648,16 +45648,16 @@
         <v>-1</v>
       </c>
       <c r="Y507">
-        <v>1.8</v>
+        <v>1.375</v>
       </c>
       <c r="Z507">
         <v>-1</v>
       </c>
       <c r="AA507">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB507">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC507">
         <v>-1</v>
@@ -49673,7 +49673,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>6799286</v>
+        <v>6799287</v>
       </c>
       <c r="C553" t="s">
         <v>28</v>
@@ -49685,67 +49685,67 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F553" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G553" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H553">
         <v>1</v>
       </c>
       <c r="I553">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J553" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K553">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="L553">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M553">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="N553">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="O553">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P553">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q553">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R553">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S553">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T553">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U553">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V553">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W553">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X553">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y553">
         <v>-1</v>
       </c>
       <c r="Z553">
-        <v>0.45</v>
+        <v>0.5125</v>
       </c>
       <c r="AA553">
         <v>-0.5</v>
@@ -49754,7 +49754,7 @@
         <v>-1</v>
       </c>
       <c r="AC553">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="554" spans="1:29">
@@ -49762,7 +49762,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>6799287</v>
+        <v>6799286</v>
       </c>
       <c r="C554" t="s">
         <v>28</v>
@@ -49774,67 +49774,67 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F554" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G554" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H554">
         <v>1</v>
       </c>
       <c r="I554">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J554" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K554">
+        <v>3.5</v>
+      </c>
+      <c r="L554">
+        <v>3.6</v>
+      </c>
+      <c r="M554">
+        <v>1.909</v>
+      </c>
+      <c r="N554">
+        <v>3.1</v>
+      </c>
+      <c r="O554">
+        <v>3.6</v>
+      </c>
+      <c r="P554">
+        <v>2.2</v>
+      </c>
+      <c r="Q554">
+        <v>0.25</v>
+      </c>
+      <c r="R554">
+        <v>1.9</v>
+      </c>
+      <c r="S554">
+        <v>1.95</v>
+      </c>
+      <c r="T554">
+        <v>3</v>
+      </c>
+      <c r="U554">
+        <v>2</v>
+      </c>
+      <c r="V554">
         <v>1.85</v>
       </c>
-      <c r="L554">
-        <v>3.75</v>
-      </c>
-      <c r="M554">
-        <v>3.8</v>
-      </c>
-      <c r="N554">
-        <v>1.8</v>
-      </c>
-      <c r="O554">
-        <v>3.75</v>
-      </c>
-      <c r="P554">
-        <v>4.75</v>
-      </c>
-      <c r="Q554">
-        <v>-0.75</v>
-      </c>
-      <c r="R554">
-        <v>2.025</v>
-      </c>
-      <c r="S554">
-        <v>1.825</v>
-      </c>
-      <c r="T554">
-        <v>2.5</v>
-      </c>
-      <c r="U554">
-        <v>2.025</v>
-      </c>
-      <c r="V554">
-        <v>1.825</v>
-      </c>
       <c r="W554">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X554">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y554">
         <v>-1</v>
       </c>
       <c r="Z554">
-        <v>0.5125</v>
+        <v>0.45</v>
       </c>
       <c r="AA554">
         <v>-0.5</v>
@@ -49843,7 +49843,7 @@
         <v>-1</v>
       </c>
       <c r="AC554">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="555" spans="1:29">
@@ -51275,7 +51275,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>6800819</v>
+        <v>6799295</v>
       </c>
       <c r="C571" t="s">
         <v>28</v>
@@ -51287,76 +51287,76 @@
         <v>45240.625</v>
       </c>
       <c r="F571" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G571" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H571">
+        <v>1</v>
+      </c>
+      <c r="I571">
+        <v>4</v>
+      </c>
+      <c r="J571" t="s">
+        <v>51</v>
+      </c>
+      <c r="K571">
+        <v>7.5</v>
+      </c>
+      <c r="L571">
+        <v>5</v>
+      </c>
+      <c r="M571">
+        <v>1.333</v>
+      </c>
+      <c r="N571">
+        <v>6.5</v>
+      </c>
+      <c r="O571">
+        <v>4.75</v>
+      </c>
+      <c r="P571">
+        <v>1.45</v>
+      </c>
+      <c r="Q571">
+        <v>1.25</v>
+      </c>
+      <c r="R571">
+        <v>1.925</v>
+      </c>
+      <c r="S571">
+        <v>1.925</v>
+      </c>
+      <c r="T571">
+        <v>3.25</v>
+      </c>
+      <c r="U571">
+        <v>1.85</v>
+      </c>
+      <c r="V571">
         <v>2</v>
       </c>
-      <c r="I571">
-        <v>0</v>
-      </c>
-      <c r="J571" t="s">
-        <v>52</v>
-      </c>
-      <c r="K571">
-        <v>2.5</v>
-      </c>
-      <c r="L571">
-        <v>3.4</v>
-      </c>
-      <c r="M571">
-        <v>2.55</v>
-      </c>
-      <c r="N571">
-        <v>2.45</v>
-      </c>
-      <c r="O571">
-        <v>3.5</v>
-      </c>
-      <c r="P571">
-        <v>2.8</v>
-      </c>
-      <c r="Q571">
-        <v>0</v>
-      </c>
-      <c r="R571">
-        <v>1.8</v>
-      </c>
-      <c r="S571">
-        <v>2.05</v>
-      </c>
-      <c r="T571">
-        <v>2.75</v>
-      </c>
-      <c r="U571">
-        <v>1.9</v>
-      </c>
-      <c r="V571">
-        <v>1.95</v>
-      </c>
       <c r="W571">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X571">
         <v>-1</v>
       </c>
       <c r="Y571">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z571">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA571">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB571">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC571">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="572" spans="1:29">
@@ -51364,7 +51364,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>6799295</v>
+        <v>6800819</v>
       </c>
       <c r="C572" t="s">
         <v>28</v>
@@ -51376,76 +51376,76 @@
         <v>45240.625</v>
       </c>
       <c r="F572" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G572" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H572">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I572">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J572" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K572">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="L572">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M572">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="N572">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="O572">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P572">
+        <v>2.8</v>
+      </c>
+      <c r="Q572">
+        <v>0</v>
+      </c>
+      <c r="R572">
+        <v>1.8</v>
+      </c>
+      <c r="S572">
+        <v>2.05</v>
+      </c>
+      <c r="T572">
+        <v>2.75</v>
+      </c>
+      <c r="U572">
+        <v>1.9</v>
+      </c>
+      <c r="V572">
+        <v>1.95</v>
+      </c>
+      <c r="W572">
         <v>1.45</v>
       </c>
-      <c r="Q572">
-        <v>1.25</v>
-      </c>
-      <c r="R572">
-        <v>1.925</v>
-      </c>
-      <c r="S572">
-        <v>1.925</v>
-      </c>
-      <c r="T572">
-        <v>3.25</v>
-      </c>
-      <c r="U572">
-        <v>1.85</v>
-      </c>
-      <c r="V572">
-        <v>2</v>
-      </c>
-      <c r="W572">
-        <v>-1</v>
-      </c>
       <c r="X572">
         <v>-1</v>
       </c>
       <c r="Y572">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z572">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA572">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB572">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC572">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="573" spans="1:29">
@@ -52610,7 +52610,7 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>6799302</v>
+        <v>7554250</v>
       </c>
       <c r="C586" t="s">
         <v>28</v>
@@ -52622,76 +52622,76 @@
         <v>45265.60416666666</v>
       </c>
       <c r="F586" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G586" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J586" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K586">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="L586">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M586">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N586">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O586">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P586">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q586">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R586">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S586">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T586">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U586">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V586">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W586">
         <v>-1</v>
       </c>
       <c r="X586">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y586">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z586">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA586">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB586">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC586">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="587" spans="1:29">
@@ -52699,7 +52699,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>7554250</v>
+        <v>6799302</v>
       </c>
       <c r="C587" t="s">
         <v>28</v>
@@ -52711,76 +52711,76 @@
         <v>45265.60416666666</v>
       </c>
       <c r="F587" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G587" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J587" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K587">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L587">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M587">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N587">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O587">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P587">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q587">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R587">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S587">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T587">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U587">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V587">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W587">
         <v>-1</v>
       </c>
       <c r="X587">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y587">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z587">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA587">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AB587">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC587">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Denmark Division 1/Denmark Division 1.xlsx
+++ b/Denmark Division 1/Denmark Division 1.xlsx
@@ -25376,7 +25376,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>4819833</v>
+        <v>4819831</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25388,67 +25388,67 @@
         <v>44704.58333333334</v>
       </c>
       <c r="F280" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G280" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J280" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K280">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="L280">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M280">
-        <v>1.416</v>
+        <v>1.9</v>
       </c>
       <c r="N280">
-        <v>8.5</v>
+        <v>3.3</v>
       </c>
       <c r="O280">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P280">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="Q280">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R280">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S280">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T280">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U280">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V280">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W280">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X280">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y280">
         <v>-1</v>
       </c>
       <c r="Z280">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA280">
         <v>-1</v>
@@ -25457,7 +25457,7 @@
         <v>-1</v>
       </c>
       <c r="AC280">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25465,7 +25465,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>4819831</v>
+        <v>4819833</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25477,67 +25477,67 @@
         <v>44704.58333333334</v>
       </c>
       <c r="F281" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G281" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J281" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K281">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="L281">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M281">
+        <v>1.416</v>
+      </c>
+      <c r="N281">
+        <v>8.5</v>
+      </c>
+      <c r="O281">
+        <v>5.25</v>
+      </c>
+      <c r="P281">
+        <v>1.363</v>
+      </c>
+      <c r="Q281">
+        <v>1.5</v>
+      </c>
+      <c r="R281">
+        <v>1.875</v>
+      </c>
+      <c r="S281">
+        <v>1.975</v>
+      </c>
+      <c r="T281">
+        <v>3.25</v>
+      </c>
+      <c r="U281">
+        <v>1.95</v>
+      </c>
+      <c r="V281">
         <v>1.9</v>
       </c>
-      <c r="N281">
-        <v>3.3</v>
-      </c>
-      <c r="O281">
-        <v>3.8</v>
-      </c>
-      <c r="P281">
-        <v>2</v>
-      </c>
-      <c r="Q281">
-        <v>0.5</v>
-      </c>
-      <c r="R281">
-        <v>1.825</v>
-      </c>
-      <c r="S281">
-        <v>2.025</v>
-      </c>
-      <c r="T281">
-        <v>3</v>
-      </c>
-      <c r="U281">
-        <v>2.025</v>
-      </c>
-      <c r="V281">
-        <v>1.825</v>
-      </c>
       <c r="W281">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X281">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y281">
         <v>-1</v>
       </c>
       <c r="Z281">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA281">
         <v>-1</v>
@@ -25546,7 +25546,7 @@
         <v>-1</v>
       </c>
       <c r="AC281">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -27868,7 +27868,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>5128487</v>
+        <v>5128187</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27880,76 +27880,76 @@
         <v>44785.5625</v>
       </c>
       <c r="F308" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G308" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H308">
         <v>0</v>
       </c>
       <c r="I308">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J308" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K308">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="L308">
         <v>3.6</v>
       </c>
       <c r="M308">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="N308">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="O308">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P308">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="Q308">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R308">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S308">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T308">
+        <v>2.75</v>
+      </c>
+      <c r="U308">
+        <v>1.975</v>
+      </c>
+      <c r="V308">
+        <v>1.875</v>
+      </c>
+      <c r="W308">
+        <v>-1</v>
+      </c>
+      <c r="X308">
         <v>2.5</v>
       </c>
-      <c r="U308">
-        <v>1.85</v>
-      </c>
-      <c r="V308">
-        <v>2</v>
-      </c>
-      <c r="W308">
-        <v>-1</v>
-      </c>
-      <c r="X308">
-        <v>-1</v>
-      </c>
       <c r="Y308">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z308">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA308">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB308">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC308">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -27957,7 +27957,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>5128538</v>
+        <v>5128487</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27969,16 +27969,16 @@
         <v>44785.5625</v>
       </c>
       <c r="F309" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G309" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H309">
         <v>0</v>
       </c>
       <c r="I309">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J309" t="s">
         <v>51</v>
@@ -27987,37 +27987,37 @@
         <v>3.5</v>
       </c>
       <c r="L309">
+        <v>3.6</v>
+      </c>
+      <c r="M309">
+        <v>2</v>
+      </c>
+      <c r="N309">
+        <v>5</v>
+      </c>
+      <c r="O309">
         <v>3.8</v>
       </c>
-      <c r="M309">
-        <v>1.95</v>
-      </c>
-      <c r="N309">
-        <v>4.2</v>
-      </c>
-      <c r="O309">
-        <v>4</v>
-      </c>
       <c r="P309">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="Q309">
         <v>0.75</v>
       </c>
       <c r="R309">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S309">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T309">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U309">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V309">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W309">
         <v>-1</v>
@@ -28026,19 +28026,19 @@
         <v>-1</v>
       </c>
       <c r="Y309">
-        <v>0.8</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z309">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA309">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB309">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC309">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28046,7 +28046,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>5128187</v>
+        <v>5128538</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28058,76 +28058,76 @@
         <v>44785.5625</v>
       </c>
       <c r="F310" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G310" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H310">
         <v>0</v>
       </c>
       <c r="I310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J310" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K310">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="L310">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M310">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="N310">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="O310">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P310">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="Q310">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R310">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S310">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T310">
         <v>2.75</v>
       </c>
       <c r="U310">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V310">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W310">
         <v>-1</v>
       </c>
       <c r="X310">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y310">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z310">
-        <v>0.375</v>
+        <v>-0.5</v>
       </c>
       <c r="AA310">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB310">
         <v>-1</v>
       </c>
       <c r="AC310">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -30449,7 +30449,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>5128498</v>
+        <v>5128191</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30461,76 +30461,76 @@
         <v>44813.58333333334</v>
       </c>
       <c r="F337" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G337" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H337">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I337">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J337" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K337">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L337">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M337">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N337">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O337">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P337">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q337">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R337">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S337">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T337">
         <v>2.75</v>
       </c>
       <c r="U337">
+        <v>1.9</v>
+      </c>
+      <c r="V337">
         <v>1.95</v>
       </c>
-      <c r="V337">
-        <v>1.9</v>
-      </c>
       <c r="W337">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X337">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y337">
         <v>-1</v>
       </c>
       <c r="Z337">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA337">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB337">
+        <v>-1</v>
+      </c>
+      <c r="AC337">
         <v>0.95</v>
-      </c>
-      <c r="AC337">
-        <v>-1</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -30538,7 +30538,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>5128191</v>
+        <v>5128498</v>
       </c>
       <c r="C338" t="s">
         <v>28</v>
@@ -30550,76 +30550,76 @@
         <v>44813.58333333334</v>
       </c>
       <c r="F338" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G338" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I338">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J338" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K338">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L338">
+        <v>3.5</v>
+      </c>
+      <c r="M338">
+        <v>3.5</v>
+      </c>
+      <c r="N338">
+        <v>2</v>
+      </c>
+      <c r="O338">
         <v>3.6</v>
       </c>
-      <c r="M338">
-        <v>2.75</v>
-      </c>
-      <c r="N338">
-        <v>2.2</v>
-      </c>
-      <c r="O338">
-        <v>3.75</v>
-      </c>
       <c r="P338">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q338">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R338">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S338">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T338">
         <v>2.75</v>
       </c>
       <c r="U338">
+        <v>1.95</v>
+      </c>
+      <c r="V338">
         <v>1.9</v>
       </c>
-      <c r="V338">
-        <v>1.95</v>
-      </c>
       <c r="W338">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X338">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y338">
         <v>-1</v>
       </c>
       <c r="Z338">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA338">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB338">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC338">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="339" spans="1:29">
@@ -34009,7 +34009,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>5128196</v>
+        <v>5128512</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34021,76 +34021,76 @@
         <v>44864.375</v>
       </c>
       <c r="F377" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G377" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I377">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J377" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K377">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="L377">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M377">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="N377">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="O377">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P377">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q377">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R377">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S377">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T377">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U377">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V377">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W377">
         <v>-1</v>
       </c>
       <c r="X377">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y377">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z377">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA377">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB377">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC377">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="378" spans="1:29">
@@ -34098,7 +34098,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>5128512</v>
+        <v>5128196</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34110,76 +34110,76 @@
         <v>44864.375</v>
       </c>
       <c r="F378" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G378" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J378" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K378">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="L378">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M378">
+        <v>2.55</v>
+      </c>
+      <c r="N378">
+        <v>2.375</v>
+      </c>
+      <c r="O378">
+        <v>3.3</v>
+      </c>
+      <c r="P378">
+        <v>3.1</v>
+      </c>
+      <c r="Q378">
+        <v>-0.25</v>
+      </c>
+      <c r="R378">
+        <v>2.05</v>
+      </c>
+      <c r="S378">
+        <v>1.8</v>
+      </c>
+      <c r="T378">
         <v>2.25</v>
       </c>
-      <c r="N378">
-        <v>3</v>
-      </c>
-      <c r="O378">
-        <v>4</v>
-      </c>
-      <c r="P378">
-        <v>2.15</v>
-      </c>
-      <c r="Q378">
-        <v>0.25</v>
-      </c>
-      <c r="R378">
-        <v>2</v>
-      </c>
-      <c r="S378">
-        <v>1.85</v>
-      </c>
-      <c r="T378">
-        <v>3</v>
-      </c>
       <c r="U378">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V378">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W378">
         <v>-1</v>
       </c>
       <c r="X378">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y378">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z378">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA378">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB378">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC378">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -39527,7 +39527,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>6428349</v>
+        <v>6428321</v>
       </c>
       <c r="C439" t="s">
         <v>28</v>
@@ -39539,40 +39539,40 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F439" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G439" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I439">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J439" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K439">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="L439">
         <v>3.5</v>
       </c>
       <c r="M439">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="N439">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="O439">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P439">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q439">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R439">
         <v>1.925</v>
@@ -39581,7 +39581,7 @@
         <v>1.925</v>
       </c>
       <c r="T439">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U439">
         <v>1.9</v>
@@ -39590,25 +39590,25 @@
         <v>1.95</v>
       </c>
       <c r="W439">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X439">
         <v>-1</v>
       </c>
       <c r="Y439">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z439">
+        <v>-1</v>
+      </c>
+      <c r="AA439">
         <v>0.925</v>
       </c>
-      <c r="AA439">
-        <v>-1</v>
-      </c>
       <c r="AB439">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC439">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="440" spans="1:29">
@@ -39616,7 +39616,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>6428321</v>
+        <v>6428349</v>
       </c>
       <c r="C440" t="s">
         <v>28</v>
@@ -39628,40 +39628,40 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F440" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G440" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H440">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I440">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J440" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K440">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="L440">
         <v>3.5</v>
       </c>
       <c r="M440">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="N440">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="O440">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P440">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="Q440">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R440">
         <v>1.925</v>
@@ -39670,7 +39670,7 @@
         <v>1.925</v>
       </c>
       <c r="T440">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U440">
         <v>1.9</v>
@@ -39679,25 +39679,25 @@
         <v>1.95</v>
       </c>
       <c r="W440">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X440">
         <v>-1</v>
       </c>
       <c r="Y440">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z440">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA440">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB440">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC440">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="441" spans="1:29">
@@ -48516,7 +48516,7 @@
         <v>538</v>
       </c>
       <c r="B540">
-        <v>6798873</v>
+        <v>6799279</v>
       </c>
       <c r="C540" t="s">
         <v>28</v>
@@ -48528,49 +48528,49 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F540" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G540" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H540">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I540">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J540" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K540">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="L540">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M540">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="N540">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="O540">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P540">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="Q540">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R540">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S540">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T540">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U540">
         <v>1.9</v>
@@ -48582,22 +48582,22 @@
         <v>-1</v>
       </c>
       <c r="X540">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y540">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z540">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA540">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB540">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC540">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="541" spans="1:29">
@@ -48605,7 +48605,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>6799279</v>
+        <v>6798873</v>
       </c>
       <c r="C541" t="s">
         <v>28</v>
@@ -48617,49 +48617,49 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F541" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G541" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I541">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J541" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K541">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="L541">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M541">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="N541">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="O541">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P541">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="Q541">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R541">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S541">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T541">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U541">
         <v>1.9</v>
@@ -48671,22 +48671,22 @@
         <v>-1</v>
       </c>
       <c r="X541">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y541">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z541">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA541">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB541">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC541">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="542" spans="1:29">
@@ -52610,7 +52610,7 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>7554250</v>
+        <v>6799302</v>
       </c>
       <c r="C586" t="s">
         <v>28</v>
@@ -52622,76 +52622,76 @@
         <v>45265.60416666666</v>
       </c>
       <c r="F586" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G586" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J586" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K586">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L586">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M586">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N586">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O586">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P586">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q586">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R586">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S586">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T586">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U586">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V586">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W586">
         <v>-1</v>
       </c>
       <c r="X586">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y586">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z586">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA586">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AB586">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC586">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="587" spans="1:29">
@@ -52699,7 +52699,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>6799302</v>
+        <v>7554250</v>
       </c>
       <c r="C587" t="s">
         <v>28</v>
@@ -52711,76 +52711,76 @@
         <v>45265.60416666666</v>
       </c>
       <c r="F587" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G587" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J587" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K587">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="L587">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M587">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N587">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O587">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P587">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q587">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R587">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S587">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T587">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U587">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V587">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W587">
         <v>-1</v>
       </c>
       <c r="X587">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y587">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z587">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA587">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB587">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC587">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>

--- a/Denmark Division 1/Denmark Division 1.xlsx
+++ b/Denmark Division 1/Denmark Division 1.xlsx
@@ -109,10 +109,10 @@
     <t>FC Helsingor</t>
   </si>
   <si>
-    <t>Hvidovre IF</t>
+    <t>Vejle</t>
   </si>
   <si>
-    <t>Vejle</t>
+    <t>Hvidovre IF</t>
   </si>
   <si>
     <t>Naestved</t>
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5128521</v>
+        <v>5128562</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,10 +809,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -821,43 +821,43 @@
         <v>47</v>
       </c>
       <c r="K4">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="L4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M4">
         <v>7</v>
       </c>
       <c r="N4">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O4">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="P4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q4">
         <v>-1.5</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S4">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T4">
         <v>3</v>
       </c>
       <c r="U4">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W4">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -866,13 +866,13 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5128562</v>
+        <v>5128521</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,10 +898,10 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -910,43 +910,43 @@
         <v>47</v>
       </c>
       <c r="K5">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M5">
         <v>7</v>
       </c>
       <c r="N5">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="O5">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q5">
         <v>-1.5</v>
       </c>
       <c r="R5">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -955,13 +955,13 @@
         <v>-1</v>
       </c>
       <c r="Z5">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA5">
+        <v>-1</v>
+      </c>
+      <c r="AB5">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA5">
-        <v>-1</v>
-      </c>
-      <c r="AB5">
-        <v>1.05</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1963,7 +1963,7 @@
         <v>44989.375</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -2230,7 +2230,7 @@
         <v>44990.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
         <v>39</v>
@@ -2589,7 +2589,7 @@
         <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2764,7 +2764,7 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
         <v>35</v>
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5128571</v>
+        <v>5128528</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,49 +2853,49 @@
         <v>45003.375</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="L27">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M27">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="O27">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P27">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U27">
         <v>2</v>
@@ -2904,25 +2904,25 @@
         <v>1.85</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5128201</v>
+        <v>5128294</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,55 +2942,55 @@
         <v>45003.375</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
         <v>46</v>
       </c>
       <c r="K28">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="L28">
+        <v>3.5</v>
+      </c>
+      <c r="M28">
+        <v>3.2</v>
+      </c>
+      <c r="N28">
+        <v>2.375</v>
+      </c>
+      <c r="O28">
         <v>3.6</v>
       </c>
-      <c r="M28">
-        <v>1.714</v>
-      </c>
-      <c r="N28">
-        <v>4.75</v>
-      </c>
-      <c r="O28">
-        <v>3.5</v>
-      </c>
       <c r="P28">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="Q28">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W28">
         <v>-1</v>
@@ -2999,19 +2999,19 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.7270000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5128528</v>
+        <v>5128571</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,49 +3031,49 @@
         <v>45003.375</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M29">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="N29">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="O29">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P29">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q29">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S29">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T29">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
         <v>2</v>
@@ -3082,25 +3082,25 @@
         <v>1.85</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X29">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3120,7 +3120,7 @@
         <v>45003.375</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
         <v>39</v>
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5128572</v>
+        <v>5128201</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,76 +3209,76 @@
         <v>45003.375</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>2</v>
       </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>1.666</v>
+        <v>4.75</v>
       </c>
       <c r="L31">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M31">
-        <v>4.2</v>
+        <v>1.714</v>
       </c>
       <c r="N31">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="O31">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R31">
+        <v>1.875</v>
+      </c>
+      <c r="S31">
+        <v>1.975</v>
+      </c>
+      <c r="T31">
+        <v>2.5</v>
+      </c>
+      <c r="U31">
+        <v>1.95</v>
+      </c>
+      <c r="V31">
         <v>1.9</v>
       </c>
-      <c r="S31">
-        <v>1.95</v>
-      </c>
-      <c r="T31">
-        <v>3</v>
-      </c>
-      <c r="U31">
-        <v>2.05</v>
-      </c>
-      <c r="V31">
-        <v>1.8</v>
-      </c>
       <c r="W31">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z31">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5128294</v>
+        <v>5128572</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,76 +3298,76 @@
         <v>45003.375</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L32">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M32">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N32">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="O32">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P32">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q32">
+        <v>-0.75</v>
+      </c>
+      <c r="R32">
+        <v>1.9</v>
+      </c>
+      <c r="S32">
+        <v>1.95</v>
+      </c>
+      <c r="T32">
+        <v>3</v>
+      </c>
+      <c r="U32">
+        <v>2.05</v>
+      </c>
+      <c r="V32">
+        <v>1.8</v>
+      </c>
+      <c r="W32">
+        <v>0.7</v>
+      </c>
+      <c r="X32">
+        <v>-1</v>
+      </c>
+      <c r="Y32">
+        <v>-1</v>
+      </c>
+      <c r="Z32">
+        <v>0.45</v>
+      </c>
+      <c r="AA32">
+        <v>-0.5</v>
+      </c>
+      <c r="AB32">
         <v>0</v>
       </c>
-      <c r="R32">
-        <v>1.8</v>
-      </c>
-      <c r="S32">
-        <v>2.05</v>
-      </c>
-      <c r="T32">
-        <v>2.75</v>
-      </c>
-      <c r="U32">
-        <v>2</v>
-      </c>
-      <c r="V32">
-        <v>1.85</v>
-      </c>
-      <c r="W32">
-        <v>-1</v>
-      </c>
-      <c r="X32">
-        <v>-1</v>
-      </c>
-      <c r="Y32">
-        <v>1.7</v>
-      </c>
-      <c r="Z32">
-        <v>-1</v>
-      </c>
-      <c r="AA32">
-        <v>1.05</v>
-      </c>
-      <c r="AB32">
-        <v>-1</v>
-      </c>
       <c r="AC32">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>45017.4375</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
         <v>38</v>
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6428342</v>
+        <v>6428313</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,73 +3743,73 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="L37">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M37">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N37">
+        <v>3.8</v>
+      </c>
+      <c r="O37">
+        <v>3.75</v>
+      </c>
+      <c r="P37">
+        <v>1.909</v>
+      </c>
+      <c r="Q37">
+        <v>0.5</v>
+      </c>
+      <c r="R37">
         <v>2</v>
       </c>
-      <c r="O37">
-        <v>3.6</v>
-      </c>
-      <c r="P37">
-        <v>3.6</v>
-      </c>
-      <c r="Q37">
-        <v>-0.5</v>
-      </c>
-      <c r="R37">
-        <v>2.025</v>
-      </c>
       <c r="S37">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
         <v>2.75</v>
       </c>
       <c r="U37">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V37">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA37">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6428313</v>
+        <v>6428342</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,73 +3832,73 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
         <v>3</v>
       </c>
-      <c r="I38">
+      <c r="J38" t="s">
+        <v>46</v>
+      </c>
+      <c r="K38">
+        <v>2.4</v>
+      </c>
+      <c r="L38">
+        <v>3.5</v>
+      </c>
+      <c r="M38">
+        <v>2.6</v>
+      </c>
+      <c r="N38">
         <v>2</v>
       </c>
-      <c r="J38" t="s">
-        <v>47</v>
-      </c>
-      <c r="K38">
-        <v>3.4</v>
-      </c>
-      <c r="L38">
-        <v>3.3</v>
-      </c>
-      <c r="M38">
-        <v>2.1</v>
-      </c>
-      <c r="N38">
-        <v>3.8</v>
-      </c>
       <c r="O38">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P38">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="Q38">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T38">
         <v>2.75</v>
       </c>
       <c r="U38">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V38">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB38">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC38">
         <v>-1</v>
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6428314</v>
+        <v>6428343</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,73 +3921,73 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
         <v>3</v>
       </c>
-      <c r="I39">
-        <v>2</v>
-      </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K39">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="L39">
         <v>3.6</v>
       </c>
       <c r="M39">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N39">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="O39">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P39">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T39">
         <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z39">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB39">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6428343</v>
+        <v>6428314</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,73 +4010,73 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K40">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="L40">
         <v>3.6</v>
       </c>
       <c r="M40">
+        <v>4</v>
+      </c>
+      <c r="N40">
+        <v>1.75</v>
+      </c>
+      <c r="O40">
+        <v>3.8</v>
+      </c>
+      <c r="P40">
+        <v>4.5</v>
+      </c>
+      <c r="Q40">
+        <v>-0.75</v>
+      </c>
+      <c r="R40">
         <v>1.95</v>
       </c>
-      <c r="N40">
-        <v>3.75</v>
-      </c>
-      <c r="O40">
-        <v>3.6</v>
-      </c>
-      <c r="P40">
-        <v>1.95</v>
-      </c>
-      <c r="Q40">
-        <v>0.5</v>
-      </c>
-      <c r="R40">
-        <v>1.875</v>
-      </c>
       <c r="S40">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T40">
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA40">
+        <v>-0.5</v>
+      </c>
+      <c r="AB40">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB40">
-        <v>0.925</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4280,7 +4280,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4455,10 +4455,10 @@
         <v>45029.54166666666</v>
       </c>
       <c r="F45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" t="s">
         <v>32</v>
-      </c>
-      <c r="G45" t="s">
-        <v>31</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4903,7 +4903,7 @@
         <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5167,7 +5167,7 @@
         <v>45038.33333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G53" t="s">
         <v>39</v>
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6428353</v>
+        <v>6428352</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,76 +5434,76 @@
         <v>45044.5625</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K56">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L56">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M56">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N56">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="O56">
         <v>3.8</v>
       </c>
       <c r="P56">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="Q56">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S56">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T56">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U56">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V56">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W56">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z56">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB56">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6428352</v>
+        <v>6428353</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,76 +5523,76 @@
         <v>45044.5625</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K57">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L57">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M57">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="N57">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="O57">
         <v>3.8</v>
       </c>
       <c r="P57">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="Q57">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S57">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T57">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V57">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA57">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC57">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5615,7 +5615,7 @@
         <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5879,7 +5879,7 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
         <v>30</v>
@@ -5968,10 +5968,10 @@
         <v>45051.54166666666</v>
       </c>
       <c r="F62" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" t="s">
         <v>31</v>
-      </c>
-      <c r="G62" t="s">
-        <v>32</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6428355</v>
+        <v>6428356</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45051.5625</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63" t="s">
+        <v>45</v>
+      </c>
+      <c r="K63">
+        <v>1.909</v>
+      </c>
+      <c r="L63">
+        <v>3.3</v>
+      </c>
+      <c r="M63">
+        <v>3.75</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+      <c r="O63">
+        <v>3.5</v>
+      </c>
+      <c r="P63">
+        <v>3.8</v>
+      </c>
+      <c r="Q63">
+        <v>-0.5</v>
+      </c>
+      <c r="R63">
+        <v>2.05</v>
+      </c>
+      <c r="S63">
+        <v>1.8</v>
+      </c>
+      <c r="T63">
+        <v>2.75</v>
+      </c>
+      <c r="U63">
+        <v>2</v>
+      </c>
+      <c r="V63">
+        <v>1.85</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
+        <v>2.5</v>
+      </c>
+      <c r="Y63">
+        <v>-1</v>
+      </c>
+      <c r="Z63">
+        <v>-1</v>
+      </c>
+      <c r="AA63">
+        <v>0.8</v>
+      </c>
+      <c r="AB63">
         <v>1</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63" t="s">
-        <v>47</v>
-      </c>
-      <c r="K63">
-        <v>2.625</v>
-      </c>
-      <c r="L63">
-        <v>3.2</v>
-      </c>
-      <c r="M63">
-        <v>2.4</v>
-      </c>
-      <c r="N63">
-        <v>3.5</v>
-      </c>
-      <c r="O63">
-        <v>3.2</v>
-      </c>
-      <c r="P63">
-        <v>2.15</v>
-      </c>
-      <c r="Q63">
-        <v>0.25</v>
-      </c>
-      <c r="R63">
-        <v>1.975</v>
-      </c>
-      <c r="S63">
-        <v>1.875</v>
-      </c>
-      <c r="T63">
-        <v>2.25</v>
-      </c>
-      <c r="U63">
-        <v>1.875</v>
-      </c>
-      <c r="V63">
-        <v>1.975</v>
-      </c>
-      <c r="W63">
-        <v>2.5</v>
-      </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
-      <c r="Y63">
-        <v>-1</v>
-      </c>
-      <c r="Z63">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA63">
-        <v>-1</v>
-      </c>
-      <c r="AB63">
-        <v>-1</v>
-      </c>
       <c r="AC63">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6428356</v>
+        <v>6428355</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,76 +6146,76 @@
         <v>45051.5625</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K64">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L64">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M64">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="N64">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O64">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P64">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q64">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R64">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S64">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V64">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X64">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA64">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6505,7 +6505,7 @@
         <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6683,7 +6683,7 @@
         <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -7036,7 +7036,7 @@
         <v>45064.375</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7481,7 +7481,7 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
         <v>33</v>
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6428366</v>
+        <v>6428364</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,76 +7570,76 @@
         <v>45072.5625</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K80">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L80">
+        <v>4.2</v>
+      </c>
+      <c r="M80">
+        <v>3.6</v>
+      </c>
+      <c r="N80">
+        <v>1.45</v>
+      </c>
+      <c r="O80">
+        <v>5.25</v>
+      </c>
+      <c r="P80">
+        <v>5.25</v>
+      </c>
+      <c r="Q80">
+        <v>-1.25</v>
+      </c>
+      <c r="R80">
+        <v>1.95</v>
+      </c>
+      <c r="S80">
+        <v>1.9</v>
+      </c>
+      <c r="T80">
         <v>3.5</v>
       </c>
-      <c r="M80">
-        <v>2.75</v>
-      </c>
-      <c r="N80">
-        <v>2.375</v>
-      </c>
-      <c r="O80">
-        <v>3.75</v>
-      </c>
-      <c r="P80">
-        <v>2.7</v>
-      </c>
-      <c r="Q80">
-        <v>-0.25</v>
-      </c>
-      <c r="R80">
-        <v>2.1</v>
-      </c>
-      <c r="S80">
-        <v>1.775</v>
-      </c>
-      <c r="T80">
-        <v>3</v>
-      </c>
       <c r="U80">
+        <v>1.9</v>
+      </c>
+      <c r="V80">
         <v>1.95</v>
       </c>
-      <c r="V80">
-        <v>1.9</v>
-      </c>
       <c r="W80">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA80">
-        <v>0.7749999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC80">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6428364</v>
+        <v>6428366</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,76 +7748,76 @@
         <v>45072.5625</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82" t="s">
+        <v>46</v>
+      </c>
+      <c r="K82">
+        <v>2.375</v>
+      </c>
+      <c r="L82">
+        <v>3.5</v>
+      </c>
+      <c r="M82">
+        <v>2.75</v>
+      </c>
+      <c r="N82">
+        <v>2.375</v>
+      </c>
+      <c r="O82">
+        <v>3.75</v>
+      </c>
+      <c r="P82">
+        <v>2.7</v>
+      </c>
+      <c r="Q82">
+        <v>-0.25</v>
+      </c>
+      <c r="R82">
+        <v>2.1</v>
+      </c>
+      <c r="S82">
+        <v>1.775</v>
+      </c>
+      <c r="T82">
         <v>3</v>
       </c>
-      <c r="J82" t="s">
-        <v>47</v>
-      </c>
-      <c r="K82">
-        <v>1.727</v>
-      </c>
-      <c r="L82">
-        <v>4.2</v>
-      </c>
-      <c r="M82">
-        <v>3.6</v>
-      </c>
-      <c r="N82">
-        <v>1.45</v>
-      </c>
-      <c r="O82">
-        <v>5.25</v>
-      </c>
-      <c r="P82">
-        <v>5.25</v>
-      </c>
-      <c r="Q82">
-        <v>-1.25</v>
-      </c>
-      <c r="R82">
+      <c r="U82">
         <v>1.95</v>
       </c>
-      <c r="S82">
+      <c r="V82">
         <v>1.9</v>
       </c>
-      <c r="T82">
-        <v>3.5</v>
-      </c>
-      <c r="U82">
-        <v>1.9</v>
-      </c>
-      <c r="V82">
-        <v>1.95</v>
-      </c>
       <c r="W82">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB82">
+        <v>-1</v>
+      </c>
+      <c r="AC82">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC82">
-        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7840,7 +7840,7 @@
         <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6428334</v>
+        <v>6428335</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,76 +7926,76 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J84" t="s">
         <v>45</v>
       </c>
       <c r="K84">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M84">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="N84">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P84">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="Q84">
         <v>0.5</v>
       </c>
       <c r="R84">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T84">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V84">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC84">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6428335</v>
+        <v>6428334</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>45</v>
       </c>
       <c r="K85">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L85">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M85">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="N85">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O85">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P85">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="Q85">
         <v>0.5</v>
       </c>
       <c r="R85">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S85">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T85">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6428367</v>
+        <v>6428369</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K86">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="L86">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M86">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="N86">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="O86">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="P86">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R86">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S86">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U86">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6428369</v>
+        <v>6428367</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K88">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="L88">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M88">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="N88">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="O88">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P88">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="Q88">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S88">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T88">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V88">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y88">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA88">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
       <c r="AB88">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8371,7 +8371,7 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
         <v>39</v>
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6428338</v>
+        <v>6428337</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,73 +8460,73 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H90">
+        <v>2</v>
+      </c>
+      <c r="I90">
         <v>3</v>
       </c>
-      <c r="I90">
+      <c r="J90" t="s">
+        <v>46</v>
+      </c>
+      <c r="K90">
+        <v>1.7</v>
+      </c>
+      <c r="L90">
+        <v>4</v>
+      </c>
+      <c r="M90">
+        <v>4.2</v>
+      </c>
+      <c r="N90">
+        <v>1.571</v>
+      </c>
+      <c r="O90">
+        <v>4.75</v>
+      </c>
+      <c r="P90">
+        <v>4.75</v>
+      </c>
+      <c r="Q90">
+        <v>-1</v>
+      </c>
+      <c r="R90">
+        <v>1.975</v>
+      </c>
+      <c r="S90">
+        <v>1.875</v>
+      </c>
+      <c r="T90">
+        <v>3.5</v>
+      </c>
+      <c r="U90">
         <v>2</v>
       </c>
-      <c r="J90" t="s">
-        <v>47</v>
-      </c>
-      <c r="K90">
-        <v>1.5</v>
-      </c>
-      <c r="L90">
-        <v>4.5</v>
-      </c>
-      <c r="M90">
-        <v>5</v>
-      </c>
-      <c r="N90">
-        <v>1.363</v>
-      </c>
-      <c r="O90">
-        <v>5.25</v>
-      </c>
-      <c r="P90">
-        <v>6.5</v>
-      </c>
-      <c r="Q90">
-        <v>-1.5</v>
-      </c>
-      <c r="R90">
-        <v>1.95</v>
-      </c>
-      <c r="S90">
-        <v>1.9</v>
-      </c>
-      <c r="T90">
+      <c r="V90">
+        <v>1.85</v>
+      </c>
+      <c r="W90">
+        <v>-1</v>
+      </c>
+      <c r="X90">
+        <v>-1</v>
+      </c>
+      <c r="Y90">
         <v>3.75</v>
       </c>
-      <c r="U90">
-        <v>1.9</v>
-      </c>
-      <c r="V90">
-        <v>1.95</v>
-      </c>
-      <c r="W90">
-        <v>0.363</v>
-      </c>
-      <c r="X90">
-        <v>-1</v>
-      </c>
-      <c r="Y90">
-        <v>-1</v>
-      </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB90">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8537,7 +8537,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6428337</v>
+        <v>6428338</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8549,73 +8549,73 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H91">
+        <v>3</v>
+      </c>
+      <c r="I91">
         <v>2</v>
       </c>
-      <c r="I91">
-        <v>3</v>
-      </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K91">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M91">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N91">
-        <v>1.571</v>
+        <v>1.363</v>
       </c>
       <c r="O91">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P91">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q91">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R91">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S91">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T91">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U91">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6799248</v>
+        <v>6799247</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45130.375</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
         <v>2</v>
       </c>
-      <c r="I96">
-        <v>1</v>
-      </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K96">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="L96">
         <v>3.6</v>
       </c>
       <c r="M96">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N96">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O96">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P96">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
+        <v>1.875</v>
+      </c>
+      <c r="S96">
         <v>1.975</v>
-      </c>
-      <c r="S96">
-        <v>1.875</v>
       </c>
       <c r="T96">
         <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W96">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z96">
+        <v>-1</v>
+      </c>
+      <c r="AA96">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA96">
-        <v>-1</v>
-      </c>
       <c r="AB96">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6799247</v>
+        <v>6799248</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45130.375</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K97">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="L97">
         <v>3.6</v>
       </c>
       <c r="M97">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N97">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O97">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P97">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R97">
+        <v>1.975</v>
+      </c>
+      <c r="S97">
         <v>1.875</v>
-      </c>
-      <c r="S97">
-        <v>1.975</v>
       </c>
       <c r="T97">
         <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V97">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA97">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC97">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6799249</v>
+        <v>6799250</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,58 +9172,58 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H98">
         <v>3</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
         <v>47</v>
       </c>
       <c r="K98">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L98">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M98">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N98">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O98">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P98">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q98">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R98">
+        <v>1.975</v>
+      </c>
+      <c r="S98">
         <v>1.875</v>
       </c>
-      <c r="S98">
-        <v>1.975</v>
-      </c>
       <c r="T98">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W98">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9232,13 +9232,13 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6799251</v>
+        <v>6799249</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,40 +9261,40 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H99">
+        <v>3</v>
+      </c>
+      <c r="I99">
         <v>1</v>
       </c>
-      <c r="I99">
-        <v>3</v>
-      </c>
       <c r="J99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K99">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="L99">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M99">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N99">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="O99">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P99">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q99">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
         <v>1.875</v>
@@ -9306,28 +9306,28 @@
         <v>3</v>
       </c>
       <c r="U99">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA99">
+        <v>-1</v>
+      </c>
+      <c r="AB99">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB99">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6799250</v>
+        <v>6799251</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,73 +9350,73 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
         <v>3</v>
       </c>
-      <c r="I100">
+      <c r="J100" t="s">
+        <v>46</v>
+      </c>
+      <c r="K100">
+        <v>1.7</v>
+      </c>
+      <c r="L100">
+        <v>3.8</v>
+      </c>
+      <c r="M100">
+        <v>4</v>
+      </c>
+      <c r="N100">
+        <v>1.7</v>
+      </c>
+      <c r="O100">
+        <v>4</v>
+      </c>
+      <c r="P100">
+        <v>4.5</v>
+      </c>
+      <c r="Q100">
+        <v>-0.75</v>
+      </c>
+      <c r="R100">
+        <v>1.875</v>
+      </c>
+      <c r="S100">
+        <v>1.975</v>
+      </c>
+      <c r="T100">
+        <v>3</v>
+      </c>
+      <c r="U100">
+        <v>1.85</v>
+      </c>
+      <c r="V100">
         <v>2</v>
       </c>
-      <c r="J100" t="s">
-        <v>47</v>
-      </c>
-      <c r="K100">
-        <v>2.3</v>
-      </c>
-      <c r="L100">
-        <v>3.3</v>
-      </c>
-      <c r="M100">
-        <v>2.75</v>
-      </c>
-      <c r="N100">
-        <v>2.8</v>
-      </c>
-      <c r="O100">
-        <v>3.3</v>
-      </c>
-      <c r="P100">
-        <v>2.5</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
-        <v>1.975</v>
-      </c>
-      <c r="S100">
-        <v>1.875</v>
-      </c>
-      <c r="T100">
-        <v>2.5</v>
-      </c>
-      <c r="U100">
-        <v>1.9</v>
-      </c>
-      <c r="V100">
-        <v>1.95</v>
-      </c>
       <c r="W100">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z100">
+        <v>-1</v>
+      </c>
+      <c r="AA100">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA100">
-        <v>-1</v>
-      </c>
       <c r="AB100">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6798865</v>
+        <v>6798549</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,58 +9439,58 @@
         <v>45136.375</v>
       </c>
       <c r="F101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G101" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101">
         <v>1</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
       </c>
       <c r="J101" t="s">
         <v>47</v>
       </c>
       <c r="K101">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M101">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N101">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="O101">
         <v>4.333</v>
       </c>
       <c r="P101">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q101">
         <v>-1</v>
       </c>
       <c r="R101">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S101">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V101">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W101">
-        <v>0.6000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9505,10 +9505,10 @@
         <v>-0</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC101">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6798549</v>
+        <v>6798865</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,58 +9528,58 @@
         <v>45136.375</v>
       </c>
       <c r="F102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>47</v>
       </c>
       <c r="K102">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="L102">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M102">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N102">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O102">
         <v>4.333</v>
       </c>
       <c r="P102">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q102">
         <v>-1</v>
       </c>
       <c r="R102">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S102">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
         <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W102">
-        <v>0.5</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9594,10 +9594,10 @@
         <v>-0</v>
       </c>
       <c r="AB102">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6800833</v>
+        <v>6798867</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,76 +10329,76 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
       <c r="I111">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K111">
+        <v>4.333</v>
+      </c>
+      <c r="L111">
+        <v>3.75</v>
+      </c>
+      <c r="M111">
+        <v>1.65</v>
+      </c>
+      <c r="N111">
+        <v>4.75</v>
+      </c>
+      <c r="O111">
+        <v>4</v>
+      </c>
+      <c r="P111">
         <v>1.615</v>
       </c>
-      <c r="L111">
-        <v>4</v>
-      </c>
-      <c r="M111">
-        <v>4.2</v>
-      </c>
-      <c r="N111">
-        <v>1.75</v>
-      </c>
-      <c r="O111">
-        <v>4.333</v>
-      </c>
-      <c r="P111">
-        <v>3.8</v>
-      </c>
       <c r="Q111">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R111">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S111">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T111">
         <v>3</v>
       </c>
       <c r="U111">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y111">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA111">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6798867</v>
+        <v>6800833</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,76 +10418,76 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J112" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K112">
+        <v>1.615</v>
+      </c>
+      <c r="L112">
+        <v>4</v>
+      </c>
+      <c r="M112">
+        <v>4.2</v>
+      </c>
+      <c r="N112">
+        <v>1.75</v>
+      </c>
+      <c r="O112">
         <v>4.333</v>
       </c>
-      <c r="L112">
-        <v>3.75</v>
-      </c>
-      <c r="M112">
-        <v>1.65</v>
-      </c>
-      <c r="N112">
-        <v>4.75</v>
-      </c>
-      <c r="O112">
-        <v>4</v>
-      </c>
       <c r="P112">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="Q112">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R112">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S112">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
         <v>3</v>
       </c>
       <c r="U112">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V112">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z112">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC112">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6800832</v>
+        <v>6798551</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,55 +10863,55 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J117" t="s">
         <v>46</v>
       </c>
       <c r="K117">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L117">
         <v>3.4</v>
       </c>
       <c r="M117">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N117">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="O117">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P117">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R117">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S117">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T117">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U117">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V117">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
         <v>-1</v>
@@ -10920,16 +10920,16 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>1.8</v>
+        <v>1.375</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB117">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6798551</v>
+        <v>6800832</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,56 +11041,56 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J119" t="s">
         <v>46</v>
       </c>
       <c r="K119">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L119">
         <v>3.4</v>
       </c>
       <c r="M119">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N119">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="O119">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P119">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="Q119">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R119">
+        <v>1.825</v>
+      </c>
+      <c r="S119">
+        <v>2.025</v>
+      </c>
+      <c r="T119">
+        <v>3</v>
+      </c>
+      <c r="U119">
         <v>1.8</v>
       </c>
-      <c r="S119">
+      <c r="V119">
         <v>2.05</v>
       </c>
-      <c r="T119">
-        <v>2.75</v>
-      </c>
-      <c r="U119">
-        <v>1.875</v>
-      </c>
-      <c r="V119">
-        <v>1.975</v>
-      </c>
       <c r="W119">
         <v>-1</v>
       </c>
@@ -11098,16 +11098,16 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.375</v>
+        <v>1.8</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB119">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6798552</v>
+        <v>6799263</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,40 +11486,40 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K124">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L124">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M124">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N124">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="O124">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P124">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R124">
         <v>2</v>
@@ -11528,31 +11528,31 @@
         <v>1.85</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U124">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z124">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB124">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6799263</v>
+        <v>6798552</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,40 +11575,40 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H125">
+        <v>2</v>
+      </c>
+      <c r="I125">
         <v>1</v>
       </c>
-      <c r="I125">
-        <v>6</v>
-      </c>
       <c r="J125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K125">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L125">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M125">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N125">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="O125">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P125">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="Q125">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R125">
         <v>2</v>
@@ -11617,31 +11617,31 @@
         <v>1.85</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA125">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6800829</v>
+        <v>6799269</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135" t="s">
+        <v>46</v>
+      </c>
+      <c r="K135">
+        <v>2.05</v>
+      </c>
+      <c r="L135">
+        <v>3.6</v>
+      </c>
+      <c r="M135">
+        <v>3.25</v>
+      </c>
+      <c r="N135">
+        <v>2.45</v>
+      </c>
+      <c r="O135">
+        <v>4</v>
+      </c>
+      <c r="P135">
+        <v>2.55</v>
+      </c>
+      <c r="Q135">
         <v>0</v>
       </c>
-      <c r="J135" t="s">
-        <v>45</v>
-      </c>
-      <c r="K135">
-        <v>1.8</v>
-      </c>
-      <c r="L135">
-        <v>3.8</v>
-      </c>
-      <c r="M135">
-        <v>3.8</v>
-      </c>
-      <c r="N135">
-        <v>1.666</v>
-      </c>
-      <c r="O135">
-        <v>4.2</v>
-      </c>
-      <c r="P135">
-        <v>4.5</v>
-      </c>
-      <c r="Q135">
-        <v>-0.75</v>
-      </c>
       <c r="R135">
+        <v>1.9</v>
+      </c>
+      <c r="S135">
+        <v>1.95</v>
+      </c>
+      <c r="T135">
+        <v>3.25</v>
+      </c>
+      <c r="U135">
+        <v>2.025</v>
+      </c>
+      <c r="V135">
         <v>1.825</v>
       </c>
-      <c r="S135">
-        <v>2.025</v>
-      </c>
-      <c r="T135">
-        <v>3</v>
-      </c>
-      <c r="U135">
-        <v>1.875</v>
-      </c>
-      <c r="V135">
-        <v>1.975</v>
-      </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB135">
         <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6799269</v>
+        <v>6800829</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K136">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L136">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M136">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="N136">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="O136">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P136">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S136">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T136">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U136">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y136">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB136">
         <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6798871</v>
+        <v>6799273</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,76 +13088,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K142">
+        <v>2.4</v>
+      </c>
+      <c r="L142">
+        <v>3.3</v>
+      </c>
+      <c r="M142">
+        <v>2.75</v>
+      </c>
+      <c r="N142">
+        <v>2.25</v>
+      </c>
+      <c r="O142">
+        <v>3.4</v>
+      </c>
+      <c r="P142">
+        <v>3.1</v>
+      </c>
+      <c r="Q142">
+        <v>-0.25</v>
+      </c>
+      <c r="R142">
+        <v>2.05</v>
+      </c>
+      <c r="S142">
+        <v>1.8</v>
+      </c>
+      <c r="T142">
         <v>2.5</v>
       </c>
-      <c r="L142">
-        <v>3.5</v>
-      </c>
-      <c r="M142">
-        <v>2.5</v>
-      </c>
-      <c r="N142">
-        <v>2.55</v>
-      </c>
-      <c r="O142">
-        <v>3.5</v>
-      </c>
-      <c r="P142">
-        <v>2.625</v>
-      </c>
-      <c r="Q142">
-        <v>0</v>
-      </c>
-      <c r="R142">
-        <v>1.825</v>
-      </c>
-      <c r="S142">
-        <v>2.025</v>
-      </c>
-      <c r="T142">
-        <v>2.75</v>
-      </c>
       <c r="U142">
+        <v>1.95</v>
+      </c>
+      <c r="V142">
         <v>1.9</v>
       </c>
-      <c r="V142">
-        <v>1.95</v>
-      </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6799273</v>
+        <v>6798871</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,76 +13177,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G143" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K143">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L143">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M143">
+        <v>2.5</v>
+      </c>
+      <c r="N143">
+        <v>2.55</v>
+      </c>
+      <c r="O143">
+        <v>3.5</v>
+      </c>
+      <c r="P143">
+        <v>2.625</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>1.825</v>
+      </c>
+      <c r="S143">
+        <v>2.025</v>
+      </c>
+      <c r="T143">
         <v>2.75</v>
       </c>
-      <c r="N143">
-        <v>2.25</v>
-      </c>
-      <c r="O143">
-        <v>3.4</v>
-      </c>
-      <c r="P143">
-        <v>3.1</v>
-      </c>
-      <c r="Q143">
-        <v>-0.25</v>
-      </c>
-      <c r="R143">
-        <v>2.05</v>
-      </c>
-      <c r="S143">
-        <v>1.8</v>
-      </c>
-      <c r="T143">
+      <c r="U143">
+        <v>1.9</v>
+      </c>
+      <c r="V143">
+        <v>1.95</v>
+      </c>
+      <c r="W143">
+        <v>-1</v>
+      </c>
+      <c r="X143">
         <v>2.5</v>
       </c>
-      <c r="U143">
-        <v>1.95</v>
-      </c>
-      <c r="V143">
-        <v>1.9</v>
-      </c>
-      <c r="W143">
-        <v>-1</v>
-      </c>
-      <c r="X143">
-        <v>-1</v>
-      </c>
       <c r="Y143">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA143">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6798872</v>
+        <v>6800826</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,76 +13444,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
         <v>2</v>
       </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
       <c r="J146" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K146">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="L146">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M146">
-        <v>13</v>
+        <v>2.35</v>
       </c>
       <c r="N146">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="O146">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P146">
-        <v>13</v>
+        <v>2.3</v>
       </c>
       <c r="Q146">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R146">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S146">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T146">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V146">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W146">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC146">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6798555</v>
+        <v>6798872</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,76 +13533,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K147">
-        <v>2.05</v>
+        <v>1.2</v>
       </c>
       <c r="L147">
+        <v>6</v>
+      </c>
+      <c r="M147">
+        <v>13</v>
+      </c>
+      <c r="N147">
+        <v>1.2</v>
+      </c>
+      <c r="O147">
+        <v>6.5</v>
+      </c>
+      <c r="P147">
+        <v>13</v>
+      </c>
+      <c r="Q147">
+        <v>-2</v>
+      </c>
+      <c r="R147">
+        <v>1.975</v>
+      </c>
+      <c r="S147">
+        <v>1.875</v>
+      </c>
+      <c r="T147">
         <v>3.5</v>
       </c>
-      <c r="M147">
-        <v>3.2</v>
-      </c>
-      <c r="N147">
-        <v>2.4</v>
-      </c>
-      <c r="O147">
-        <v>3.5</v>
-      </c>
-      <c r="P147">
-        <v>2.75</v>
-      </c>
-      <c r="Q147">
+      <c r="U147">
+        <v>2.025</v>
+      </c>
+      <c r="V147">
+        <v>1.825</v>
+      </c>
+      <c r="W147">
+        <v>0.2</v>
+      </c>
+      <c r="X147">
+        <v>-1</v>
+      </c>
+      <c r="Y147">
+        <v>-1</v>
+      </c>
+      <c r="Z147">
         <v>0</v>
       </c>
-      <c r="R147">
-        <v>1.825</v>
-      </c>
-      <c r="S147">
-        <v>2.025</v>
-      </c>
-      <c r="T147">
-        <v>2.75</v>
-      </c>
-      <c r="U147">
-        <v>1.825</v>
-      </c>
-      <c r="V147">
-        <v>2.025</v>
-      </c>
-      <c r="W147">
-        <v>-1</v>
-      </c>
-      <c r="X147">
-        <v>-1</v>
-      </c>
-      <c r="Y147">
-        <v>1.75</v>
-      </c>
-      <c r="Z147">
-        <v>-1</v>
-      </c>
       <c r="AA147">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB147">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6800826</v>
+        <v>6798555</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,10 +13622,10 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13637,40 +13637,40 @@
         <v>46</v>
       </c>
       <c r="K148">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="L148">
         <v>3.5</v>
       </c>
       <c r="M148">
-        <v>2.35</v>
+        <v>3.2</v>
       </c>
       <c r="N148">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="O148">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P148">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q148">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R148">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S148">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T148">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13679,19 +13679,19 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB148">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6799279</v>
+        <v>6798873</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,49 +13978,49 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K152">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="L152">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M152">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="N152">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="O152">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P152">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R152">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S152">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T152">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U152">
         <v>1.9</v>
@@ -14032,22 +14032,22 @@
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z152">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC152">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14055,7 +14055,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6798873</v>
+        <v>6799279</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14067,49 +14067,49 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K153">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="L153">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M153">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="N153">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="O153">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P153">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="Q153">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R153">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S153">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T153">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U153">
         <v>1.9</v>
@@ -14121,22 +14121,22 @@
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y153">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA153">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB153">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6798874</v>
+        <v>6800824</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,55 +14601,55 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G159" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J159" t="s">
         <v>46</v>
       </c>
       <c r="K159">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L159">
         <v>3.75</v>
       </c>
       <c r="M159">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="N159">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O159">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P159">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q159">
         <v>0.5</v>
       </c>
       <c r="R159">
+        <v>1.875</v>
+      </c>
+      <c r="S159">
         <v>1.975</v>
       </c>
-      <c r="S159">
-        <v>1.875</v>
-      </c>
       <c r="T159">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U159">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V159">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14658,19 +14658,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB159">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6800824</v>
+        <v>6798874</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,55 +14690,55 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G160" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J160" t="s">
         <v>46</v>
       </c>
       <c r="K160">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L160">
         <v>3.75</v>
       </c>
       <c r="M160">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="N160">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O160">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P160">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q160">
         <v>0.5</v>
       </c>
       <c r="R160">
+        <v>1.975</v>
+      </c>
+      <c r="S160">
         <v>1.875</v>
       </c>
-      <c r="S160">
+      <c r="T160">
+        <v>2.5</v>
+      </c>
+      <c r="U160">
         <v>1.975</v>
       </c>
-      <c r="T160">
-        <v>3</v>
-      </c>
-      <c r="U160">
-        <v>2</v>
-      </c>
       <c r="V160">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14747,19 +14747,19 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
+        <v>0.875</v>
+      </c>
+      <c r="AB160">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB160">
-        <v>0</v>
-      </c>
       <c r="AC160">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6799287</v>
+        <v>6798558</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,13 +15135,13 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -15150,43 +15150,43 @@
         <v>47</v>
       </c>
       <c r="K165">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="L165">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M165">
+        <v>4.333</v>
+      </c>
+      <c r="N165">
+        <v>1.909</v>
+      </c>
+      <c r="O165">
         <v>3.8</v>
       </c>
-      <c r="N165">
-        <v>1.8</v>
-      </c>
-      <c r="O165">
-        <v>3.75</v>
-      </c>
       <c r="P165">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q165">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R165">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S165">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U165">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V165">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W165">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15195,16 +15195,16 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.5125</v>
+        <v>0.925</v>
       </c>
       <c r="AA165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC165">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15212,7 +15212,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6799286</v>
+        <v>6799287</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15224,67 +15224,67 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G166" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H166">
         <v>1</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K166">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="L166">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M166">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="N166">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="O166">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P166">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q166">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R166">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S166">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T166">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U166">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V166">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X166">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.45</v>
+        <v>0.5125</v>
       </c>
       <c r="AA166">
         <v>-0.5</v>
@@ -15293,7 +15293,7 @@
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15301,7 +15301,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6798558</v>
+        <v>6799286</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15313,76 +15313,76 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H167">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K167">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M167">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N167">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O167">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P167">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q167">
+        <v>0.25</v>
+      </c>
+      <c r="R167">
+        <v>1.9</v>
+      </c>
+      <c r="S167">
+        <v>1.95</v>
+      </c>
+      <c r="T167">
+        <v>3</v>
+      </c>
+      <c r="U167">
+        <v>2</v>
+      </c>
+      <c r="V167">
+        <v>1.85</v>
+      </c>
+      <c r="W167">
+        <v>-1</v>
+      </c>
+      <c r="X167">
+        <v>2.6</v>
+      </c>
+      <c r="Y167">
+        <v>-1</v>
+      </c>
+      <c r="Z167">
+        <v>0.45</v>
+      </c>
+      <c r="AA167">
         <v>-0.5</v>
       </c>
-      <c r="R167">
-        <v>1.925</v>
-      </c>
-      <c r="S167">
-        <v>1.925</v>
-      </c>
-      <c r="T167">
-        <v>2.75</v>
-      </c>
-      <c r="U167">
-        <v>1.9</v>
-      </c>
-      <c r="V167">
-        <v>1.95</v>
-      </c>
-      <c r="W167">
-        <v>0.909</v>
-      </c>
-      <c r="X167">
-        <v>-1</v>
-      </c>
-      <c r="Y167">
-        <v>-1</v>
-      </c>
-      <c r="Z167">
-        <v>0.925</v>
-      </c>
-      <c r="AA167">
-        <v>-1</v>
-      </c>
       <c r="AB167">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15568,7 +15568,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6799291</v>
+        <v>6800822</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15580,55 +15580,55 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G170" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J170" t="s">
         <v>46</v>
       </c>
       <c r="K170">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="L170">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M170">
-        <v>3.25</v>
+        <v>1.533</v>
       </c>
       <c r="N170">
-        <v>2.15</v>
+        <v>8</v>
       </c>
       <c r="O170">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P170">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="Q170">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R170">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S170">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T170">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U170">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V170">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W170">
         <v>-1</v>
@@ -15637,16 +15637,16 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>2.2</v>
+        <v>0.333</v>
       </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB170">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC170">
         <v>-1</v>
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6800822</v>
+        <v>6799288</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,76 +15669,76 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G171" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K171">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="L171">
         <v>3.8</v>
       </c>
       <c r="M171">
-        <v>1.533</v>
+        <v>3.8</v>
       </c>
       <c r="N171">
-        <v>8</v>
+        <v>1.65</v>
       </c>
       <c r="O171">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P171">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q171">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R171">
+        <v>1.85</v>
+      </c>
+      <c r="S171">
+        <v>2</v>
+      </c>
+      <c r="T171">
+        <v>2.75</v>
+      </c>
+      <c r="U171">
         <v>1.925</v>
       </c>
-      <c r="S171">
+      <c r="V171">
         <v>1.925</v>
       </c>
-      <c r="T171">
-        <v>3.5</v>
-      </c>
-      <c r="U171">
-        <v>2.025</v>
-      </c>
-      <c r="V171">
-        <v>1.825</v>
-      </c>
       <c r="W171">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA171">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB171">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6799288</v>
+        <v>6799291</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,76 +15758,76 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G172" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J172" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K172">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L172">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M172">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="N172">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O172">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P172">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q172">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S172">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T172">
         <v>2.75</v>
       </c>
       <c r="U172">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W172">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z172">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB172">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC172">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6799293</v>
+        <v>6799294</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,76 +16114,76 @@
         <v>45233.625</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G176" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H176">
         <v>1</v>
       </c>
       <c r="I176">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K176">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="L176">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M176">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="N176">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="O176">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P176">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="Q176">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R176">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S176">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T176">
         <v>2.75</v>
       </c>
       <c r="U176">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V176">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA176">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB176">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16191,7 +16191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6799294</v>
+        <v>6799293</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16203,76 +16203,76 @@
         <v>45233.625</v>
       </c>
       <c r="F177" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H177">
         <v>1</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J177" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K177">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="L177">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M177">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="N177">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="O177">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q177">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S177">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V177">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W177">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC177">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">

--- a/Denmark Division 1/Denmark Division 1.xlsx
+++ b/Denmark Division 1/Denmark Division 1.xlsx
@@ -124,10 +124,10 @@
     <t>FC Fredericia</t>
   </si>
   <si>
-    <t>HB Kge</t>
+    <t>Fremad Amager</t>
   </si>
   <si>
-    <t>Fremad Amager</t>
+    <t>HB Kge</t>
   </si>
   <si>
     <t>Sonderjyske</t>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5128564</v>
+        <v>5128563</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L9">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="N9">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="O9">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P9">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="Q9">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S9">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X9">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5128563</v>
+        <v>5128564</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,73 +1343,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10">
+        <v>3.5</v>
+      </c>
+      <c r="L10">
+        <v>3.75</v>
+      </c>
+      <c r="M10">
+        <v>1.909</v>
+      </c>
+      <c r="N10">
+        <v>4.333</v>
+      </c>
+      <c r="O10">
+        <v>4.2</v>
+      </c>
+      <c r="P10">
+        <v>1.666</v>
+      </c>
+      <c r="Q10">
+        <v>0.75</v>
+      </c>
+      <c r="R10">
+        <v>1.975</v>
+      </c>
+      <c r="S10">
+        <v>1.875</v>
+      </c>
+      <c r="T10">
+        <v>2.75</v>
+      </c>
+      <c r="U10">
+        <v>1.85</v>
+      </c>
+      <c r="V10">
         <v>2</v>
       </c>
-      <c r="I10">
+      <c r="W10">
+        <v>-1</v>
+      </c>
+      <c r="X10">
+        <v>3.2</v>
+      </c>
+      <c r="Y10">
+        <v>-1</v>
+      </c>
+      <c r="Z10">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA10">
+        <v>-1</v>
+      </c>
+      <c r="AB10">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
         <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10">
-        <v>2.5</v>
-      </c>
-      <c r="L10">
-        <v>3.4</v>
-      </c>
-      <c r="M10">
-        <v>2.625</v>
-      </c>
-      <c r="N10">
-        <v>3.1</v>
-      </c>
-      <c r="O10">
-        <v>3.4</v>
-      </c>
-      <c r="P10">
-        <v>2.2</v>
-      </c>
-      <c r="Q10">
-        <v>0.25</v>
-      </c>
-      <c r="R10">
-        <v>1.9</v>
-      </c>
-      <c r="S10">
-        <v>1.95</v>
-      </c>
-      <c r="T10">
-        <v>2.5</v>
-      </c>
-      <c r="U10">
-        <v>1.95</v>
-      </c>
-      <c r="V10">
-        <v>1.9</v>
-      </c>
-      <c r="W10">
-        <v>2.1</v>
-      </c>
-      <c r="X10">
-        <v>-1</v>
-      </c>
-      <c r="Y10">
-        <v>-1</v>
-      </c>
-      <c r="Z10">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA10">
-        <v>-1</v>
-      </c>
-      <c r="AB10">
-        <v>0.95</v>
-      </c>
-      <c r="AC10">
-        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1788,7 +1788,7 @@
         <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -2055,7 +2055,7 @@
         <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2408,7 +2408,7 @@
         <v>44996.375</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
         <v>30</v>
@@ -2500,7 +2500,7 @@
         <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>4</v>
@@ -2942,7 +2942,7 @@
         <v>45003.375</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
         <v>29</v>
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5128571</v>
+        <v>5128527</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,13 +3031,13 @@
         <v>45003.375</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -3046,43 +3046,43 @@
         <v>47</v>
       </c>
       <c r="K29">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L29">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M29">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N29">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O29">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P29">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q29">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S29">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3091,13 +3091,13 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5128527</v>
+        <v>5128571</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,13 +3120,13 @@
         <v>45003.375</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -3135,43 +3135,43 @@
         <v>47</v>
       </c>
       <c r="K30">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L30">
+        <v>3.5</v>
+      </c>
+      <c r="M30">
         <v>3.6</v>
       </c>
-      <c r="M30">
-        <v>4</v>
-      </c>
       <c r="N30">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O30">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P30">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3180,13 +3180,13 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3301,7 +3301,7 @@
         <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3568,7 +3568,7 @@
         <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3832,7 +3832,7 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s">
         <v>34</v>
@@ -3921,7 +3921,7 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
         <v>35</v>
@@ -4102,7 +4102,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6428347</v>
+        <v>6428348</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>45032.375</v>
       </c>
       <c r="F48" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" t="s">
         <v>37</v>
       </c>
-      <c r="G48" t="s">
-        <v>34</v>
-      </c>
       <c r="H48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K48">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="L48">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48">
         <v>2.2</v>
       </c>
-      <c r="N48">
-        <v>2.8</v>
-      </c>
       <c r="O48">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P48">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S48">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V48">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X48">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA48">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC48">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6428348</v>
+        <v>6428347</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>45032.375</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H49">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K49">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L49">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N49">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O49">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P49">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q49">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S49">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T49">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V49">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W49">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6428349</v>
+        <v>6428321</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,40 +4989,40 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K51">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="L51">
         <v>3.5</v>
       </c>
       <c r="M51">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="N51">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="O51">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P51">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R51">
         <v>1.925</v>
@@ -5031,7 +5031,7 @@
         <v>1.925</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
         <v>1.9</v>
@@ -5040,25 +5040,25 @@
         <v>1.95</v>
       </c>
       <c r="W51">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z51">
+        <v>-1</v>
+      </c>
+      <c r="AA51">
         <v>0.925</v>
       </c>
-      <c r="AA51">
-        <v>-1</v>
-      </c>
       <c r="AB51">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC51">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6428321</v>
+        <v>6428349</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,40 +5078,40 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K52">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="L52">
         <v>3.5</v>
       </c>
       <c r="M52">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="N52">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="O52">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P52">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="Q52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R52">
         <v>1.925</v>
@@ -5120,7 +5120,7 @@
         <v>1.925</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U52">
         <v>1.9</v>
@@ -5129,25 +5129,25 @@
         <v>1.95</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5256,7 +5256,7 @@
         <v>45039.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
         <v>29</v>
@@ -5434,10 +5434,10 @@
         <v>45044.5625</v>
       </c>
       <c r="F56" t="s">
+        <v>36</v>
+      </c>
+      <c r="G56" t="s">
         <v>37</v>
-      </c>
-      <c r="G56" t="s">
-        <v>36</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -6146,7 +6146,7 @@
         <v>45051.5625</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
         <v>29</v>
@@ -6235,7 +6235,7 @@
         <v>45052.33333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
         <v>40</v>
@@ -6594,7 +6594,7 @@
         <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6858,7 +6858,7 @@
         <v>45059.33333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
         <v>35</v>
@@ -7128,7 +7128,7 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7395,7 +7395,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6428364</v>
+        <v>6428366</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,76 +7570,76 @@
         <v>45072.5625</v>
       </c>
       <c r="F80" t="s">
+        <v>34</v>
+      </c>
+      <c r="G80" t="s">
         <v>37</v>
       </c>
-      <c r="G80" t="s">
-        <v>40</v>
-      </c>
       <c r="H80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80" t="s">
+        <v>46</v>
+      </c>
+      <c r="K80">
+        <v>2.375</v>
+      </c>
+      <c r="L80">
+        <v>3.5</v>
+      </c>
+      <c r="M80">
+        <v>2.75</v>
+      </c>
+      <c r="N80">
+        <v>2.375</v>
+      </c>
+      <c r="O80">
+        <v>3.75</v>
+      </c>
+      <c r="P80">
+        <v>2.7</v>
+      </c>
+      <c r="Q80">
+        <v>-0.25</v>
+      </c>
+      <c r="R80">
+        <v>2.1</v>
+      </c>
+      <c r="S80">
+        <v>1.775</v>
+      </c>
+      <c r="T80">
         <v>3</v>
       </c>
-      <c r="J80" t="s">
-        <v>47</v>
-      </c>
-      <c r="K80">
-        <v>1.727</v>
-      </c>
-      <c r="L80">
-        <v>4.2</v>
-      </c>
-      <c r="M80">
-        <v>3.6</v>
-      </c>
-      <c r="N80">
-        <v>1.45</v>
-      </c>
-      <c r="O80">
-        <v>5.25</v>
-      </c>
-      <c r="P80">
-        <v>5.25</v>
-      </c>
-      <c r="Q80">
-        <v>-1.25</v>
-      </c>
-      <c r="R80">
+      <c r="U80">
         <v>1.95</v>
       </c>
-      <c r="S80">
+      <c r="V80">
         <v>1.9</v>
       </c>
-      <c r="T80">
-        <v>3.5</v>
-      </c>
-      <c r="U80">
-        <v>1.9</v>
-      </c>
-      <c r="V80">
-        <v>1.95</v>
-      </c>
       <c r="W80">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB80">
+        <v>-1</v>
+      </c>
+      <c r="AC80">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC80">
-        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6428365</v>
+        <v>6428364</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,58 +7659,58 @@
         <v>45072.5625</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H81">
         <v>4</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J81" t="s">
         <v>47</v>
       </c>
       <c r="K81">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L81">
+        <v>4.2</v>
+      </c>
+      <c r="M81">
         <v>3.6</v>
       </c>
-      <c r="M81">
-        <v>3.25</v>
-      </c>
       <c r="N81">
-        <v>2.05</v>
+        <v>1.45</v>
       </c>
       <c r="O81">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P81">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R81">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S81">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T81">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U81">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V81">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W81">
-        <v>1.05</v>
+        <v>0.45</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7719,13 +7719,13 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB81">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6428366</v>
+        <v>6428365</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,76 +7748,76 @@
         <v>45072.5625</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H82">
+        <v>4</v>
+      </c>
+      <c r="I82">
         <v>0</v>
       </c>
-      <c r="I82">
+      <c r="J82" t="s">
+        <v>47</v>
+      </c>
+      <c r="K82">
         <v>2</v>
       </c>
-      <c r="J82" t="s">
-        <v>46</v>
-      </c>
-      <c r="K82">
-        <v>2.375</v>
-      </c>
       <c r="L82">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M82">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N82">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O82">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P82">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q82">
         <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S82">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T82">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V82">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA82">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC82">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6428369</v>
+        <v>6428368</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,73 +8104,73 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86" t="s">
+        <v>47</v>
+      </c>
+      <c r="K86">
+        <v>1.571</v>
+      </c>
+      <c r="L86">
+        <v>4.333</v>
+      </c>
+      <c r="M86">
+        <v>4.333</v>
+      </c>
+      <c r="N86">
+        <v>1.45</v>
+      </c>
+      <c r="O86">
         <v>5</v>
       </c>
-      <c r="J86" t="s">
-        <v>46</v>
-      </c>
-      <c r="K86">
-        <v>4.2</v>
-      </c>
-      <c r="L86">
-        <v>4.2</v>
-      </c>
-      <c r="M86">
-        <v>1.65</v>
-      </c>
-      <c r="N86">
+      <c r="P86">
         <v>6</v>
       </c>
-      <c r="O86">
-        <v>5.75</v>
-      </c>
-      <c r="P86">
-        <v>1.444</v>
-      </c>
       <c r="Q86">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R86">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S86">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T86">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V86">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA86">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6428368</v>
+        <v>6428369</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,73 +8193,73 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>5</v>
+      </c>
+      <c r="J87" t="s">
+        <v>46</v>
+      </c>
+      <c r="K87">
+        <v>4.2</v>
+      </c>
+      <c r="L87">
+        <v>4.2</v>
+      </c>
+      <c r="M87">
+        <v>1.65</v>
+      </c>
+      <c r="N87">
+        <v>6</v>
+      </c>
+      <c r="O87">
+        <v>5.75</v>
+      </c>
+      <c r="P87">
+        <v>1.444</v>
+      </c>
+      <c r="Q87">
+        <v>1.5</v>
+      </c>
+      <c r="R87">
+        <v>1.825</v>
+      </c>
+      <c r="S87">
+        <v>2.025</v>
+      </c>
+      <c r="T87">
         <v>4</v>
       </c>
-      <c r="I87">
-        <v>2</v>
-      </c>
-      <c r="J87" t="s">
-        <v>47</v>
-      </c>
-      <c r="K87">
-        <v>1.571</v>
-      </c>
-      <c r="L87">
-        <v>4.333</v>
-      </c>
-      <c r="M87">
-        <v>4.333</v>
-      </c>
-      <c r="N87">
-        <v>1.45</v>
-      </c>
-      <c r="O87">
-        <v>5</v>
-      </c>
-      <c r="P87">
-        <v>6</v>
-      </c>
-      <c r="Q87">
-        <v>-1.25</v>
-      </c>
-      <c r="R87">
-        <v>1.925</v>
-      </c>
-      <c r="S87">
-        <v>1.925</v>
-      </c>
-      <c r="T87">
-        <v>3.5</v>
-      </c>
       <c r="U87">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V87">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W87">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z87">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB87">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8641,7 +8641,7 @@
         <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
         <v>39</v>
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6798549</v>
+        <v>6798865</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,58 +9439,58 @@
         <v>45136.375</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
         <v>47</v>
       </c>
       <c r="K101">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M101">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N101">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O101">
         <v>4.333</v>
       </c>
       <c r="P101">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q101">
         <v>-1</v>
       </c>
       <c r="R101">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S101">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V101">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W101">
-        <v>0.5</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9505,10 +9505,10 @@
         <v>-0</v>
       </c>
       <c r="AB101">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6798865</v>
+        <v>6798549</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,58 +9528,58 @@
         <v>45136.375</v>
       </c>
       <c r="F102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G102" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H102">
+        <v>2</v>
+      </c>
+      <c r="I102">
         <v>1</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>47</v>
       </c>
       <c r="K102">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M102">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N102">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="O102">
         <v>4.333</v>
       </c>
       <c r="P102">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q102">
         <v>-1</v>
       </c>
       <c r="R102">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S102">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T102">
         <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V102">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
-        <v>0.6000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9594,10 +9594,10 @@
         <v>-0</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC102">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9709,7 +9709,7 @@
         <v>44</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -10418,7 +10418,7 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
         <v>41</v>
@@ -11219,7 +11219,7 @@
         <v>45158.33333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
         <v>34</v>
@@ -11667,7 +11667,7 @@
         <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H126">
         <v>4</v>
@@ -12109,7 +12109,7 @@
         <v>45165.33333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
         <v>35</v>
@@ -12824,7 +12824,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -12910,7 +12910,7 @@
         <v>45183.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
         <v>42</v>
@@ -13536,7 +13536,7 @@
         <v>43</v>
       </c>
       <c r="G147" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -14245,7 +14245,7 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G155" t="s">
         <v>30</v>
@@ -14782,7 +14782,7 @@
         <v>42</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H161">
         <v>3</v>
@@ -15491,7 +15491,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G169" t="s">
         <v>33</v>
@@ -15672,7 +15672,7 @@
         <v>34</v>
       </c>
       <c r="G171" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -16203,7 +16203,7 @@
         <v>45233.625</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G177" t="s">
         <v>44</v>
@@ -16636,7 +16636,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6799295</v>
+        <v>6800819</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16648,76 +16648,76 @@
         <v>45240.625</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G182" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K182">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="L182">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M182">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="N182">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="O182">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P182">
+        <v>2.8</v>
+      </c>
+      <c r="Q182">
+        <v>0</v>
+      </c>
+      <c r="R182">
+        <v>1.8</v>
+      </c>
+      <c r="S182">
+        <v>2.05</v>
+      </c>
+      <c r="T182">
+        <v>2.75</v>
+      </c>
+      <c r="U182">
+        <v>1.9</v>
+      </c>
+      <c r="V182">
+        <v>1.95</v>
+      </c>
+      <c r="W182">
         <v>1.45</v>
       </c>
-      <c r="Q182">
-        <v>1.25</v>
-      </c>
-      <c r="R182">
-        <v>1.925</v>
-      </c>
-      <c r="S182">
-        <v>1.925</v>
-      </c>
-      <c r="T182">
-        <v>3.25</v>
-      </c>
-      <c r="U182">
-        <v>1.85</v>
-      </c>
-      <c r="V182">
-        <v>2</v>
-      </c>
-      <c r="W182">
-        <v>-1</v>
-      </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA182">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16814,7 +16814,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6800819</v>
+        <v>6799295</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16826,76 +16826,76 @@
         <v>45240.625</v>
       </c>
       <c r="F184" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H184">
+        <v>1</v>
+      </c>
+      <c r="I184">
+        <v>4</v>
+      </c>
+      <c r="J184" t="s">
+        <v>46</v>
+      </c>
+      <c r="K184">
+        <v>7.5</v>
+      </c>
+      <c r="L184">
+        <v>5</v>
+      </c>
+      <c r="M184">
+        <v>1.333</v>
+      </c>
+      <c r="N184">
+        <v>6.5</v>
+      </c>
+      <c r="O184">
+        <v>4.75</v>
+      </c>
+      <c r="P184">
+        <v>1.45</v>
+      </c>
+      <c r="Q184">
+        <v>1.25</v>
+      </c>
+      <c r="R184">
+        <v>1.925</v>
+      </c>
+      <c r="S184">
+        <v>1.925</v>
+      </c>
+      <c r="T184">
+        <v>3.25</v>
+      </c>
+      <c r="U184">
+        <v>1.85</v>
+      </c>
+      <c r="V184">
         <v>2</v>
       </c>
-      <c r="I184">
-        <v>0</v>
-      </c>
-      <c r="J184" t="s">
-        <v>47</v>
-      </c>
-      <c r="K184">
-        <v>2.5</v>
-      </c>
-      <c r="L184">
-        <v>3.4</v>
-      </c>
-      <c r="M184">
-        <v>2.55</v>
-      </c>
-      <c r="N184">
-        <v>2.45</v>
-      </c>
-      <c r="O184">
-        <v>3.5</v>
-      </c>
-      <c r="P184">
-        <v>2.8</v>
-      </c>
-      <c r="Q184">
-        <v>0</v>
-      </c>
-      <c r="R184">
-        <v>1.8</v>
-      </c>
-      <c r="S184">
-        <v>2.05</v>
-      </c>
-      <c r="T184">
-        <v>2.75</v>
-      </c>
-      <c r="U184">
-        <v>1.9</v>
-      </c>
-      <c r="V184">
-        <v>1.95</v>
-      </c>
       <c r="W184">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z184">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC184">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17541,7 +17541,7 @@
         <v>39</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17983,7 +17983,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G197" t="s">
         <v>43</v>

--- a/Denmark Division 1/Denmark Division 1.xlsx
+++ b/Denmark Division 1/Denmark Division 1.xlsx
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5128199</v>
+        <v>5128297</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,40 +1518,40 @@
         <v>44982.375</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="L12">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="M12">
+        <v>1.7</v>
+      </c>
+      <c r="N12">
+        <v>3.6</v>
+      </c>
+      <c r="O12">
         <v>3.8</v>
       </c>
-      <c r="N12">
-        <v>2.2</v>
-      </c>
-      <c r="O12">
-        <v>3.5</v>
-      </c>
       <c r="P12">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R12">
         <v>1.925</v>
@@ -1560,19 +1560,19 @@
         <v>1.925</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V12">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W12">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y12">
         <v>-1</v>
@@ -1584,10 +1584,10 @@
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5128297</v>
+        <v>5128199</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1607,40 +1607,40 @@
         <v>44982.375</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="L13">
+        <v>3.7</v>
+      </c>
+      <c r="M13">
         <v>3.8</v>
       </c>
-      <c r="M13">
-        <v>1.7</v>
-      </c>
       <c r="N13">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="O13">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P13">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q13">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
         <v>1.925</v>
@@ -1649,19 +1649,19 @@
         <v>1.925</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X13">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
@@ -1673,10 +1673,10 @@
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC13">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5128295</v>
+        <v>5128568</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,76 +2319,76 @@
         <v>44996.375</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K21">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L21">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="N21">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="O21">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P21">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R21">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V21">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W21">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z21">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5128568</v>
+        <v>5128295</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>44996.375</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
         <v>0</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L22">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M22">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="N22">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="O22">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P22">
+        <v>3</v>
+      </c>
+      <c r="Q22">
+        <v>-0.25</v>
+      </c>
+      <c r="R22">
+        <v>2.1</v>
+      </c>
+      <c r="S22">
+        <v>1.775</v>
+      </c>
+      <c r="T22">
+        <v>2.5</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22">
         <v>1.85</v>
       </c>
-      <c r="Q22">
-        <v>0.5</v>
-      </c>
-      <c r="R22">
-        <v>1.975</v>
-      </c>
-      <c r="S22">
-        <v>1.875</v>
-      </c>
-      <c r="T22">
-        <v>2.75</v>
-      </c>
-      <c r="U22">
-        <v>1.825</v>
-      </c>
-      <c r="V22">
-        <v>2.025</v>
-      </c>
       <c r="W22">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
+        <v>-1</v>
+      </c>
+      <c r="Z22">
+        <v>1.1</v>
+      </c>
+      <c r="AA22">
+        <v>-1</v>
+      </c>
+      <c r="AB22">
+        <v>-1</v>
+      </c>
+      <c r="AC22">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z22">
-        <v>-1</v>
-      </c>
-      <c r="AA22">
-        <v>0.875</v>
-      </c>
-      <c r="AB22">
-        <v>-1</v>
-      </c>
-      <c r="AC22">
-        <v>1.025</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5128528</v>
+        <v>5128294</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,49 +2853,49 @@
         <v>45003.375</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M27">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="N27">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="O27">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P27">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q27">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T27">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
         <v>2</v>
@@ -2907,16 +2907,16 @@
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB27">
         <v>-1</v>
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5128294</v>
+        <v>5128527</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,76 +2942,76 @@
         <v>45003.375</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L28">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M28">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N28">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P28">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
+        <v>2.05</v>
+      </c>
+      <c r="S28">
         <v>1.8</v>
-      </c>
-      <c r="S28">
-        <v>2.05</v>
       </c>
       <c r="T28">
         <v>2.75</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA28">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC28">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5128527</v>
+        <v>5128528</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,76 +3031,76 @@
         <v>45003.375</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="L29">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M29">
+        <v>7.5</v>
+      </c>
+      <c r="N29">
+        <v>1.444</v>
+      </c>
+      <c r="O29">
+        <v>5</v>
+      </c>
+      <c r="P29">
+        <v>6</v>
+      </c>
+      <c r="Q29">
+        <v>-1.25</v>
+      </c>
+      <c r="R29">
+        <v>1.925</v>
+      </c>
+      <c r="S29">
+        <v>1.925</v>
+      </c>
+      <c r="T29">
+        <v>3.25</v>
+      </c>
+      <c r="U29">
+        <v>2</v>
+      </c>
+      <c r="V29">
+        <v>1.85</v>
+      </c>
+      <c r="W29">
+        <v>-1</v>
+      </c>
+      <c r="X29">
         <v>4</v>
       </c>
-      <c r="N29">
-        <v>1.8</v>
-      </c>
-      <c r="O29">
-        <v>3.8</v>
-      </c>
-      <c r="P29">
-        <v>4</v>
-      </c>
-      <c r="Q29">
-        <v>-0.75</v>
-      </c>
-      <c r="R29">
-        <v>2.05</v>
-      </c>
-      <c r="S29">
-        <v>1.8</v>
-      </c>
-      <c r="T29">
-        <v>2.75</v>
-      </c>
-      <c r="U29">
-        <v>1.9</v>
-      </c>
-      <c r="V29">
-        <v>1.95</v>
-      </c>
-      <c r="W29">
-        <v>0.8</v>
-      </c>
-      <c r="X29">
-        <v>-1</v>
-      </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5128201</v>
+        <v>5128572</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,76 +3209,76 @@
         <v>45003.375</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31">
+        <v>1.666</v>
+      </c>
+      <c r="L31">
+        <v>3.8</v>
+      </c>
+      <c r="M31">
+        <v>4.2</v>
+      </c>
+      <c r="N31">
+        <v>1.7</v>
+      </c>
+      <c r="O31">
+        <v>4</v>
+      </c>
+      <c r="P31">
+        <v>4.5</v>
+      </c>
+      <c r="Q31">
+        <v>-0.75</v>
+      </c>
+      <c r="R31">
+        <v>1.9</v>
+      </c>
+      <c r="S31">
+        <v>1.95</v>
+      </c>
+      <c r="T31">
+        <v>3</v>
+      </c>
+      <c r="U31">
+        <v>2.05</v>
+      </c>
+      <c r="V31">
+        <v>1.8</v>
+      </c>
+      <c r="W31">
+        <v>0.7</v>
+      </c>
+      <c r="X31">
+        <v>-1</v>
+      </c>
+      <c r="Y31">
+        <v>-1</v>
+      </c>
+      <c r="Z31">
+        <v>0.45</v>
+      </c>
+      <c r="AA31">
+        <v>-0.5</v>
+      </c>
+      <c r="AB31">
         <v>0</v>
       </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
-      <c r="J31" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31">
-        <v>4.75</v>
-      </c>
-      <c r="L31">
-        <v>3.6</v>
-      </c>
-      <c r="M31">
-        <v>1.714</v>
-      </c>
-      <c r="N31">
-        <v>4.75</v>
-      </c>
-      <c r="O31">
-        <v>3.5</v>
-      </c>
-      <c r="P31">
-        <v>1.727</v>
-      </c>
-      <c r="Q31">
-        <v>0.75</v>
-      </c>
-      <c r="R31">
-        <v>1.875</v>
-      </c>
-      <c r="S31">
-        <v>1.975</v>
-      </c>
-      <c r="T31">
-        <v>2.5</v>
-      </c>
-      <c r="U31">
-        <v>1.95</v>
-      </c>
-      <c r="V31">
-        <v>1.9</v>
-      </c>
-      <c r="W31">
-        <v>-1</v>
-      </c>
-      <c r="X31">
-        <v>-1</v>
-      </c>
-      <c r="Y31">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Z31">
-        <v>-1</v>
-      </c>
-      <c r="AA31">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB31">
-        <v>-1</v>
-      </c>
       <c r="AC31">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5128572</v>
+        <v>5128201</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,76 +3298,76 @@
         <v>45003.375</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>2</v>
       </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>1.666</v>
+        <v>4.75</v>
       </c>
       <c r="L32">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
-        <v>4.2</v>
+        <v>1.714</v>
       </c>
       <c r="N32">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="O32">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q32">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R32">
+        <v>1.875</v>
+      </c>
+      <c r="S32">
+        <v>1.975</v>
+      </c>
+      <c r="T32">
+        <v>2.5</v>
+      </c>
+      <c r="U32">
+        <v>1.95</v>
+      </c>
+      <c r="V32">
         <v>1.9</v>
       </c>
-      <c r="S32">
-        <v>1.95</v>
-      </c>
-      <c r="T32">
-        <v>3</v>
-      </c>
-      <c r="U32">
-        <v>2.05</v>
-      </c>
-      <c r="V32">
-        <v>1.8</v>
-      </c>
       <c r="W32">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z32">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6428343</v>
+        <v>6428314</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,73 +3921,73 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K39">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="L39">
         <v>3.6</v>
       </c>
       <c r="M39">
+        <v>4</v>
+      </c>
+      <c r="N39">
+        <v>1.75</v>
+      </c>
+      <c r="O39">
+        <v>3.8</v>
+      </c>
+      <c r="P39">
+        <v>4.5</v>
+      </c>
+      <c r="Q39">
+        <v>-0.75</v>
+      </c>
+      <c r="R39">
         <v>1.95</v>
       </c>
-      <c r="N39">
-        <v>3.75</v>
-      </c>
-      <c r="O39">
-        <v>3.6</v>
-      </c>
-      <c r="P39">
-        <v>1.95</v>
-      </c>
-      <c r="Q39">
-        <v>0.5</v>
-      </c>
-      <c r="R39">
-        <v>1.875</v>
-      </c>
       <c r="S39">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T39">
         <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA39">
+        <v>-0.5</v>
+      </c>
+      <c r="AB39">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB39">
-        <v>0.925</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6428314</v>
+        <v>6428343</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,73 +4010,73 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
         <v>3</v>
       </c>
-      <c r="I40">
-        <v>2</v>
-      </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K40">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="L40">
         <v>3.6</v>
       </c>
       <c r="M40">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N40">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="O40">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P40">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S40">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T40">
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V40">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z40">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB40">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6428348</v>
+        <v>6428347</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>45032.375</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H48">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K48">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L48">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M48">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N48">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O48">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P48">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q48">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S48">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T48">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V48">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W48">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB48">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6428347</v>
+        <v>6428348</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>45032.375</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K49">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M49">
+        <v>3</v>
+      </c>
+      <c r="N49">
         <v>2.2</v>
       </c>
-      <c r="N49">
-        <v>2.8</v>
-      </c>
       <c r="O49">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P49">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S49">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U49">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V49">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X49">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA49">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC49">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6428321</v>
+        <v>6428349</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,40 +4989,40 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K51">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="L51">
         <v>3.5</v>
       </c>
       <c r="M51">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="N51">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="O51">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P51">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="Q51">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R51">
         <v>1.925</v>
@@ -5031,7 +5031,7 @@
         <v>1.925</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U51">
         <v>1.9</v>
@@ -5040,25 +5040,25 @@
         <v>1.95</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA51">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6428349</v>
+        <v>6428321</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,40 +5078,40 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K52">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="L52">
         <v>3.5</v>
       </c>
       <c r="M52">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="N52">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="O52">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P52">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R52">
         <v>1.925</v>
@@ -5120,7 +5120,7 @@
         <v>1.925</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
         <v>1.9</v>
@@ -5129,25 +5129,25 @@
         <v>1.95</v>
       </c>
       <c r="W52">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z52">
+        <v>-1</v>
+      </c>
+      <c r="AA52">
         <v>0.925</v>
       </c>
-      <c r="AA52">
-        <v>-1</v>
-      </c>
       <c r="AB52">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC52">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6428366</v>
+        <v>6428365</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,76 +7570,76 @@
         <v>45072.5625</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H80">
+        <v>4</v>
+      </c>
+      <c r="I80">
         <v>0</v>
       </c>
-      <c r="I80">
+      <c r="J80" t="s">
+        <v>47</v>
+      </c>
+      <c r="K80">
         <v>2</v>
       </c>
-      <c r="J80" t="s">
-        <v>46</v>
-      </c>
-      <c r="K80">
-        <v>2.375</v>
-      </c>
       <c r="L80">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M80">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N80">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O80">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P80">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q80">
         <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S80">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T80">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U80">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V80">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA80">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC80">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6428364</v>
+        <v>6428366</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,76 +7659,76 @@
         <v>45072.5625</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81" t="s">
+        <v>46</v>
+      </c>
+      <c r="K81">
+        <v>2.375</v>
+      </c>
+      <c r="L81">
+        <v>3.5</v>
+      </c>
+      <c r="M81">
+        <v>2.75</v>
+      </c>
+      <c r="N81">
+        <v>2.375</v>
+      </c>
+      <c r="O81">
+        <v>3.75</v>
+      </c>
+      <c r="P81">
+        <v>2.7</v>
+      </c>
+      <c r="Q81">
+        <v>-0.25</v>
+      </c>
+      <c r="R81">
+        <v>2.1</v>
+      </c>
+      <c r="S81">
+        <v>1.775</v>
+      </c>
+      <c r="T81">
         <v>3</v>
       </c>
-      <c r="J81" t="s">
-        <v>47</v>
-      </c>
-      <c r="K81">
-        <v>1.727</v>
-      </c>
-      <c r="L81">
-        <v>4.2</v>
-      </c>
-      <c r="M81">
-        <v>3.6</v>
-      </c>
-      <c r="N81">
-        <v>1.45</v>
-      </c>
-      <c r="O81">
-        <v>5.25</v>
-      </c>
-      <c r="P81">
-        <v>5.25</v>
-      </c>
-      <c r="Q81">
-        <v>-1.25</v>
-      </c>
-      <c r="R81">
+      <c r="U81">
         <v>1.95</v>
       </c>
-      <c r="S81">
+      <c r="V81">
         <v>1.9</v>
       </c>
-      <c r="T81">
-        <v>3.5</v>
-      </c>
-      <c r="U81">
-        <v>1.9</v>
-      </c>
-      <c r="V81">
-        <v>1.95</v>
-      </c>
       <c r="W81">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB81">
+        <v>-1</v>
+      </c>
+      <c r="AC81">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC81">
-        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6428365</v>
+        <v>6428364</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,58 +7748,58 @@
         <v>45072.5625</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H82">
         <v>4</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
         <v>47</v>
       </c>
       <c r="K82">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L82">
+        <v>4.2</v>
+      </c>
+      <c r="M82">
         <v>3.6</v>
       </c>
-      <c r="M82">
-        <v>3.25</v>
-      </c>
       <c r="N82">
-        <v>2.05</v>
+        <v>1.45</v>
       </c>
       <c r="O82">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P82">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R82">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S82">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T82">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U82">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V82">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W82">
-        <v>1.05</v>
+        <v>0.45</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7808,13 +7808,13 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB82">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6428369</v>
+        <v>6428367</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,76 +8193,76 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K87">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="L87">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M87">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="N87">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="O87">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P87">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="Q87">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S87">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T87">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V87">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y87">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA87">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
       <c r="AB87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6428367</v>
+        <v>6428369</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K88">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="L88">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M88">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="N88">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="O88">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="P88">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R88">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S88">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U88">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V88">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6799250</v>
+        <v>6799251</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,73 +9172,73 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
         <v>3</v>
       </c>
-      <c r="I98">
+      <c r="J98" t="s">
+        <v>46</v>
+      </c>
+      <c r="K98">
+        <v>1.7</v>
+      </c>
+      <c r="L98">
+        <v>3.8</v>
+      </c>
+      <c r="M98">
+        <v>4</v>
+      </c>
+      <c r="N98">
+        <v>1.7</v>
+      </c>
+      <c r="O98">
+        <v>4</v>
+      </c>
+      <c r="P98">
+        <v>4.5</v>
+      </c>
+      <c r="Q98">
+        <v>-0.75</v>
+      </c>
+      <c r="R98">
+        <v>1.875</v>
+      </c>
+      <c r="S98">
+        <v>1.975</v>
+      </c>
+      <c r="T98">
+        <v>3</v>
+      </c>
+      <c r="U98">
+        <v>1.85</v>
+      </c>
+      <c r="V98">
         <v>2</v>
       </c>
-      <c r="J98" t="s">
-        <v>47</v>
-      </c>
-      <c r="K98">
-        <v>2.3</v>
-      </c>
-      <c r="L98">
-        <v>3.3</v>
-      </c>
-      <c r="M98">
-        <v>2.75</v>
-      </c>
-      <c r="N98">
-        <v>2.8</v>
-      </c>
-      <c r="O98">
-        <v>3.3</v>
-      </c>
-      <c r="P98">
-        <v>2.5</v>
-      </c>
-      <c r="Q98">
-        <v>0</v>
-      </c>
-      <c r="R98">
-        <v>1.975</v>
-      </c>
-      <c r="S98">
-        <v>1.875</v>
-      </c>
-      <c r="T98">
-        <v>2.5</v>
-      </c>
-      <c r="U98">
-        <v>1.9</v>
-      </c>
-      <c r="V98">
-        <v>1.95</v>
-      </c>
       <c r="W98">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z98">
+        <v>-1</v>
+      </c>
+      <c r="AA98">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA98">
-        <v>-1</v>
-      </c>
       <c r="AB98">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6799249</v>
+        <v>6799250</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,58 +9261,58 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>3</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
         <v>47</v>
       </c>
       <c r="K99">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L99">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M99">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N99">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O99">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P99">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R99">
+        <v>1.975</v>
+      </c>
+      <c r="S99">
         <v>1.875</v>
       </c>
-      <c r="S99">
-        <v>1.975</v>
-      </c>
       <c r="T99">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W99">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9321,13 +9321,13 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6799251</v>
+        <v>6799249</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,40 +9350,40 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H100">
+        <v>3</v>
+      </c>
+      <c r="I100">
         <v>1</v>
       </c>
-      <c r="I100">
-        <v>3</v>
-      </c>
       <c r="J100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K100">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="L100">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M100">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N100">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="O100">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P100">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R100">
         <v>1.875</v>
@@ -9395,28 +9395,28 @@
         <v>3</v>
       </c>
       <c r="U100">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA100">
+        <v>-1</v>
+      </c>
+      <c r="AB100">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB100">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6798865</v>
+        <v>6798549</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,58 +9439,58 @@
         <v>45136.375</v>
       </c>
       <c r="F101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G101" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101">
         <v>1</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
       </c>
       <c r="J101" t="s">
         <v>47</v>
       </c>
       <c r="K101">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M101">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N101">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="O101">
         <v>4.333</v>
       </c>
       <c r="P101">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q101">
         <v>-1</v>
       </c>
       <c r="R101">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S101">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V101">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W101">
-        <v>0.6000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9505,10 +9505,10 @@
         <v>-0</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC101">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6798549</v>
+        <v>6798865</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,58 +9528,58 @@
         <v>45136.375</v>
       </c>
       <c r="F102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>47</v>
       </c>
       <c r="K102">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="L102">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M102">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N102">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O102">
         <v>4.333</v>
       </c>
       <c r="P102">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q102">
         <v>-1</v>
       </c>
       <c r="R102">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S102">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
         <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W102">
-        <v>0.5</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9594,10 +9594,10 @@
         <v>-0</v>
       </c>
       <c r="AB102">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6799252</v>
+        <v>6799253</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,76 +9706,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K104">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="L104">
+        <v>3.5</v>
+      </c>
+      <c r="M104">
+        <v>2.5</v>
+      </c>
+      <c r="N104">
+        <v>3</v>
+      </c>
+      <c r="O104">
         <v>3.6</v>
       </c>
-      <c r="M104">
-        <v>4.75</v>
-      </c>
-      <c r="N104">
-        <v>1.727</v>
-      </c>
-      <c r="O104">
-        <v>4</v>
-      </c>
       <c r="P104">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q104">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S104">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T104">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U104">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W104">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6799253</v>
+        <v>6799252</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,76 +9795,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H105">
+        <v>2</v>
+      </c>
+      <c r="I105">
         <v>0</v>
       </c>
-      <c r="I105">
+      <c r="J105" t="s">
+        <v>47</v>
+      </c>
+      <c r="K105">
+        <v>1.7</v>
+      </c>
+      <c r="L105">
+        <v>3.6</v>
+      </c>
+      <c r="M105">
+        <v>4.75</v>
+      </c>
+      <c r="N105">
+        <v>1.727</v>
+      </c>
+      <c r="O105">
+        <v>4</v>
+      </c>
+      <c r="P105">
+        <v>4</v>
+      </c>
+      <c r="Q105">
+        <v>-0.75</v>
+      </c>
+      <c r="R105">
+        <v>2</v>
+      </c>
+      <c r="S105">
+        <v>1.85</v>
+      </c>
+      <c r="T105">
+        <v>3</v>
+      </c>
+      <c r="U105">
+        <v>1.95</v>
+      </c>
+      <c r="V105">
+        <v>1.9</v>
+      </c>
+      <c r="W105">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X105">
+        <v>-1</v>
+      </c>
+      <c r="Y105">
+        <v>-1</v>
+      </c>
+      <c r="Z105">
         <v>1</v>
       </c>
-      <c r="J105" t="s">
-        <v>46</v>
-      </c>
-      <c r="K105">
-        <v>2.6</v>
-      </c>
-      <c r="L105">
-        <v>3.5</v>
-      </c>
-      <c r="M105">
-        <v>2.5</v>
-      </c>
-      <c r="N105">
-        <v>3</v>
-      </c>
-      <c r="O105">
-        <v>3.6</v>
-      </c>
-      <c r="P105">
-        <v>2.25</v>
-      </c>
-      <c r="Q105">
-        <v>0.25</v>
-      </c>
-      <c r="R105">
-        <v>1.925</v>
-      </c>
-      <c r="S105">
-        <v>1.925</v>
-      </c>
-      <c r="T105">
-        <v>2.5</v>
-      </c>
-      <c r="U105">
-        <v>1.825</v>
-      </c>
-      <c r="V105">
-        <v>2.025</v>
-      </c>
-      <c r="W105">
-        <v>-1</v>
-      </c>
-      <c r="X105">
-        <v>-1</v>
-      </c>
-      <c r="Y105">
-        <v>1.25</v>
-      </c>
-      <c r="Z105">
-        <v>-1</v>
-      </c>
       <c r="AA105">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6798551</v>
+        <v>6800832</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,56 +10863,56 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J117" t="s">
         <v>46</v>
       </c>
       <c r="K117">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L117">
         <v>3.4</v>
       </c>
       <c r="M117">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N117">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="O117">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P117">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="Q117">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R117">
+        <v>1.825</v>
+      </c>
+      <c r="S117">
+        <v>2.025</v>
+      </c>
+      <c r="T117">
+        <v>3</v>
+      </c>
+      <c r="U117">
         <v>1.8</v>
       </c>
-      <c r="S117">
+      <c r="V117">
         <v>2.05</v>
       </c>
-      <c r="T117">
-        <v>2.75</v>
-      </c>
-      <c r="U117">
-        <v>1.875</v>
-      </c>
-      <c r="V117">
-        <v>1.975</v>
-      </c>
       <c r="W117">
         <v>-1</v>
       </c>
@@ -10920,16 +10920,16 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>1.375</v>
+        <v>1.8</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB117">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6800832</v>
+        <v>6798551</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,55 +11041,55 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J119" t="s">
         <v>46</v>
       </c>
       <c r="K119">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L119">
         <v>3.4</v>
       </c>
       <c r="M119">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N119">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="O119">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P119">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S119">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T119">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U119">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V119">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -11098,16 +11098,16 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.8</v>
+        <v>1.375</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB119">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6799263</v>
+        <v>6798552</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,40 +11486,40 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H124">
+        <v>2</v>
+      </c>
+      <c r="I124">
         <v>1</v>
       </c>
-      <c r="I124">
-        <v>6</v>
-      </c>
       <c r="J124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K124">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L124">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N124">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="O124">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P124">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="Q124">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R124">
         <v>2</v>
@@ -11528,31 +11528,31 @@
         <v>1.85</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V124">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA124">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6798552</v>
+        <v>6799263</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,40 +11575,40 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K125">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L125">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M125">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N125">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="O125">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P125">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R125">
         <v>2</v>
@@ -11617,31 +11617,31 @@
         <v>1.85</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V125">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z125">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB125">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6799269</v>
+        <v>6800829</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K135">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M135">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="N135">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="O135">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P135">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S135">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T135">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U135">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V135">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y135">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB135">
         <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6800829</v>
+        <v>6799269</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136" t="s">
+        <v>46</v>
+      </c>
+      <c r="K136">
+        <v>2.05</v>
+      </c>
+      <c r="L136">
+        <v>3.6</v>
+      </c>
+      <c r="M136">
+        <v>3.25</v>
+      </c>
+      <c r="N136">
+        <v>2.45</v>
+      </c>
+      <c r="O136">
+        <v>4</v>
+      </c>
+      <c r="P136">
+        <v>2.55</v>
+      </c>
+      <c r="Q136">
         <v>0</v>
       </c>
-      <c r="J136" t="s">
-        <v>45</v>
-      </c>
-      <c r="K136">
-        <v>1.8</v>
-      </c>
-      <c r="L136">
-        <v>3.8</v>
-      </c>
-      <c r="M136">
-        <v>3.8</v>
-      </c>
-      <c r="N136">
-        <v>1.666</v>
-      </c>
-      <c r="O136">
-        <v>4.2</v>
-      </c>
-      <c r="P136">
-        <v>4.5</v>
-      </c>
-      <c r="Q136">
-        <v>-0.75</v>
-      </c>
       <c r="R136">
+        <v>1.9</v>
+      </c>
+      <c r="S136">
+        <v>1.95</v>
+      </c>
+      <c r="T136">
+        <v>3.25</v>
+      </c>
+      <c r="U136">
+        <v>2.025</v>
+      </c>
+      <c r="V136">
         <v>1.825</v>
       </c>
-      <c r="S136">
-        <v>2.025</v>
-      </c>
-      <c r="T136">
-        <v>3</v>
-      </c>
-      <c r="U136">
-        <v>1.875</v>
-      </c>
-      <c r="V136">
-        <v>1.975</v>
-      </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB136">
         <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12987,7 +12987,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6800827</v>
+        <v>6799273</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12999,10 +12999,10 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G141" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13014,40 +13014,40 @@
         <v>46</v>
       </c>
       <c r="K141">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L141">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M141">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N141">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O141">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P141">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q141">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S141">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V141">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13056,19 +13056,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6799273</v>
+        <v>6800827</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,10 +13088,10 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -13103,40 +13103,40 @@
         <v>46</v>
       </c>
       <c r="K142">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L142">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M142">
+        <v>2.9</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142">
+        <v>3.6</v>
+      </c>
+      <c r="P142">
+        <v>3.6</v>
+      </c>
+      <c r="Q142">
+        <v>-0.5</v>
+      </c>
+      <c r="R142">
+        <v>2</v>
+      </c>
+      <c r="S142">
+        <v>1.85</v>
+      </c>
+      <c r="T142">
         <v>2.75</v>
       </c>
-      <c r="N142">
-        <v>2.25</v>
-      </c>
-      <c r="O142">
-        <v>3.4</v>
-      </c>
-      <c r="P142">
-        <v>3.1</v>
-      </c>
-      <c r="Q142">
-        <v>-0.25</v>
-      </c>
-      <c r="R142">
-        <v>2.05</v>
-      </c>
-      <c r="S142">
-        <v>1.8</v>
-      </c>
-      <c r="T142">
-        <v>2.5</v>
-      </c>
       <c r="U142">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13145,19 +13145,19 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6800826</v>
+        <v>6798555</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,10 +13444,10 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13459,40 +13459,40 @@
         <v>46</v>
       </c>
       <c r="K146">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="L146">
         <v>3.5</v>
       </c>
       <c r="M146">
-        <v>2.35</v>
+        <v>3.2</v>
       </c>
       <c r="N146">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="O146">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P146">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q146">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R146">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S146">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T146">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U146">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V146">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W146">
         <v>-1</v>
@@ -13501,19 +13501,19 @@
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB146">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6798555</v>
+        <v>6800826</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,10 +13622,10 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13637,40 +13637,40 @@
         <v>46</v>
       </c>
       <c r="K148">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="L148">
         <v>3.5</v>
       </c>
       <c r="M148">
-        <v>3.2</v>
+        <v>2.35</v>
       </c>
       <c r="N148">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="O148">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P148">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q148">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S148">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T148">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V148">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13679,19 +13679,19 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB148">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6798873</v>
+        <v>6799279</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,49 +13978,49 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G152" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K152">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="L152">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M152">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="N152">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="O152">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P152">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="Q152">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R152">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S152">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T152">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U152">
         <v>1.9</v>
@@ -14032,22 +14032,22 @@
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y152">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA152">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB152">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14055,7 +14055,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6799279</v>
+        <v>6798873</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14067,49 +14067,49 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G153" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J153" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K153">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="L153">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M153">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="N153">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="O153">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P153">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="Q153">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R153">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S153">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T153">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U153">
         <v>1.9</v>
@@ -14121,22 +14121,22 @@
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z153">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC153">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6800824</v>
+        <v>6798874</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,55 +14601,55 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G159" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J159" t="s">
         <v>46</v>
       </c>
       <c r="K159">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L159">
         <v>3.75</v>
       </c>
       <c r="M159">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="N159">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O159">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P159">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q159">
         <v>0.5</v>
       </c>
       <c r="R159">
+        <v>1.975</v>
+      </c>
+      <c r="S159">
         <v>1.875</v>
       </c>
-      <c r="S159">
+      <c r="T159">
+        <v>2.5</v>
+      </c>
+      <c r="U159">
         <v>1.975</v>
       </c>
-      <c r="T159">
-        <v>3</v>
-      </c>
-      <c r="U159">
-        <v>2</v>
-      </c>
       <c r="V159">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14658,19 +14658,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
+        <v>0.875</v>
+      </c>
+      <c r="AB159">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB159">
-        <v>0</v>
-      </c>
       <c r="AC159">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6798874</v>
+        <v>6800824</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,55 +14690,55 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G160" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J160" t="s">
         <v>46</v>
       </c>
       <c r="K160">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L160">
         <v>3.75</v>
       </c>
       <c r="M160">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="N160">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O160">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P160">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q160">
         <v>0.5</v>
       </c>
       <c r="R160">
+        <v>1.875</v>
+      </c>
+      <c r="S160">
         <v>1.975</v>
       </c>
-      <c r="S160">
-        <v>1.875</v>
-      </c>
       <c r="T160">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U160">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V160">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14747,19 +14747,19 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB160">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6798558</v>
+        <v>6799287</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,13 +15135,13 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G165" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H165">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -15150,61 +15150,61 @@
         <v>47</v>
       </c>
       <c r="K165">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="L165">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M165">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="N165">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O165">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P165">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q165">
+        <v>-0.75</v>
+      </c>
+      <c r="R165">
+        <v>2.025</v>
+      </c>
+      <c r="S165">
+        <v>1.825</v>
+      </c>
+      <c r="T165">
+        <v>2.5</v>
+      </c>
+      <c r="U165">
+        <v>2.025</v>
+      </c>
+      <c r="V165">
+        <v>1.825</v>
+      </c>
+      <c r="W165">
+        <v>0.8</v>
+      </c>
+      <c r="X165">
+        <v>-1</v>
+      </c>
+      <c r="Y165">
+        <v>-1</v>
+      </c>
+      <c r="Z165">
+        <v>0.5125</v>
+      </c>
+      <c r="AA165">
         <v>-0.5</v>
       </c>
-      <c r="R165">
-        <v>1.925</v>
-      </c>
-      <c r="S165">
-        <v>1.925</v>
-      </c>
-      <c r="T165">
-        <v>2.75</v>
-      </c>
-      <c r="U165">
-        <v>1.9</v>
-      </c>
-      <c r="V165">
-        <v>1.95</v>
-      </c>
-      <c r="W165">
-        <v>0.909</v>
-      </c>
-      <c r="X165">
-        <v>-1</v>
-      </c>
-      <c r="Y165">
-        <v>-1</v>
-      </c>
-      <c r="Z165">
-        <v>0.925</v>
-      </c>
-      <c r="AA165">
-        <v>-1</v>
-      </c>
       <c r="AB165">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15212,7 +15212,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6799287</v>
+        <v>6798558</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15224,13 +15224,13 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G166" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -15239,43 +15239,43 @@
         <v>47</v>
       </c>
       <c r="K166">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="L166">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M166">
+        <v>4.333</v>
+      </c>
+      <c r="N166">
+        <v>1.909</v>
+      </c>
+      <c r="O166">
         <v>3.8</v>
       </c>
-      <c r="N166">
-        <v>1.8</v>
-      </c>
-      <c r="O166">
-        <v>3.75</v>
-      </c>
       <c r="P166">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R166">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S166">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T166">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U166">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V166">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W166">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15284,16 +15284,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.5125</v>
+        <v>0.925</v>
       </c>
       <c r="AA166">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC166">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15568,7 +15568,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6800822</v>
+        <v>6799288</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15580,76 +15580,76 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G170" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K170">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="L170">
         <v>3.8</v>
       </c>
       <c r="M170">
-        <v>1.533</v>
+        <v>3.8</v>
       </c>
       <c r="N170">
-        <v>8</v>
+        <v>1.65</v>
       </c>
       <c r="O170">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P170">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q170">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R170">
+        <v>1.85</v>
+      </c>
+      <c r="S170">
+        <v>2</v>
+      </c>
+      <c r="T170">
+        <v>2.75</v>
+      </c>
+      <c r="U170">
         <v>1.925</v>
       </c>
-      <c r="S170">
+      <c r="V170">
         <v>1.925</v>
       </c>
-      <c r="T170">
-        <v>3.5</v>
-      </c>
-      <c r="U170">
-        <v>2.025</v>
-      </c>
-      <c r="V170">
-        <v>1.825</v>
-      </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA170">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB170">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6799288</v>
+        <v>6799291</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,76 +15669,76 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G171" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J171" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K171">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L171">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M171">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="N171">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O171">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P171">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q171">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R171">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S171">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T171">
         <v>2.75</v>
       </c>
       <c r="U171">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V171">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W171">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z171">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB171">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC171">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6799291</v>
+        <v>6800822</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,55 +15758,55 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F172" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G172" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J172" t="s">
         <v>46</v>
       </c>
       <c r="K172">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="L172">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M172">
-        <v>3.25</v>
+        <v>1.533</v>
       </c>
       <c r="N172">
-        <v>2.15</v>
+        <v>8</v>
       </c>
       <c r="O172">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P172">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="Q172">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R172">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S172">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T172">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U172">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V172">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W172">
         <v>-1</v>
@@ -15815,16 +15815,16 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>2.2</v>
+        <v>0.333</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB172">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC172">
         <v>-1</v>
@@ -16636,7 +16636,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6800819</v>
+        <v>6799295</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16648,76 +16648,76 @@
         <v>45240.625</v>
       </c>
       <c r="F182" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <v>4</v>
+      </c>
+      <c r="J182" t="s">
+        <v>46</v>
+      </c>
+      <c r="K182">
+        <v>7.5</v>
+      </c>
+      <c r="L182">
+        <v>5</v>
+      </c>
+      <c r="M182">
+        <v>1.333</v>
+      </c>
+      <c r="N182">
+        <v>6.5</v>
+      </c>
+      <c r="O182">
+        <v>4.75</v>
+      </c>
+      <c r="P182">
+        <v>1.45</v>
+      </c>
+      <c r="Q182">
+        <v>1.25</v>
+      </c>
+      <c r="R182">
+        <v>1.925</v>
+      </c>
+      <c r="S182">
+        <v>1.925</v>
+      </c>
+      <c r="T182">
+        <v>3.25</v>
+      </c>
+      <c r="U182">
+        <v>1.85</v>
+      </c>
+      <c r="V182">
         <v>2</v>
       </c>
-      <c r="I182">
-        <v>0</v>
-      </c>
-      <c r="J182" t="s">
-        <v>47</v>
-      </c>
-      <c r="K182">
-        <v>2.5</v>
-      </c>
-      <c r="L182">
-        <v>3.4</v>
-      </c>
-      <c r="M182">
-        <v>2.55</v>
-      </c>
-      <c r="N182">
-        <v>2.45</v>
-      </c>
-      <c r="O182">
-        <v>3.5</v>
-      </c>
-      <c r="P182">
-        <v>2.8</v>
-      </c>
-      <c r="Q182">
-        <v>0</v>
-      </c>
-      <c r="R182">
-        <v>1.8</v>
-      </c>
-      <c r="S182">
-        <v>2.05</v>
-      </c>
-      <c r="T182">
-        <v>2.75</v>
-      </c>
-      <c r="U182">
-        <v>1.9</v>
-      </c>
-      <c r="V182">
-        <v>1.95</v>
-      </c>
       <c r="W182">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z182">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC182">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6799296</v>
+        <v>6800819</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16737,76 +16737,76 @@
         <v>45240.625</v>
       </c>
       <c r="F183" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G183" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K183">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L183">
         <v>3.4</v>
       </c>
       <c r="M183">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="N183">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="O183">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P183">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q183">
         <v>0</v>
       </c>
       <c r="R183">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S183">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T183">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U183">
+        <v>1.9</v>
+      </c>
+      <c r="V183">
         <v>1.95</v>
       </c>
-      <c r="V183">
-        <v>1.9</v>
-      </c>
       <c r="W183">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X183">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA183">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16814,7 +16814,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6799295</v>
+        <v>6799296</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16826,76 +16826,76 @@
         <v>45240.625</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G184" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H184">
         <v>1</v>
       </c>
       <c r="I184">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K184">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="L184">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M184">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="N184">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="O184">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P184">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q184">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R184">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S184">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T184">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U184">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V184">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W184">
         <v>-1</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y184">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA184">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB184">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17259,7 +17259,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6799298</v>
+        <v>6799300</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17271,73 +17271,73 @@
         <v>45254.625</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G189" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H189">
+        <v>4</v>
+      </c>
+      <c r="I189">
         <v>1</v>
       </c>
-      <c r="I189">
-        <v>2</v>
-      </c>
       <c r="J189" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K189">
-        <v>3.1</v>
+        <v>1.25</v>
       </c>
       <c r="L189">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M189">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="N189">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="O189">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P189">
-        <v>2.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q189">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R189">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S189">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U189">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V189">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA189">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6799300</v>
+        <v>6799298</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17360,73 +17360,73 @@
         <v>45254.625</v>
       </c>
       <c r="F190" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H190">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K190">
+        <v>3.1</v>
+      </c>
+      <c r="L190">
+        <v>3.6</v>
+      </c>
+      <c r="M190">
+        <v>2.1</v>
+      </c>
+      <c r="N190">
+        <v>3.2</v>
+      </c>
+      <c r="O190">
+        <v>3.4</v>
+      </c>
+      <c r="P190">
+        <v>2.25</v>
+      </c>
+      <c r="Q190">
+        <v>0.25</v>
+      </c>
+      <c r="R190">
+        <v>1.95</v>
+      </c>
+      <c r="S190">
+        <v>1.9</v>
+      </c>
+      <c r="T190">
+        <v>2.5</v>
+      </c>
+      <c r="U190">
+        <v>1.85</v>
+      </c>
+      <c r="V190">
+        <v>2</v>
+      </c>
+      <c r="W190">
+        <v>-1</v>
+      </c>
+      <c r="X190">
+        <v>-1</v>
+      </c>
+      <c r="Y190">
         <v>1.25</v>
       </c>
-      <c r="L190">
-        <v>6</v>
-      </c>
-      <c r="M190">
-        <v>8</v>
-      </c>
-      <c r="N190">
-        <v>1.3</v>
-      </c>
-      <c r="O190">
-        <v>6</v>
-      </c>
-      <c r="P190">
-        <v>8.5</v>
-      </c>
-      <c r="Q190">
-        <v>-1.5</v>
-      </c>
-      <c r="R190">
-        <v>1.875</v>
-      </c>
-      <c r="S190">
-        <v>1.975</v>
-      </c>
-      <c r="T190">
-        <v>3.25</v>
-      </c>
-      <c r="U190">
-        <v>1.925</v>
-      </c>
-      <c r="V190">
-        <v>1.925</v>
-      </c>
-      <c r="W190">
-        <v>0.3</v>
-      </c>
-      <c r="X190">
-        <v>-1</v>
-      </c>
-      <c r="Y190">
-        <v>-1</v>
-      </c>
       <c r="Z190">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB190">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC190">
         <v>-1</v>

--- a/Denmark Division 1/Denmark Division 1.xlsx
+++ b/Denmark Division 1/Denmark Division 1.xlsx
@@ -118,16 +118,16 @@
     <t>Naestved</t>
   </si>
   <si>
+    <t>FC Fredericia</t>
+  </si>
+  <si>
     <t>Hobro IK</t>
   </si>
   <si>
-    <t>FC Fredericia</t>
+    <t>HB Kge</t>
   </si>
   <si>
     <t>Fremad Amager</t>
-  </si>
-  <si>
-    <t>HB Kge</t>
   </si>
   <si>
     <t>Sonderjyske</t>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5128520</v>
+        <v>5128299</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,73 +1076,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M7">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N7">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P7">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S7">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
+        <v>1.975</v>
+      </c>
+      <c r="V7">
         <v>1.875</v>
       </c>
-      <c r="V7">
-        <v>1.975</v>
-      </c>
       <c r="W7">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z7">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB7">
+        <v>-1</v>
+      </c>
+      <c r="AC7">
         <v>0.875</v>
-      </c>
-      <c r="AC7">
-        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5128299</v>
+        <v>5128520</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="L8">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="N8">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="O8">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P8">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q8">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
+        <v>2.05</v>
+      </c>
+      <c r="S8">
+        <v>1.8</v>
+      </c>
+      <c r="T8">
+        <v>2.25</v>
+      </c>
+      <c r="U8">
+        <v>1.875</v>
+      </c>
+      <c r="V8">
         <v>1.975</v>
       </c>
-      <c r="S8">
-        <v>1.875</v>
-      </c>
-      <c r="T8">
-        <v>2.75</v>
-      </c>
-      <c r="U8">
-        <v>1.975</v>
-      </c>
-      <c r="V8">
-        <v>1.875</v>
-      </c>
       <c r="W8">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA8">
+        <v>-1</v>
+      </c>
+      <c r="AB8">
         <v>0.875</v>
       </c>
-      <c r="AB8">
-        <v>-1</v>
-      </c>
       <c r="AC8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5128563</v>
+        <v>5128564</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9">
+        <v>3.5</v>
+      </c>
+      <c r="L9">
+        <v>3.75</v>
+      </c>
+      <c r="M9">
+        <v>1.909</v>
+      </c>
+      <c r="N9">
+        <v>4.333</v>
+      </c>
+      <c r="O9">
+        <v>4.2</v>
+      </c>
+      <c r="P9">
+        <v>1.666</v>
+      </c>
+      <c r="Q9">
+        <v>0.75</v>
+      </c>
+      <c r="R9">
+        <v>1.975</v>
+      </c>
+      <c r="S9">
+        <v>1.875</v>
+      </c>
+      <c r="T9">
+        <v>2.75</v>
+      </c>
+      <c r="U9">
+        <v>1.85</v>
+      </c>
+      <c r="V9">
         <v>2</v>
       </c>
-      <c r="I9">
+      <c r="W9">
+        <v>-1</v>
+      </c>
+      <c r="X9">
+        <v>3.2</v>
+      </c>
+      <c r="Y9">
+        <v>-1</v>
+      </c>
+      <c r="Z9">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA9">
+        <v>-1</v>
+      </c>
+      <c r="AB9">
+        <v>-1</v>
+      </c>
+      <c r="AC9">
         <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9">
-        <v>2.5</v>
-      </c>
-      <c r="L9">
-        <v>3.4</v>
-      </c>
-      <c r="M9">
-        <v>2.625</v>
-      </c>
-      <c r="N9">
-        <v>3.1</v>
-      </c>
-      <c r="O9">
-        <v>3.4</v>
-      </c>
-      <c r="P9">
-        <v>2.2</v>
-      </c>
-      <c r="Q9">
-        <v>0.25</v>
-      </c>
-      <c r="R9">
-        <v>1.9</v>
-      </c>
-      <c r="S9">
-        <v>1.95</v>
-      </c>
-      <c r="T9">
-        <v>2.5</v>
-      </c>
-      <c r="U9">
-        <v>1.95</v>
-      </c>
-      <c r="V9">
-        <v>1.9</v>
-      </c>
-      <c r="W9">
-        <v>2.1</v>
-      </c>
-      <c r="X9">
-        <v>-1</v>
-      </c>
-      <c r="Y9">
-        <v>-1</v>
-      </c>
-      <c r="Z9">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA9">
-        <v>-1</v>
-      </c>
-      <c r="AB9">
-        <v>0.95</v>
-      </c>
-      <c r="AC9">
-        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5128564</v>
+        <v>5128563</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,73 +1343,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L10">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="N10">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="O10">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P10">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="Q10">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R10">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S10">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T10">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X10">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1432,7 +1432,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5128297</v>
+        <v>5128199</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,40 +1518,40 @@
         <v>44982.375</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="L12">
+        <v>3.7</v>
+      </c>
+      <c r="M12">
         <v>3.8</v>
       </c>
-      <c r="M12">
-        <v>1.7</v>
-      </c>
       <c r="N12">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="O12">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P12">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q12">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
         <v>1.925</v>
@@ -1560,19 +1560,19 @@
         <v>1.925</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X12">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
@@ -1584,10 +1584,10 @@
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC12">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5128199</v>
+        <v>5128297</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1607,40 +1607,40 @@
         <v>44982.375</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="L13">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="M13">
+        <v>1.7</v>
+      </c>
+      <c r="N13">
+        <v>3.6</v>
+      </c>
+      <c r="O13">
         <v>3.8</v>
       </c>
-      <c r="N13">
-        <v>2.2</v>
-      </c>
-      <c r="O13">
-        <v>3.5</v>
-      </c>
       <c r="P13">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R13">
         <v>1.925</v>
@@ -1649,19 +1649,19 @@
         <v>1.925</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V13">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W13">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y13">
         <v>-1</v>
@@ -1673,10 +1673,10 @@
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1785,10 +1785,10 @@
         <v>44988.60416666666</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -2055,7 +2055,7 @@
         <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2141,7 +2141,7 @@
         <v>44990.41666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
         <v>40</v>
@@ -2319,7 +2319,7 @@
         <v>44996.375</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
         <v>30</v>
@@ -2500,7 +2500,7 @@
         <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23">
         <v>4</v>
@@ -2586,7 +2586,7 @@
         <v>44997.375</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
         <v>32</v>
@@ -2767,7 +2767,7 @@
         <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5128294</v>
+        <v>5128528</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,49 +2853,49 @@
         <v>45003.375</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L27">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M27">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="N27">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P27">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U27">
         <v>2</v>
@@ -2907,16 +2907,16 @@
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y27">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB27">
         <v>-1</v>
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5128527</v>
+        <v>5128572</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,13 +2942,13 @@
         <v>45003.375</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2957,43 +2957,43 @@
         <v>47</v>
       </c>
       <c r="K28">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L28">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M28">
+        <v>4.2</v>
+      </c>
+      <c r="N28">
+        <v>1.7</v>
+      </c>
+      <c r="O28">
         <v>4</v>
       </c>
-      <c r="N28">
-        <v>1.8</v>
-      </c>
-      <c r="O28">
-        <v>3.8</v>
-      </c>
       <c r="P28">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q28">
         <v>-0.75</v>
       </c>
       <c r="R28">
+        <v>1.9</v>
+      </c>
+      <c r="S28">
+        <v>1.95</v>
+      </c>
+      <c r="T28">
+        <v>3</v>
+      </c>
+      <c r="U28">
         <v>2.05</v>
       </c>
-      <c r="S28">
+      <c r="V28">
         <v>1.8</v>
       </c>
-      <c r="T28">
-        <v>2.75</v>
-      </c>
-      <c r="U28">
-        <v>1.9</v>
-      </c>
-      <c r="V28">
-        <v>1.95</v>
-      </c>
       <c r="W28">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -3002,16 +3002,16 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>1.05</v>
+        <v>0.45</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB28">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5128528</v>
+        <v>5128201</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,76 +3031,76 @@
         <v>45003.375</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M29">
-        <v>7.5</v>
+        <v>1.714</v>
       </c>
       <c r="N29">
-        <v>1.444</v>
+        <v>4.75</v>
       </c>
       <c r="O29">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P29">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="Q29">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R29">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S29">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T29">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V29">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5128571</v>
+        <v>5128527</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,13 +3120,13 @@
         <v>45003.375</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -3135,43 +3135,43 @@
         <v>47</v>
       </c>
       <c r="K30">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M30">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N30">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O30">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P30">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q30">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S30">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3180,13 +3180,13 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5128572</v>
+        <v>5128294</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,76 +3209,76 @@
         <v>45003.375</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L31">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M31">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N31">
+        <v>2.375</v>
+      </c>
+      <c r="O31">
+        <v>3.6</v>
+      </c>
+      <c r="P31">
+        <v>2.7</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>1.8</v>
+      </c>
+      <c r="S31">
+        <v>2.05</v>
+      </c>
+      <c r="T31">
+        <v>2.75</v>
+      </c>
+      <c r="U31">
+        <v>2</v>
+      </c>
+      <c r="V31">
+        <v>1.85</v>
+      </c>
+      <c r="W31">
+        <v>-1</v>
+      </c>
+      <c r="X31">
+        <v>-1</v>
+      </c>
+      <c r="Y31">
         <v>1.7</v>
       </c>
-      <c r="O31">
-        <v>4</v>
-      </c>
-      <c r="P31">
-        <v>4.5</v>
-      </c>
-      <c r="Q31">
-        <v>-0.75</v>
-      </c>
-      <c r="R31">
-        <v>1.9</v>
-      </c>
-      <c r="S31">
-        <v>1.95</v>
-      </c>
-      <c r="T31">
-        <v>3</v>
-      </c>
-      <c r="U31">
-        <v>2.05</v>
-      </c>
-      <c r="V31">
-        <v>1.8</v>
-      </c>
-      <c r="W31">
-        <v>0.7</v>
-      </c>
-      <c r="X31">
-        <v>-1</v>
-      </c>
-      <c r="Y31">
-        <v>-1</v>
-      </c>
       <c r="Z31">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5128201</v>
+        <v>5128571</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,76 +3298,76 @@
         <v>45003.375</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32">
+        <v>1.909</v>
+      </c>
+      <c r="L32">
+        <v>3.5</v>
+      </c>
+      <c r="M32">
+        <v>3.6</v>
+      </c>
+      <c r="N32">
         <v>2</v>
-      </c>
-      <c r="J32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K32">
-        <v>4.75</v>
-      </c>
-      <c r="L32">
-        <v>3.6</v>
-      </c>
-      <c r="M32">
-        <v>1.714</v>
-      </c>
-      <c r="N32">
-        <v>4.75</v>
       </c>
       <c r="O32">
         <v>3.5</v>
       </c>
       <c r="P32">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="Q32">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S32">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T32">
         <v>2.5</v>
       </c>
       <c r="U32">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA32">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3387,7 +3387,7 @@
         <v>45016.5625</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
         <v>40</v>
@@ -3568,7 +3568,7 @@
         <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6428313</v>
+        <v>6428342</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,73 +3743,73 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
         <v>3</v>
       </c>
-      <c r="I37">
+      <c r="J37" t="s">
+        <v>46</v>
+      </c>
+      <c r="K37">
+        <v>2.4</v>
+      </c>
+      <c r="L37">
+        <v>3.5</v>
+      </c>
+      <c r="M37">
+        <v>2.6</v>
+      </c>
+      <c r="N37">
         <v>2</v>
       </c>
-      <c r="J37" t="s">
-        <v>47</v>
-      </c>
-      <c r="K37">
-        <v>3.4</v>
-      </c>
-      <c r="L37">
-        <v>3.3</v>
-      </c>
-      <c r="M37">
-        <v>2.1</v>
-      </c>
-      <c r="N37">
-        <v>3.8</v>
-      </c>
       <c r="O37">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P37">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="Q37">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S37">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T37">
         <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V37">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W37">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB37">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6428342</v>
+        <v>6428313</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,73 +3832,73 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="L38">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M38">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N38">
+        <v>3.8</v>
+      </c>
+      <c r="O38">
+        <v>3.75</v>
+      </c>
+      <c r="P38">
+        <v>1.909</v>
+      </c>
+      <c r="Q38">
+        <v>0.5</v>
+      </c>
+      <c r="R38">
         <v>2</v>
       </c>
-      <c r="O38">
-        <v>3.6</v>
-      </c>
-      <c r="P38">
-        <v>3.6</v>
-      </c>
-      <c r="Q38">
-        <v>-0.5</v>
-      </c>
-      <c r="R38">
-        <v>2.025</v>
-      </c>
       <c r="S38">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
         <v>2.75</v>
       </c>
       <c r="U38">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA38">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC38">
         <v>-1</v>
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6428314</v>
+        <v>6428343</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,73 +3921,73 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
         <v>3</v>
       </c>
-      <c r="I39">
-        <v>2</v>
-      </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K39">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="L39">
         <v>3.6</v>
       </c>
       <c r="M39">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N39">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="O39">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P39">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T39">
         <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z39">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB39">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6428343</v>
+        <v>6428314</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,73 +4010,73 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K40">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="L40">
         <v>3.6</v>
       </c>
       <c r="M40">
+        <v>4</v>
+      </c>
+      <c r="N40">
+        <v>1.75</v>
+      </c>
+      <c r="O40">
+        <v>3.8</v>
+      </c>
+      <c r="P40">
+        <v>4.5</v>
+      </c>
+      <c r="Q40">
+        <v>-0.75</v>
+      </c>
+      <c r="R40">
         <v>1.95</v>
       </c>
-      <c r="N40">
-        <v>3.75</v>
-      </c>
-      <c r="O40">
-        <v>3.6</v>
-      </c>
-      <c r="P40">
-        <v>1.95</v>
-      </c>
-      <c r="Q40">
-        <v>0.5</v>
-      </c>
-      <c r="R40">
-        <v>1.875</v>
-      </c>
       <c r="S40">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T40">
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA40">
+        <v>-0.5</v>
+      </c>
+      <c r="AB40">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB40">
-        <v>0.925</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4102,7 +4102,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4188,7 +4188,7 @@
         <v>45026.33333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6428347</v>
+        <v>6428348</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>45032.375</v>
       </c>
       <c r="F48" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" t="s">
         <v>36</v>
       </c>
-      <c r="G48" t="s">
-        <v>34</v>
-      </c>
       <c r="H48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K48">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="L48">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48">
         <v>2.2</v>
       </c>
-      <c r="N48">
-        <v>2.8</v>
-      </c>
       <c r="O48">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P48">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S48">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V48">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X48">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA48">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC48">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6428348</v>
+        <v>6428347</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>45032.375</v>
       </c>
       <c r="F49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" t="s">
         <v>35</v>
       </c>
-      <c r="G49" t="s">
-        <v>37</v>
-      </c>
       <c r="H49">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K49">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L49">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N49">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O49">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P49">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q49">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S49">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T49">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V49">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W49">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6428349</v>
+        <v>6428321</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,40 +4989,40 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K51">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="L51">
         <v>3.5</v>
       </c>
       <c r="M51">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="N51">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="O51">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P51">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R51">
         <v>1.925</v>
@@ -5031,7 +5031,7 @@
         <v>1.925</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
         <v>1.9</v>
@@ -5040,25 +5040,25 @@
         <v>1.95</v>
       </c>
       <c r="W51">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z51">
+        <v>-1</v>
+      </c>
+      <c r="AA51">
         <v>0.925</v>
       </c>
-      <c r="AA51">
-        <v>-1</v>
-      </c>
       <c r="AB51">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC51">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6428321</v>
+        <v>6428349</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,40 +5078,40 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K52">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="L52">
         <v>3.5</v>
       </c>
       <c r="M52">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="N52">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="O52">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P52">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="Q52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R52">
         <v>1.925</v>
@@ -5120,7 +5120,7 @@
         <v>1.925</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U52">
         <v>1.9</v>
@@ -5129,25 +5129,25 @@
         <v>1.95</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5256,7 +5256,7 @@
         <v>45039.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
         <v>29</v>
@@ -5345,10 +5345,10 @@
         <v>45039.375</v>
       </c>
       <c r="F55" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" t="s">
         <v>34</v>
-      </c>
-      <c r="G55" t="s">
-        <v>35</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5434,10 +5434,10 @@
         <v>45044.5625</v>
       </c>
       <c r="F56" t="s">
+        <v>37</v>
+      </c>
+      <c r="G56" t="s">
         <v>36</v>
-      </c>
-      <c r="G56" t="s">
-        <v>37</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         <v>45044.5625</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
         <v>40</v>
@@ -5704,7 +5704,7 @@
         <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6428356</v>
+        <v>6428355</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45051.5625</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K63">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L63">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M63">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="N63">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O63">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P63">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q63">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R63">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S63">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X63">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA63">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6428355</v>
+        <v>6428356</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,76 +6146,76 @@
         <v>45051.5625</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <v>2</v>
+      </c>
+      <c r="J64" t="s">
+        <v>45</v>
+      </c>
+      <c r="K64">
+        <v>1.909</v>
+      </c>
+      <c r="L64">
+        <v>3.3</v>
+      </c>
+      <c r="M64">
+        <v>3.75</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64">
+        <v>3.5</v>
+      </c>
+      <c r="P64">
+        <v>3.8</v>
+      </c>
+      <c r="Q64">
+        <v>-0.5</v>
+      </c>
+      <c r="R64">
+        <v>2.05</v>
+      </c>
+      <c r="S64">
+        <v>1.8</v>
+      </c>
+      <c r="T64">
+        <v>2.75</v>
+      </c>
+      <c r="U64">
+        <v>2</v>
+      </c>
+      <c r="V64">
+        <v>1.85</v>
+      </c>
+      <c r="W64">
+        <v>-1</v>
+      </c>
+      <c r="X64">
+        <v>2.5</v>
+      </c>
+      <c r="Y64">
+        <v>-1</v>
+      </c>
+      <c r="Z64">
+        <v>-1</v>
+      </c>
+      <c r="AA64">
+        <v>0.8</v>
+      </c>
+      <c r="AB64">
         <v>1</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64" t="s">
-        <v>47</v>
-      </c>
-      <c r="K64">
-        <v>2.625</v>
-      </c>
-      <c r="L64">
-        <v>3.2</v>
-      </c>
-      <c r="M64">
-        <v>2.4</v>
-      </c>
-      <c r="N64">
-        <v>3.5</v>
-      </c>
-      <c r="O64">
-        <v>3.2</v>
-      </c>
-      <c r="P64">
-        <v>2.15</v>
-      </c>
-      <c r="Q64">
-        <v>0.25</v>
-      </c>
-      <c r="R64">
-        <v>1.975</v>
-      </c>
-      <c r="S64">
-        <v>1.875</v>
-      </c>
-      <c r="T64">
-        <v>2.25</v>
-      </c>
-      <c r="U64">
-        <v>1.875</v>
-      </c>
-      <c r="V64">
-        <v>1.975</v>
-      </c>
-      <c r="W64">
-        <v>2.5</v>
-      </c>
-      <c r="X64">
-        <v>-1</v>
-      </c>
-      <c r="Y64">
-        <v>-1</v>
-      </c>
-      <c r="Z64">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA64">
-        <v>-1</v>
-      </c>
-      <c r="AB64">
-        <v>-1</v>
-      </c>
       <c r="AC64">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6235,7 +6235,7 @@
         <v>45052.33333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
         <v>40</v>
@@ -6591,10 +6591,10 @@
         <v>45057.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6858,10 +6858,10 @@
         <v>45059.33333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -7128,7 +7128,7 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7217,7 +7217,7 @@
         <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7392,10 +7392,10 @@
         <v>45067.375</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7570,7 +7570,7 @@
         <v>45072.5625</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
         <v>29</v>
@@ -7659,10 +7659,10 @@
         <v>45072.5625</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7748,7 +7748,7 @@
         <v>45072.5625</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
         <v>40</v>
@@ -8104,10 +8104,10 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F86" t="s">
+        <v>36</v>
+      </c>
+      <c r="G86" t="s">
         <v>37</v>
-      </c>
-      <c r="G86" t="s">
-        <v>36</v>
       </c>
       <c r="H86">
         <v>4</v>
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6428367</v>
+        <v>6428369</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,76 +8193,76 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G87" t="s">
         <v>34</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K87">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="L87">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M87">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="N87">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="O87">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="P87">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R87">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S87">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U87">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V87">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6428369</v>
+        <v>6428367</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
         <v>35</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K88">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="L88">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M88">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="N88">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="O88">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="P88">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="Q88">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S88">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T88">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V88">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y88">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA88">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
       <c r="AB88">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6428337</v>
+        <v>6428338</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,73 +8460,73 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H90">
+        <v>3</v>
+      </c>
+      <c r="I90">
         <v>2</v>
       </c>
-      <c r="I90">
-        <v>3</v>
-      </c>
       <c r="J90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K90">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M90">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N90">
-        <v>1.571</v>
+        <v>1.363</v>
       </c>
       <c r="O90">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P90">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q90">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R90">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S90">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T90">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U90">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB90">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8537,7 +8537,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6428338</v>
+        <v>6428337</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8549,73 +8549,73 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91">
         <v>3</v>
       </c>
-      <c r="I91">
+      <c r="J91" t="s">
+        <v>46</v>
+      </c>
+      <c r="K91">
+        <v>1.7</v>
+      </c>
+      <c r="L91">
+        <v>4</v>
+      </c>
+      <c r="M91">
+        <v>4.2</v>
+      </c>
+      <c r="N91">
+        <v>1.571</v>
+      </c>
+      <c r="O91">
+        <v>4.75</v>
+      </c>
+      <c r="P91">
+        <v>4.75</v>
+      </c>
+      <c r="Q91">
+        <v>-1</v>
+      </c>
+      <c r="R91">
+        <v>1.975</v>
+      </c>
+      <c r="S91">
+        <v>1.875</v>
+      </c>
+      <c r="T91">
+        <v>3.5</v>
+      </c>
+      <c r="U91">
         <v>2</v>
       </c>
-      <c r="J91" t="s">
-        <v>47</v>
-      </c>
-      <c r="K91">
-        <v>1.5</v>
-      </c>
-      <c r="L91">
-        <v>4.5</v>
-      </c>
-      <c r="M91">
-        <v>5</v>
-      </c>
-      <c r="N91">
-        <v>1.363</v>
-      </c>
-      <c r="O91">
-        <v>5.25</v>
-      </c>
-      <c r="P91">
-        <v>6.5</v>
-      </c>
-      <c r="Q91">
-        <v>-1.5</v>
-      </c>
-      <c r="R91">
-        <v>1.95</v>
-      </c>
-      <c r="S91">
-        <v>1.9</v>
-      </c>
-      <c r="T91">
+      <c r="V91">
+        <v>1.85</v>
+      </c>
+      <c r="W91">
+        <v>-1</v>
+      </c>
+      <c r="X91">
+        <v>-1</v>
+      </c>
+      <c r="Y91">
         <v>3.75</v>
       </c>
-      <c r="U91">
-        <v>1.9</v>
-      </c>
-      <c r="V91">
-        <v>1.95</v>
-      </c>
-      <c r="W91">
-        <v>0.363</v>
-      </c>
-      <c r="X91">
-        <v>-1</v>
-      </c>
-      <c r="Y91">
-        <v>-1</v>
-      </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB91">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6799245</v>
+        <v>6799246</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,76 +8638,76 @@
         <v>45128.58333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K92">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M92">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="N92">
         <v>2.25</v>
       </c>
       <c r="O92">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P92">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q92">
         <v>-0.25</v>
       </c>
       <c r="R92">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S92">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T92">
         <v>2.75</v>
       </c>
       <c r="U92">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y92">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA92">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AB92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6799246</v>
+        <v>6799245</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45128.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K93">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="L93">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="N93">
         <v>2.25</v>
       </c>
       <c r="O93">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P93">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q93">
         <v>-0.25</v>
       </c>
       <c r="R93">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S93">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T93">
         <v>2.75</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V93">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC93">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6798548</v>
+        <v>6799247</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,76 +8905,76 @@
         <v>45130.375</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
         <v>2</v>
       </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K95">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="L95">
         <v>3.6</v>
       </c>
       <c r="M95">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="N95">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P95">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T95">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V95">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W95">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6799247</v>
+        <v>6799248</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45130.375</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K96">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="L96">
         <v>3.6</v>
       </c>
       <c r="M96">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N96">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O96">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P96">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q96">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R96">
+        <v>1.975</v>
+      </c>
+      <c r="S96">
         <v>1.875</v>
-      </c>
-      <c r="S96">
-        <v>1.975</v>
       </c>
       <c r="T96">
         <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V96">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA96">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC96">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6799248</v>
+        <v>6798548</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,10 +9083,10 @@
         <v>45130.375</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9098,19 +9098,19 @@
         <v>47</v>
       </c>
       <c r="K97">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="L97">
         <v>3.6</v>
       </c>
       <c r="M97">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="N97">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="O97">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P97">
         <v>2.55</v>
@@ -9119,22 +9119,22 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S97">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U97">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V97">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W97">
-        <v>1.625</v>
+        <v>1.8</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9143,16 +9143,16 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6799251</v>
+        <v>6799250</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,73 +9172,73 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K98">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="L98">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M98">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N98">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="O98">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P98">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R98">
+        <v>1.975</v>
+      </c>
+      <c r="S98">
         <v>1.875</v>
       </c>
-      <c r="S98">
-        <v>1.975</v>
-      </c>
       <c r="T98">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA98">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6799250</v>
+        <v>6799249</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,59 +9261,59 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H99">
         <v>3</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
         <v>47</v>
       </c>
       <c r="K99">
+        <v>2.7</v>
+      </c>
+      <c r="L99">
+        <v>3.5</v>
+      </c>
+      <c r="M99">
+        <v>2.25</v>
+      </c>
+      <c r="N99">
+        <v>2.9</v>
+      </c>
+      <c r="O99">
+        <v>3.6</v>
+      </c>
+      <c r="P99">
         <v>2.3</v>
       </c>
-      <c r="L99">
-        <v>3.3</v>
-      </c>
-      <c r="M99">
-        <v>2.75</v>
-      </c>
-      <c r="N99">
-        <v>2.8</v>
-      </c>
-      <c r="O99">
-        <v>3.3</v>
-      </c>
-      <c r="P99">
-        <v>2.5</v>
-      </c>
       <c r="Q99">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
+        <v>1.875</v>
+      </c>
+      <c r="S99">
         <v>1.975</v>
       </c>
-      <c r="S99">
+      <c r="T99">
+        <v>3</v>
+      </c>
+      <c r="U99">
+        <v>1.975</v>
+      </c>
+      <c r="V99">
         <v>1.875</v>
       </c>
-      <c r="T99">
-        <v>2.5</v>
-      </c>
-      <c r="U99">
+      <c r="W99">
         <v>1.9</v>
       </c>
-      <c r="V99">
-        <v>1.95</v>
-      </c>
-      <c r="W99">
-        <v>1.8</v>
-      </c>
       <c r="X99">
         <v>-1</v>
       </c>
@@ -9321,13 +9321,13 @@
         <v>-1</v>
       </c>
       <c r="Z99">
+        <v>0.875</v>
+      </c>
+      <c r="AA99">
+        <v>-1</v>
+      </c>
+      <c r="AB99">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA99">
-        <v>-1</v>
-      </c>
-      <c r="AB99">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6799249</v>
+        <v>6799251</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,40 +9350,40 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
         <v>3</v>
       </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K100">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M100">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="N100">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="O100">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P100">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
         <v>1.875</v>
@@ -9395,28 +9395,28 @@
         <v>3</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V100">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W100">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z100">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB100">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9709,7 +9709,7 @@
         <v>29</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>44</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -10154,7 +10154,7 @@
         <v>43</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H109">
         <v>4</v>
@@ -10240,7 +10240,7 @@
         <v>45149.5625</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
         <v>29</v>
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6798867</v>
+        <v>6800833</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,76 +10329,76 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K111">
+        <v>1.615</v>
+      </c>
+      <c r="L111">
+        <v>4</v>
+      </c>
+      <c r="M111">
+        <v>4.2</v>
+      </c>
+      <c r="N111">
+        <v>1.75</v>
+      </c>
+      <c r="O111">
         <v>4.333</v>
       </c>
-      <c r="L111">
-        <v>3.75</v>
-      </c>
-      <c r="M111">
-        <v>1.65</v>
-      </c>
-      <c r="N111">
-        <v>4.75</v>
-      </c>
-      <c r="O111">
-        <v>4</v>
-      </c>
       <c r="P111">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="Q111">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R111">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S111">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T111">
         <v>3</v>
       </c>
       <c r="U111">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V111">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z111">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC111">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6800833</v>
+        <v>6798867</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,76 +10418,76 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K112">
+        <v>4.333</v>
+      </c>
+      <c r="L112">
+        <v>3.75</v>
+      </c>
+      <c r="M112">
+        <v>1.65</v>
+      </c>
+      <c r="N112">
+        <v>4.75</v>
+      </c>
+      <c r="O112">
+        <v>4</v>
+      </c>
+      <c r="P112">
         <v>1.615</v>
       </c>
-      <c r="L112">
-        <v>4</v>
-      </c>
-      <c r="M112">
-        <v>4.2</v>
-      </c>
-      <c r="N112">
-        <v>1.75</v>
-      </c>
-      <c r="O112">
-        <v>4.333</v>
-      </c>
-      <c r="P112">
-        <v>3.8</v>
-      </c>
       <c r="Q112">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R112">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S112">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T112">
         <v>3</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y112">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10685,7 +10685,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
         <v>39</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6800832</v>
+        <v>6798551</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,55 +10863,55 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J117" t="s">
         <v>46</v>
       </c>
       <c r="K117">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L117">
         <v>3.4</v>
       </c>
       <c r="M117">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N117">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="O117">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P117">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R117">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S117">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T117">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U117">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V117">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
         <v>-1</v>
@@ -10920,16 +10920,16 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>1.8</v>
+        <v>1.375</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB117">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6799259</v>
+        <v>6800832</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,73 +10952,73 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K118">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L118">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N118">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P118">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S118">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T118">
         <v>3</v>
       </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V118">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W118">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB118">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6798551</v>
+        <v>6799259</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,73 +11041,73 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H119">
+        <v>3</v>
+      </c>
+      <c r="I119">
         <v>1</v>
       </c>
-      <c r="I119">
+      <c r="J119" t="s">
+        <v>47</v>
+      </c>
+      <c r="K119">
+        <v>1.95</v>
+      </c>
+      <c r="L119">
+        <v>3.6</v>
+      </c>
+      <c r="M119">
+        <v>3.4</v>
+      </c>
+      <c r="N119">
+        <v>2.2</v>
+      </c>
+      <c r="O119">
+        <v>3.6</v>
+      </c>
+      <c r="P119">
+        <v>3.1</v>
+      </c>
+      <c r="Q119">
+        <v>-0.25</v>
+      </c>
+      <c r="R119">
+        <v>1.975</v>
+      </c>
+      <c r="S119">
+        <v>1.875</v>
+      </c>
+      <c r="T119">
         <v>3</v>
       </c>
-      <c r="J119" t="s">
-        <v>46</v>
-      </c>
-      <c r="K119">
-        <v>2.15</v>
-      </c>
-      <c r="L119">
-        <v>3.4</v>
-      </c>
-      <c r="M119">
-        <v>3.1</v>
-      </c>
-      <c r="N119">
-        <v>2.9</v>
-      </c>
-      <c r="O119">
-        <v>3.4</v>
-      </c>
-      <c r="P119">
-        <v>2.375</v>
-      </c>
-      <c r="Q119">
-        <v>0.25</v>
-      </c>
-      <c r="R119">
-        <v>1.8</v>
-      </c>
-      <c r="S119">
-        <v>2.05</v>
-      </c>
-      <c r="T119">
-        <v>2.75</v>
-      </c>
       <c r="U119">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V119">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA119">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11219,10 +11219,10 @@
         <v>45158.33333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6800831</v>
+        <v>6799262</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,34 +11308,34 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H122">
+        <v>2</v>
+      </c>
+      <c r="I122">
         <v>0</v>
       </c>
-      <c r="I122">
-        <v>1</v>
-      </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K122">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L122">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N122">
         <v>2.15</v>
       </c>
       <c r="O122">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P122">
         <v>3.1</v>
@@ -11344,40 +11344,40 @@
         <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S122">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T122">
         <v>3</v>
       </c>
       <c r="U122">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V122">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA122">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6799262</v>
+        <v>6800831</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,34 +11397,34 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K123">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M123">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="N123">
         <v>2.15</v>
       </c>
       <c r="O123">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P123">
         <v>3.1</v>
@@ -11433,40 +11433,40 @@
         <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S123">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T123">
         <v>3</v>
       </c>
       <c r="U123">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V123">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W123">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z123">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6799263</v>
+        <v>6799264</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,73 +11575,73 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I125">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K125">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L125">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M125">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N125">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="O125">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P125">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="Q125">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R125">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S125">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U125">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA125">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6799264</v>
+        <v>6799263</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,73 +11664,73 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G126" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>6</v>
+      </c>
+      <c r="J126" t="s">
+        <v>46</v>
+      </c>
+      <c r="K126">
+        <v>1.75</v>
+      </c>
+      <c r="L126">
+        <v>3.8</v>
+      </c>
+      <c r="M126">
         <v>4</v>
       </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-      <c r="J126" t="s">
-        <v>47</v>
-      </c>
-      <c r="K126">
-        <v>1.4</v>
-      </c>
-      <c r="L126">
-        <v>4.5</v>
-      </c>
-      <c r="M126">
-        <v>7</v>
-      </c>
       <c r="N126">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="O126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P126">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q126">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R126">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S126">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T126">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U126">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V126">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W126">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z126">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB126">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11753,7 +11753,7 @@
         <v>45162.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
         <v>43</v>
@@ -12109,10 +12109,10 @@
         <v>45165.33333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -12287,7 +12287,7 @@
         <v>45166.5625</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
         <v>38</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6800829</v>
+        <v>6799269</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135" t="s">
+        <v>46</v>
+      </c>
+      <c r="K135">
+        <v>2.05</v>
+      </c>
+      <c r="L135">
+        <v>3.6</v>
+      </c>
+      <c r="M135">
+        <v>3.25</v>
+      </c>
+      <c r="N135">
+        <v>2.45</v>
+      </c>
+      <c r="O135">
+        <v>4</v>
+      </c>
+      <c r="P135">
+        <v>2.55</v>
+      </c>
+      <c r="Q135">
         <v>0</v>
       </c>
-      <c r="J135" t="s">
-        <v>45</v>
-      </c>
-      <c r="K135">
-        <v>1.8</v>
-      </c>
-      <c r="L135">
-        <v>3.8</v>
-      </c>
-      <c r="M135">
-        <v>3.8</v>
-      </c>
-      <c r="N135">
-        <v>1.666</v>
-      </c>
-      <c r="O135">
-        <v>4.2</v>
-      </c>
-      <c r="P135">
-        <v>4.5</v>
-      </c>
-      <c r="Q135">
-        <v>-0.75</v>
-      </c>
       <c r="R135">
+        <v>1.9</v>
+      </c>
+      <c r="S135">
+        <v>1.95</v>
+      </c>
+      <c r="T135">
+        <v>3.25</v>
+      </c>
+      <c r="U135">
+        <v>2.025</v>
+      </c>
+      <c r="V135">
         <v>1.825</v>
       </c>
-      <c r="S135">
-        <v>2.025</v>
-      </c>
-      <c r="T135">
-        <v>3</v>
-      </c>
-      <c r="U135">
-        <v>1.875</v>
-      </c>
-      <c r="V135">
-        <v>1.975</v>
-      </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB135">
         <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6799269</v>
+        <v>6800829</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K136">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L136">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M136">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="N136">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="O136">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P136">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S136">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T136">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U136">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y136">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB136">
         <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12646,7 +12646,7 @@
         <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12824,7 +12824,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -12910,7 +12910,7 @@
         <v>45183.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
         <v>42</v>
@@ -12999,7 +12999,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G141" t="s">
         <v>44</v>
@@ -13266,7 +13266,7 @@
         <v>45186.375</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G144" t="s">
         <v>30</v>
@@ -13447,7 +13447,7 @@
         <v>42</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13536,7 +13536,7 @@
         <v>43</v>
       </c>
       <c r="G147" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13625,7 +13625,7 @@
         <v>41</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -14245,7 +14245,7 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F155" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G155" t="s">
         <v>30</v>
@@ -14334,7 +14334,7 @@
         <v>45200.375</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G156" t="s">
         <v>33</v>
@@ -14423,7 +14423,7 @@
         <v>45200.5</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
         <v>42</v>
@@ -14512,7 +14512,7 @@
         <v>45205.5625</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G158" t="s">
         <v>38</v>
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6798874</v>
+        <v>6800824</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,55 +14601,55 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G159" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J159" t="s">
         <v>46</v>
       </c>
       <c r="K159">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L159">
         <v>3.75</v>
       </c>
       <c r="M159">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="N159">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O159">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P159">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q159">
         <v>0.5</v>
       </c>
       <c r="R159">
+        <v>1.875</v>
+      </c>
+      <c r="S159">
         <v>1.975</v>
       </c>
-      <c r="S159">
-        <v>1.875</v>
-      </c>
       <c r="T159">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U159">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V159">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14658,19 +14658,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB159">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6800824</v>
+        <v>6798874</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,55 +14690,55 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G160" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J160" t="s">
         <v>46</v>
       </c>
       <c r="K160">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L160">
         <v>3.75</v>
       </c>
       <c r="M160">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="N160">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O160">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P160">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q160">
         <v>0.5</v>
       </c>
       <c r="R160">
+        <v>1.975</v>
+      </c>
+      <c r="S160">
         <v>1.875</v>
       </c>
-      <c r="S160">
+      <c r="T160">
+        <v>2.5</v>
+      </c>
+      <c r="U160">
         <v>1.975</v>
       </c>
-      <c r="T160">
-        <v>3</v>
-      </c>
-      <c r="U160">
-        <v>2</v>
-      </c>
       <c r="V160">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14747,19 +14747,19 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
+        <v>0.875</v>
+      </c>
+      <c r="AB160">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB160">
-        <v>0</v>
-      </c>
       <c r="AC160">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14782,7 +14782,7 @@
         <v>42</v>
       </c>
       <c r="G161" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H161">
         <v>3</v>
@@ -14871,7 +14871,7 @@
         <v>33</v>
       </c>
       <c r="G162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6799287</v>
+        <v>6798558</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,13 +15135,13 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -15150,43 +15150,43 @@
         <v>47</v>
       </c>
       <c r="K165">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="L165">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M165">
+        <v>4.333</v>
+      </c>
+      <c r="N165">
+        <v>1.909</v>
+      </c>
+      <c r="O165">
         <v>3.8</v>
       </c>
-      <c r="N165">
-        <v>1.8</v>
-      </c>
-      <c r="O165">
-        <v>3.75</v>
-      </c>
       <c r="P165">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q165">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R165">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S165">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U165">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V165">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W165">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15195,16 +15195,16 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.5125</v>
+        <v>0.925</v>
       </c>
       <c r="AA165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC165">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15212,7 +15212,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6798558</v>
+        <v>6799287</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15224,13 +15224,13 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G166" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H166">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -15239,61 +15239,61 @@
         <v>47</v>
       </c>
       <c r="K166">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="L166">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M166">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="N166">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O166">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P166">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q166">
+        <v>-0.75</v>
+      </c>
+      <c r="R166">
+        <v>2.025</v>
+      </c>
+      <c r="S166">
+        <v>1.825</v>
+      </c>
+      <c r="T166">
+        <v>2.5</v>
+      </c>
+      <c r="U166">
+        <v>2.025</v>
+      </c>
+      <c r="V166">
+        <v>1.825</v>
+      </c>
+      <c r="W166">
+        <v>0.8</v>
+      </c>
+      <c r="X166">
+        <v>-1</v>
+      </c>
+      <c r="Y166">
+        <v>-1</v>
+      </c>
+      <c r="Z166">
+        <v>0.5125</v>
+      </c>
+      <c r="AA166">
         <v>-0.5</v>
       </c>
-      <c r="R166">
-        <v>1.925</v>
-      </c>
-      <c r="S166">
-        <v>1.925</v>
-      </c>
-      <c r="T166">
-        <v>2.75</v>
-      </c>
-      <c r="U166">
-        <v>1.9</v>
-      </c>
-      <c r="V166">
-        <v>1.95</v>
-      </c>
-      <c r="W166">
-        <v>0.909</v>
-      </c>
-      <c r="X166">
-        <v>-1</v>
-      </c>
-      <c r="Y166">
-        <v>-1</v>
-      </c>
-      <c r="Z166">
-        <v>0.925</v>
-      </c>
-      <c r="AA166">
-        <v>-1</v>
-      </c>
       <c r="AB166">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15316,7 +15316,7 @@
         <v>29</v>
       </c>
       <c r="G167" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15491,7 +15491,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F169" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G169" t="s">
         <v>33</v>
@@ -15568,7 +15568,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6799288</v>
+        <v>6799291</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15580,76 +15580,76 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G170" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K170">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L170">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M170">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="N170">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O170">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P170">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q170">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S170">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T170">
         <v>2.75</v>
       </c>
       <c r="U170">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V170">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W170">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z170">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB170">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC170">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6799291</v>
+        <v>6799288</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,76 +15669,76 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G171" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H171">
+        <v>2</v>
+      </c>
+      <c r="I171">
         <v>1</v>
       </c>
-      <c r="I171">
-        <v>3</v>
-      </c>
       <c r="J171" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K171">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L171">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M171">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="N171">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O171">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P171">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R171">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S171">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T171">
         <v>2.75</v>
       </c>
       <c r="U171">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V171">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA171">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB171">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15939,7 +15939,7 @@
         <v>30</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H174">
         <v>3</v>
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6799294</v>
+        <v>6799293</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,76 +16114,76 @@
         <v>45233.625</v>
       </c>
       <c r="F176" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G176" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H176">
         <v>1</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J176" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K176">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="L176">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M176">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="N176">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="O176">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P176">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q176">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R176">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S176">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T176">
         <v>2.75</v>
       </c>
       <c r="U176">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V176">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W176">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z176">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC176">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16191,7 +16191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6799293</v>
+        <v>6799294</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16203,76 +16203,76 @@
         <v>45233.625</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G177" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H177">
         <v>1</v>
       </c>
       <c r="I177">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K177">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="L177">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M177">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="N177">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="O177">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P177">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="Q177">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R177">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V177">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA177">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB177">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16381,7 +16381,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G179" t="s">
         <v>42</v>
@@ -16636,7 +16636,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6799295</v>
+        <v>6799296</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16648,76 +16648,76 @@
         <v>45240.625</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G182" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H182">
         <v>1</v>
       </c>
       <c r="I182">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K182">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="L182">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M182">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="N182">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="O182">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P182">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q182">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R182">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S182">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T182">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U182">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V182">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y182">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA182">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB182">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6800819</v>
+        <v>6799295</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16737,76 +16737,76 @@
         <v>45240.625</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G183" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="I183">
+        <v>4</v>
+      </c>
+      <c r="J183" t="s">
+        <v>46</v>
+      </c>
+      <c r="K183">
+        <v>7.5</v>
+      </c>
+      <c r="L183">
+        <v>5</v>
+      </c>
+      <c r="M183">
+        <v>1.333</v>
+      </c>
+      <c r="N183">
+        <v>6.5</v>
+      </c>
+      <c r="O183">
+        <v>4.75</v>
+      </c>
+      <c r="P183">
+        <v>1.45</v>
+      </c>
+      <c r="Q183">
+        <v>1.25</v>
+      </c>
+      <c r="R183">
+        <v>1.925</v>
+      </c>
+      <c r="S183">
+        <v>1.925</v>
+      </c>
+      <c r="T183">
+        <v>3.25</v>
+      </c>
+      <c r="U183">
+        <v>1.85</v>
+      </c>
+      <c r="V183">
         <v>2</v>
       </c>
-      <c r="I183">
-        <v>0</v>
-      </c>
-      <c r="J183" t="s">
-        <v>47</v>
-      </c>
-      <c r="K183">
-        <v>2.5</v>
-      </c>
-      <c r="L183">
-        <v>3.4</v>
-      </c>
-      <c r="M183">
-        <v>2.55</v>
-      </c>
-      <c r="N183">
-        <v>2.45</v>
-      </c>
-      <c r="O183">
-        <v>3.5</v>
-      </c>
-      <c r="P183">
-        <v>2.8</v>
-      </c>
-      <c r="Q183">
-        <v>0</v>
-      </c>
-      <c r="R183">
-        <v>1.8</v>
-      </c>
-      <c r="S183">
-        <v>2.05</v>
-      </c>
-      <c r="T183">
-        <v>2.75</v>
-      </c>
-      <c r="U183">
-        <v>1.9</v>
-      </c>
-      <c r="V183">
-        <v>1.95</v>
-      </c>
       <c r="W183">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z183">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC183">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16814,7 +16814,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6799296</v>
+        <v>6800819</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16826,76 +16826,76 @@
         <v>45240.625</v>
       </c>
       <c r="F184" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G184" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K184">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L184">
         <v>3.4</v>
       </c>
       <c r="M184">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="N184">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="O184">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P184">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q184">
         <v>0</v>
       </c>
       <c r="R184">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S184">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T184">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U184">
+        <v>1.9</v>
+      </c>
+      <c r="V184">
         <v>1.95</v>
       </c>
-      <c r="V184">
-        <v>1.9</v>
-      </c>
       <c r="W184">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X184">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA184">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17093,7 +17093,7 @@
         <v>45243.625</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G187" t="s">
         <v>29</v>
@@ -17182,7 +17182,7 @@
         <v>45253.625</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
         <v>41</v>
@@ -17259,7 +17259,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6799300</v>
+        <v>6799298</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17271,73 +17271,73 @@
         <v>45254.625</v>
       </c>
       <c r="F189" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H189">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K189">
+        <v>3.1</v>
+      </c>
+      <c r="L189">
+        <v>3.6</v>
+      </c>
+      <c r="M189">
+        <v>2.1</v>
+      </c>
+      <c r="N189">
+        <v>3.2</v>
+      </c>
+      <c r="O189">
+        <v>3.4</v>
+      </c>
+      <c r="P189">
+        <v>2.25</v>
+      </c>
+      <c r="Q189">
+        <v>0.25</v>
+      </c>
+      <c r="R189">
+        <v>1.95</v>
+      </c>
+      <c r="S189">
+        <v>1.9</v>
+      </c>
+      <c r="T189">
+        <v>2.5</v>
+      </c>
+      <c r="U189">
+        <v>1.85</v>
+      </c>
+      <c r="V189">
+        <v>2</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
         <v>1.25</v>
       </c>
-      <c r="L189">
-        <v>6</v>
-      </c>
-      <c r="M189">
-        <v>8</v>
-      </c>
-      <c r="N189">
-        <v>1.3</v>
-      </c>
-      <c r="O189">
-        <v>6</v>
-      </c>
-      <c r="P189">
-        <v>8.5</v>
-      </c>
-      <c r="Q189">
-        <v>-1.5</v>
-      </c>
-      <c r="R189">
-        <v>1.875</v>
-      </c>
-      <c r="S189">
-        <v>1.975</v>
-      </c>
-      <c r="T189">
-        <v>3.25</v>
-      </c>
-      <c r="U189">
-        <v>1.925</v>
-      </c>
-      <c r="V189">
-        <v>1.925</v>
-      </c>
-      <c r="W189">
-        <v>0.3</v>
-      </c>
-      <c r="X189">
-        <v>-1</v>
-      </c>
-      <c r="Y189">
-        <v>-1</v>
-      </c>
       <c r="Z189">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB189">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6799298</v>
+        <v>6799300</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17360,73 +17360,73 @@
         <v>45254.625</v>
       </c>
       <c r="F190" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G190" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H190">
+        <v>4</v>
+      </c>
+      <c r="I190">
         <v>1</v>
       </c>
-      <c r="I190">
-        <v>2</v>
-      </c>
       <c r="J190" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K190">
-        <v>3.1</v>
+        <v>1.25</v>
       </c>
       <c r="L190">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M190">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="N190">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="O190">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P190">
-        <v>2.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q190">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R190">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S190">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T190">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U190">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA190">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17541,7 +17541,7 @@
         <v>39</v>
       </c>
       <c r="G192" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17630,7 +17630,7 @@
         <v>43</v>
       </c>
       <c r="G193" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -17716,7 +17716,7 @@
         <v>45261.60416666666</v>
       </c>
       <c r="F194" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G194" t="s">
         <v>39</v>
@@ -17808,7 +17808,7 @@
         <v>44</v>
       </c>
       <c r="G195" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -17983,7 +17983,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G197" t="s">
         <v>43</v>
@@ -18060,7 +18060,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7554250</v>
+        <v>6799302</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18072,76 +18072,76 @@
         <v>45265.60416666666</v>
       </c>
       <c r="F198" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G198" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K198">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L198">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M198">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N198">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O198">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P198">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q198">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R198">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S198">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T198">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U198">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V198">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y198">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA198">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC198">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18149,7 +18149,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6799302</v>
+        <v>7554250</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18161,76 +18161,76 @@
         <v>45265.60416666666</v>
       </c>
       <c r="F199" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G199" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K199">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="L199">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M199">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N199">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O199">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P199">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q199">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R199">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S199">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T199">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U199">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V199">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z199">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB199">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>

--- a/Denmark Division 1/Denmark Division 1.xlsx
+++ b/Denmark Division 1/Denmark Division 1.xlsx
@@ -109,25 +109,25 @@
     <t>FC Helsingor</t>
   </si>
   <si>
-    <t>Vejle</t>
+    <t>Hvidovre IF</t>
   </si>
   <si>
-    <t>Hvidovre IF</t>
+    <t>Vejle</t>
   </si>
   <si>
     <t>Naestved</t>
   </si>
   <si>
+    <t>Hobro IK</t>
+  </si>
+  <si>
     <t>FC Fredericia</t>
   </si>
   <si>
-    <t>Hobro IK</t>
+    <t>Fremad Amager</t>
   </si>
   <si>
     <t>HB Kge</t>
-  </si>
-  <si>
-    <t>Fremad Amager</t>
   </si>
   <si>
     <t>Sonderjyske</t>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5128562</v>
+        <v>5128521</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,10 +809,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -821,43 +821,43 @@
         <v>47</v>
       </c>
       <c r="K4">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M4">
         <v>7</v>
       </c>
       <c r="N4">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="O4">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q4">
         <v>-1.5</v>
       </c>
       <c r="R4">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T4">
         <v>3</v>
       </c>
       <c r="U4">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -866,13 +866,13 @@
         <v>-1</v>
       </c>
       <c r="Z4">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA4">
+        <v>-1</v>
+      </c>
+      <c r="AB4">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA4">
-        <v>-1</v>
-      </c>
-      <c r="AB4">
-        <v>1.05</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5128521</v>
+        <v>5128562</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,10 +898,10 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -910,43 +910,43 @@
         <v>47</v>
       </c>
       <c r="K5">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="L5">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M5">
         <v>7</v>
       </c>
       <c r="N5">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O5">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="P5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q5">
         <v>-1.5</v>
       </c>
       <c r="R5">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W5">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -955,13 +955,13 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5128299</v>
+        <v>5128520</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,73 +1076,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="L7">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M7">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="N7">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q7">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
+        <v>2.05</v>
+      </c>
+      <c r="S7">
+        <v>1.8</v>
+      </c>
+      <c r="T7">
+        <v>2.25</v>
+      </c>
+      <c r="U7">
+        <v>1.875</v>
+      </c>
+      <c r="V7">
         <v>1.975</v>
       </c>
-      <c r="S7">
-        <v>1.875</v>
-      </c>
-      <c r="T7">
-        <v>2.75</v>
-      </c>
-      <c r="U7">
-        <v>1.975</v>
-      </c>
-      <c r="V7">
-        <v>1.875</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
         <v>0.875</v>
       </c>
-      <c r="AB7">
-        <v>-1</v>
-      </c>
       <c r="AC7">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5128520</v>
+        <v>5128299</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="L8">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M8">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N8">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="O8">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P8">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q8">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T8">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
+        <v>1.975</v>
+      </c>
+      <c r="V8">
         <v>1.875</v>
       </c>
-      <c r="V8">
-        <v>1.975</v>
-      </c>
       <c r="W8">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z8">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB8">
+        <v>-1</v>
+      </c>
+      <c r="AC8">
         <v>0.875</v>
-      </c>
-      <c r="AC8">
-        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5128564</v>
+        <v>5128563</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L9">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="N9">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="O9">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P9">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="Q9">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S9">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X9">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5128563</v>
+        <v>5128564</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,73 +1343,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10">
+        <v>3.5</v>
+      </c>
+      <c r="L10">
+        <v>3.75</v>
+      </c>
+      <c r="M10">
+        <v>1.909</v>
+      </c>
+      <c r="N10">
+        <v>4.333</v>
+      </c>
+      <c r="O10">
+        <v>4.2</v>
+      </c>
+      <c r="P10">
+        <v>1.666</v>
+      </c>
+      <c r="Q10">
+        <v>0.75</v>
+      </c>
+      <c r="R10">
+        <v>1.975</v>
+      </c>
+      <c r="S10">
+        <v>1.875</v>
+      </c>
+      <c r="T10">
+        <v>2.75</v>
+      </c>
+      <c r="U10">
+        <v>1.85</v>
+      </c>
+      <c r="V10">
         <v>2</v>
       </c>
-      <c r="I10">
+      <c r="W10">
+        <v>-1</v>
+      </c>
+      <c r="X10">
+        <v>3.2</v>
+      </c>
+      <c r="Y10">
+        <v>-1</v>
+      </c>
+      <c r="Z10">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA10">
+        <v>-1</v>
+      </c>
+      <c r="AB10">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
         <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10">
-        <v>2.5</v>
-      </c>
-      <c r="L10">
-        <v>3.4</v>
-      </c>
-      <c r="M10">
-        <v>2.625</v>
-      </c>
-      <c r="N10">
-        <v>3.1</v>
-      </c>
-      <c r="O10">
-        <v>3.4</v>
-      </c>
-      <c r="P10">
-        <v>2.2</v>
-      </c>
-      <c r="Q10">
-        <v>0.25</v>
-      </c>
-      <c r="R10">
-        <v>1.9</v>
-      </c>
-      <c r="S10">
-        <v>1.95</v>
-      </c>
-      <c r="T10">
-        <v>2.5</v>
-      </c>
-      <c r="U10">
-        <v>1.95</v>
-      </c>
-      <c r="V10">
-        <v>1.9</v>
-      </c>
-      <c r="W10">
-        <v>2.1</v>
-      </c>
-      <c r="X10">
-        <v>-1</v>
-      </c>
-      <c r="Y10">
-        <v>-1</v>
-      </c>
-      <c r="Z10">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA10">
-        <v>-1</v>
-      </c>
-      <c r="AB10">
-        <v>0.95</v>
-      </c>
-      <c r="AC10">
-        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1432,7 +1432,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1610,7 +1610,7 @@
         <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1785,10 +1785,10 @@
         <v>44988.60416666666</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1963,7 +1963,7 @@
         <v>44989.375</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -2055,7 +2055,7 @@
         <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2141,7 +2141,7 @@
         <v>44990.41666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
         <v>40</v>
@@ -2230,7 +2230,7 @@
         <v>44990.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>39</v>
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5128568</v>
+        <v>5128295</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,76 +2319,76 @@
         <v>44996.375</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
         <v>0</v>
       </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="N21">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="O21">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P21">
+        <v>3</v>
+      </c>
+      <c r="Q21">
+        <v>-0.25</v>
+      </c>
+      <c r="R21">
+        <v>2.1</v>
+      </c>
+      <c r="S21">
+        <v>1.775</v>
+      </c>
+      <c r="T21">
+        <v>2.5</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21">
         <v>1.85</v>
       </c>
-      <c r="Q21">
-        <v>0.5</v>
-      </c>
-      <c r="R21">
-        <v>1.975</v>
-      </c>
-      <c r="S21">
-        <v>1.875</v>
-      </c>
-      <c r="T21">
-        <v>2.75</v>
-      </c>
-      <c r="U21">
-        <v>1.825</v>
-      </c>
-      <c r="V21">
-        <v>2.025</v>
-      </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
+        <v>-1</v>
+      </c>
+      <c r="Z21">
+        <v>1.1</v>
+      </c>
+      <c r="AA21">
+        <v>-1</v>
+      </c>
+      <c r="AB21">
+        <v>-1</v>
+      </c>
+      <c r="AC21">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z21">
-        <v>-1</v>
-      </c>
-      <c r="AA21">
-        <v>0.875</v>
-      </c>
-      <c r="AB21">
-        <v>-1</v>
-      </c>
-      <c r="AC21">
-        <v>1.025</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5128295</v>
+        <v>5128568</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>44996.375</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K22">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L22">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="N22">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="O22">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P22">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R22">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S22">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W22">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z22">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2500,7 +2500,7 @@
         <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>4</v>
@@ -2586,10 +2586,10 @@
         <v>44997.375</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2764,10 +2764,10 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5128528</v>
+        <v>5128572</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,76 +2853,76 @@
         <v>45003.375</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M27">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="N27">
-        <v>1.444</v>
+        <v>1.7</v>
       </c>
       <c r="O27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P27">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Q27">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V27">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X27">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA27">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5128572</v>
+        <v>5128528</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,76 +2942,76 @@
         <v>45003.375</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="L28">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M28">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="N28">
-        <v>1.7</v>
+        <v>1.444</v>
       </c>
       <c r="O28">
+        <v>5</v>
+      </c>
+      <c r="P28">
+        <v>6</v>
+      </c>
+      <c r="Q28">
+        <v>-1.25</v>
+      </c>
+      <c r="R28">
+        <v>1.925</v>
+      </c>
+      <c r="S28">
+        <v>1.925</v>
+      </c>
+      <c r="T28">
+        <v>3.25</v>
+      </c>
+      <c r="U28">
+        <v>2</v>
+      </c>
+      <c r="V28">
+        <v>1.85</v>
+      </c>
+      <c r="W28">
+        <v>-1</v>
+      </c>
+      <c r="X28">
         <v>4</v>
       </c>
-      <c r="P28">
-        <v>4.5</v>
-      </c>
-      <c r="Q28">
-        <v>-0.75</v>
-      </c>
-      <c r="R28">
-        <v>1.9</v>
-      </c>
-      <c r="S28">
-        <v>1.95</v>
-      </c>
-      <c r="T28">
-        <v>3</v>
-      </c>
-      <c r="U28">
-        <v>2.05</v>
-      </c>
-      <c r="V28">
-        <v>1.8</v>
-      </c>
-      <c r="W28">
-        <v>0.7</v>
-      </c>
-      <c r="X28">
-        <v>-1</v>
-      </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5128201</v>
+        <v>5128527</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,76 +3031,76 @@
         <v>45003.375</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="L29">
         <v>3.6</v>
       </c>
       <c r="M29">
-        <v>1.714</v>
+        <v>4</v>
       </c>
       <c r="N29">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="O29">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P29">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="Q29">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R29">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S29">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
+        <v>1.9</v>
+      </c>
+      <c r="V29">
         <v>1.95</v>
       </c>
-      <c r="V29">
-        <v>1.9</v>
-      </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA29">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5128527</v>
+        <v>5128294</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,76 +3120,76 @@
         <v>45003.375</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K30">
+        <v>2.1</v>
+      </c>
+      <c r="L30">
+        <v>3.5</v>
+      </c>
+      <c r="M30">
+        <v>3.2</v>
+      </c>
+      <c r="N30">
+        <v>2.375</v>
+      </c>
+      <c r="O30">
+        <v>3.6</v>
+      </c>
+      <c r="P30">
+        <v>2.7</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
         <v>1.8</v>
       </c>
-      <c r="L30">
-        <v>3.6</v>
-      </c>
-      <c r="M30">
-        <v>4</v>
-      </c>
-      <c r="N30">
-        <v>1.8</v>
-      </c>
-      <c r="O30">
-        <v>3.8</v>
-      </c>
-      <c r="P30">
-        <v>4</v>
-      </c>
-      <c r="Q30">
-        <v>-0.75</v>
-      </c>
-      <c r="R30">
+      <c r="S30">
         <v>2.05</v>
-      </c>
-      <c r="S30">
-        <v>1.8</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z30">
+        <v>-1</v>
+      </c>
+      <c r="AA30">
         <v>1.05</v>
       </c>
-      <c r="AA30">
-        <v>-1</v>
-      </c>
       <c r="AB30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5128294</v>
+        <v>5128201</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,55 +3209,55 @@
         <v>45003.375</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
         <v>46</v>
       </c>
       <c r="K31">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="L31">
+        <v>3.6</v>
+      </c>
+      <c r="M31">
+        <v>1.714</v>
+      </c>
+      <c r="N31">
+        <v>4.75</v>
+      </c>
+      <c r="O31">
         <v>3.5</v>
       </c>
-      <c r="M31">
-        <v>3.2</v>
-      </c>
-      <c r="N31">
-        <v>2.375</v>
-      </c>
-      <c r="O31">
-        <v>3.6</v>
-      </c>
       <c r="P31">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R31">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S31">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3266,19 +3266,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>1.7</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB31">
         <v>-1</v>
       </c>
       <c r="AC31">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3301,7 +3301,7 @@
         <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3387,7 +3387,7 @@
         <v>45016.5625</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
         <v>40</v>
@@ -3568,7 +3568,7 @@
         <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3654,7 +3654,7 @@
         <v>45017.4375</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
         <v>38</v>
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6428342</v>
+        <v>6428313</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,73 +3743,73 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="L37">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M37">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N37">
+        <v>3.8</v>
+      </c>
+      <c r="O37">
+        <v>3.75</v>
+      </c>
+      <c r="P37">
+        <v>1.909</v>
+      </c>
+      <c r="Q37">
+        <v>0.5</v>
+      </c>
+      <c r="R37">
         <v>2</v>
       </c>
-      <c r="O37">
-        <v>3.6</v>
-      </c>
-      <c r="P37">
-        <v>3.6</v>
-      </c>
-      <c r="Q37">
-        <v>-0.5</v>
-      </c>
-      <c r="R37">
-        <v>2.025</v>
-      </c>
       <c r="S37">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
         <v>2.75</v>
       </c>
       <c r="U37">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V37">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA37">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6428313</v>
+        <v>6428342</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,73 +3832,73 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
         <v>3</v>
       </c>
-      <c r="I38">
+      <c r="J38" t="s">
+        <v>46</v>
+      </c>
+      <c r="K38">
+        <v>2.4</v>
+      </c>
+      <c r="L38">
+        <v>3.5</v>
+      </c>
+      <c r="M38">
+        <v>2.6</v>
+      </c>
+      <c r="N38">
         <v>2</v>
       </c>
-      <c r="J38" t="s">
-        <v>47</v>
-      </c>
-      <c r="K38">
-        <v>3.4</v>
-      </c>
-      <c r="L38">
-        <v>3.3</v>
-      </c>
-      <c r="M38">
-        <v>2.1</v>
-      </c>
-      <c r="N38">
-        <v>3.8</v>
-      </c>
       <c r="O38">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P38">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="Q38">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T38">
         <v>2.75</v>
       </c>
       <c r="U38">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V38">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB38">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC38">
         <v>-1</v>
@@ -3921,10 +3921,10 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4010,7 +4010,7 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
         <v>30</v>
@@ -4102,7 +4102,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4188,7 +4188,7 @@
         <v>45026.33333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
@@ -4280,7 +4280,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4455,10 +4455,10 @@
         <v>45029.54166666666</v>
       </c>
       <c r="F45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" t="s">
         <v>31</v>
-      </c>
-      <c r="G45" t="s">
-        <v>32</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4722,10 +4722,10 @@
         <v>45032.375</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H48">
         <v>6</v>
@@ -4811,10 +4811,10 @@
         <v>45032.375</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4903,7 +4903,7 @@
         <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5081,7 +5081,7 @@
         <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5167,7 +5167,7 @@
         <v>45038.33333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
         <v>39</v>
@@ -5256,7 +5256,7 @@
         <v>45039.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
         <v>29</v>
@@ -5345,10 +5345,10 @@
         <v>45039.375</v>
       </c>
       <c r="F55" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" t="s">
         <v>35</v>
-      </c>
-      <c r="G55" t="s">
-        <v>34</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5434,10 +5434,10 @@
         <v>45044.5625</v>
       </c>
       <c r="F56" t="s">
+        <v>36</v>
+      </c>
+      <c r="G56" t="s">
         <v>37</v>
-      </c>
-      <c r="G56" t="s">
-        <v>36</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         <v>45044.5625</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
         <v>40</v>
@@ -5615,7 +5615,7 @@
         <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5879,7 +5879,7 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
         <v>30</v>
@@ -5968,10 +5968,10 @@
         <v>45051.54166666666</v>
       </c>
       <c r="F62" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" t="s">
         <v>32</v>
-      </c>
-      <c r="G62" t="s">
-        <v>31</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6428355</v>
+        <v>6428356</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45051.5625</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63" t="s">
+        <v>45</v>
+      </c>
+      <c r="K63">
+        <v>1.909</v>
+      </c>
+      <c r="L63">
+        <v>3.3</v>
+      </c>
+      <c r="M63">
+        <v>3.75</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+      <c r="O63">
+        <v>3.5</v>
+      </c>
+      <c r="P63">
+        <v>3.8</v>
+      </c>
+      <c r="Q63">
+        <v>-0.5</v>
+      </c>
+      <c r="R63">
+        <v>2.05</v>
+      </c>
+      <c r="S63">
+        <v>1.8</v>
+      </c>
+      <c r="T63">
+        <v>2.75</v>
+      </c>
+      <c r="U63">
+        <v>2</v>
+      </c>
+      <c r="V63">
+        <v>1.85</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
+        <v>2.5</v>
+      </c>
+      <c r="Y63">
+        <v>-1</v>
+      </c>
+      <c r="Z63">
+        <v>-1</v>
+      </c>
+      <c r="AA63">
+        <v>0.8</v>
+      </c>
+      <c r="AB63">
         <v>1</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63" t="s">
-        <v>47</v>
-      </c>
-      <c r="K63">
-        <v>2.625</v>
-      </c>
-      <c r="L63">
-        <v>3.2</v>
-      </c>
-      <c r="M63">
-        <v>2.4</v>
-      </c>
-      <c r="N63">
-        <v>3.5</v>
-      </c>
-      <c r="O63">
-        <v>3.2</v>
-      </c>
-      <c r="P63">
-        <v>2.15</v>
-      </c>
-      <c r="Q63">
-        <v>0.25</v>
-      </c>
-      <c r="R63">
-        <v>1.975</v>
-      </c>
-      <c r="S63">
-        <v>1.875</v>
-      </c>
-      <c r="T63">
-        <v>2.25</v>
-      </c>
-      <c r="U63">
-        <v>1.875</v>
-      </c>
-      <c r="V63">
-        <v>1.975</v>
-      </c>
-      <c r="W63">
-        <v>2.5</v>
-      </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
-      <c r="Y63">
-        <v>-1</v>
-      </c>
-      <c r="Z63">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA63">
-        <v>-1</v>
-      </c>
-      <c r="AB63">
-        <v>-1</v>
-      </c>
       <c r="AC63">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6428356</v>
+        <v>6428355</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,76 +6146,76 @@
         <v>45051.5625</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K64">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L64">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M64">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="N64">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O64">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P64">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q64">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R64">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S64">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V64">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X64">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA64">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6235,7 +6235,7 @@
         <v>45052.33333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
         <v>40</v>
@@ -6505,7 +6505,7 @@
         <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6591,10 +6591,10 @@
         <v>45057.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6683,7 +6683,7 @@
         <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6858,10 +6858,10 @@
         <v>45059.33333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -7036,7 +7036,7 @@
         <v>45064.375</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7128,7 +7128,7 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7217,7 +7217,7 @@
         <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7392,10 +7392,10 @@
         <v>45067.375</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7481,7 +7481,7 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
         <v>33</v>
@@ -7570,7 +7570,7 @@
         <v>45072.5625</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
         <v>29</v>
@@ -7659,10 +7659,10 @@
         <v>45072.5625</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7748,7 +7748,7 @@
         <v>45072.5625</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
         <v>40</v>
@@ -7840,7 +7840,7 @@
         <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -8018,7 +8018,7 @@
         <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8104,10 +8104,10 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F86" t="s">
+        <v>37</v>
+      </c>
+      <c r="G86" t="s">
         <v>36</v>
-      </c>
-      <c r="G86" t="s">
-        <v>37</v>
       </c>
       <c r="H86">
         <v>4</v>
@@ -8196,7 +8196,7 @@
         <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8285,7 +8285,7 @@
         <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6428339</v>
+        <v>6428337</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8374,70 +8374,70 @@
         <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I89">
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K89">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="L89">
         <v>4</v>
       </c>
       <c r="M89">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N89">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="O89">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P89">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q89">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R89">
+        <v>1.975</v>
+      </c>
+      <c r="S89">
         <v>1.875</v>
       </c>
-      <c r="S89">
-        <v>1.975</v>
-      </c>
       <c r="T89">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U89">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V89">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W89">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z89">
+        <v>-1</v>
+      </c>
+      <c r="AA89">
         <v>0.875</v>
       </c>
-      <c r="AA89">
-        <v>-1</v>
-      </c>
       <c r="AB89">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8537,7 +8537,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6428337</v>
+        <v>6428339</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8552,70 +8552,70 @@
         <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I91">
         <v>3</v>
       </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K91">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="L91">
         <v>4</v>
       </c>
       <c r="M91">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N91">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O91">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P91">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q91">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R91">
+        <v>1.875</v>
+      </c>
+      <c r="S91">
         <v>1.975</v>
       </c>
-      <c r="S91">
-        <v>1.875</v>
-      </c>
       <c r="T91">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U91">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V91">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA91">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6799246</v>
+        <v>6799245</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,76 +8638,76 @@
         <v>45128.58333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K92">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="L92">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M92">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="N92">
         <v>2.25</v>
       </c>
       <c r="O92">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P92">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q92">
         <v>-0.25</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S92">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T92">
         <v>2.75</v>
       </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V92">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z92">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6799245</v>
+        <v>6799246</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45128.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K93">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M93">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="N93">
         <v>2.25</v>
       </c>
       <c r="O93">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P93">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q93">
         <v>-0.25</v>
       </c>
       <c r="R93">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S93">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T93">
         <v>2.75</v>
       </c>
       <c r="U93">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y93">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA93">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AB93">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8905,10 +8905,10 @@
         <v>45130.375</v>
       </c>
       <c r="F95" t="s">
+        <v>35</v>
+      </c>
+      <c r="G95" t="s">
         <v>34</v>
-      </c>
-      <c r="G95" t="s">
-        <v>35</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
         <v>33</v>
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6799249</v>
+        <v>6799251</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,40 +9261,40 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
         <v>3</v>
       </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K99">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="L99">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M99">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="N99">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="O99">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P99">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
         <v>1.875</v>
@@ -9306,28 +9306,28 @@
         <v>3</v>
       </c>
       <c r="U99">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W99">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z99">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB99">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6799251</v>
+        <v>6799249</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,40 +9350,40 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H100">
+        <v>3</v>
+      </c>
+      <c r="I100">
         <v>1</v>
       </c>
-      <c r="I100">
-        <v>3</v>
-      </c>
       <c r="J100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K100">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="L100">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M100">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N100">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="O100">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P100">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R100">
         <v>1.875</v>
@@ -9395,28 +9395,28 @@
         <v>3</v>
       </c>
       <c r="U100">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA100">
+        <v>-1</v>
+      </c>
+      <c r="AB100">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB100">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9709,7 +9709,7 @@
         <v>29</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>44</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -10154,7 +10154,7 @@
         <v>43</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H109">
         <v>4</v>
@@ -10240,7 +10240,7 @@
         <v>45149.5625</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
         <v>29</v>
@@ -10329,7 +10329,7 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G111" t="s">
         <v>41</v>
@@ -10685,7 +10685,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G115" t="s">
         <v>39</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6798551</v>
+        <v>6799259</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,73 +10863,73 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G117" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H117">
+        <v>3</v>
+      </c>
+      <c r="I117">
         <v>1</v>
       </c>
-      <c r="I117">
+      <c r="J117" t="s">
+        <v>47</v>
+      </c>
+      <c r="K117">
+        <v>1.95</v>
+      </c>
+      <c r="L117">
+        <v>3.6</v>
+      </c>
+      <c r="M117">
+        <v>3.4</v>
+      </c>
+      <c r="N117">
+        <v>2.2</v>
+      </c>
+      <c r="O117">
+        <v>3.6</v>
+      </c>
+      <c r="P117">
+        <v>3.1</v>
+      </c>
+      <c r="Q117">
+        <v>-0.25</v>
+      </c>
+      <c r="R117">
+        <v>1.975</v>
+      </c>
+      <c r="S117">
+        <v>1.875</v>
+      </c>
+      <c r="T117">
         <v>3</v>
       </c>
-      <c r="J117" t="s">
-        <v>46</v>
-      </c>
-      <c r="K117">
-        <v>2.15</v>
-      </c>
-      <c r="L117">
-        <v>3.4</v>
-      </c>
-      <c r="M117">
-        <v>3.1</v>
-      </c>
-      <c r="N117">
-        <v>2.9</v>
-      </c>
-      <c r="O117">
-        <v>3.4</v>
-      </c>
-      <c r="P117">
-        <v>2.375</v>
-      </c>
-      <c r="Q117">
-        <v>0.25</v>
-      </c>
-      <c r="R117">
-        <v>1.8</v>
-      </c>
-      <c r="S117">
-        <v>2.05</v>
-      </c>
-      <c r="T117">
-        <v>2.75</v>
-      </c>
       <c r="U117">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA117">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10955,7 +10955,7 @@
         <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6799259</v>
+        <v>6798551</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,73 +11041,73 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
         <v>3</v>
       </c>
-      <c r="I119">
-        <v>1</v>
-      </c>
       <c r="J119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K119">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L119">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M119">
+        <v>3.1</v>
+      </c>
+      <c r="N119">
+        <v>2.9</v>
+      </c>
+      <c r="O119">
         <v>3.4</v>
       </c>
-      <c r="N119">
-        <v>2.2</v>
-      </c>
-      <c r="O119">
-        <v>3.6</v>
-      </c>
       <c r="P119">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R119">
+        <v>1.8</v>
+      </c>
+      <c r="S119">
+        <v>2.05</v>
+      </c>
+      <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
+        <v>1.875</v>
+      </c>
+      <c r="V119">
         <v>1.975</v>
       </c>
-      <c r="S119">
-        <v>1.875</v>
-      </c>
-      <c r="T119">
-        <v>3</v>
-      </c>
-      <c r="U119">
-        <v>2</v>
-      </c>
-      <c r="V119">
-        <v>1.85</v>
-      </c>
       <c r="W119">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z119">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB119">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11219,10 +11219,10 @@
         <v>45158.33333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
         <v>44</v>
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6798552</v>
+        <v>6799263</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,40 +11486,40 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K124">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L124">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M124">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N124">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="O124">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P124">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R124">
         <v>2</v>
@@ -11528,31 +11528,31 @@
         <v>1.85</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U124">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z124">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB124">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6799264</v>
+        <v>6798552</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,58 +11575,58 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
         <v>47</v>
       </c>
       <c r="K125">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L125">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M125">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="N125">
-        <v>1.363</v>
+        <v>2.7</v>
       </c>
       <c r="O125">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P125">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q125">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R125">
+        <v>2</v>
+      </c>
+      <c r="S125">
+        <v>1.85</v>
+      </c>
+      <c r="T125">
+        <v>2.5</v>
+      </c>
+      <c r="U125">
+        <v>1.875</v>
+      </c>
+      <c r="V125">
         <v>1.975</v>
       </c>
-      <c r="S125">
-        <v>1.875</v>
-      </c>
-      <c r="T125">
-        <v>3.5</v>
-      </c>
-      <c r="U125">
-        <v>2.025</v>
-      </c>
-      <c r="V125">
-        <v>1.825</v>
-      </c>
       <c r="W125">
-        <v>0.363</v>
+        <v>1.7</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11635,13 +11635,13 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6799263</v>
+        <v>6799264</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,73 +11664,73 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I126">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K126">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L126">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M126">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N126">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="O126">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P126">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="Q126">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R126">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S126">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T126">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U126">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V126">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA126">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11753,7 +11753,7 @@
         <v>45162.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G127" t="s">
         <v>43</v>
@@ -12109,10 +12109,10 @@
         <v>45165.33333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -12287,7 +12287,7 @@
         <v>45166.5625</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
         <v>38</v>
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6799268</v>
+        <v>6800829</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,76 +12376,76 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
         <v>45</v>
       </c>
       <c r="K134">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M134">
-        <v>1.571</v>
+        <v>3.8</v>
       </c>
       <c r="N134">
+        <v>1.666</v>
+      </c>
+      <c r="O134">
         <v>4.2</v>
       </c>
-      <c r="O134">
-        <v>3.75</v>
-      </c>
       <c r="P134">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="Q134">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R134">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S134">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T134">
         <v>3</v>
       </c>
       <c r="U134">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V134">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
+        <v>-1</v>
+      </c>
+      <c r="AA134">
+        <v>1.025</v>
+      </c>
+      <c r="AB134">
+        <v>-1</v>
+      </c>
+      <c r="AC134">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA134">
-        <v>-1</v>
-      </c>
-      <c r="AB134">
-        <v>1.05</v>
-      </c>
-      <c r="AC134">
-        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12468,7 +12468,7 @@
         <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6800829</v>
+        <v>6799268</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
         <v>45</v>
       </c>
       <c r="K136">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="L136">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M136">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="N136">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="O136">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P136">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q136">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R136">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T136">
         <v>3</v>
       </c>
       <c r="U136">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V136">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA136">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC136">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12646,7 +12646,7 @@
         <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12824,7 +12824,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -12910,7 +12910,7 @@
         <v>45183.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
         <v>42</v>
@@ -12987,7 +12987,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6799273</v>
+        <v>6798871</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12999,76 +12999,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K141">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L141">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M141">
+        <v>2.5</v>
+      </c>
+      <c r="N141">
+        <v>2.55</v>
+      </c>
+      <c r="O141">
+        <v>3.5</v>
+      </c>
+      <c r="P141">
+        <v>2.625</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <v>1.825</v>
+      </c>
+      <c r="S141">
+        <v>2.025</v>
+      </c>
+      <c r="T141">
         <v>2.75</v>
       </c>
-      <c r="N141">
-        <v>2.25</v>
-      </c>
-      <c r="O141">
-        <v>3.4</v>
-      </c>
-      <c r="P141">
-        <v>3.1</v>
-      </c>
-      <c r="Q141">
-        <v>-0.25</v>
-      </c>
-      <c r="R141">
-        <v>2.05</v>
-      </c>
-      <c r="S141">
-        <v>1.8</v>
-      </c>
-      <c r="T141">
+      <c r="U141">
+        <v>1.9</v>
+      </c>
+      <c r="V141">
+        <v>1.95</v>
+      </c>
+      <c r="W141">
+        <v>-1</v>
+      </c>
+      <c r="X141">
         <v>2.5</v>
       </c>
-      <c r="U141">
-        <v>1.95</v>
-      </c>
-      <c r="V141">
-        <v>1.9</v>
-      </c>
-      <c r="W141">
-        <v>-1</v>
-      </c>
-      <c r="X141">
-        <v>-1</v>
-      </c>
       <c r="Y141">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA141">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6798871</v>
+        <v>6799273</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,76 +13177,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G143" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K143">
+        <v>2.4</v>
+      </c>
+      <c r="L143">
+        <v>3.3</v>
+      </c>
+      <c r="M143">
+        <v>2.75</v>
+      </c>
+      <c r="N143">
+        <v>2.25</v>
+      </c>
+      <c r="O143">
+        <v>3.4</v>
+      </c>
+      <c r="P143">
+        <v>3.1</v>
+      </c>
+      <c r="Q143">
+        <v>-0.25</v>
+      </c>
+      <c r="R143">
+        <v>2.05</v>
+      </c>
+      <c r="S143">
+        <v>1.8</v>
+      </c>
+      <c r="T143">
         <v>2.5</v>
       </c>
-      <c r="L143">
-        <v>3.5</v>
-      </c>
-      <c r="M143">
-        <v>2.5</v>
-      </c>
-      <c r="N143">
-        <v>2.55</v>
-      </c>
-      <c r="O143">
-        <v>3.5</v>
-      </c>
-      <c r="P143">
-        <v>2.625</v>
-      </c>
-      <c r="Q143">
-        <v>0</v>
-      </c>
-      <c r="R143">
-        <v>1.825</v>
-      </c>
-      <c r="S143">
-        <v>2.025</v>
-      </c>
-      <c r="T143">
-        <v>2.75</v>
-      </c>
       <c r="U143">
+        <v>1.95</v>
+      </c>
+      <c r="V143">
         <v>1.9</v>
       </c>
-      <c r="V143">
-        <v>1.95</v>
-      </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13266,7 +13266,7 @@
         <v>45186.375</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
         <v>30</v>
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6798555</v>
+        <v>6798872</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,76 +13444,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K146">
-        <v>2.05</v>
+        <v>1.2</v>
       </c>
       <c r="L146">
+        <v>6</v>
+      </c>
+      <c r="M146">
+        <v>13</v>
+      </c>
+      <c r="N146">
+        <v>1.2</v>
+      </c>
+      <c r="O146">
+        <v>6.5</v>
+      </c>
+      <c r="P146">
+        <v>13</v>
+      </c>
+      <c r="Q146">
+        <v>-2</v>
+      </c>
+      <c r="R146">
+        <v>1.975</v>
+      </c>
+      <c r="S146">
+        <v>1.875</v>
+      </c>
+      <c r="T146">
         <v>3.5</v>
       </c>
-      <c r="M146">
-        <v>3.2</v>
-      </c>
-      <c r="N146">
-        <v>2.4</v>
-      </c>
-      <c r="O146">
-        <v>3.5</v>
-      </c>
-      <c r="P146">
-        <v>2.75</v>
-      </c>
-      <c r="Q146">
+      <c r="U146">
+        <v>2.025</v>
+      </c>
+      <c r="V146">
+        <v>1.825</v>
+      </c>
+      <c r="W146">
+        <v>0.2</v>
+      </c>
+      <c r="X146">
+        <v>-1</v>
+      </c>
+      <c r="Y146">
+        <v>-1</v>
+      </c>
+      <c r="Z146">
         <v>0</v>
       </c>
-      <c r="R146">
-        <v>1.825</v>
-      </c>
-      <c r="S146">
-        <v>2.025</v>
-      </c>
-      <c r="T146">
-        <v>2.75</v>
-      </c>
-      <c r="U146">
-        <v>1.825</v>
-      </c>
-      <c r="V146">
-        <v>2.025</v>
-      </c>
-      <c r="W146">
-        <v>-1</v>
-      </c>
-      <c r="X146">
-        <v>-1</v>
-      </c>
-      <c r="Y146">
-        <v>1.75</v>
-      </c>
-      <c r="Z146">
-        <v>-1</v>
-      </c>
       <c r="AA146">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB146">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6798872</v>
+        <v>6800826</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,76 +13533,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G147" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
         <v>2</v>
       </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K147">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="L147">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M147">
-        <v>13</v>
+        <v>2.35</v>
       </c>
       <c r="N147">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="O147">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P147">
-        <v>13</v>
+        <v>2.3</v>
       </c>
       <c r="Q147">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R147">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S147">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T147">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U147">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V147">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W147">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC147">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6800826</v>
+        <v>6798555</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,7 +13622,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G148" t="s">
         <v>35</v>
@@ -13637,40 +13637,40 @@
         <v>46</v>
       </c>
       <c r="K148">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="L148">
         <v>3.5</v>
       </c>
       <c r="M148">
-        <v>2.35</v>
+        <v>3.2</v>
       </c>
       <c r="N148">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="O148">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P148">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q148">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R148">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S148">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T148">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13679,19 +13679,19 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB148">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14245,7 +14245,7 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G155" t="s">
         <v>30</v>
@@ -14334,7 +14334,7 @@
         <v>45200.375</v>
       </c>
       <c r="F156" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G156" t="s">
         <v>33</v>
@@ -14423,7 +14423,7 @@
         <v>45200.5</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G157" t="s">
         <v>42</v>
@@ -14512,7 +14512,7 @@
         <v>45205.5625</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
         <v>38</v>
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6800824</v>
+        <v>6798874</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,55 +14601,55 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G159" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J159" t="s">
         <v>46</v>
       </c>
       <c r="K159">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L159">
         <v>3.75</v>
       </c>
       <c r="M159">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="N159">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O159">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P159">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q159">
         <v>0.5</v>
       </c>
       <c r="R159">
+        <v>1.975</v>
+      </c>
+      <c r="S159">
         <v>1.875</v>
       </c>
-      <c r="S159">
+      <c r="T159">
+        <v>2.5</v>
+      </c>
+      <c r="U159">
         <v>1.975</v>
       </c>
-      <c r="T159">
-        <v>3</v>
-      </c>
-      <c r="U159">
-        <v>2</v>
-      </c>
       <c r="V159">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14658,19 +14658,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
+        <v>0.875</v>
+      </c>
+      <c r="AB159">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB159">
-        <v>0</v>
-      </c>
       <c r="AC159">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6798874</v>
+        <v>6800824</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,55 +14690,55 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G160" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J160" t="s">
         <v>46</v>
       </c>
       <c r="K160">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L160">
         <v>3.75</v>
       </c>
       <c r="M160">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="N160">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O160">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P160">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q160">
         <v>0.5</v>
       </c>
       <c r="R160">
+        <v>1.875</v>
+      </c>
+      <c r="S160">
         <v>1.975</v>
       </c>
-      <c r="S160">
-        <v>1.875</v>
-      </c>
       <c r="T160">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U160">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V160">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14747,19 +14747,19 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB160">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14782,7 +14782,7 @@
         <v>42</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H161">
         <v>3</v>
@@ -14871,7 +14871,7 @@
         <v>33</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6798558</v>
+        <v>6799286</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,76 +15135,76 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G165" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H165">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K165">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="L165">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M165">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N165">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O165">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P165">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q165">
+        <v>0.25</v>
+      </c>
+      <c r="R165">
+        <v>1.9</v>
+      </c>
+      <c r="S165">
+        <v>1.95</v>
+      </c>
+      <c r="T165">
+        <v>3</v>
+      </c>
+      <c r="U165">
+        <v>2</v>
+      </c>
+      <c r="V165">
+        <v>1.85</v>
+      </c>
+      <c r="W165">
+        <v>-1</v>
+      </c>
+      <c r="X165">
+        <v>2.6</v>
+      </c>
+      <c r="Y165">
+        <v>-1</v>
+      </c>
+      <c r="Z165">
+        <v>0.45</v>
+      </c>
+      <c r="AA165">
         <v>-0.5</v>
       </c>
-      <c r="R165">
-        <v>1.925</v>
-      </c>
-      <c r="S165">
-        <v>1.925</v>
-      </c>
-      <c r="T165">
-        <v>2.75</v>
-      </c>
-      <c r="U165">
-        <v>1.9</v>
-      </c>
-      <c r="V165">
-        <v>1.95</v>
-      </c>
-      <c r="W165">
-        <v>0.909</v>
-      </c>
-      <c r="X165">
-        <v>-1</v>
-      </c>
-      <c r="Y165">
-        <v>-1</v>
-      </c>
-      <c r="Z165">
-        <v>0.925</v>
-      </c>
-      <c r="AA165">
-        <v>-1</v>
-      </c>
       <c r="AB165">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15212,7 +15212,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6799287</v>
+        <v>6798558</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15224,13 +15224,13 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G166" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -15239,43 +15239,43 @@
         <v>47</v>
       </c>
       <c r="K166">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="L166">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M166">
+        <v>4.333</v>
+      </c>
+      <c r="N166">
+        <v>1.909</v>
+      </c>
+      <c r="O166">
         <v>3.8</v>
       </c>
-      <c r="N166">
-        <v>1.8</v>
-      </c>
-      <c r="O166">
-        <v>3.75</v>
-      </c>
       <c r="P166">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R166">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S166">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T166">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U166">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V166">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W166">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15284,16 +15284,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.5125</v>
+        <v>0.925</v>
       </c>
       <c r="AA166">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC166">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15301,7 +15301,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6799286</v>
+        <v>6799287</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15313,67 +15313,67 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G167" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H167">
         <v>1</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K167">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="L167">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M167">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="N167">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="O167">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P167">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q167">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S167">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T167">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U167">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V167">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X167">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.45</v>
+        <v>0.5125</v>
       </c>
       <c r="AA167">
         <v>-0.5</v>
@@ -15382,7 +15382,7 @@
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15491,7 +15491,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G169" t="s">
         <v>33</v>
@@ -15568,7 +15568,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6799291</v>
+        <v>6799288</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15580,76 +15580,76 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G170" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H170">
+        <v>2</v>
+      </c>
+      <c r="I170">
         <v>1</v>
       </c>
-      <c r="I170">
-        <v>3</v>
-      </c>
       <c r="J170" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K170">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L170">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M170">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="N170">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O170">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P170">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q170">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R170">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S170">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T170">
         <v>2.75</v>
       </c>
       <c r="U170">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V170">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA170">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB170">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6799288</v>
+        <v>6800822</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,76 +15669,76 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G171" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J171" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K171">
-        <v>1.8</v>
+        <v>5.25</v>
       </c>
       <c r="L171">
         <v>3.8</v>
       </c>
       <c r="M171">
-        <v>3.8</v>
+        <v>1.533</v>
       </c>
       <c r="N171">
-        <v>1.65</v>
+        <v>8</v>
       </c>
       <c r="O171">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P171">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="Q171">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R171">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S171">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T171">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U171">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V171">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W171">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z171">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB171">
-        <v>0.4625</v>
+        <v>1.025</v>
       </c>
       <c r="AC171">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6800822</v>
+        <v>6799291</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,55 +15758,55 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F172" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G172" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J172" t="s">
         <v>46</v>
       </c>
       <c r="K172">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="L172">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M172">
-        <v>1.533</v>
+        <v>3.25</v>
       </c>
       <c r="N172">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="O172">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P172">
-        <v>1.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q172">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S172">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T172">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U172">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W172">
         <v>-1</v>
@@ -15815,16 +15815,16 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>0.333</v>
+        <v>2.2</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB172">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC172">
         <v>-1</v>
@@ -15939,7 +15939,7 @@
         <v>30</v>
       </c>
       <c r="G174" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H174">
         <v>3</v>
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6799293</v>
+        <v>6799294</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,76 +16114,76 @@
         <v>45233.625</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G176" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H176">
         <v>1</v>
       </c>
       <c r="I176">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K176">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="L176">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M176">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="N176">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="O176">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P176">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="Q176">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R176">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S176">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T176">
         <v>2.75</v>
       </c>
       <c r="U176">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V176">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA176">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB176">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16191,7 +16191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6799294</v>
+        <v>6799293</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16203,76 +16203,76 @@
         <v>45233.625</v>
       </c>
       <c r="F177" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H177">
         <v>1</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J177" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K177">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="L177">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M177">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="N177">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="O177">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q177">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S177">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V177">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W177">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC177">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16381,7 +16381,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G179" t="s">
         <v>42</v>
@@ -16651,7 +16651,7 @@
         <v>44</v>
       </c>
       <c r="G182" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6799295</v>
+        <v>6800819</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16737,76 +16737,76 @@
         <v>45240.625</v>
       </c>
       <c r="F183" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G183" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K183">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="L183">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M183">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="N183">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="O183">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P183">
+        <v>2.8</v>
+      </c>
+      <c r="Q183">
+        <v>0</v>
+      </c>
+      <c r="R183">
+        <v>1.8</v>
+      </c>
+      <c r="S183">
+        <v>2.05</v>
+      </c>
+      <c r="T183">
+        <v>2.75</v>
+      </c>
+      <c r="U183">
+        <v>1.9</v>
+      </c>
+      <c r="V183">
+        <v>1.95</v>
+      </c>
+      <c r="W183">
         <v>1.45</v>
       </c>
-      <c r="Q183">
-        <v>1.25</v>
-      </c>
-      <c r="R183">
-        <v>1.925</v>
-      </c>
-      <c r="S183">
-        <v>1.925</v>
-      </c>
-      <c r="T183">
-        <v>3.25</v>
-      </c>
-      <c r="U183">
-        <v>1.85</v>
-      </c>
-      <c r="V183">
-        <v>2</v>
-      </c>
-      <c r="W183">
-        <v>-1</v>
-      </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA183">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16814,7 +16814,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6800819</v>
+        <v>6799295</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16826,76 +16826,76 @@
         <v>45240.625</v>
       </c>
       <c r="F184" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H184">
+        <v>1</v>
+      </c>
+      <c r="I184">
+        <v>4</v>
+      </c>
+      <c r="J184" t="s">
+        <v>46</v>
+      </c>
+      <c r="K184">
+        <v>7.5</v>
+      </c>
+      <c r="L184">
+        <v>5</v>
+      </c>
+      <c r="M184">
+        <v>1.333</v>
+      </c>
+      <c r="N184">
+        <v>6.5</v>
+      </c>
+      <c r="O184">
+        <v>4.75</v>
+      </c>
+      <c r="P184">
+        <v>1.45</v>
+      </c>
+      <c r="Q184">
+        <v>1.25</v>
+      </c>
+      <c r="R184">
+        <v>1.925</v>
+      </c>
+      <c r="S184">
+        <v>1.925</v>
+      </c>
+      <c r="T184">
+        <v>3.25</v>
+      </c>
+      <c r="U184">
+        <v>1.85</v>
+      </c>
+      <c r="V184">
         <v>2</v>
       </c>
-      <c r="I184">
-        <v>0</v>
-      </c>
-      <c r="J184" t="s">
-        <v>47</v>
-      </c>
-      <c r="K184">
-        <v>2.5</v>
-      </c>
-      <c r="L184">
-        <v>3.4</v>
-      </c>
-      <c r="M184">
-        <v>2.55</v>
-      </c>
-      <c r="N184">
-        <v>2.45</v>
-      </c>
-      <c r="O184">
-        <v>3.5</v>
-      </c>
-      <c r="P184">
-        <v>2.8</v>
-      </c>
-      <c r="Q184">
-        <v>0</v>
-      </c>
-      <c r="R184">
-        <v>1.8</v>
-      </c>
-      <c r="S184">
-        <v>2.05</v>
-      </c>
-      <c r="T184">
-        <v>2.75</v>
-      </c>
-      <c r="U184">
-        <v>1.9</v>
-      </c>
-      <c r="V184">
-        <v>1.95</v>
-      </c>
       <c r="W184">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z184">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC184">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17093,7 +17093,7 @@
         <v>45243.625</v>
       </c>
       <c r="F187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G187" t="s">
         <v>29</v>
@@ -17182,7 +17182,7 @@
         <v>45253.625</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G188" t="s">
         <v>41</v>
@@ -17259,7 +17259,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6799298</v>
+        <v>6799300</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17271,73 +17271,73 @@
         <v>45254.625</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G189" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H189">
+        <v>4</v>
+      </c>
+      <c r="I189">
         <v>1</v>
       </c>
-      <c r="I189">
-        <v>2</v>
-      </c>
       <c r="J189" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K189">
-        <v>3.1</v>
+        <v>1.25</v>
       </c>
       <c r="L189">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M189">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="N189">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="O189">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P189">
-        <v>2.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q189">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R189">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S189">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U189">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V189">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA189">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6799300</v>
+        <v>6799298</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17360,73 +17360,73 @@
         <v>45254.625</v>
       </c>
       <c r="F190" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H190">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K190">
+        <v>3.1</v>
+      </c>
+      <c r="L190">
+        <v>3.6</v>
+      </c>
+      <c r="M190">
+        <v>2.1</v>
+      </c>
+      <c r="N190">
+        <v>3.2</v>
+      </c>
+      <c r="O190">
+        <v>3.4</v>
+      </c>
+      <c r="P190">
+        <v>2.25</v>
+      </c>
+      <c r="Q190">
+        <v>0.25</v>
+      </c>
+      <c r="R190">
+        <v>1.95</v>
+      </c>
+      <c r="S190">
+        <v>1.9</v>
+      </c>
+      <c r="T190">
+        <v>2.5</v>
+      </c>
+      <c r="U190">
+        <v>1.85</v>
+      </c>
+      <c r="V190">
+        <v>2</v>
+      </c>
+      <c r="W190">
+        <v>-1</v>
+      </c>
+      <c r="X190">
+        <v>-1</v>
+      </c>
+      <c r="Y190">
         <v>1.25</v>
       </c>
-      <c r="L190">
-        <v>6</v>
-      </c>
-      <c r="M190">
-        <v>8</v>
-      </c>
-      <c r="N190">
-        <v>1.3</v>
-      </c>
-      <c r="O190">
-        <v>6</v>
-      </c>
-      <c r="P190">
-        <v>8.5</v>
-      </c>
-      <c r="Q190">
-        <v>-1.5</v>
-      </c>
-      <c r="R190">
-        <v>1.875</v>
-      </c>
-      <c r="S190">
-        <v>1.975</v>
-      </c>
-      <c r="T190">
-        <v>3.25</v>
-      </c>
-      <c r="U190">
-        <v>1.925</v>
-      </c>
-      <c r="V190">
-        <v>1.925</v>
-      </c>
-      <c r="W190">
-        <v>0.3</v>
-      </c>
-      <c r="X190">
-        <v>-1</v>
-      </c>
-      <c r="Y190">
-        <v>-1</v>
-      </c>
       <c r="Z190">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB190">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17541,7 +17541,7 @@
         <v>39</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17630,7 +17630,7 @@
         <v>43</v>
       </c>
       <c r="G193" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -17716,7 +17716,7 @@
         <v>45261.60416666666</v>
       </c>
       <c r="F194" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G194" t="s">
         <v>39</v>
@@ -17808,7 +17808,7 @@
         <v>44</v>
       </c>
       <c r="G195" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -17983,7 +17983,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G197" t="s">
         <v>43</v>
@@ -18060,7 +18060,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6799302</v>
+        <v>7554250</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18072,76 +18072,76 @@
         <v>45265.60416666666</v>
       </c>
       <c r="F198" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G198" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K198">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="L198">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M198">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N198">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O198">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P198">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q198">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R198">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S198">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T198">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V198">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z198">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB198">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18149,7 +18149,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7554250</v>
+        <v>6799302</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18161,76 +18161,76 @@
         <v>45265.60416666666</v>
       </c>
       <c r="F199" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G199" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K199">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L199">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M199">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N199">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O199">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P199">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q199">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R199">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S199">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T199">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V199">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y199">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA199">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC199">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Denmark Division 1/Denmark Division 1.xlsx
+++ b/Denmark Division 1/Denmark Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>FC Helsingor</t>
   </si>
   <si>
-    <t>Hvidovre IF</t>
+    <t>Vejle</t>
   </si>
   <si>
-    <t>Vejle</t>
+    <t>Hvidovre IF</t>
   </si>
   <si>
     <t>Naestved</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC199"/>
+  <dimension ref="A1:AC202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5128521</v>
+        <v>5128562</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,10 +809,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -821,43 +821,43 @@
         <v>47</v>
       </c>
       <c r="K4">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="L4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M4">
         <v>7</v>
       </c>
       <c r="N4">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O4">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="P4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q4">
         <v>-1.5</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S4">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T4">
         <v>3</v>
       </c>
       <c r="U4">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W4">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -866,13 +866,13 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5128562</v>
+        <v>5128521</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,10 +898,10 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -910,43 +910,43 @@
         <v>47</v>
       </c>
       <c r="K5">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M5">
         <v>7</v>
       </c>
       <c r="N5">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="O5">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q5">
         <v>-1.5</v>
       </c>
       <c r="R5">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -955,13 +955,13 @@
         <v>-1</v>
       </c>
       <c r="Z5">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA5">
+        <v>-1</v>
+      </c>
+      <c r="AB5">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA5">
-        <v>-1</v>
-      </c>
-      <c r="AB5">
-        <v>1.05</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -1343,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5128199</v>
+        <v>5128297</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,40 +1518,40 @@
         <v>44982.375</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="L12">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="M12">
+        <v>1.7</v>
+      </c>
+      <c r="N12">
+        <v>3.6</v>
+      </c>
+      <c r="O12">
         <v>3.8</v>
       </c>
-      <c r="N12">
-        <v>2.2</v>
-      </c>
-      <c r="O12">
-        <v>3.5</v>
-      </c>
       <c r="P12">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R12">
         <v>1.925</v>
@@ -1560,19 +1560,19 @@
         <v>1.925</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V12">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W12">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y12">
         <v>-1</v>
@@ -1584,10 +1584,10 @@
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5128297</v>
+        <v>5128199</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1607,40 +1607,40 @@
         <v>44982.375</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="L13">
+        <v>3.7</v>
+      </c>
+      <c r="M13">
         <v>3.8</v>
       </c>
-      <c r="M13">
-        <v>1.7</v>
-      </c>
       <c r="N13">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="O13">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P13">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q13">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
         <v>1.925</v>
@@ -1649,19 +1649,19 @@
         <v>1.925</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X13">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
@@ -1673,10 +1673,10 @@
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC13">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1963,7 +1963,7 @@
         <v>44989.375</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -2230,7 +2230,7 @@
         <v>44990.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
         <v>39</v>
@@ -2589,7 +2589,7 @@
         <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2764,7 +2764,7 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
         <v>35</v>
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5128572</v>
+        <v>5128528</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,76 +2853,76 @@
         <v>45003.375</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="L27">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M27">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="N27">
-        <v>1.7</v>
+        <v>1.444</v>
       </c>
       <c r="O27">
+        <v>5</v>
+      </c>
+      <c r="P27">
+        <v>6</v>
+      </c>
+      <c r="Q27">
+        <v>-1.25</v>
+      </c>
+      <c r="R27">
+        <v>1.925</v>
+      </c>
+      <c r="S27">
+        <v>1.925</v>
+      </c>
+      <c r="T27">
+        <v>3.25</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="V27">
+        <v>1.85</v>
+      </c>
+      <c r="W27">
+        <v>-1</v>
+      </c>
+      <c r="X27">
         <v>4</v>
       </c>
-      <c r="P27">
-        <v>4.5</v>
-      </c>
-      <c r="Q27">
-        <v>-0.75</v>
-      </c>
-      <c r="R27">
-        <v>1.9</v>
-      </c>
-      <c r="S27">
-        <v>1.95</v>
-      </c>
-      <c r="T27">
-        <v>3</v>
-      </c>
-      <c r="U27">
-        <v>2.05</v>
-      </c>
-      <c r="V27">
-        <v>1.8</v>
-      </c>
-      <c r="W27">
-        <v>0.7</v>
-      </c>
-      <c r="X27">
-        <v>-1</v>
-      </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5128528</v>
+        <v>5128201</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,76 +2942,76 @@
         <v>45003.375</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K28">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="L28">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M28">
-        <v>7.5</v>
+        <v>1.714</v>
       </c>
       <c r="N28">
-        <v>1.444</v>
+        <v>4.75</v>
       </c>
       <c r="O28">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="Q28">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R28">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S28">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T28">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V28">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5128527</v>
+        <v>5128294</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,76 +3031,76 @@
         <v>45003.375</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K29">
+        <v>2.1</v>
+      </c>
+      <c r="L29">
+        <v>3.5</v>
+      </c>
+      <c r="M29">
+        <v>3.2</v>
+      </c>
+      <c r="N29">
+        <v>2.375</v>
+      </c>
+      <c r="O29">
+        <v>3.6</v>
+      </c>
+      <c r="P29">
+        <v>2.7</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
         <v>1.8</v>
       </c>
-      <c r="L29">
-        <v>3.6</v>
-      </c>
-      <c r="M29">
-        <v>4</v>
-      </c>
-      <c r="N29">
-        <v>1.8</v>
-      </c>
-      <c r="O29">
-        <v>3.8</v>
-      </c>
-      <c r="P29">
-        <v>4</v>
-      </c>
-      <c r="Q29">
-        <v>-0.75</v>
-      </c>
-      <c r="R29">
+      <c r="S29">
         <v>2.05</v>
-      </c>
-      <c r="S29">
-        <v>1.8</v>
       </c>
       <c r="T29">
         <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W29">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z29">
+        <v>-1</v>
+      </c>
+      <c r="AA29">
         <v>1.05</v>
       </c>
-      <c r="AA29">
-        <v>-1</v>
-      </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5128294</v>
+        <v>5128527</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,76 +3120,76 @@
         <v>45003.375</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M30">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N30">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="O30">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P30">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
+        <v>2.05</v>
+      </c>
+      <c r="S30">
         <v>1.8</v>
-      </c>
-      <c r="S30">
-        <v>2.05</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA30">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5128201</v>
+        <v>5128572</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,76 +3209,76 @@
         <v>45003.375</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31">
+        <v>1.666</v>
+      </c>
+      <c r="L31">
+        <v>3.8</v>
+      </c>
+      <c r="M31">
+        <v>4.2</v>
+      </c>
+      <c r="N31">
+        <v>1.7</v>
+      </c>
+      <c r="O31">
+        <v>4</v>
+      </c>
+      <c r="P31">
+        <v>4.5</v>
+      </c>
+      <c r="Q31">
+        <v>-0.75</v>
+      </c>
+      <c r="R31">
+        <v>1.9</v>
+      </c>
+      <c r="S31">
+        <v>1.95</v>
+      </c>
+      <c r="T31">
+        <v>3</v>
+      </c>
+      <c r="U31">
+        <v>2.05</v>
+      </c>
+      <c r="V31">
+        <v>1.8</v>
+      </c>
+      <c r="W31">
+        <v>0.7</v>
+      </c>
+      <c r="X31">
+        <v>-1</v>
+      </c>
+      <c r="Y31">
+        <v>-1</v>
+      </c>
+      <c r="Z31">
+        <v>0.45</v>
+      </c>
+      <c r="AA31">
+        <v>-0.5</v>
+      </c>
+      <c r="AB31">
         <v>0</v>
       </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
-      <c r="J31" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31">
-        <v>4.75</v>
-      </c>
-      <c r="L31">
-        <v>3.6</v>
-      </c>
-      <c r="M31">
-        <v>1.714</v>
-      </c>
-      <c r="N31">
-        <v>4.75</v>
-      </c>
-      <c r="O31">
-        <v>3.5</v>
-      </c>
-      <c r="P31">
-        <v>1.727</v>
-      </c>
-      <c r="Q31">
-        <v>0.75</v>
-      </c>
-      <c r="R31">
-        <v>1.875</v>
-      </c>
-      <c r="S31">
-        <v>1.975</v>
-      </c>
-      <c r="T31">
-        <v>2.5</v>
-      </c>
-      <c r="U31">
-        <v>1.95</v>
-      </c>
-      <c r="V31">
-        <v>1.9</v>
-      </c>
-      <c r="W31">
-        <v>-1</v>
-      </c>
-      <c r="X31">
-        <v>-1</v>
-      </c>
-      <c r="Y31">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Z31">
-        <v>-1</v>
-      </c>
-      <c r="AA31">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB31">
-        <v>-1</v>
-      </c>
       <c r="AC31">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>45017.4375</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
         <v>38</v>
@@ -3746,7 +3746,7 @@
         <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6428343</v>
+        <v>6428314</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,73 +3921,73 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K39">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="L39">
         <v>3.6</v>
       </c>
       <c r="M39">
+        <v>4</v>
+      </c>
+      <c r="N39">
+        <v>1.75</v>
+      </c>
+      <c r="O39">
+        <v>3.8</v>
+      </c>
+      <c r="P39">
+        <v>4.5</v>
+      </c>
+      <c r="Q39">
+        <v>-0.75</v>
+      </c>
+      <c r="R39">
         <v>1.95</v>
       </c>
-      <c r="N39">
-        <v>3.75</v>
-      </c>
-      <c r="O39">
-        <v>3.6</v>
-      </c>
-      <c r="P39">
-        <v>1.95</v>
-      </c>
-      <c r="Q39">
-        <v>0.5</v>
-      </c>
-      <c r="R39">
-        <v>1.875</v>
-      </c>
       <c r="S39">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T39">
         <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA39">
+        <v>-0.5</v>
+      </c>
+      <c r="AB39">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB39">
-        <v>0.925</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6428314</v>
+        <v>6428343</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,73 +4010,73 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
         <v>3</v>
       </c>
-      <c r="I40">
-        <v>2</v>
-      </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K40">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="L40">
         <v>3.6</v>
       </c>
       <c r="M40">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N40">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="O40">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P40">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S40">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T40">
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V40">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z40">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB40">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4280,7 +4280,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4455,10 +4455,10 @@
         <v>45029.54166666666</v>
       </c>
       <c r="F45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" t="s">
         <v>32</v>
-      </c>
-      <c r="G45" t="s">
-        <v>31</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6428348</v>
+        <v>6428347</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>45032.375</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H48">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K48">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L48">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M48">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N48">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O48">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P48">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q48">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S48">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T48">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V48">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W48">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB48">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6428347</v>
+        <v>6428348</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>45032.375</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K49">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M49">
+        <v>3</v>
+      </c>
+      <c r="N49">
         <v>2.2</v>
       </c>
-      <c r="N49">
-        <v>2.8</v>
-      </c>
       <c r="O49">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P49">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S49">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U49">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V49">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X49">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA49">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC49">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4903,7 +4903,7 @@
         <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6428321</v>
+        <v>6428349</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,40 +4989,40 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K51">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="L51">
         <v>3.5</v>
       </c>
       <c r="M51">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="N51">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="O51">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P51">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="Q51">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R51">
         <v>1.925</v>
@@ -5031,7 +5031,7 @@
         <v>1.925</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U51">
         <v>1.9</v>
@@ -5040,25 +5040,25 @@
         <v>1.95</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA51">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6428349</v>
+        <v>6428321</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,40 +5078,40 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K52">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="L52">
         <v>3.5</v>
       </c>
       <c r="M52">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="N52">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="O52">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P52">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R52">
         <v>1.925</v>
@@ -5120,7 +5120,7 @@
         <v>1.925</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
         <v>1.9</v>
@@ -5129,25 +5129,25 @@
         <v>1.95</v>
       </c>
       <c r="W52">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z52">
+        <v>-1</v>
+      </c>
+      <c r="AA52">
         <v>0.925</v>
       </c>
-      <c r="AA52">
-        <v>-1</v>
-      </c>
       <c r="AB52">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC52">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>45038.33333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G53" t="s">
         <v>39</v>
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6428352</v>
+        <v>6428353</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,76 +5434,76 @@
         <v>45044.5625</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K56">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L56">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M56">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="N56">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="O56">
         <v>3.8</v>
       </c>
       <c r="P56">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="Q56">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R56">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S56">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T56">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U56">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA56">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC56">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6428353</v>
+        <v>6428352</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,76 +5523,76 @@
         <v>45044.5625</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K57">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L57">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M57">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N57">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="O57">
         <v>3.8</v>
       </c>
       <c r="P57">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R57">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S57">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U57">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V57">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W57">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z57">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB57">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5615,7 +5615,7 @@
         <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5879,7 +5879,7 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
         <v>30</v>
@@ -5968,10 +5968,10 @@
         <v>45051.54166666666</v>
       </c>
       <c r="F62" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" t="s">
         <v>31</v>
-      </c>
-      <c r="G62" t="s">
-        <v>32</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6428357</v>
+        <v>6428328</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,76 +6235,76 @@
         <v>45052.33333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K65">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L65">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M65">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="N65">
-        <v>1.333</v>
+        <v>3.25</v>
       </c>
       <c r="O65">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P65">
-        <v>8.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q65">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R65">
+        <v>1.925</v>
+      </c>
+      <c r="S65">
+        <v>1.925</v>
+      </c>
+      <c r="T65">
+        <v>3</v>
+      </c>
+      <c r="U65">
+        <v>2.025</v>
+      </c>
+      <c r="V65">
         <v>1.825</v>
       </c>
-      <c r="S65">
-        <v>2.025</v>
-      </c>
-      <c r="T65">
-        <v>3.5</v>
-      </c>
-      <c r="U65">
-        <v>1.9</v>
-      </c>
-      <c r="V65">
-        <v>1.95</v>
-      </c>
       <c r="W65">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z65">
+        <v>-1</v>
+      </c>
+      <c r="AA65">
+        <v>0.925</v>
+      </c>
+      <c r="AB65">
+        <v>-1</v>
+      </c>
+      <c r="AC65">
         <v>0.825</v>
-      </c>
-      <c r="AA65">
-        <v>-1</v>
-      </c>
-      <c r="AB65">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC65">
-        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6428328</v>
+        <v>6428357</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,76 +6324,76 @@
         <v>45052.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K66">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L66">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M66">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="N66">
-        <v>3.25</v>
+        <v>1.333</v>
       </c>
       <c r="O66">
+        <v>5.5</v>
+      </c>
+      <c r="P66">
+        <v>8.5</v>
+      </c>
+      <c r="Q66">
+        <v>-1.5</v>
+      </c>
+      <c r="R66">
+        <v>1.825</v>
+      </c>
+      <c r="S66">
+        <v>2.025</v>
+      </c>
+      <c r="T66">
         <v>3.5</v>
       </c>
-      <c r="P66">
-        <v>2.2</v>
-      </c>
-      <c r="Q66">
-        <v>0.25</v>
-      </c>
-      <c r="R66">
-        <v>1.925</v>
-      </c>
-      <c r="S66">
-        <v>1.925</v>
-      </c>
-      <c r="T66">
-        <v>3</v>
-      </c>
       <c r="U66">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V66">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA66">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC66">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6505,7 +6505,7 @@
         <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6683,7 +6683,7 @@
         <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -7036,7 +7036,7 @@
         <v>45064.375</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7481,7 +7481,7 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
         <v>33</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6428366</v>
+        <v>6428364</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,76 +7659,76 @@
         <v>45072.5625</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K81">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L81">
+        <v>4.2</v>
+      </c>
+      <c r="M81">
+        <v>3.6</v>
+      </c>
+      <c r="N81">
+        <v>1.45</v>
+      </c>
+      <c r="O81">
+        <v>5.25</v>
+      </c>
+      <c r="P81">
+        <v>5.25</v>
+      </c>
+      <c r="Q81">
+        <v>-1.25</v>
+      </c>
+      <c r="R81">
+        <v>1.95</v>
+      </c>
+      <c r="S81">
+        <v>1.9</v>
+      </c>
+      <c r="T81">
         <v>3.5</v>
       </c>
-      <c r="M81">
-        <v>2.75</v>
-      </c>
-      <c r="N81">
-        <v>2.375</v>
-      </c>
-      <c r="O81">
-        <v>3.75</v>
-      </c>
-      <c r="P81">
-        <v>2.7</v>
-      </c>
-      <c r="Q81">
-        <v>-0.25</v>
-      </c>
-      <c r="R81">
-        <v>2.1</v>
-      </c>
-      <c r="S81">
-        <v>1.775</v>
-      </c>
-      <c r="T81">
-        <v>3</v>
-      </c>
       <c r="U81">
+        <v>1.9</v>
+      </c>
+      <c r="V81">
         <v>1.95</v>
       </c>
-      <c r="V81">
-        <v>1.9</v>
-      </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA81">
-        <v>0.7749999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC81">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6428364</v>
+        <v>6428366</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,76 +7748,76 @@
         <v>45072.5625</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82" t="s">
+        <v>46</v>
+      </c>
+      <c r="K82">
+        <v>2.375</v>
+      </c>
+      <c r="L82">
+        <v>3.5</v>
+      </c>
+      <c r="M82">
+        <v>2.75</v>
+      </c>
+      <c r="N82">
+        <v>2.375</v>
+      </c>
+      <c r="O82">
+        <v>3.75</v>
+      </c>
+      <c r="P82">
+        <v>2.7</v>
+      </c>
+      <c r="Q82">
+        <v>-0.25</v>
+      </c>
+      <c r="R82">
+        <v>2.1</v>
+      </c>
+      <c r="S82">
+        <v>1.775</v>
+      </c>
+      <c r="T82">
         <v>3</v>
       </c>
-      <c r="J82" t="s">
-        <v>47</v>
-      </c>
-      <c r="K82">
-        <v>1.727</v>
-      </c>
-      <c r="L82">
-        <v>4.2</v>
-      </c>
-      <c r="M82">
-        <v>3.6</v>
-      </c>
-      <c r="N82">
-        <v>1.45</v>
-      </c>
-      <c r="O82">
-        <v>5.25</v>
-      </c>
-      <c r="P82">
-        <v>5.25</v>
-      </c>
-      <c r="Q82">
-        <v>-1.25</v>
-      </c>
-      <c r="R82">
+      <c r="U82">
         <v>1.95</v>
       </c>
-      <c r="S82">
+      <c r="V82">
         <v>1.9</v>
       </c>
-      <c r="T82">
-        <v>3.5</v>
-      </c>
-      <c r="U82">
-        <v>1.9</v>
-      </c>
-      <c r="V82">
-        <v>1.95</v>
-      </c>
       <c r="W82">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB82">
+        <v>-1</v>
+      </c>
+      <c r="AC82">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC82">
-        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7840,7 +7840,7 @@
         <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -8018,7 +8018,7 @@
         <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6428368</v>
+        <v>6428369</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,73 +8104,73 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>5</v>
+      </c>
+      <c r="J86" t="s">
+        <v>46</v>
+      </c>
+      <c r="K86">
+        <v>4.2</v>
+      </c>
+      <c r="L86">
+        <v>4.2</v>
+      </c>
+      <c r="M86">
+        <v>1.65</v>
+      </c>
+      <c r="N86">
+        <v>6</v>
+      </c>
+      <c r="O86">
+        <v>5.75</v>
+      </c>
+      <c r="P86">
+        <v>1.444</v>
+      </c>
+      <c r="Q86">
+        <v>1.5</v>
+      </c>
+      <c r="R86">
+        <v>1.825</v>
+      </c>
+      <c r="S86">
+        <v>2.025</v>
+      </c>
+      <c r="T86">
         <v>4</v>
       </c>
-      <c r="I86">
-        <v>2</v>
-      </c>
-      <c r="J86" t="s">
-        <v>47</v>
-      </c>
-      <c r="K86">
-        <v>1.571</v>
-      </c>
-      <c r="L86">
-        <v>4.333</v>
-      </c>
-      <c r="M86">
-        <v>4.333</v>
-      </c>
-      <c r="N86">
-        <v>1.45</v>
-      </c>
-      <c r="O86">
-        <v>5</v>
-      </c>
-      <c r="P86">
-        <v>6</v>
-      </c>
-      <c r="Q86">
-        <v>-1.25</v>
-      </c>
-      <c r="R86">
-        <v>1.925</v>
-      </c>
-      <c r="S86">
-        <v>1.925</v>
-      </c>
-      <c r="T86">
-        <v>3.5</v>
-      </c>
       <c r="U86">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W86">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z86">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB86">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6428369</v>
+        <v>6428368</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,73 +8193,73 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87" t="s">
+        <v>47</v>
+      </c>
+      <c r="K87">
+        <v>1.571</v>
+      </c>
+      <c r="L87">
+        <v>4.333</v>
+      </c>
+      <c r="M87">
+        <v>4.333</v>
+      </c>
+      <c r="N87">
+        <v>1.45</v>
+      </c>
+      <c r="O87">
         <v>5</v>
       </c>
-      <c r="J87" t="s">
-        <v>46</v>
-      </c>
-      <c r="K87">
-        <v>4.2</v>
-      </c>
-      <c r="L87">
-        <v>4.2</v>
-      </c>
-      <c r="M87">
-        <v>1.65</v>
-      </c>
-      <c r="N87">
+      <c r="P87">
         <v>6</v>
       </c>
-      <c r="O87">
-        <v>5.75</v>
-      </c>
-      <c r="P87">
-        <v>1.444</v>
-      </c>
       <c r="Q87">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R87">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S87">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U87">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V87">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA87">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8371,7 +8371,7 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G89" t="s">
         <v>33</v>
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6428338</v>
+        <v>6428339</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,58 +8460,58 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H90">
+        <v>4</v>
+      </c>
+      <c r="I90">
         <v>3</v>
-      </c>
-      <c r="I90">
-        <v>2</v>
       </c>
       <c r="J90" t="s">
         <v>47</v>
       </c>
       <c r="K90">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="L90">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M90">
         <v>5</v>
       </c>
       <c r="N90">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="O90">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P90">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="Q90">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T90">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W90">
-        <v>0.363</v>
+        <v>1.2</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8520,13 +8520,13 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA90">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8537,7 +8537,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6428339</v>
+        <v>6428338</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8549,58 +8549,58 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
         <v>47</v>
       </c>
       <c r="K91">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M91">
         <v>5</v>
       </c>
       <c r="N91">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="O91">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P91">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="Q91">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S91">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U91">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W91">
-        <v>1.2</v>
+        <v>0.363</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8609,13 +8609,13 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB91">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6799245</v>
+        <v>6799246</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,76 +8638,76 @@
         <v>45128.58333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K92">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M92">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="N92">
         <v>2.25</v>
       </c>
       <c r="O92">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P92">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q92">
         <v>-0.25</v>
       </c>
       <c r="R92">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S92">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T92">
         <v>2.75</v>
       </c>
       <c r="U92">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y92">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA92">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AB92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6799246</v>
+        <v>6799245</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45128.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K93">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="L93">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="N93">
         <v>2.25</v>
       </c>
       <c r="O93">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P93">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q93">
         <v>-0.25</v>
       </c>
       <c r="R93">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S93">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T93">
         <v>2.75</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V93">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC93">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6799247</v>
+        <v>6798548</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,76 +8905,76 @@
         <v>45130.375</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="L95">
         <v>3.6</v>
       </c>
       <c r="M95">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="N95">
+        <v>2.8</v>
+      </c>
+      <c r="O95">
+        <v>3.4</v>
+      </c>
+      <c r="P95">
+        <v>2.55</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>2</v>
+      </c>
+      <c r="S95">
         <v>1.85</v>
       </c>
-      <c r="O95">
-        <v>3.6</v>
-      </c>
-      <c r="P95">
-        <v>4.2</v>
-      </c>
-      <c r="Q95">
-        <v>-0.5</v>
-      </c>
-      <c r="R95">
-        <v>1.875</v>
-      </c>
-      <c r="S95">
-        <v>1.975</v>
-      </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA95">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC95">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6799248</v>
+        <v>6799247</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45130.375</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
         <v>2</v>
       </c>
-      <c r="I96">
-        <v>1</v>
-      </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K96">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="L96">
         <v>3.6</v>
       </c>
       <c r="M96">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N96">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O96">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P96">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
+        <v>1.875</v>
+      </c>
+      <c r="S96">
         <v>1.975</v>
-      </c>
-      <c r="S96">
-        <v>1.875</v>
       </c>
       <c r="T96">
         <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W96">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z96">
+        <v>-1</v>
+      </c>
+      <c r="AA96">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA96">
-        <v>-1</v>
-      </c>
       <c r="AB96">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6798548</v>
+        <v>6799248</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,10 +9083,10 @@
         <v>45130.375</v>
       </c>
       <c r="F97" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9098,19 +9098,19 @@
         <v>47</v>
       </c>
       <c r="K97">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="L97">
         <v>3.6</v>
       </c>
       <c r="M97">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N97">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="O97">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P97">
         <v>2.55</v>
@@ -9119,22 +9119,22 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S97">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T97">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V97">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W97">
-        <v>1.8</v>
+        <v>1.625</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9143,16 +9143,16 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6799262</v>
+        <v>6800831</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,34 +11308,34 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K122">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L122">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M122">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="N122">
         <v>2.15</v>
       </c>
       <c r="O122">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P122">
         <v>3.1</v>
@@ -11344,40 +11344,40 @@
         <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T122">
         <v>3</v>
       </c>
       <c r="U122">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V122">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W122">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z122">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB122">
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6800831</v>
+        <v>6799262</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,34 +11397,34 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H123">
+        <v>2</v>
+      </c>
+      <c r="I123">
         <v>0</v>
       </c>
-      <c r="I123">
-        <v>1</v>
-      </c>
       <c r="J123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L123">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N123">
         <v>2.15</v>
       </c>
       <c r="O123">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P123">
         <v>3.1</v>
@@ -11433,40 +11433,40 @@
         <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S123">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T123">
         <v>3</v>
       </c>
       <c r="U123">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V123">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA123">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6799263</v>
+        <v>6798552</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,40 +11486,40 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H124">
+        <v>2</v>
+      </c>
+      <c r="I124">
         <v>1</v>
       </c>
-      <c r="I124">
-        <v>6</v>
-      </c>
       <c r="J124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K124">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L124">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N124">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="O124">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P124">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="Q124">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R124">
         <v>2</v>
@@ -11528,31 +11528,31 @@
         <v>1.85</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V124">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA124">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6798552</v>
+        <v>6799264</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,58 +11575,58 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>47</v>
       </c>
       <c r="K125">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L125">
+        <v>4.5</v>
+      </c>
+      <c r="M125">
+        <v>7</v>
+      </c>
+      <c r="N125">
+        <v>1.363</v>
+      </c>
+      <c r="O125">
+        <v>5</v>
+      </c>
+      <c r="P125">
+        <v>7.5</v>
+      </c>
+      <c r="Q125">
+        <v>-1.5</v>
+      </c>
+      <c r="R125">
+        <v>1.975</v>
+      </c>
+      <c r="S125">
+        <v>1.875</v>
+      </c>
+      <c r="T125">
         <v>3.5</v>
       </c>
-      <c r="M125">
-        <v>2.8</v>
-      </c>
-      <c r="N125">
-        <v>2.7</v>
-      </c>
-      <c r="O125">
-        <v>3.5</v>
-      </c>
-      <c r="P125">
-        <v>2.5</v>
-      </c>
-      <c r="Q125">
-        <v>0</v>
-      </c>
-      <c r="R125">
-        <v>2</v>
-      </c>
-      <c r="S125">
-        <v>1.85</v>
-      </c>
-      <c r="T125">
-        <v>2.5</v>
-      </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V125">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W125">
-        <v>1.7</v>
+        <v>0.363</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11635,13 +11635,13 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6799264</v>
+        <v>6799263</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,73 +11664,73 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G126" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>6</v>
+      </c>
+      <c r="J126" t="s">
+        <v>46</v>
+      </c>
+      <c r="K126">
+        <v>1.75</v>
+      </c>
+      <c r="L126">
+        <v>3.8</v>
+      </c>
+      <c r="M126">
         <v>4</v>
       </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-      <c r="J126" t="s">
-        <v>47</v>
-      </c>
-      <c r="K126">
-        <v>1.4</v>
-      </c>
-      <c r="L126">
-        <v>4.5</v>
-      </c>
-      <c r="M126">
-        <v>7</v>
-      </c>
       <c r="N126">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="O126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P126">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q126">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R126">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S126">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T126">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U126">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V126">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W126">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z126">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB126">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6798872</v>
+        <v>6798555</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,76 +13444,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G146" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
         <v>2</v>
       </c>
-      <c r="I146">
+      <c r="J146" t="s">
+        <v>46</v>
+      </c>
+      <c r="K146">
+        <v>2.05</v>
+      </c>
+      <c r="L146">
+        <v>3.5</v>
+      </c>
+      <c r="M146">
+        <v>3.2</v>
+      </c>
+      <c r="N146">
+        <v>2.4</v>
+      </c>
+      <c r="O146">
+        <v>3.5</v>
+      </c>
+      <c r="P146">
+        <v>2.75</v>
+      </c>
+      <c r="Q146">
         <v>0</v>
       </c>
-      <c r="J146" t="s">
-        <v>47</v>
-      </c>
-      <c r="K146">
-        <v>1.2</v>
-      </c>
-      <c r="L146">
-        <v>6</v>
-      </c>
-      <c r="M146">
-        <v>13</v>
-      </c>
-      <c r="N146">
-        <v>1.2</v>
-      </c>
-      <c r="O146">
-        <v>6.5</v>
-      </c>
-      <c r="P146">
-        <v>13</v>
-      </c>
-      <c r="Q146">
-        <v>-2</v>
-      </c>
       <c r="R146">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S146">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T146">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U146">
+        <v>1.825</v>
+      </c>
+      <c r="V146">
         <v>2.025</v>
       </c>
-      <c r="V146">
-        <v>1.825</v>
-      </c>
       <c r="W146">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC146">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6798555</v>
+        <v>6798872</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,76 +13622,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K148">
-        <v>2.05</v>
+        <v>1.2</v>
       </c>
       <c r="L148">
+        <v>6</v>
+      </c>
+      <c r="M148">
+        <v>13</v>
+      </c>
+      <c r="N148">
+        <v>1.2</v>
+      </c>
+      <c r="O148">
+        <v>6.5</v>
+      </c>
+      <c r="P148">
+        <v>13</v>
+      </c>
+      <c r="Q148">
+        <v>-2</v>
+      </c>
+      <c r="R148">
+        <v>1.975</v>
+      </c>
+      <c r="S148">
+        <v>1.875</v>
+      </c>
+      <c r="T148">
         <v>3.5</v>
       </c>
-      <c r="M148">
-        <v>3.2</v>
-      </c>
-      <c r="N148">
-        <v>2.4</v>
-      </c>
-      <c r="O148">
-        <v>3.5</v>
-      </c>
-      <c r="P148">
-        <v>2.75</v>
-      </c>
-      <c r="Q148">
+      <c r="U148">
+        <v>2.025</v>
+      </c>
+      <c r="V148">
+        <v>1.825</v>
+      </c>
+      <c r="W148">
+        <v>0.2</v>
+      </c>
+      <c r="X148">
+        <v>-1</v>
+      </c>
+      <c r="Y148">
+        <v>-1</v>
+      </c>
+      <c r="Z148">
         <v>0</v>
       </c>
-      <c r="R148">
-        <v>1.825</v>
-      </c>
-      <c r="S148">
-        <v>2.025</v>
-      </c>
-      <c r="T148">
-        <v>2.75</v>
-      </c>
-      <c r="U148">
-        <v>1.825</v>
-      </c>
-      <c r="V148">
-        <v>2.025</v>
-      </c>
-      <c r="W148">
-        <v>-1</v>
-      </c>
-      <c r="X148">
-        <v>-1</v>
-      </c>
-      <c r="Y148">
-        <v>1.75</v>
-      </c>
-      <c r="Z148">
-        <v>-1</v>
-      </c>
       <c r="AA148">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB148">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6799279</v>
+        <v>6798873</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,49 +13978,49 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K152">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="L152">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M152">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="N152">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="O152">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P152">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R152">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S152">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T152">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U152">
         <v>1.9</v>
@@ -14032,22 +14032,22 @@
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z152">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC152">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14055,7 +14055,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6798873</v>
+        <v>6799279</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14067,49 +14067,49 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K153">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="L153">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M153">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="N153">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="O153">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P153">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="Q153">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R153">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S153">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T153">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U153">
         <v>1.9</v>
@@ -14121,22 +14121,22 @@
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y153">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA153">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB153">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6798874</v>
+        <v>6800824</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,55 +14601,55 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G159" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J159" t="s">
         <v>46</v>
       </c>
       <c r="K159">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L159">
         <v>3.75</v>
       </c>
       <c r="M159">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="N159">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O159">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P159">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q159">
         <v>0.5</v>
       </c>
       <c r="R159">
+        <v>1.875</v>
+      </c>
+      <c r="S159">
         <v>1.975</v>
       </c>
-      <c r="S159">
-        <v>1.875</v>
-      </c>
       <c r="T159">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U159">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V159">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14658,19 +14658,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB159">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6800824</v>
+        <v>6798874</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,55 +14690,55 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G160" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J160" t="s">
         <v>46</v>
       </c>
       <c r="K160">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L160">
         <v>3.75</v>
       </c>
       <c r="M160">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="N160">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O160">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P160">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q160">
         <v>0.5</v>
       </c>
       <c r="R160">
+        <v>1.975</v>
+      </c>
+      <c r="S160">
         <v>1.875</v>
       </c>
-      <c r="S160">
+      <c r="T160">
+        <v>2.5</v>
+      </c>
+      <c r="U160">
         <v>1.975</v>
       </c>
-      <c r="T160">
-        <v>3</v>
-      </c>
-      <c r="U160">
-        <v>2</v>
-      </c>
       <c r="V160">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14747,19 +14747,19 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
+        <v>0.875</v>
+      </c>
+      <c r="AB160">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB160">
-        <v>0</v>
-      </c>
       <c r="AC160">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6799286</v>
+        <v>6798558</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,76 +15135,76 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G165" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K165">
-        <v>3.5</v>
+        <v>1.65</v>
       </c>
       <c r="L165">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M165">
+        <v>4.333</v>
+      </c>
+      <c r="N165">
         <v>1.909</v>
       </c>
-      <c r="N165">
-        <v>3.1</v>
-      </c>
       <c r="O165">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P165">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q165">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R165">
+        <v>1.925</v>
+      </c>
+      <c r="S165">
+        <v>1.925</v>
+      </c>
+      <c r="T165">
+        <v>2.75</v>
+      </c>
+      <c r="U165">
         <v>1.9</v>
       </c>
-      <c r="S165">
+      <c r="V165">
         <v>1.95</v>
       </c>
-      <c r="T165">
-        <v>3</v>
-      </c>
-      <c r="U165">
-        <v>2</v>
-      </c>
-      <c r="V165">
-        <v>1.85</v>
-      </c>
       <c r="W165">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X165">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AA165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC165">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15212,7 +15212,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6798558</v>
+        <v>6799287</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15224,13 +15224,13 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G166" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H166">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -15239,61 +15239,61 @@
         <v>47</v>
       </c>
       <c r="K166">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="L166">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M166">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="N166">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O166">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P166">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q166">
+        <v>-0.75</v>
+      </c>
+      <c r="R166">
+        <v>2.025</v>
+      </c>
+      <c r="S166">
+        <v>1.825</v>
+      </c>
+      <c r="T166">
+        <v>2.5</v>
+      </c>
+      <c r="U166">
+        <v>2.025</v>
+      </c>
+      <c r="V166">
+        <v>1.825</v>
+      </c>
+      <c r="W166">
+        <v>0.8</v>
+      </c>
+      <c r="X166">
+        <v>-1</v>
+      </c>
+      <c r="Y166">
+        <v>-1</v>
+      </c>
+      <c r="Z166">
+        <v>0.5125</v>
+      </c>
+      <c r="AA166">
         <v>-0.5</v>
       </c>
-      <c r="R166">
-        <v>1.925</v>
-      </c>
-      <c r="S166">
-        <v>1.925</v>
-      </c>
-      <c r="T166">
-        <v>2.75</v>
-      </c>
-      <c r="U166">
-        <v>1.9</v>
-      </c>
-      <c r="V166">
-        <v>1.95</v>
-      </c>
-      <c r="W166">
-        <v>0.909</v>
-      </c>
-      <c r="X166">
-        <v>-1</v>
-      </c>
-      <c r="Y166">
-        <v>-1</v>
-      </c>
-      <c r="Z166">
-        <v>0.925</v>
-      </c>
-      <c r="AA166">
-        <v>-1</v>
-      </c>
       <c r="AB166">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15301,7 +15301,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6799287</v>
+        <v>6799286</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15313,67 +15313,67 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H167">
         <v>1</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K167">
+        <v>3.5</v>
+      </c>
+      <c r="L167">
+        <v>3.6</v>
+      </c>
+      <c r="M167">
+        <v>1.909</v>
+      </c>
+      <c r="N167">
+        <v>3.1</v>
+      </c>
+      <c r="O167">
+        <v>3.6</v>
+      </c>
+      <c r="P167">
+        <v>2.2</v>
+      </c>
+      <c r="Q167">
+        <v>0.25</v>
+      </c>
+      <c r="R167">
+        <v>1.9</v>
+      </c>
+      <c r="S167">
+        <v>1.95</v>
+      </c>
+      <c r="T167">
+        <v>3</v>
+      </c>
+      <c r="U167">
+        <v>2</v>
+      </c>
+      <c r="V167">
         <v>1.85</v>
       </c>
-      <c r="L167">
-        <v>3.75</v>
-      </c>
-      <c r="M167">
-        <v>3.8</v>
-      </c>
-      <c r="N167">
-        <v>1.8</v>
-      </c>
-      <c r="O167">
-        <v>3.75</v>
-      </c>
-      <c r="P167">
-        <v>4.75</v>
-      </c>
-      <c r="Q167">
-        <v>-0.75</v>
-      </c>
-      <c r="R167">
-        <v>2.025</v>
-      </c>
-      <c r="S167">
-        <v>1.825</v>
-      </c>
-      <c r="T167">
-        <v>2.5</v>
-      </c>
-      <c r="U167">
-        <v>2.025</v>
-      </c>
-      <c r="V167">
-        <v>1.825</v>
-      </c>
       <c r="W167">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.5125</v>
+        <v>0.45</v>
       </c>
       <c r="AA167">
         <v>-0.5</v>
@@ -15382,7 +15382,7 @@
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6800822</v>
+        <v>6799291</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,55 +15669,55 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G171" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J171" t="s">
         <v>46</v>
       </c>
       <c r="K171">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="L171">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M171">
-        <v>1.533</v>
+        <v>3.25</v>
       </c>
       <c r="N171">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="O171">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P171">
-        <v>1.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q171">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R171">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S171">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T171">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V171">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -15726,16 +15726,16 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>0.333</v>
+        <v>2.2</v>
       </c>
       <c r="Z171">
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB171">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC171">
         <v>-1</v>
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6799291</v>
+        <v>6800822</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,55 +15758,55 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F172" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G172" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J172" t="s">
         <v>46</v>
       </c>
       <c r="K172">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="L172">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M172">
-        <v>3.25</v>
+        <v>1.533</v>
       </c>
       <c r="N172">
-        <v>2.15</v>
+        <v>8</v>
       </c>
       <c r="O172">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P172">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="Q172">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R172">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S172">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T172">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U172">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V172">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W172">
         <v>-1</v>
@@ -15815,16 +15815,16 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>2.2</v>
+        <v>0.333</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB172">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC172">
         <v>-1</v>
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6799294</v>
+        <v>6799293</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,76 +16114,76 @@
         <v>45233.625</v>
       </c>
       <c r="F176" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G176" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H176">
         <v>1</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J176" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K176">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="L176">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M176">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="N176">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="O176">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P176">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q176">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R176">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S176">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T176">
         <v>2.75</v>
       </c>
       <c r="U176">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V176">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W176">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z176">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC176">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16191,7 +16191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6799293</v>
+        <v>6799294</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16203,76 +16203,76 @@
         <v>45233.625</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G177" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H177">
         <v>1</v>
       </c>
       <c r="I177">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K177">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="L177">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M177">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="N177">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="O177">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P177">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="Q177">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R177">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V177">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA177">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB177">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16636,7 +16636,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6799296</v>
+        <v>6799295</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16648,76 +16648,76 @@
         <v>45240.625</v>
       </c>
       <c r="F182" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G182" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H182">
         <v>1</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J182" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K182">
-        <v>2.75</v>
+        <v>7.5</v>
       </c>
       <c r="L182">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M182">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="N182">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="O182">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P182">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q182">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R182">
+        <v>1.925</v>
+      </c>
+      <c r="S182">
+        <v>1.925</v>
+      </c>
+      <c r="T182">
+        <v>3.25</v>
+      </c>
+      <c r="U182">
+        <v>1.85</v>
+      </c>
+      <c r="V182">
         <v>2</v>
       </c>
-      <c r="S182">
-        <v>1.85</v>
-      </c>
-      <c r="T182">
-        <v>3</v>
-      </c>
-      <c r="U182">
-        <v>1.95</v>
-      </c>
-      <c r="V182">
-        <v>1.9</v>
-      </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC182">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6800819</v>
+        <v>6799296</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16737,76 +16737,76 @@
         <v>45240.625</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G183" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K183">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L183">
         <v>3.4</v>
       </c>
       <c r="M183">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="N183">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="O183">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P183">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q183">
         <v>0</v>
       </c>
       <c r="R183">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S183">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T183">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U183">
+        <v>1.95</v>
+      </c>
+      <c r="V183">
         <v>1.9</v>
       </c>
-      <c r="V183">
-        <v>1.95</v>
-      </c>
       <c r="W183">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16814,7 +16814,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6799295</v>
+        <v>6800819</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16826,76 +16826,76 @@
         <v>45240.625</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G184" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K184">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="L184">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M184">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="N184">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="O184">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P184">
+        <v>2.8</v>
+      </c>
+      <c r="Q184">
+        <v>0</v>
+      </c>
+      <c r="R184">
+        <v>1.8</v>
+      </c>
+      <c r="S184">
+        <v>2.05</v>
+      </c>
+      <c r="T184">
+        <v>2.75</v>
+      </c>
+      <c r="U184">
+        <v>1.9</v>
+      </c>
+      <c r="V184">
+        <v>1.95</v>
+      </c>
+      <c r="W184">
         <v>1.45</v>
       </c>
-      <c r="Q184">
-        <v>1.25</v>
-      </c>
-      <c r="R184">
-        <v>1.925</v>
-      </c>
-      <c r="S184">
-        <v>1.925</v>
-      </c>
-      <c r="T184">
-        <v>3.25</v>
-      </c>
-      <c r="U184">
-        <v>1.85</v>
-      </c>
-      <c r="V184">
-        <v>2</v>
-      </c>
-      <c r="W184">
-        <v>-1</v>
-      </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA184">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17259,7 +17259,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6799300</v>
+        <v>6799298</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17271,73 +17271,73 @@
         <v>45254.625</v>
       </c>
       <c r="F189" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H189">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K189">
+        <v>3.1</v>
+      </c>
+      <c r="L189">
+        <v>3.6</v>
+      </c>
+      <c r="M189">
+        <v>2.1</v>
+      </c>
+      <c r="N189">
+        <v>3.2</v>
+      </c>
+      <c r="O189">
+        <v>3.4</v>
+      </c>
+      <c r="P189">
+        <v>2.25</v>
+      </c>
+      <c r="Q189">
+        <v>0.25</v>
+      </c>
+      <c r="R189">
+        <v>1.95</v>
+      </c>
+      <c r="S189">
+        <v>1.9</v>
+      </c>
+      <c r="T189">
+        <v>2.5</v>
+      </c>
+      <c r="U189">
+        <v>1.85</v>
+      </c>
+      <c r="V189">
+        <v>2</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
         <v>1.25</v>
       </c>
-      <c r="L189">
-        <v>6</v>
-      </c>
-      <c r="M189">
-        <v>8</v>
-      </c>
-      <c r="N189">
-        <v>1.3</v>
-      </c>
-      <c r="O189">
-        <v>6</v>
-      </c>
-      <c r="P189">
-        <v>8.5</v>
-      </c>
-      <c r="Q189">
-        <v>-1.5</v>
-      </c>
-      <c r="R189">
-        <v>1.875</v>
-      </c>
-      <c r="S189">
-        <v>1.975</v>
-      </c>
-      <c r="T189">
-        <v>3.25</v>
-      </c>
-      <c r="U189">
-        <v>1.925</v>
-      </c>
-      <c r="V189">
-        <v>1.925</v>
-      </c>
-      <c r="W189">
-        <v>0.3</v>
-      </c>
-      <c r="X189">
-        <v>-1</v>
-      </c>
-      <c r="Y189">
-        <v>-1</v>
-      </c>
       <c r="Z189">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB189">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6799298</v>
+        <v>6799300</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17360,73 +17360,73 @@
         <v>45254.625</v>
       </c>
       <c r="F190" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G190" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H190">
+        <v>4</v>
+      </c>
+      <c r="I190">
         <v>1</v>
       </c>
-      <c r="I190">
-        <v>2</v>
-      </c>
       <c r="J190" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K190">
-        <v>3.1</v>
+        <v>1.25</v>
       </c>
       <c r="L190">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M190">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="N190">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="O190">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P190">
-        <v>2.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q190">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R190">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S190">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T190">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U190">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA190">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -18231,6 +18231,228 @@
       </c>
       <c r="AC199">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>6799307</v>
+      </c>
+      <c r="C200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45345.625</v>
+      </c>
+      <c r="F200" t="s">
+        <v>39</v>
+      </c>
+      <c r="G200" t="s">
+        <v>29</v>
+      </c>
+      <c r="K200">
+        <v>1.75</v>
+      </c>
+      <c r="L200">
+        <v>3.6</v>
+      </c>
+      <c r="M200">
+        <v>4.333</v>
+      </c>
+      <c r="N200">
+        <v>2</v>
+      </c>
+      <c r="O200">
+        <v>3.4</v>
+      </c>
+      <c r="P200">
+        <v>3.5</v>
+      </c>
+      <c r="Q200">
+        <v>-0.5</v>
+      </c>
+      <c r="R200">
+        <v>2.05</v>
+      </c>
+      <c r="S200">
+        <v>1.8</v>
+      </c>
+      <c r="T200">
+        <v>2.5</v>
+      </c>
+      <c r="U200">
+        <v>1.975</v>
+      </c>
+      <c r="V200">
+        <v>1.875</v>
+      </c>
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200">
+        <v>0</v>
+      </c>
+      <c r="Y200">
+        <v>0</v>
+      </c>
+      <c r="Z200">
+        <v>0</v>
+      </c>
+      <c r="AA200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>6799305</v>
+      </c>
+      <c r="C201" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45345.625</v>
+      </c>
+      <c r="F201" t="s">
+        <v>30</v>
+      </c>
+      <c r="G201" t="s">
+        <v>37</v>
+      </c>
+      <c r="K201">
+        <v>2.1</v>
+      </c>
+      <c r="L201">
+        <v>3.5</v>
+      </c>
+      <c r="M201">
+        <v>2.9</v>
+      </c>
+      <c r="N201">
+        <v>2.1</v>
+      </c>
+      <c r="O201">
+        <v>3.75</v>
+      </c>
+      <c r="P201">
+        <v>2.9</v>
+      </c>
+      <c r="Q201">
+        <v>-0.25</v>
+      </c>
+      <c r="R201">
+        <v>1.9</v>
+      </c>
+      <c r="S201">
+        <v>1.95</v>
+      </c>
+      <c r="T201">
+        <v>2.75</v>
+      </c>
+      <c r="U201">
+        <v>2</v>
+      </c>
+      <c r="V201">
+        <v>1.85</v>
+      </c>
+      <c r="W201">
+        <v>0</v>
+      </c>
+      <c r="X201">
+        <v>0</v>
+      </c>
+      <c r="Y201">
+        <v>0</v>
+      </c>
+      <c r="Z201">
+        <v>0</v>
+      </c>
+      <c r="AA201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>6798562</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45345.625</v>
+      </c>
+      <c r="F202" t="s">
+        <v>44</v>
+      </c>
+      <c r="G202" t="s">
+        <v>42</v>
+      </c>
+      <c r="K202">
+        <v>2.4</v>
+      </c>
+      <c r="L202">
+        <v>3.5</v>
+      </c>
+      <c r="M202">
+        <v>2.4</v>
+      </c>
+      <c r="N202">
+        <v>2.7</v>
+      </c>
+      <c r="O202">
+        <v>3.5</v>
+      </c>
+      <c r="P202">
+        <v>2.375</v>
+      </c>
+      <c r="Q202">
+        <v>0</v>
+      </c>
+      <c r="R202">
+        <v>2.1</v>
+      </c>
+      <c r="S202">
+        <v>1.775</v>
+      </c>
+      <c r="T202">
+        <v>2.5</v>
+      </c>
+      <c r="U202">
+        <v>1.95</v>
+      </c>
+      <c r="V202">
+        <v>1.9</v>
+      </c>
+      <c r="W202">
+        <v>0</v>
+      </c>
+      <c r="X202">
+        <v>0</v>
+      </c>
+      <c r="Y202">
+        <v>0</v>
+      </c>
+      <c r="Z202">
+        <v>0</v>
+      </c>
+      <c r="AA202">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Denmark Division 1/Denmark Division 1.xlsx
+++ b/Denmark Division 1/Denmark Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -124,10 +124,10 @@
     <t>FC Fredericia</t>
   </si>
   <si>
-    <t>Fremad Amager</t>
+    <t>HB Kge</t>
   </si>
   <si>
-    <t>HB Kge</t>
+    <t>Fremad Amager</t>
   </si>
   <si>
     <t>Sonderjyske</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC202"/>
+  <dimension ref="A1:AC204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5128563</v>
+        <v>5128564</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9">
+        <v>3.5</v>
+      </c>
+      <c r="L9">
+        <v>3.75</v>
+      </c>
+      <c r="M9">
+        <v>1.909</v>
+      </c>
+      <c r="N9">
+        <v>4.333</v>
+      </c>
+      <c r="O9">
+        <v>4.2</v>
+      </c>
+      <c r="P9">
+        <v>1.666</v>
+      </c>
+      <c r="Q9">
+        <v>0.75</v>
+      </c>
+      <c r="R9">
+        <v>1.975</v>
+      </c>
+      <c r="S9">
+        <v>1.875</v>
+      </c>
+      <c r="T9">
+        <v>2.75</v>
+      </c>
+      <c r="U9">
+        <v>1.85</v>
+      </c>
+      <c r="V9">
         <v>2</v>
       </c>
-      <c r="I9">
+      <c r="W9">
+        <v>-1</v>
+      </c>
+      <c r="X9">
+        <v>3.2</v>
+      </c>
+      <c r="Y9">
+        <v>-1</v>
+      </c>
+      <c r="Z9">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA9">
+        <v>-1</v>
+      </c>
+      <c r="AB9">
+        <v>-1</v>
+      </c>
+      <c r="AC9">
         <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9">
-        <v>2.5</v>
-      </c>
-      <c r="L9">
-        <v>3.4</v>
-      </c>
-      <c r="M9">
-        <v>2.625</v>
-      </c>
-      <c r="N9">
-        <v>3.1</v>
-      </c>
-      <c r="O9">
-        <v>3.4</v>
-      </c>
-      <c r="P9">
-        <v>2.2</v>
-      </c>
-      <c r="Q9">
-        <v>0.25</v>
-      </c>
-      <c r="R9">
-        <v>1.9</v>
-      </c>
-      <c r="S9">
-        <v>1.95</v>
-      </c>
-      <c r="T9">
-        <v>2.5</v>
-      </c>
-      <c r="U9">
-        <v>1.95</v>
-      </c>
-      <c r="V9">
-        <v>1.9</v>
-      </c>
-      <c r="W9">
-        <v>2.1</v>
-      </c>
-      <c r="X9">
-        <v>-1</v>
-      </c>
-      <c r="Y9">
-        <v>-1</v>
-      </c>
-      <c r="Z9">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA9">
-        <v>-1</v>
-      </c>
-      <c r="AB9">
-        <v>0.95</v>
-      </c>
-      <c r="AC9">
-        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5128564</v>
+        <v>5128563</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,73 +1343,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L10">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="N10">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="O10">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P10">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="Q10">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R10">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S10">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T10">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X10">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1788,7 +1788,7 @@
         <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -2055,7 +2055,7 @@
         <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2408,7 +2408,7 @@
         <v>44996.375</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
         <v>30</v>
@@ -2500,7 +2500,7 @@
         <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23">
         <v>4</v>
@@ -3031,7 +3031,7 @@
         <v>45003.375</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
         <v>29</v>
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5128572</v>
+        <v>5128571</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,10 +3209,10 @@
         <v>45003.375</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3224,43 +3224,43 @@
         <v>47</v>
       </c>
       <c r="K31">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L31">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M31">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N31">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O31">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R31">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U31">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W31">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3269,16 +3269,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AA31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5128571</v>
+        <v>5128572</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,10 +3298,10 @@
         <v>45003.375</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3313,61 +3313,61 @@
         <v>47</v>
       </c>
       <c r="K32">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L32">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M32">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N32">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O32">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P32">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q32">
+        <v>-0.75</v>
+      </c>
+      <c r="R32">
+        <v>1.9</v>
+      </c>
+      <c r="S32">
+        <v>1.95</v>
+      </c>
+      <c r="T32">
+        <v>3</v>
+      </c>
+      <c r="U32">
+        <v>2.05</v>
+      </c>
+      <c r="V32">
+        <v>1.8</v>
+      </c>
+      <c r="W32">
+        <v>0.7</v>
+      </c>
+      <c r="X32">
+        <v>-1</v>
+      </c>
+      <c r="Y32">
+        <v>-1</v>
+      </c>
+      <c r="Z32">
+        <v>0.45</v>
+      </c>
+      <c r="AA32">
         <v>-0.5</v>
       </c>
-      <c r="R32">
-        <v>2</v>
-      </c>
-      <c r="S32">
-        <v>1.85</v>
-      </c>
-      <c r="T32">
-        <v>2.5</v>
-      </c>
-      <c r="U32">
-        <v>2</v>
-      </c>
-      <c r="V32">
-        <v>1.85</v>
-      </c>
-      <c r="W32">
-        <v>1</v>
-      </c>
-      <c r="X32">
-        <v>-1</v>
-      </c>
-      <c r="Y32">
-        <v>-1</v>
-      </c>
-      <c r="Z32">
-        <v>1</v>
-      </c>
-      <c r="AA32">
-        <v>-1</v>
-      </c>
       <c r="AB32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3568,7 +3568,7 @@
         <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3832,7 +3832,7 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
         <v>34</v>
@@ -4010,7 +4010,7 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
         <v>35</v>
@@ -4102,7 +4102,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4722,7 +4722,7 @@
         <v>45032.375</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s">
         <v>34</v>
@@ -4814,7 +4814,7 @@
         <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H49">
         <v>6</v>
@@ -4992,7 +4992,7 @@
         <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5256,7 +5256,7 @@
         <v>45039.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
         <v>29</v>
@@ -5523,10 +5523,10 @@
         <v>45044.5625</v>
       </c>
       <c r="F57" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57" t="s">
         <v>36</v>
-      </c>
-      <c r="G57" t="s">
-        <v>37</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6428356</v>
+        <v>6428355</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45051.5625</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K63">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L63">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M63">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="N63">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O63">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P63">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q63">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R63">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S63">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X63">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA63">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6428355</v>
+        <v>6428356</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,76 +6146,76 @@
         <v>45051.5625</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <v>2</v>
+      </c>
+      <c r="J64" t="s">
+        <v>45</v>
+      </c>
+      <c r="K64">
+        <v>1.909</v>
+      </c>
+      <c r="L64">
+        <v>3.3</v>
+      </c>
+      <c r="M64">
+        <v>3.75</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64">
+        <v>3.5</v>
+      </c>
+      <c r="P64">
+        <v>3.8</v>
+      </c>
+      <c r="Q64">
+        <v>-0.5</v>
+      </c>
+      <c r="R64">
+        <v>2.05</v>
+      </c>
+      <c r="S64">
+        <v>1.8</v>
+      </c>
+      <c r="T64">
+        <v>2.75</v>
+      </c>
+      <c r="U64">
+        <v>2</v>
+      </c>
+      <c r="V64">
+        <v>1.85</v>
+      </c>
+      <c r="W64">
+        <v>-1</v>
+      </c>
+      <c r="X64">
+        <v>2.5</v>
+      </c>
+      <c r="Y64">
+        <v>-1</v>
+      </c>
+      <c r="Z64">
+        <v>-1</v>
+      </c>
+      <c r="AA64">
+        <v>0.8</v>
+      </c>
+      <c r="AB64">
         <v>1</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64" t="s">
-        <v>47</v>
-      </c>
-      <c r="K64">
-        <v>2.625</v>
-      </c>
-      <c r="L64">
-        <v>3.2</v>
-      </c>
-      <c r="M64">
-        <v>2.4</v>
-      </c>
-      <c r="N64">
-        <v>3.5</v>
-      </c>
-      <c r="O64">
-        <v>3.2</v>
-      </c>
-      <c r="P64">
-        <v>2.15</v>
-      </c>
-      <c r="Q64">
-        <v>0.25</v>
-      </c>
-      <c r="R64">
-        <v>1.975</v>
-      </c>
-      <c r="S64">
-        <v>1.875</v>
-      </c>
-      <c r="T64">
-        <v>2.25</v>
-      </c>
-      <c r="U64">
-        <v>1.875</v>
-      </c>
-      <c r="V64">
-        <v>1.975</v>
-      </c>
-      <c r="W64">
-        <v>2.5</v>
-      </c>
-      <c r="X64">
-        <v>-1</v>
-      </c>
-      <c r="Y64">
-        <v>-1</v>
-      </c>
-      <c r="Z64">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA64">
-        <v>-1</v>
-      </c>
-      <c r="AB64">
-        <v>-1</v>
-      </c>
       <c r="AC64">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6324,7 +6324,7 @@
         <v>45052.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
         <v>40</v>
@@ -6594,7 +6594,7 @@
         <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6428329</v>
+        <v>6428360</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,76 +6680,76 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K70">
+        <v>3.75</v>
+      </c>
+      <c r="L70">
+        <v>3.6</v>
+      </c>
+      <c r="M70">
+        <v>1.85</v>
+      </c>
+      <c r="N70">
         <v>3.8</v>
       </c>
-      <c r="L70">
-        <v>3.5</v>
-      </c>
-      <c r="M70">
-        <v>1.8</v>
-      </c>
-      <c r="N70">
-        <v>5.25</v>
-      </c>
       <c r="O70">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P70">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="Q70">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R70">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S70">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T70">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V70">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA70">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC70">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6428360</v>
+        <v>6428329</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,76 +6769,76 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H71">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K71">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L71">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M71">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="N71">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="O71">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P71">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="Q71">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R71">
+        <v>2.05</v>
+      </c>
+      <c r="S71">
+        <v>1.8</v>
+      </c>
+      <c r="T71">
+        <v>3.25</v>
+      </c>
+      <c r="U71">
         <v>1.975</v>
       </c>
-      <c r="S71">
+      <c r="V71">
         <v>1.875</v>
       </c>
-      <c r="T71">
-        <v>2.75</v>
-      </c>
-      <c r="U71">
-        <v>1.925</v>
-      </c>
-      <c r="V71">
-        <v>1.925</v>
-      </c>
       <c r="W71">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z71">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB71">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6858,7 +6858,7 @@
         <v>45059.33333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
         <v>35</v>
@@ -7128,7 +7128,7 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7395,7 +7395,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7659,7 +7659,7 @@
         <v>45072.5625</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
         <v>40</v>
@@ -7751,7 +7751,7 @@
         <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6428335</v>
+        <v>6428334</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,76 +7926,76 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>45</v>
       </c>
       <c r="K84">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M84">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="N84">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O84">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P84">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="Q84">
         <v>0.5</v>
       </c>
       <c r="R84">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S84">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U84">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6428334</v>
+        <v>6428335</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J85" t="s">
         <v>45</v>
       </c>
       <c r="K85">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M85">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="N85">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O85">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P85">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="Q85">
         <v>0.5</v>
       </c>
       <c r="R85">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S85">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V85">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC85">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6428368</v>
+        <v>6428367</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,76 +8193,76 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K87">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L87">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M87">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N87">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="O87">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P87">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="Q87">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T87">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V87">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W87">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6428367</v>
+        <v>6428368</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K88">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L88">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M88">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N88">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="O88">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P88">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R88">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S88">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U88">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V88">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X88">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA88">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8730,7 +8730,7 @@
         <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -9350,7 +9350,7 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
         <v>39</v>
@@ -9798,7 +9798,7 @@
         <v>44</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -10329,7 +10329,7 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
         <v>41</v>
@@ -11219,7 +11219,7 @@
         <v>45158.33333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
         <v>34</v>
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6799264</v>
+        <v>6799263</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,73 +11575,73 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>6</v>
+      </c>
+      <c r="J125" t="s">
+        <v>46</v>
+      </c>
+      <c r="K125">
+        <v>1.75</v>
+      </c>
+      <c r="L125">
+        <v>3.8</v>
+      </c>
+      <c r="M125">
         <v>4</v>
       </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-      <c r="J125" t="s">
-        <v>47</v>
-      </c>
-      <c r="K125">
-        <v>1.4</v>
-      </c>
-      <c r="L125">
-        <v>4.5</v>
-      </c>
-      <c r="M125">
-        <v>7</v>
-      </c>
       <c r="N125">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="O125">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P125">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q125">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R125">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S125">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T125">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U125">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V125">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z125">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB125">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6799263</v>
+        <v>6799264</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,73 +11664,73 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I126">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K126">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L126">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M126">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N126">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="O126">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P126">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="Q126">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R126">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S126">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T126">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U126">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V126">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA126">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -12109,7 +12109,7 @@
         <v>45165.33333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
         <v>35</v>
@@ -12824,7 +12824,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -12910,7 +12910,7 @@
         <v>45183.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
         <v>42</v>
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6800827</v>
+        <v>6799273</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,10 +13088,10 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -13103,40 +13103,40 @@
         <v>46</v>
       </c>
       <c r="K142">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L142">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M142">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N142">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O142">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S142">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13145,19 +13145,19 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6799273</v>
+        <v>6800827</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,10 +13177,10 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G143" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13192,40 +13192,40 @@
         <v>46</v>
       </c>
       <c r="K143">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L143">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M143">
+        <v>2.9</v>
+      </c>
+      <c r="N143">
+        <v>2</v>
+      </c>
+      <c r="O143">
+        <v>3.6</v>
+      </c>
+      <c r="P143">
+        <v>3.6</v>
+      </c>
+      <c r="Q143">
+        <v>-0.5</v>
+      </c>
+      <c r="R143">
+        <v>2</v>
+      </c>
+      <c r="S143">
+        <v>1.85</v>
+      </c>
+      <c r="T143">
         <v>2.75</v>
       </c>
-      <c r="N143">
-        <v>2.25</v>
-      </c>
-      <c r="O143">
-        <v>3.4</v>
-      </c>
-      <c r="P143">
-        <v>3.1</v>
-      </c>
-      <c r="Q143">
-        <v>-0.25</v>
-      </c>
-      <c r="R143">
-        <v>2.05</v>
-      </c>
-      <c r="S143">
-        <v>1.8</v>
-      </c>
-      <c r="T143">
-        <v>2.5</v>
-      </c>
       <c r="U143">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W143">
         <v>-1</v>
@@ -13234,19 +13234,19 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>43</v>
       </c>
       <c r="G148" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -14245,7 +14245,7 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F155" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G155" t="s">
         <v>30</v>
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6800824</v>
+        <v>6798874</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,55 +14601,55 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G159" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J159" t="s">
         <v>46</v>
       </c>
       <c r="K159">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L159">
         <v>3.75</v>
       </c>
       <c r="M159">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="N159">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O159">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P159">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q159">
         <v>0.5</v>
       </c>
       <c r="R159">
+        <v>1.975</v>
+      </c>
+      <c r="S159">
         <v>1.875</v>
       </c>
-      <c r="S159">
+      <c r="T159">
+        <v>2.5</v>
+      </c>
+      <c r="U159">
         <v>1.975</v>
       </c>
-      <c r="T159">
-        <v>3</v>
-      </c>
-      <c r="U159">
-        <v>2</v>
-      </c>
       <c r="V159">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14658,19 +14658,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
+        <v>0.875</v>
+      </c>
+      <c r="AB159">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB159">
-        <v>0</v>
-      </c>
       <c r="AC159">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6798874</v>
+        <v>6800824</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,55 +14690,55 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G160" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J160" t="s">
         <v>46</v>
       </c>
       <c r="K160">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L160">
         <v>3.75</v>
       </c>
       <c r="M160">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="N160">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O160">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P160">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q160">
         <v>0.5</v>
       </c>
       <c r="R160">
+        <v>1.875</v>
+      </c>
+      <c r="S160">
         <v>1.975</v>
       </c>
-      <c r="S160">
-        <v>1.875</v>
-      </c>
       <c r="T160">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U160">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V160">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14747,19 +14747,19 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB160">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14782,7 +14782,7 @@
         <v>42</v>
       </c>
       <c r="G161" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H161">
         <v>3</v>
@@ -15212,7 +15212,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6799287</v>
+        <v>6799286</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15224,67 +15224,67 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G166" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H166">
         <v>1</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K166">
+        <v>3.5</v>
+      </c>
+      <c r="L166">
+        <v>3.6</v>
+      </c>
+      <c r="M166">
+        <v>1.909</v>
+      </c>
+      <c r="N166">
+        <v>3.1</v>
+      </c>
+      <c r="O166">
+        <v>3.6</v>
+      </c>
+      <c r="P166">
+        <v>2.2</v>
+      </c>
+      <c r="Q166">
+        <v>0.25</v>
+      </c>
+      <c r="R166">
+        <v>1.9</v>
+      </c>
+      <c r="S166">
+        <v>1.95</v>
+      </c>
+      <c r="T166">
+        <v>3</v>
+      </c>
+      <c r="U166">
+        <v>2</v>
+      </c>
+      <c r="V166">
         <v>1.85</v>
       </c>
-      <c r="L166">
-        <v>3.75</v>
-      </c>
-      <c r="M166">
-        <v>3.8</v>
-      </c>
-      <c r="N166">
-        <v>1.8</v>
-      </c>
-      <c r="O166">
-        <v>3.75</v>
-      </c>
-      <c r="P166">
-        <v>4.75</v>
-      </c>
-      <c r="Q166">
-        <v>-0.75</v>
-      </c>
-      <c r="R166">
-        <v>2.025</v>
-      </c>
-      <c r="S166">
-        <v>1.825</v>
-      </c>
-      <c r="T166">
-        <v>2.5</v>
-      </c>
-      <c r="U166">
-        <v>2.025</v>
-      </c>
-      <c r="V166">
-        <v>1.825</v>
-      </c>
       <c r="W166">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.5125</v>
+        <v>0.45</v>
       </c>
       <c r="AA166">
         <v>-0.5</v>
@@ -15293,7 +15293,7 @@
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15301,7 +15301,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6799286</v>
+        <v>6799287</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15313,67 +15313,67 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G167" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H167">
         <v>1</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K167">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="L167">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M167">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="N167">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="O167">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P167">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q167">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S167">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T167">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U167">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V167">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X167">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.45</v>
+        <v>0.5125</v>
       </c>
       <c r="AA167">
         <v>-0.5</v>
@@ -15382,7 +15382,7 @@
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15491,7 +15491,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F169" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G169" t="s">
         <v>33</v>
@@ -15583,7 +15583,7 @@
         <v>34</v>
       </c>
       <c r="G170" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H170">
         <v>2</v>
@@ -16114,7 +16114,7 @@
         <v>45233.625</v>
       </c>
       <c r="F176" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G176" t="s">
         <v>44</v>
@@ -16648,7 +16648,7 @@
         <v>45240.625</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
         <v>38</v>
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6799296</v>
+        <v>6800819</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16737,76 +16737,76 @@
         <v>45240.625</v>
       </c>
       <c r="F183" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G183" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K183">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L183">
         <v>3.4</v>
       </c>
       <c r="M183">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="N183">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="O183">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P183">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q183">
         <v>0</v>
       </c>
       <c r="R183">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S183">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T183">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U183">
+        <v>1.9</v>
+      </c>
+      <c r="V183">
         <v>1.95</v>
       </c>
-      <c r="V183">
-        <v>1.9</v>
-      </c>
       <c r="W183">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X183">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA183">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16814,7 +16814,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6800819</v>
+        <v>6799296</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16826,76 +16826,76 @@
         <v>45240.625</v>
       </c>
       <c r="F184" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G184" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K184">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L184">
         <v>3.4</v>
       </c>
       <c r="M184">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="N184">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="O184">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P184">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q184">
         <v>0</v>
       </c>
       <c r="R184">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S184">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T184">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U184">
+        <v>1.95</v>
+      </c>
+      <c r="V184">
         <v>1.9</v>
       </c>
-      <c r="V184">
-        <v>1.95</v>
-      </c>
       <c r="W184">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17541,7 +17541,7 @@
         <v>39</v>
       </c>
       <c r="G192" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17983,7 +17983,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G197" t="s">
         <v>43</v>
@@ -18060,7 +18060,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7554250</v>
+        <v>6799302</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18072,76 +18072,76 @@
         <v>45265.60416666666</v>
       </c>
       <c r="F198" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G198" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K198">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L198">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M198">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N198">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O198">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P198">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q198">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R198">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S198">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T198">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U198">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V198">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y198">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA198">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC198">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18149,7 +18149,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6799302</v>
+        <v>7554250</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18161,76 +18161,76 @@
         <v>45265.60416666666</v>
       </c>
       <c r="F199" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G199" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K199">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="L199">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M199">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N199">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O199">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P199">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q199">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R199">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S199">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T199">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U199">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V199">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z199">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB199">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18327,7 +18327,7 @@
         <v>30</v>
       </c>
       <c r="G201" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K201">
         <v>2.1</v>
@@ -18339,22 +18339,22 @@
         <v>2.9</v>
       </c>
       <c r="N201">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O201">
         <v>3.75</v>
       </c>
       <c r="P201">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q201">
         <v>-0.25</v>
       </c>
       <c r="R201">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S201">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T201">
         <v>2.75</v>
@@ -18452,6 +18452,154 @@
         <v>0</v>
       </c>
       <c r="AA202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>6798879</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45346.375</v>
+      </c>
+      <c r="F203" t="s">
+        <v>43</v>
+      </c>
+      <c r="G203" t="s">
+        <v>38</v>
+      </c>
+      <c r="K203">
+        <v>2.25</v>
+      </c>
+      <c r="L203">
+        <v>3.4</v>
+      </c>
+      <c r="M203">
+        <v>2.9</v>
+      </c>
+      <c r="N203">
+        <v>2.05</v>
+      </c>
+      <c r="O203">
+        <v>3.4</v>
+      </c>
+      <c r="P203">
+        <v>3.3</v>
+      </c>
+      <c r="Q203">
+        <v>-0.25</v>
+      </c>
+      <c r="R203">
+        <v>1.8</v>
+      </c>
+      <c r="S203">
+        <v>2.05</v>
+      </c>
+      <c r="T203">
+        <v>2.75</v>
+      </c>
+      <c r="U203">
+        <v>1.85</v>
+      </c>
+      <c r="V203">
+        <v>2</v>
+      </c>
+      <c r="W203">
+        <v>0</v>
+      </c>
+      <c r="X203">
+        <v>0</v>
+      </c>
+      <c r="Y203">
+        <v>0</v>
+      </c>
+      <c r="Z203">
+        <v>0</v>
+      </c>
+      <c r="AA203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>6800816</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45346.45833333334</v>
+      </c>
+      <c r="F204" t="s">
+        <v>41</v>
+      </c>
+      <c r="G204" t="s">
+        <v>33</v>
+      </c>
+      <c r="K204">
+        <v>2.25</v>
+      </c>
+      <c r="L204">
+        <v>3.5</v>
+      </c>
+      <c r="M204">
+        <v>2.9</v>
+      </c>
+      <c r="N204">
+        <v>2.375</v>
+      </c>
+      <c r="O204">
+        <v>3.5</v>
+      </c>
+      <c r="P204">
+        <v>2.7</v>
+      </c>
+      <c r="Q204">
+        <v>0</v>
+      </c>
+      <c r="R204">
+        <v>1.8</v>
+      </c>
+      <c r="S204">
+        <v>2.05</v>
+      </c>
+      <c r="T204">
+        <v>2.75</v>
+      </c>
+      <c r="U204">
+        <v>1.975</v>
+      </c>
+      <c r="V204">
+        <v>1.875</v>
+      </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+      <c r="Y204">
+        <v>0</v>
+      </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AA204">
         <v>0</v>
       </c>
     </row>

--- a/Denmark Division 1/Denmark Division 1.xlsx
+++ b/Denmark Division 1/Denmark Division 1.xlsx
@@ -124,10 +124,10 @@
     <t>FC Fredericia</t>
   </si>
   <si>
-    <t>HB Kge</t>
+    <t>Fremad Amager</t>
   </si>
   <si>
-    <t>Fremad Amager</t>
+    <t>HB Kge</t>
   </si>
   <si>
     <t>Sonderjyske</t>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5128564</v>
+        <v>5128563</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L9">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="N9">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="O9">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P9">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="Q9">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S9">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X9">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5128563</v>
+        <v>5128564</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,73 +1343,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10">
+        <v>3.5</v>
+      </c>
+      <c r="L10">
+        <v>3.75</v>
+      </c>
+      <c r="M10">
+        <v>1.909</v>
+      </c>
+      <c r="N10">
+        <v>4.333</v>
+      </c>
+      <c r="O10">
+        <v>4.2</v>
+      </c>
+      <c r="P10">
+        <v>1.666</v>
+      </c>
+      <c r="Q10">
+        <v>0.75</v>
+      </c>
+      <c r="R10">
+        <v>1.975</v>
+      </c>
+      <c r="S10">
+        <v>1.875</v>
+      </c>
+      <c r="T10">
+        <v>2.75</v>
+      </c>
+      <c r="U10">
+        <v>1.85</v>
+      </c>
+      <c r="V10">
         <v>2</v>
       </c>
-      <c r="I10">
+      <c r="W10">
+        <v>-1</v>
+      </c>
+      <c r="X10">
+        <v>3.2</v>
+      </c>
+      <c r="Y10">
+        <v>-1</v>
+      </c>
+      <c r="Z10">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA10">
+        <v>-1</v>
+      </c>
+      <c r="AB10">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
         <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10">
-        <v>2.5</v>
-      </c>
-      <c r="L10">
-        <v>3.4</v>
-      </c>
-      <c r="M10">
-        <v>2.625</v>
-      </c>
-      <c r="N10">
-        <v>3.1</v>
-      </c>
-      <c r="O10">
-        <v>3.4</v>
-      </c>
-      <c r="P10">
-        <v>2.2</v>
-      </c>
-      <c r="Q10">
-        <v>0.25</v>
-      </c>
-      <c r="R10">
-        <v>1.9</v>
-      </c>
-      <c r="S10">
-        <v>1.95</v>
-      </c>
-      <c r="T10">
-        <v>2.5</v>
-      </c>
-      <c r="U10">
-        <v>1.95</v>
-      </c>
-      <c r="V10">
-        <v>1.9</v>
-      </c>
-      <c r="W10">
-        <v>2.1</v>
-      </c>
-      <c r="X10">
-        <v>-1</v>
-      </c>
-      <c r="Y10">
-        <v>-1</v>
-      </c>
-      <c r="Z10">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA10">
-        <v>-1</v>
-      </c>
-      <c r="AB10">
-        <v>0.95</v>
-      </c>
-      <c r="AC10">
-        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1788,7 +1788,7 @@
         <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -2055,7 +2055,7 @@
         <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2408,7 +2408,7 @@
         <v>44996.375</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
         <v>30</v>
@@ -2500,7 +2500,7 @@
         <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>4</v>
@@ -3031,7 +3031,7 @@
         <v>45003.375</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
         <v>29</v>
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5128571</v>
+        <v>5128572</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,10 +3209,10 @@
         <v>45003.375</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3224,61 +3224,61 @@
         <v>47</v>
       </c>
       <c r="K31">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M31">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O31">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P31">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q31">
+        <v>-0.75</v>
+      </c>
+      <c r="R31">
+        <v>1.9</v>
+      </c>
+      <c r="S31">
+        <v>1.95</v>
+      </c>
+      <c r="T31">
+        <v>3</v>
+      </c>
+      <c r="U31">
+        <v>2.05</v>
+      </c>
+      <c r="V31">
+        <v>1.8</v>
+      </c>
+      <c r="W31">
+        <v>0.7</v>
+      </c>
+      <c r="X31">
+        <v>-1</v>
+      </c>
+      <c r="Y31">
+        <v>-1</v>
+      </c>
+      <c r="Z31">
+        <v>0.45</v>
+      </c>
+      <c r="AA31">
         <v>-0.5</v>
       </c>
-      <c r="R31">
-        <v>2</v>
-      </c>
-      <c r="S31">
-        <v>1.85</v>
-      </c>
-      <c r="T31">
-        <v>2.5</v>
-      </c>
-      <c r="U31">
-        <v>2</v>
-      </c>
-      <c r="V31">
-        <v>1.85</v>
-      </c>
-      <c r="W31">
-        <v>1</v>
-      </c>
-      <c r="X31">
-        <v>-1</v>
-      </c>
-      <c r="Y31">
-        <v>-1</v>
-      </c>
-      <c r="Z31">
-        <v>1</v>
-      </c>
-      <c r="AA31">
-        <v>-1</v>
-      </c>
       <c r="AB31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5128572</v>
+        <v>5128571</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,10 +3298,10 @@
         <v>45003.375</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3313,43 +3313,43 @@
         <v>47</v>
       </c>
       <c r="K32">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L32">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M32">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N32">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O32">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q32">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S32">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T32">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W32">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3358,16 +3358,16 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC32">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3568,7 +3568,7 @@
         <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3832,7 +3832,7 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s">
         <v>34</v>
@@ -4010,7 +4010,7 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
         <v>35</v>
@@ -4102,7 +4102,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4722,7 +4722,7 @@
         <v>45032.375</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
         <v>34</v>
@@ -4814,7 +4814,7 @@
         <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H49">
         <v>6</v>
@@ -4992,7 +4992,7 @@
         <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5256,7 +5256,7 @@
         <v>45039.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
         <v>29</v>
@@ -5523,10 +5523,10 @@
         <v>45044.5625</v>
       </c>
       <c r="F57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57" t="s">
         <v>37</v>
-      </c>
-      <c r="G57" t="s">
-        <v>36</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -6057,7 +6057,7 @@
         <v>45051.5625</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
         <v>29</v>
@@ -6324,7 +6324,7 @@
         <v>45052.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
         <v>40</v>
@@ -6594,7 +6594,7 @@
         <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6428360</v>
+        <v>6428329</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,76 +6680,76 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H70">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K70">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L70">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M70">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="N70">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="O70">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P70">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="Q70">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R70">
+        <v>2.05</v>
+      </c>
+      <c r="S70">
+        <v>1.8</v>
+      </c>
+      <c r="T70">
+        <v>3.25</v>
+      </c>
+      <c r="U70">
         <v>1.975</v>
       </c>
-      <c r="S70">
+      <c r="V70">
         <v>1.875</v>
       </c>
-      <c r="T70">
-        <v>2.75</v>
-      </c>
-      <c r="U70">
-        <v>1.925</v>
-      </c>
-      <c r="V70">
-        <v>1.925</v>
-      </c>
       <c r="W70">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z70">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB70">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6428329</v>
+        <v>6428360</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,76 +6769,76 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K71">
+        <v>3.75</v>
+      </c>
+      <c r="L71">
+        <v>3.6</v>
+      </c>
+      <c r="M71">
+        <v>1.85</v>
+      </c>
+      <c r="N71">
         <v>3.8</v>
       </c>
-      <c r="L71">
-        <v>3.5</v>
-      </c>
-      <c r="M71">
-        <v>1.8</v>
-      </c>
-      <c r="N71">
-        <v>5.25</v>
-      </c>
       <c r="O71">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P71">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R71">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T71">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U71">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V71">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA71">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC71">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6858,7 +6858,7 @@
         <v>45059.33333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
         <v>35</v>
@@ -7128,7 +7128,7 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7395,7 +7395,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7659,7 +7659,7 @@
         <v>45072.5625</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
         <v>40</v>
@@ -7751,7 +7751,7 @@
         <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6428334</v>
+        <v>6428335</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,76 +7926,76 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J84" t="s">
         <v>45</v>
       </c>
       <c r="K84">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M84">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="N84">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P84">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="Q84">
         <v>0.5</v>
       </c>
       <c r="R84">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T84">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V84">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC84">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6428335</v>
+        <v>6428334</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>45</v>
       </c>
       <c r="K85">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L85">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M85">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="N85">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O85">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P85">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="Q85">
         <v>0.5</v>
       </c>
       <c r="R85">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S85">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T85">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6428367</v>
+        <v>6428368</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,76 +8193,76 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K87">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L87">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M87">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N87">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="O87">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P87">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R87">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S87">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U87">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V87">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X87">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA87">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6428368</v>
+        <v>6428367</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K88">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L88">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M88">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N88">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="O88">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P88">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="Q88">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S88">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T88">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W88">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB88">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6428337</v>
+        <v>6428339</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,73 +8371,73 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I89">
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K89">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="L89">
         <v>4</v>
       </c>
       <c r="M89">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N89">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O89">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P89">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q89">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R89">
+        <v>1.875</v>
+      </c>
+      <c r="S89">
         <v>1.975</v>
       </c>
-      <c r="S89">
-        <v>1.875</v>
-      </c>
       <c r="T89">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA89">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6428339</v>
+        <v>6428338</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,58 +8460,58 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
         <v>47</v>
       </c>
       <c r="K90">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M90">
         <v>5</v>
       </c>
       <c r="N90">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="O90">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P90">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="Q90">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R90">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S90">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U90">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W90">
-        <v>1.2</v>
+        <v>0.363</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8520,13 +8520,13 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB90">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8537,7 +8537,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6428338</v>
+        <v>6428337</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8549,73 +8549,73 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91">
         <v>3</v>
       </c>
-      <c r="I91">
+      <c r="J91" t="s">
+        <v>46</v>
+      </c>
+      <c r="K91">
+        <v>1.7</v>
+      </c>
+      <c r="L91">
+        <v>4</v>
+      </c>
+      <c r="M91">
+        <v>4.2</v>
+      </c>
+      <c r="N91">
+        <v>1.571</v>
+      </c>
+      <c r="O91">
+        <v>4.75</v>
+      </c>
+      <c r="P91">
+        <v>4.75</v>
+      </c>
+      <c r="Q91">
+        <v>-1</v>
+      </c>
+      <c r="R91">
+        <v>1.975</v>
+      </c>
+      <c r="S91">
+        <v>1.875</v>
+      </c>
+      <c r="T91">
+        <v>3.5</v>
+      </c>
+      <c r="U91">
         <v>2</v>
       </c>
-      <c r="J91" t="s">
-        <v>47</v>
-      </c>
-      <c r="K91">
-        <v>1.5</v>
-      </c>
-      <c r="L91">
-        <v>4.5</v>
-      </c>
-      <c r="M91">
-        <v>5</v>
-      </c>
-      <c r="N91">
-        <v>1.363</v>
-      </c>
-      <c r="O91">
-        <v>5.25</v>
-      </c>
-      <c r="P91">
-        <v>6.5</v>
-      </c>
-      <c r="Q91">
-        <v>-1.5</v>
-      </c>
-      <c r="R91">
-        <v>1.95</v>
-      </c>
-      <c r="S91">
-        <v>1.9</v>
-      </c>
-      <c r="T91">
+      <c r="V91">
+        <v>1.85</v>
+      </c>
+      <c r="W91">
+        <v>-1</v>
+      </c>
+      <c r="X91">
+        <v>-1</v>
+      </c>
+      <c r="Y91">
         <v>3.75</v>
       </c>
-      <c r="U91">
-        <v>1.9</v>
-      </c>
-      <c r="V91">
-        <v>1.95</v>
-      </c>
-      <c r="W91">
-        <v>0.363</v>
-      </c>
-      <c r="X91">
-        <v>-1</v>
-      </c>
-      <c r="Y91">
-        <v>-1</v>
-      </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB91">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8730,7 +8730,7 @@
         <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -9350,7 +9350,7 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
         <v>39</v>
@@ -9798,7 +9798,7 @@
         <v>44</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -10329,7 +10329,7 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G111" t="s">
         <v>41</v>
@@ -11219,7 +11219,7 @@
         <v>45158.33333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
         <v>34</v>
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6800831</v>
+        <v>6799262</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,34 +11308,34 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H122">
+        <v>2</v>
+      </c>
+      <c r="I122">
         <v>0</v>
       </c>
-      <c r="I122">
-        <v>1</v>
-      </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K122">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L122">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N122">
         <v>2.15</v>
       </c>
       <c r="O122">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P122">
         <v>3.1</v>
@@ -11344,40 +11344,40 @@
         <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S122">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T122">
         <v>3</v>
       </c>
       <c r="U122">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V122">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA122">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6799262</v>
+        <v>6800831</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,34 +11397,34 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K123">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M123">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="N123">
         <v>2.15</v>
       </c>
       <c r="O123">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P123">
         <v>3.1</v>
@@ -11433,40 +11433,40 @@
         <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S123">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T123">
         <v>3</v>
       </c>
       <c r="U123">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V123">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W123">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z123">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6799263</v>
+        <v>6799264</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,73 +11575,73 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I125">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K125">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L125">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M125">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N125">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="O125">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P125">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="Q125">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R125">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S125">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U125">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA125">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6799264</v>
+        <v>6799263</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,73 +11664,73 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G126" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>6</v>
+      </c>
+      <c r="J126" t="s">
+        <v>46</v>
+      </c>
+      <c r="K126">
+        <v>1.75</v>
+      </c>
+      <c r="L126">
+        <v>3.8</v>
+      </c>
+      <c r="M126">
         <v>4</v>
       </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-      <c r="J126" t="s">
-        <v>47</v>
-      </c>
-      <c r="K126">
-        <v>1.4</v>
-      </c>
-      <c r="L126">
-        <v>4.5</v>
-      </c>
-      <c r="M126">
-        <v>7</v>
-      </c>
       <c r="N126">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="O126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P126">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q126">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R126">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S126">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T126">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U126">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V126">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W126">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z126">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB126">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -12109,7 +12109,7 @@
         <v>45165.33333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
         <v>35</v>
@@ -12824,7 +12824,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -12910,7 +12910,7 @@
         <v>45183.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
         <v>42</v>
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6799273</v>
+        <v>6800827</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,10 +13088,10 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -13103,40 +13103,40 @@
         <v>46</v>
       </c>
       <c r="K142">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L142">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M142">
+        <v>2.9</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142">
+        <v>3.6</v>
+      </c>
+      <c r="P142">
+        <v>3.6</v>
+      </c>
+      <c r="Q142">
+        <v>-0.5</v>
+      </c>
+      <c r="R142">
+        <v>2</v>
+      </c>
+      <c r="S142">
+        <v>1.85</v>
+      </c>
+      <c r="T142">
         <v>2.75</v>
       </c>
-      <c r="N142">
-        <v>2.25</v>
-      </c>
-      <c r="O142">
-        <v>3.4</v>
-      </c>
-      <c r="P142">
-        <v>3.1</v>
-      </c>
-      <c r="Q142">
-        <v>-0.25</v>
-      </c>
-      <c r="R142">
-        <v>2.05</v>
-      </c>
-      <c r="S142">
-        <v>1.8</v>
-      </c>
-      <c r="T142">
-        <v>2.5</v>
-      </c>
       <c r="U142">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13145,19 +13145,19 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6800827</v>
+        <v>6799273</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,10 +13177,10 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G143" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13192,40 +13192,40 @@
         <v>46</v>
       </c>
       <c r="K143">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L143">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M143">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N143">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O143">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P143">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S143">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V143">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
         <v>-1</v>
@@ -13234,19 +13234,19 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6798555</v>
+        <v>6800826</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,10 +13444,10 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13459,40 +13459,40 @@
         <v>46</v>
       </c>
       <c r="K146">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="L146">
         <v>3.5</v>
       </c>
       <c r="M146">
-        <v>3.2</v>
+        <v>2.35</v>
       </c>
       <c r="N146">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="O146">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P146">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q146">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R146">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S146">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T146">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V146">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W146">
         <v>-1</v>
@@ -13501,19 +13501,19 @@
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB146">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6800826</v>
+        <v>6798872</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,76 +13533,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K147">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="L147">
+        <v>6</v>
+      </c>
+      <c r="M147">
+        <v>13</v>
+      </c>
+      <c r="N147">
+        <v>1.2</v>
+      </c>
+      <c r="O147">
+        <v>6.5</v>
+      </c>
+      <c r="P147">
+        <v>13</v>
+      </c>
+      <c r="Q147">
+        <v>-2</v>
+      </c>
+      <c r="R147">
+        <v>1.975</v>
+      </c>
+      <c r="S147">
+        <v>1.875</v>
+      </c>
+      <c r="T147">
         <v>3.5</v>
       </c>
-      <c r="M147">
-        <v>2.35</v>
-      </c>
-      <c r="N147">
-        <v>2.8</v>
-      </c>
-      <c r="O147">
-        <v>3.4</v>
-      </c>
-      <c r="P147">
-        <v>2.3</v>
-      </c>
-      <c r="Q147">
-        <v>0.25</v>
-      </c>
-      <c r="R147">
-        <v>1.8</v>
-      </c>
-      <c r="S147">
-        <v>2.05</v>
-      </c>
-      <c r="T147">
-        <v>2.5</v>
-      </c>
       <c r="U147">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V147">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA147">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB147">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6798872</v>
+        <v>6798555</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,76 +13622,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
         <v>2</v>
       </c>
-      <c r="I148">
+      <c r="J148" t="s">
+        <v>46</v>
+      </c>
+      <c r="K148">
+        <v>2.05</v>
+      </c>
+      <c r="L148">
+        <v>3.5</v>
+      </c>
+      <c r="M148">
+        <v>3.2</v>
+      </c>
+      <c r="N148">
+        <v>2.4</v>
+      </c>
+      <c r="O148">
+        <v>3.5</v>
+      </c>
+      <c r="P148">
+        <v>2.75</v>
+      </c>
+      <c r="Q148">
         <v>0</v>
       </c>
-      <c r="J148" t="s">
-        <v>47</v>
-      </c>
-      <c r="K148">
-        <v>1.2</v>
-      </c>
-      <c r="L148">
-        <v>6</v>
-      </c>
-      <c r="M148">
-        <v>13</v>
-      </c>
-      <c r="N148">
-        <v>1.2</v>
-      </c>
-      <c r="O148">
-        <v>6.5</v>
-      </c>
-      <c r="P148">
-        <v>13</v>
-      </c>
-      <c r="Q148">
-        <v>-2</v>
-      </c>
       <c r="R148">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S148">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T148">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U148">
+        <v>1.825</v>
+      </c>
+      <c r="V148">
         <v>2.025</v>
       </c>
-      <c r="V148">
-        <v>1.825</v>
-      </c>
       <c r="W148">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC148">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6798873</v>
+        <v>6799279</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,49 +13978,49 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G152" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K152">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="L152">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M152">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="N152">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="O152">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P152">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="Q152">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R152">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S152">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T152">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U152">
         <v>1.9</v>
@@ -14032,22 +14032,22 @@
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y152">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA152">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB152">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14055,7 +14055,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6799279</v>
+        <v>6798873</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14067,49 +14067,49 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G153" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J153" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K153">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="L153">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M153">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="N153">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="O153">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P153">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="Q153">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R153">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S153">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T153">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U153">
         <v>1.9</v>
@@ -14121,22 +14121,22 @@
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z153">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC153">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14245,7 +14245,7 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G155" t="s">
         <v>30</v>
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6798874</v>
+        <v>6800824</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,55 +14601,55 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G159" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J159" t="s">
         <v>46</v>
       </c>
       <c r="K159">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L159">
         <v>3.75</v>
       </c>
       <c r="M159">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="N159">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O159">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P159">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q159">
         <v>0.5</v>
       </c>
       <c r="R159">
+        <v>1.875</v>
+      </c>
+      <c r="S159">
         <v>1.975</v>
       </c>
-      <c r="S159">
-        <v>1.875</v>
-      </c>
       <c r="T159">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U159">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V159">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14658,19 +14658,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB159">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6800824</v>
+        <v>6798874</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,55 +14690,55 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G160" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J160" t="s">
         <v>46</v>
       </c>
       <c r="K160">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L160">
         <v>3.75</v>
       </c>
       <c r="M160">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="N160">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O160">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P160">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q160">
         <v>0.5</v>
       </c>
       <c r="R160">
+        <v>1.975</v>
+      </c>
+      <c r="S160">
         <v>1.875</v>
       </c>
-      <c r="S160">
+      <c r="T160">
+        <v>2.5</v>
+      </c>
+      <c r="U160">
         <v>1.975</v>
       </c>
-      <c r="T160">
-        <v>3</v>
-      </c>
-      <c r="U160">
-        <v>2</v>
-      </c>
       <c r="V160">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14747,19 +14747,19 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
+        <v>0.875</v>
+      </c>
+      <c r="AB160">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB160">
-        <v>0</v>
-      </c>
       <c r="AC160">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14782,7 +14782,7 @@
         <v>42</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H161">
         <v>3</v>
@@ -15212,7 +15212,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6799286</v>
+        <v>6799287</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15224,67 +15224,67 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G166" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H166">
         <v>1</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K166">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="L166">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M166">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="N166">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="O166">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P166">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q166">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R166">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S166">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T166">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U166">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V166">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X166">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.45</v>
+        <v>0.5125</v>
       </c>
       <c r="AA166">
         <v>-0.5</v>
@@ -15293,7 +15293,7 @@
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15301,7 +15301,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6799287</v>
+        <v>6799286</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15313,67 +15313,67 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H167">
         <v>1</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K167">
+        <v>3.5</v>
+      </c>
+      <c r="L167">
+        <v>3.6</v>
+      </c>
+      <c r="M167">
+        <v>1.909</v>
+      </c>
+      <c r="N167">
+        <v>3.1</v>
+      </c>
+      <c r="O167">
+        <v>3.6</v>
+      </c>
+      <c r="P167">
+        <v>2.2</v>
+      </c>
+      <c r="Q167">
+        <v>0.25</v>
+      </c>
+      <c r="R167">
+        <v>1.9</v>
+      </c>
+      <c r="S167">
+        <v>1.95</v>
+      </c>
+      <c r="T167">
+        <v>3</v>
+      </c>
+      <c r="U167">
+        <v>2</v>
+      </c>
+      <c r="V167">
         <v>1.85</v>
       </c>
-      <c r="L167">
-        <v>3.75</v>
-      </c>
-      <c r="M167">
-        <v>3.8</v>
-      </c>
-      <c r="N167">
-        <v>1.8</v>
-      </c>
-      <c r="O167">
-        <v>3.75</v>
-      </c>
-      <c r="P167">
-        <v>4.75</v>
-      </c>
-      <c r="Q167">
-        <v>-0.75</v>
-      </c>
-      <c r="R167">
-        <v>2.025</v>
-      </c>
-      <c r="S167">
-        <v>1.825</v>
-      </c>
-      <c r="T167">
-        <v>2.5</v>
-      </c>
-      <c r="U167">
-        <v>2.025</v>
-      </c>
-      <c r="V167">
-        <v>1.825</v>
-      </c>
       <c r="W167">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.5125</v>
+        <v>0.45</v>
       </c>
       <c r="AA167">
         <v>-0.5</v>
@@ -15382,7 +15382,7 @@
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15491,7 +15491,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G169" t="s">
         <v>33</v>
@@ -15583,7 +15583,7 @@
         <v>34</v>
       </c>
       <c r="G170" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H170">
         <v>2</v>
@@ -16114,7 +16114,7 @@
         <v>45233.625</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G176" t="s">
         <v>44</v>
@@ -16648,7 +16648,7 @@
         <v>45240.625</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G182" t="s">
         <v>38</v>
@@ -17541,7 +17541,7 @@
         <v>39</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17983,7 +17983,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G197" t="s">
         <v>43</v>
@@ -18060,7 +18060,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6799302</v>
+        <v>7554250</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18072,76 +18072,76 @@
         <v>45265.60416666666</v>
       </c>
       <c r="F198" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G198" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K198">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="L198">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M198">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N198">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O198">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P198">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q198">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R198">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S198">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T198">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V198">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z198">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB198">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18149,7 +18149,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7554250</v>
+        <v>6799302</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18161,76 +18161,76 @@
         <v>45265.60416666666</v>
       </c>
       <c r="F199" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G199" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K199">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L199">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M199">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N199">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O199">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P199">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q199">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R199">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S199">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T199">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V199">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y199">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA199">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC199">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18327,7 +18327,7 @@
         <v>30</v>
       </c>
       <c r="G201" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K201">
         <v>2.1</v>

--- a/Denmark Division 1/Denmark Division 1.xlsx
+++ b/Denmark Division 1/Denmark Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -109,19 +109,19 @@
     <t>FC Helsingor</t>
   </si>
   <si>
-    <t>Vejle</t>
+    <t>Hvidovre IF</t>
   </si>
   <si>
-    <t>Hvidovre IF</t>
+    <t>Vejle</t>
   </si>
   <si>
     <t>Naestved</t>
   </si>
   <si>
-    <t>Hobro IK</t>
+    <t>FC Fredericia</t>
   </si>
   <si>
-    <t>FC Fredericia</t>
+    <t>Hobro IK</t>
   </si>
   <si>
     <t>Fremad Amager</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC204"/>
+  <dimension ref="A1:AC205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5128562</v>
+        <v>5128521</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,10 +809,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -821,43 +821,43 @@
         <v>47</v>
       </c>
       <c r="K4">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M4">
         <v>7</v>
       </c>
       <c r="N4">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="O4">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q4">
         <v>-1.5</v>
       </c>
       <c r="R4">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T4">
         <v>3</v>
       </c>
       <c r="U4">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -866,13 +866,13 @@
         <v>-1</v>
       </c>
       <c r="Z4">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA4">
+        <v>-1</v>
+      </c>
+      <c r="AB4">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA4">
-        <v>-1</v>
-      </c>
-      <c r="AB4">
-        <v>1.05</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5128521</v>
+        <v>5128562</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,10 +898,10 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -910,43 +910,43 @@
         <v>47</v>
       </c>
       <c r="K5">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="L5">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M5">
         <v>7</v>
       </c>
       <c r="N5">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O5">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="P5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q5">
         <v>-1.5</v>
       </c>
       <c r="R5">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W5">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -955,13 +955,13 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5128520</v>
+        <v>5128299</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,73 +1076,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M7">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N7">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P7">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S7">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
+        <v>1.975</v>
+      </c>
+      <c r="V7">
         <v>1.875</v>
       </c>
-      <c r="V7">
-        <v>1.975</v>
-      </c>
       <c r="W7">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z7">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB7">
+        <v>-1</v>
+      </c>
+      <c r="AC7">
         <v>0.875</v>
-      </c>
-      <c r="AC7">
-        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5128299</v>
+        <v>5128520</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="L8">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="N8">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="O8">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P8">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q8">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
+        <v>2.05</v>
+      </c>
+      <c r="S8">
+        <v>1.8</v>
+      </c>
+      <c r="T8">
+        <v>2.25</v>
+      </c>
+      <c r="U8">
+        <v>1.875</v>
+      </c>
+      <c r="V8">
         <v>1.975</v>
       </c>
-      <c r="S8">
-        <v>1.875</v>
-      </c>
-      <c r="T8">
-        <v>2.75</v>
-      </c>
-      <c r="U8">
-        <v>1.975</v>
-      </c>
-      <c r="V8">
-        <v>1.875</v>
-      </c>
       <c r="W8">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA8">
+        <v>-1</v>
+      </c>
+      <c r="AB8">
         <v>0.875</v>
       </c>
-      <c r="AB8">
-        <v>-1</v>
-      </c>
       <c r="AC8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1343,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5128297</v>
+        <v>5128199</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,40 +1518,40 @@
         <v>44982.375</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="L12">
+        <v>3.7</v>
+      </c>
+      <c r="M12">
         <v>3.8</v>
       </c>
-      <c r="M12">
-        <v>1.7</v>
-      </c>
       <c r="N12">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="O12">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P12">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q12">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
         <v>1.925</v>
@@ -1560,19 +1560,19 @@
         <v>1.925</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X12">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
@@ -1584,10 +1584,10 @@
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC12">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5128199</v>
+        <v>5128297</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1607,40 +1607,40 @@
         <v>44982.375</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="L13">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="M13">
+        <v>1.7</v>
+      </c>
+      <c r="N13">
+        <v>3.6</v>
+      </c>
+      <c r="O13">
         <v>3.8</v>
       </c>
-      <c r="N13">
-        <v>2.2</v>
-      </c>
-      <c r="O13">
-        <v>3.5</v>
-      </c>
       <c r="P13">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R13">
         <v>1.925</v>
@@ -1649,19 +1649,19 @@
         <v>1.925</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V13">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W13">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y13">
         <v>-1</v>
@@ -1673,10 +1673,10 @@
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1785,7 +1785,7 @@
         <v>44988.60416666666</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
         <v>37</v>
@@ -1963,7 +1963,7 @@
         <v>44989.375</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -2141,7 +2141,7 @@
         <v>44990.41666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
         <v>40</v>
@@ -2230,7 +2230,7 @@
         <v>44990.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>39</v>
@@ -2586,10 +2586,10 @@
         <v>44997.375</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2764,10 +2764,10 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5128201</v>
+        <v>5128572</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,76 +2942,76 @@
         <v>45003.375</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>4.75</v>
+        <v>1.666</v>
       </c>
       <c r="L28">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M28">
-        <v>1.714</v>
+        <v>4.2</v>
       </c>
       <c r="N28">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P28">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="Q28">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S28">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U28">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V28">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA28">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5128294</v>
+        <v>5128527</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,76 +3031,76 @@
         <v>45003.375</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L29">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M29">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N29">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="O29">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P29">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R29">
+        <v>2.05</v>
+      </c>
+      <c r="S29">
         <v>1.8</v>
-      </c>
-      <c r="S29">
-        <v>2.05</v>
       </c>
       <c r="T29">
         <v>2.75</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA29">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5128527</v>
+        <v>5128294</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,76 +3120,76 @@
         <v>45003.375</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K30">
+        <v>2.1</v>
+      </c>
+      <c r="L30">
+        <v>3.5</v>
+      </c>
+      <c r="M30">
+        <v>3.2</v>
+      </c>
+      <c r="N30">
+        <v>2.375</v>
+      </c>
+      <c r="O30">
+        <v>3.6</v>
+      </c>
+      <c r="P30">
+        <v>2.7</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
         <v>1.8</v>
       </c>
-      <c r="L30">
-        <v>3.6</v>
-      </c>
-      <c r="M30">
-        <v>4</v>
-      </c>
-      <c r="N30">
-        <v>1.8</v>
-      </c>
-      <c r="O30">
-        <v>3.8</v>
-      </c>
-      <c r="P30">
-        <v>4</v>
-      </c>
-      <c r="Q30">
-        <v>-0.75</v>
-      </c>
-      <c r="R30">
+      <c r="S30">
         <v>2.05</v>
-      </c>
-      <c r="S30">
-        <v>1.8</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z30">
+        <v>-1</v>
+      </c>
+      <c r="AA30">
         <v>1.05</v>
       </c>
-      <c r="AA30">
-        <v>-1</v>
-      </c>
       <c r="AB30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5128572</v>
+        <v>5128571</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,10 +3209,10 @@
         <v>45003.375</v>
       </c>
       <c r="F31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
         <v>35</v>
-      </c>
-      <c r="G31" t="s">
-        <v>36</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3224,43 +3224,43 @@
         <v>47</v>
       </c>
       <c r="K31">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L31">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M31">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N31">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O31">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R31">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U31">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W31">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3269,16 +3269,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AA31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5128571</v>
+        <v>5128201</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,76 +3298,76 @@
         <v>45003.375</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>2</v>
       </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="L32">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
-        <v>3.6</v>
+        <v>1.714</v>
       </c>
       <c r="N32">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="O32">
         <v>3.5</v>
       </c>
       <c r="P32">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="Q32">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R32">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S32">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T32">
         <v>2.5</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V32">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3387,7 +3387,7 @@
         <v>45016.5625</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
         <v>40</v>
@@ -3654,7 +3654,7 @@
         <v>45017.4375</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
         <v>38</v>
@@ -3746,7 +3746,7 @@
         <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -3835,7 +3835,7 @@
         <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6428314</v>
+        <v>6428343</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,73 +3921,73 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
         <v>3</v>
       </c>
-      <c r="I39">
-        <v>2</v>
-      </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K39">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="L39">
         <v>3.6</v>
       </c>
       <c r="M39">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N39">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="O39">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P39">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T39">
         <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z39">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB39">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6428343</v>
+        <v>6428314</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,73 +4010,73 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K40">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="L40">
         <v>3.6</v>
       </c>
       <c r="M40">
+        <v>4</v>
+      </c>
+      <c r="N40">
+        <v>1.75</v>
+      </c>
+      <c r="O40">
+        <v>3.8</v>
+      </c>
+      <c r="P40">
+        <v>4.5</v>
+      </c>
+      <c r="Q40">
+        <v>-0.75</v>
+      </c>
+      <c r="R40">
         <v>1.95</v>
       </c>
-      <c r="N40">
-        <v>3.75</v>
-      </c>
-      <c r="O40">
-        <v>3.6</v>
-      </c>
-      <c r="P40">
-        <v>1.95</v>
-      </c>
-      <c r="Q40">
-        <v>0.5</v>
-      </c>
-      <c r="R40">
-        <v>1.875</v>
-      </c>
       <c r="S40">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T40">
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA40">
+        <v>-0.5</v>
+      </c>
+      <c r="AB40">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB40">
-        <v>0.925</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4188,7 +4188,7 @@
         <v>45026.33333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
@@ -4280,7 +4280,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4455,10 +4455,10 @@
         <v>45029.54166666666</v>
       </c>
       <c r="F45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" t="s">
         <v>31</v>
-      </c>
-      <c r="G45" t="s">
-        <v>32</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4811,7 +4811,7 @@
         <v>45032.375</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
         <v>37</v>
@@ -4903,7 +4903,7 @@
         <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5167,7 +5167,7 @@
         <v>45038.33333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
         <v>39</v>
@@ -5345,10 +5345,10 @@
         <v>45039.375</v>
       </c>
       <c r="F55" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" t="s">
         <v>34</v>
-      </c>
-      <c r="G55" t="s">
-        <v>35</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6428353</v>
+        <v>6428352</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,76 +5434,76 @@
         <v>45044.5625</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K56">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L56">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M56">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N56">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="O56">
         <v>3.8</v>
       </c>
       <c r="P56">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="Q56">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S56">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T56">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U56">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V56">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W56">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z56">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB56">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6428352</v>
+        <v>6428353</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,76 +5523,76 @@
         <v>45044.5625</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K57">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L57">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M57">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="N57">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="O57">
         <v>3.8</v>
       </c>
       <c r="P57">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="Q57">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S57">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T57">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V57">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA57">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC57">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5615,7 +5615,7 @@
         <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5879,7 +5879,7 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
         <v>30</v>
@@ -5968,10 +5968,10 @@
         <v>45051.54166666666</v>
       </c>
       <c r="F62" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" t="s">
         <v>32</v>
-      </c>
-      <c r="G62" t="s">
-        <v>31</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6428355</v>
+        <v>6428356</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45051.5625</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63" t="s">
+        <v>45</v>
+      </c>
+      <c r="K63">
+        <v>1.909</v>
+      </c>
+      <c r="L63">
+        <v>3.3</v>
+      </c>
+      <c r="M63">
+        <v>3.75</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+      <c r="O63">
+        <v>3.5</v>
+      </c>
+      <c r="P63">
+        <v>3.8</v>
+      </c>
+      <c r="Q63">
+        <v>-0.5</v>
+      </c>
+      <c r="R63">
+        <v>2.05</v>
+      </c>
+      <c r="S63">
+        <v>1.8</v>
+      </c>
+      <c r="T63">
+        <v>2.75</v>
+      </c>
+      <c r="U63">
+        <v>2</v>
+      </c>
+      <c r="V63">
+        <v>1.85</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
+        <v>2.5</v>
+      </c>
+      <c r="Y63">
+        <v>-1</v>
+      </c>
+      <c r="Z63">
+        <v>-1</v>
+      </c>
+      <c r="AA63">
+        <v>0.8</v>
+      </c>
+      <c r="AB63">
         <v>1</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63" t="s">
-        <v>47</v>
-      </c>
-      <c r="K63">
-        <v>2.625</v>
-      </c>
-      <c r="L63">
-        <v>3.2</v>
-      </c>
-      <c r="M63">
-        <v>2.4</v>
-      </c>
-      <c r="N63">
-        <v>3.5</v>
-      </c>
-      <c r="O63">
-        <v>3.2</v>
-      </c>
-      <c r="P63">
-        <v>2.15</v>
-      </c>
-      <c r="Q63">
-        <v>0.25</v>
-      </c>
-      <c r="R63">
-        <v>1.975</v>
-      </c>
-      <c r="S63">
-        <v>1.875</v>
-      </c>
-      <c r="T63">
-        <v>2.25</v>
-      </c>
-      <c r="U63">
-        <v>1.875</v>
-      </c>
-      <c r="V63">
-        <v>1.975</v>
-      </c>
-      <c r="W63">
-        <v>2.5</v>
-      </c>
-      <c r="X63">
-        <v>-1</v>
-      </c>
-      <c r="Y63">
-        <v>-1</v>
-      </c>
-      <c r="Z63">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA63">
-        <v>-1</v>
-      </c>
-      <c r="AB63">
-        <v>-1</v>
-      </c>
       <c r="AC63">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6428356</v>
+        <v>6428355</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,76 +6146,76 @@
         <v>45051.5625</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K64">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L64">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M64">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="N64">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O64">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P64">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q64">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R64">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S64">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V64">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X64">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA64">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6428328</v>
+        <v>6428357</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,76 +6235,76 @@
         <v>45052.33333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K65">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L65">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M65">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="N65">
-        <v>3.25</v>
+        <v>1.333</v>
       </c>
       <c r="O65">
+        <v>5.5</v>
+      </c>
+      <c r="P65">
+        <v>8.5</v>
+      </c>
+      <c r="Q65">
+        <v>-1.5</v>
+      </c>
+      <c r="R65">
+        <v>1.825</v>
+      </c>
+      <c r="S65">
+        <v>2.025</v>
+      </c>
+      <c r="T65">
         <v>3.5</v>
       </c>
-      <c r="P65">
-        <v>2.2</v>
-      </c>
-      <c r="Q65">
-        <v>0.25</v>
-      </c>
-      <c r="R65">
-        <v>1.925</v>
-      </c>
-      <c r="S65">
-        <v>1.925</v>
-      </c>
-      <c r="T65">
-        <v>3</v>
-      </c>
       <c r="U65">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V65">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA65">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC65">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6428357</v>
+        <v>6428328</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,76 +6324,76 @@
         <v>45052.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K66">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L66">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M66">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="N66">
-        <v>1.333</v>
+        <v>3.25</v>
       </c>
       <c r="O66">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P66">
-        <v>8.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q66">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R66">
+        <v>1.925</v>
+      </c>
+      <c r="S66">
+        <v>1.925</v>
+      </c>
+      <c r="T66">
+        <v>3</v>
+      </c>
+      <c r="U66">
+        <v>2.025</v>
+      </c>
+      <c r="V66">
         <v>1.825</v>
       </c>
-      <c r="S66">
-        <v>2.025</v>
-      </c>
-      <c r="T66">
-        <v>3.5</v>
-      </c>
-      <c r="U66">
-        <v>1.9</v>
-      </c>
-      <c r="V66">
-        <v>1.95</v>
-      </c>
       <c r="W66">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z66">
+        <v>-1</v>
+      </c>
+      <c r="AA66">
+        <v>0.925</v>
+      </c>
+      <c r="AB66">
+        <v>-1</v>
+      </c>
+      <c r="AC66">
         <v>0.825</v>
-      </c>
-      <c r="AA66">
-        <v>-1</v>
-      </c>
-      <c r="AB66">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC66">
-        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6505,7 +6505,7 @@
         <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6591,7 +6591,7 @@
         <v>45057.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
         <v>36</v>
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6428329</v>
+        <v>6428360</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,76 +6680,76 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K70">
+        <v>3.75</v>
+      </c>
+      <c r="L70">
+        <v>3.6</v>
+      </c>
+      <c r="M70">
+        <v>1.85</v>
+      </c>
+      <c r="N70">
         <v>3.8</v>
       </c>
-      <c r="L70">
-        <v>3.5</v>
-      </c>
-      <c r="M70">
-        <v>1.8</v>
-      </c>
-      <c r="N70">
-        <v>5.25</v>
-      </c>
       <c r="O70">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P70">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="Q70">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R70">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S70">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T70">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V70">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA70">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC70">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6428360</v>
+        <v>6428329</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,76 +6769,76 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H71">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K71">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L71">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M71">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="N71">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="O71">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P71">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="Q71">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R71">
+        <v>2.05</v>
+      </c>
+      <c r="S71">
+        <v>1.8</v>
+      </c>
+      <c r="T71">
+        <v>3.25</v>
+      </c>
+      <c r="U71">
         <v>1.975</v>
       </c>
-      <c r="S71">
+      <c r="V71">
         <v>1.875</v>
       </c>
-      <c r="T71">
-        <v>2.75</v>
-      </c>
-      <c r="U71">
-        <v>1.925</v>
-      </c>
-      <c r="V71">
-        <v>1.925</v>
-      </c>
       <c r="W71">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z71">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB71">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6861,7 +6861,7 @@
         <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -7036,7 +7036,7 @@
         <v>45064.375</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7217,7 +7217,7 @@
         <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7392,7 +7392,7 @@
         <v>45067.375</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
         <v>36</v>
@@ -7481,7 +7481,7 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
         <v>33</v>
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6428365</v>
+        <v>6428364</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,58 +7570,58 @@
         <v>45072.5625</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H80">
         <v>4</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J80" t="s">
         <v>47</v>
       </c>
       <c r="K80">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L80">
+        <v>4.2</v>
+      </c>
+      <c r="M80">
         <v>3.6</v>
       </c>
-      <c r="M80">
-        <v>3.25</v>
-      </c>
       <c r="N80">
-        <v>2.05</v>
+        <v>1.45</v>
       </c>
       <c r="O80">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P80">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R80">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S80">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T80">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U80">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W80">
-        <v>1.05</v>
+        <v>0.45</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7630,13 +7630,13 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB80">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6428364</v>
+        <v>6428366</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,76 +7659,76 @@
         <v>45072.5625</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81" t="s">
+        <v>46</v>
+      </c>
+      <c r="K81">
+        <v>2.375</v>
+      </c>
+      <c r="L81">
+        <v>3.5</v>
+      </c>
+      <c r="M81">
+        <v>2.75</v>
+      </c>
+      <c r="N81">
+        <v>2.375</v>
+      </c>
+      <c r="O81">
+        <v>3.75</v>
+      </c>
+      <c r="P81">
+        <v>2.7</v>
+      </c>
+      <c r="Q81">
+        <v>-0.25</v>
+      </c>
+      <c r="R81">
+        <v>2.1</v>
+      </c>
+      <c r="S81">
+        <v>1.775</v>
+      </c>
+      <c r="T81">
         <v>3</v>
       </c>
-      <c r="J81" t="s">
-        <v>47</v>
-      </c>
-      <c r="K81">
-        <v>1.727</v>
-      </c>
-      <c r="L81">
-        <v>4.2</v>
-      </c>
-      <c r="M81">
-        <v>3.6</v>
-      </c>
-      <c r="N81">
-        <v>1.45</v>
-      </c>
-      <c r="O81">
-        <v>5.25</v>
-      </c>
-      <c r="P81">
-        <v>5.25</v>
-      </c>
-      <c r="Q81">
-        <v>-1.25</v>
-      </c>
-      <c r="R81">
+      <c r="U81">
         <v>1.95</v>
       </c>
-      <c r="S81">
+      <c r="V81">
         <v>1.9</v>
       </c>
-      <c r="T81">
-        <v>3.5</v>
-      </c>
-      <c r="U81">
-        <v>1.9</v>
-      </c>
-      <c r="V81">
-        <v>1.95</v>
-      </c>
       <c r="W81">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB81">
+        <v>-1</v>
+      </c>
+      <c r="AC81">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC81">
-        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6428366</v>
+        <v>6428365</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7751,73 +7751,73 @@
         <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82" t="s">
+        <v>47</v>
+      </c>
+      <c r="K82">
         <v>2</v>
       </c>
-      <c r="J82" t="s">
-        <v>46</v>
-      </c>
-      <c r="K82">
-        <v>2.375</v>
-      </c>
       <c r="L82">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M82">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N82">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O82">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P82">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q82">
         <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S82">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T82">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V82">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA82">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC82">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7840,7 +7840,7 @@
         <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -8018,7 +8018,7 @@
         <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6428369</v>
+        <v>6428368</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,73 +8104,73 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86" t="s">
+        <v>47</v>
+      </c>
+      <c r="K86">
+        <v>1.571</v>
+      </c>
+      <c r="L86">
+        <v>4.333</v>
+      </c>
+      <c r="M86">
+        <v>4.333</v>
+      </c>
+      <c r="N86">
+        <v>1.45</v>
+      </c>
+      <c r="O86">
         <v>5</v>
       </c>
-      <c r="J86" t="s">
-        <v>46</v>
-      </c>
-      <c r="K86">
-        <v>4.2</v>
-      </c>
-      <c r="L86">
-        <v>4.2</v>
-      </c>
-      <c r="M86">
-        <v>1.65</v>
-      </c>
-      <c r="N86">
+      <c r="P86">
         <v>6</v>
       </c>
-      <c r="O86">
-        <v>5.75</v>
-      </c>
-      <c r="P86">
-        <v>1.444</v>
-      </c>
       <c r="Q86">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R86">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S86">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T86">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V86">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA86">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6428368</v>
+        <v>6428369</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,73 +8193,73 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>5</v>
+      </c>
+      <c r="J87" t="s">
+        <v>46</v>
+      </c>
+      <c r="K87">
+        <v>4.2</v>
+      </c>
+      <c r="L87">
+        <v>4.2</v>
+      </c>
+      <c r="M87">
+        <v>1.65</v>
+      </c>
+      <c r="N87">
+        <v>6</v>
+      </c>
+      <c r="O87">
+        <v>5.75</v>
+      </c>
+      <c r="P87">
+        <v>1.444</v>
+      </c>
+      <c r="Q87">
+        <v>1.5</v>
+      </c>
+      <c r="R87">
+        <v>1.825</v>
+      </c>
+      <c r="S87">
+        <v>2.025</v>
+      </c>
+      <c r="T87">
         <v>4</v>
       </c>
-      <c r="I87">
-        <v>2</v>
-      </c>
-      <c r="J87" t="s">
-        <v>47</v>
-      </c>
-      <c r="K87">
-        <v>1.571</v>
-      </c>
-      <c r="L87">
-        <v>4.333</v>
-      </c>
-      <c r="M87">
-        <v>4.333</v>
-      </c>
-      <c r="N87">
-        <v>1.45</v>
-      </c>
-      <c r="O87">
-        <v>5</v>
-      </c>
-      <c r="P87">
-        <v>6</v>
-      </c>
-      <c r="Q87">
-        <v>-1.25</v>
-      </c>
-      <c r="R87">
-        <v>1.925</v>
-      </c>
-      <c r="S87">
-        <v>1.925</v>
-      </c>
-      <c r="T87">
-        <v>3.5</v>
-      </c>
       <c r="U87">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V87">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W87">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z87">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB87">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8285,7 +8285,7 @@
         <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6428339</v>
+        <v>6428337</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8374,70 +8374,70 @@
         <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I89">
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K89">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="L89">
         <v>4</v>
       </c>
       <c r="M89">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N89">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="O89">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P89">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q89">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R89">
+        <v>1.975</v>
+      </c>
+      <c r="S89">
         <v>1.875</v>
       </c>
-      <c r="S89">
-        <v>1.975</v>
-      </c>
       <c r="T89">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U89">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V89">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W89">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z89">
+        <v>-1</v>
+      </c>
+      <c r="AA89">
         <v>0.875</v>
       </c>
-      <c r="AA89">
-        <v>-1</v>
-      </c>
       <c r="AB89">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8537,7 +8537,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6428337</v>
+        <v>6428339</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8552,70 +8552,70 @@
         <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I91">
         <v>3</v>
       </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K91">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="L91">
         <v>4</v>
       </c>
       <c r="M91">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N91">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O91">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P91">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q91">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R91">
+        <v>1.875</v>
+      </c>
+      <c r="S91">
         <v>1.975</v>
       </c>
-      <c r="S91">
-        <v>1.875</v>
-      </c>
       <c r="T91">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U91">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V91">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA91">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8994,10 +8994,10 @@
         <v>45130.375</v>
       </c>
       <c r="F96" t="s">
+        <v>34</v>
+      </c>
+      <c r="G96" t="s">
         <v>35</v>
-      </c>
-      <c r="G96" t="s">
-        <v>34</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
         <v>33</v>
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6799251</v>
+        <v>6799249</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,40 +9261,40 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H99">
+        <v>3</v>
+      </c>
+      <c r="I99">
         <v>1</v>
       </c>
-      <c r="I99">
-        <v>3</v>
-      </c>
       <c r="J99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K99">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="L99">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M99">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N99">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="O99">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P99">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q99">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
         <v>1.875</v>
@@ -9306,28 +9306,28 @@
         <v>3</v>
       </c>
       <c r="U99">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA99">
+        <v>-1</v>
+      </c>
+      <c r="AB99">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB99">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6799249</v>
+        <v>6799251</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,40 +9350,40 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
         <v>3</v>
       </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K100">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M100">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="N100">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="O100">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P100">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
         <v>1.875</v>
@@ -9395,28 +9395,28 @@
         <v>3</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V100">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W100">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z100">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB100">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6799253</v>
+        <v>6799252</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,76 +9706,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104" t="s">
+        <v>47</v>
+      </c>
+      <c r="K104">
+        <v>1.7</v>
+      </c>
+      <c r="L104">
+        <v>3.6</v>
+      </c>
+      <c r="M104">
+        <v>4.75</v>
+      </c>
+      <c r="N104">
+        <v>1.727</v>
+      </c>
+      <c r="O104">
+        <v>4</v>
+      </c>
+      <c r="P104">
+        <v>4</v>
+      </c>
+      <c r="Q104">
+        <v>-0.75</v>
+      </c>
+      <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
+        <v>1.85</v>
+      </c>
+      <c r="T104">
+        <v>3</v>
+      </c>
+      <c r="U104">
+        <v>1.95</v>
+      </c>
+      <c r="V104">
+        <v>1.9</v>
+      </c>
+      <c r="W104">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X104">
+        <v>-1</v>
+      </c>
+      <c r="Y104">
+        <v>-1</v>
+      </c>
+      <c r="Z104">
         <v>1</v>
       </c>
-      <c r="J104" t="s">
-        <v>46</v>
-      </c>
-      <c r="K104">
-        <v>2.6</v>
-      </c>
-      <c r="L104">
-        <v>3.5</v>
-      </c>
-      <c r="M104">
-        <v>2.5</v>
-      </c>
-      <c r="N104">
-        <v>3</v>
-      </c>
-      <c r="O104">
-        <v>3.6</v>
-      </c>
-      <c r="P104">
-        <v>2.25</v>
-      </c>
-      <c r="Q104">
-        <v>0.25</v>
-      </c>
-      <c r="R104">
-        <v>1.925</v>
-      </c>
-      <c r="S104">
-        <v>1.925</v>
-      </c>
-      <c r="T104">
-        <v>2.5</v>
-      </c>
-      <c r="U104">
-        <v>1.825</v>
-      </c>
-      <c r="V104">
-        <v>2.025</v>
-      </c>
-      <c r="W104">
-        <v>-1</v>
-      </c>
-      <c r="X104">
-        <v>-1</v>
-      </c>
-      <c r="Y104">
-        <v>1.25</v>
-      </c>
-      <c r="Z104">
-        <v>-1</v>
-      </c>
       <c r="AA104">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6799252</v>
+        <v>6799253</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,76 +9795,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K105">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="L105">
+        <v>3.5</v>
+      </c>
+      <c r="M105">
+        <v>2.5</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105">
         <v>3.6</v>
       </c>
-      <c r="M105">
-        <v>4.75</v>
-      </c>
-      <c r="N105">
-        <v>1.727</v>
-      </c>
-      <c r="O105">
-        <v>4</v>
-      </c>
       <c r="P105">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T105">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W105">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z105">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10154,7 +10154,7 @@
         <v>43</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H109">
         <v>4</v>
@@ -10240,7 +10240,7 @@
         <v>45149.5625</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
         <v>29</v>
@@ -10685,7 +10685,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
         <v>39</v>
@@ -10955,7 +10955,7 @@
         <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -11222,7 +11222,7 @@
         <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6799262</v>
+        <v>6800831</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,34 +11308,34 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K122">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L122">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M122">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="N122">
         <v>2.15</v>
       </c>
       <c r="O122">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P122">
         <v>3.1</v>
@@ -11344,40 +11344,40 @@
         <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T122">
         <v>3</v>
       </c>
       <c r="U122">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V122">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W122">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z122">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB122">
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6800831</v>
+        <v>6799262</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,34 +11397,34 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G123" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L123">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N123">
         <v>2.15</v>
       </c>
       <c r="O123">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P123">
         <v>3.1</v>
@@ -11433,40 +11433,40 @@
         <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S123">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T123">
         <v>3</v>
       </c>
       <c r="U123">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V123">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA123">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6799264</v>
+        <v>6799263</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,73 +11575,73 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>6</v>
+      </c>
+      <c r="J125" t="s">
+        <v>46</v>
+      </c>
+      <c r="K125">
+        <v>1.75</v>
+      </c>
+      <c r="L125">
+        <v>3.8</v>
+      </c>
+      <c r="M125">
         <v>4</v>
       </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-      <c r="J125" t="s">
-        <v>47</v>
-      </c>
-      <c r="K125">
-        <v>1.4</v>
-      </c>
-      <c r="L125">
-        <v>4.5</v>
-      </c>
-      <c r="M125">
-        <v>7</v>
-      </c>
       <c r="N125">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="O125">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P125">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q125">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R125">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S125">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T125">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U125">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V125">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z125">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB125">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6799263</v>
+        <v>6799264</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,73 +11664,73 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I126">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K126">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L126">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M126">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N126">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="O126">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P126">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="Q126">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R126">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S126">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T126">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U126">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V126">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA126">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11753,7 +11753,7 @@
         <v>45162.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
         <v>43</v>
@@ -12112,7 +12112,7 @@
         <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -12287,7 +12287,7 @@
         <v>45166.5625</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
         <v>38</v>
@@ -12468,7 +12468,7 @@
         <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12646,7 +12646,7 @@
         <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12987,7 +12987,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6798871</v>
+        <v>6800827</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12999,76 +12999,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K141">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L141">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M141">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N141">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="O141">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P141">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S141">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T141">
         <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V141">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6800827</v>
+        <v>6799273</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,10 +13088,10 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -13103,40 +13103,40 @@
         <v>46</v>
       </c>
       <c r="K142">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L142">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M142">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N142">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O142">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S142">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13145,19 +13145,19 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6799273</v>
+        <v>6798871</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,76 +13177,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G143" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K143">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L143">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M143">
+        <v>2.5</v>
+      </c>
+      <c r="N143">
+        <v>2.55</v>
+      </c>
+      <c r="O143">
+        <v>3.5</v>
+      </c>
+      <c r="P143">
+        <v>2.625</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>1.825</v>
+      </c>
+      <c r="S143">
+        <v>2.025</v>
+      </c>
+      <c r="T143">
         <v>2.75</v>
       </c>
-      <c r="N143">
-        <v>2.25</v>
-      </c>
-      <c r="O143">
-        <v>3.4</v>
-      </c>
-      <c r="P143">
-        <v>3.1</v>
-      </c>
-      <c r="Q143">
-        <v>-0.25</v>
-      </c>
-      <c r="R143">
-        <v>2.05</v>
-      </c>
-      <c r="S143">
-        <v>1.8</v>
-      </c>
-      <c r="T143">
+      <c r="U143">
+        <v>1.9</v>
+      </c>
+      <c r="V143">
+        <v>1.95</v>
+      </c>
+      <c r="W143">
+        <v>-1</v>
+      </c>
+      <c r="X143">
         <v>2.5</v>
       </c>
-      <c r="U143">
-        <v>1.95</v>
-      </c>
-      <c r="V143">
-        <v>1.9</v>
-      </c>
-      <c r="W143">
-        <v>-1</v>
-      </c>
-      <c r="X143">
-        <v>-1</v>
-      </c>
       <c r="Y143">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA143">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13266,7 +13266,7 @@
         <v>45186.375</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G144" t="s">
         <v>30</v>
@@ -13447,7 +13447,7 @@
         <v>41</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6798872</v>
+        <v>6798555</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,76 +13533,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G147" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
         <v>2</v>
       </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K147">
-        <v>1.2</v>
+        <v>2.05</v>
       </c>
       <c r="L147">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M147">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="N147">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="O147">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P147">
-        <v>13</v>
+        <v>2.75</v>
       </c>
       <c r="Q147">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R147">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S147">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T147">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U147">
+        <v>1.825</v>
+      </c>
+      <c r="V147">
         <v>2.025</v>
       </c>
-      <c r="V147">
-        <v>1.825</v>
-      </c>
       <c r="W147">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC147">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6798555</v>
+        <v>6798872</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,76 +13622,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K148">
-        <v>2.05</v>
+        <v>1.2</v>
       </c>
       <c r="L148">
+        <v>6</v>
+      </c>
+      <c r="M148">
+        <v>13</v>
+      </c>
+      <c r="N148">
+        <v>1.2</v>
+      </c>
+      <c r="O148">
+        <v>6.5</v>
+      </c>
+      <c r="P148">
+        <v>13</v>
+      </c>
+      <c r="Q148">
+        <v>-2</v>
+      </c>
+      <c r="R148">
+        <v>1.975</v>
+      </c>
+      <c r="S148">
+        <v>1.875</v>
+      </c>
+      <c r="T148">
         <v>3.5</v>
       </c>
-      <c r="M148">
-        <v>3.2</v>
-      </c>
-      <c r="N148">
-        <v>2.4</v>
-      </c>
-      <c r="O148">
-        <v>3.5</v>
-      </c>
-      <c r="P148">
-        <v>2.75</v>
-      </c>
-      <c r="Q148">
-        <v>0</v>
-      </c>
-      <c r="R148">
+      <c r="U148">
+        <v>2.025</v>
+      </c>
+      <c r="V148">
         <v>1.825</v>
       </c>
-      <c r="S148">
-        <v>2.025</v>
-      </c>
-      <c r="T148">
-        <v>2.75</v>
-      </c>
-      <c r="U148">
-        <v>1.825</v>
-      </c>
-      <c r="V148">
-        <v>2.025</v>
-      </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA148">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB148">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14334,7 +14334,7 @@
         <v>45200.375</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G156" t="s">
         <v>33</v>
@@ -14423,7 +14423,7 @@
         <v>45200.5</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
         <v>42</v>
@@ -14512,7 +14512,7 @@
         <v>45205.5625</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G158" t="s">
         <v>38</v>
@@ -14871,7 +14871,7 @@
         <v>33</v>
       </c>
       <c r="G162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6798558</v>
+        <v>6799286</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,76 +15135,76 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G165" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H165">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K165">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="L165">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M165">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N165">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O165">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P165">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q165">
+        <v>0.25</v>
+      </c>
+      <c r="R165">
+        <v>1.9</v>
+      </c>
+      <c r="S165">
+        <v>1.95</v>
+      </c>
+      <c r="T165">
+        <v>3</v>
+      </c>
+      <c r="U165">
+        <v>2</v>
+      </c>
+      <c r="V165">
+        <v>1.85</v>
+      </c>
+      <c r="W165">
+        <v>-1</v>
+      </c>
+      <c r="X165">
+        <v>2.6</v>
+      </c>
+      <c r="Y165">
+        <v>-1</v>
+      </c>
+      <c r="Z165">
+        <v>0.45</v>
+      </c>
+      <c r="AA165">
         <v>-0.5</v>
       </c>
-      <c r="R165">
-        <v>1.925</v>
-      </c>
-      <c r="S165">
-        <v>1.925</v>
-      </c>
-      <c r="T165">
-        <v>2.75</v>
-      </c>
-      <c r="U165">
-        <v>1.9</v>
-      </c>
-      <c r="V165">
-        <v>1.95</v>
-      </c>
-      <c r="W165">
-        <v>0.909</v>
-      </c>
-      <c r="X165">
-        <v>-1</v>
-      </c>
-      <c r="Y165">
-        <v>-1</v>
-      </c>
-      <c r="Z165">
-        <v>0.925</v>
-      </c>
-      <c r="AA165">
-        <v>-1</v>
-      </c>
       <c r="AB165">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15224,7 +15224,7 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G166" t="s">
         <v>30</v>
@@ -15301,7 +15301,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6799286</v>
+        <v>6798558</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15313,76 +15313,76 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G167" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K167">
-        <v>3.5</v>
+        <v>1.65</v>
       </c>
       <c r="L167">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M167">
+        <v>4.333</v>
+      </c>
+      <c r="N167">
         <v>1.909</v>
       </c>
-      <c r="N167">
-        <v>3.1</v>
-      </c>
       <c r="O167">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P167">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q167">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
+        <v>1.925</v>
+      </c>
+      <c r="S167">
+        <v>1.925</v>
+      </c>
+      <c r="T167">
+        <v>2.75</v>
+      </c>
+      <c r="U167">
         <v>1.9</v>
       </c>
-      <c r="S167">
+      <c r="V167">
         <v>1.95</v>
       </c>
-      <c r="T167">
-        <v>3</v>
-      </c>
-      <c r="U167">
-        <v>2</v>
-      </c>
-      <c r="V167">
-        <v>1.85</v>
-      </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X167">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AA167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC167">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15568,7 +15568,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6799288</v>
+        <v>6799291</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15580,76 +15580,76 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G170" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K170">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L170">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M170">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="N170">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O170">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P170">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q170">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S170">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T170">
         <v>2.75</v>
       </c>
       <c r="U170">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V170">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W170">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z170">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB170">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC170">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6799291</v>
+        <v>6799288</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,76 +15669,76 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G171" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H171">
+        <v>2</v>
+      </c>
+      <c r="I171">
         <v>1</v>
       </c>
-      <c r="I171">
-        <v>3</v>
-      </c>
       <c r="J171" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K171">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L171">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M171">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="N171">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O171">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P171">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R171">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S171">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T171">
         <v>2.75</v>
       </c>
       <c r="U171">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V171">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA171">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB171">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15939,7 +15939,7 @@
         <v>30</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H174">
         <v>3</v>
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6799293</v>
+        <v>6799294</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,76 +16114,76 @@
         <v>45233.625</v>
       </c>
       <c r="F176" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G176" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H176">
         <v>1</v>
       </c>
       <c r="I176">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K176">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="L176">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M176">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="N176">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="O176">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P176">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="Q176">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R176">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S176">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T176">
         <v>2.75</v>
       </c>
       <c r="U176">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V176">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA176">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB176">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16191,7 +16191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6799294</v>
+        <v>6799293</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16203,76 +16203,76 @@
         <v>45233.625</v>
       </c>
       <c r="F177" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H177">
         <v>1</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J177" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K177">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="L177">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M177">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="N177">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="O177">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q177">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S177">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V177">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W177">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC177">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16381,7 +16381,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G179" t="s">
         <v>42</v>
@@ -16636,7 +16636,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6799295</v>
+        <v>6799296</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16648,76 +16648,76 @@
         <v>45240.625</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G182" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H182">
         <v>1</v>
       </c>
       <c r="I182">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K182">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="L182">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M182">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="N182">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="O182">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P182">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q182">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R182">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S182">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T182">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U182">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V182">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y182">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA182">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB182">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16814,7 +16814,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6799296</v>
+        <v>6799295</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16826,76 +16826,76 @@
         <v>45240.625</v>
       </c>
       <c r="F184" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H184">
         <v>1</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J184" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K184">
-        <v>2.75</v>
+        <v>7.5</v>
       </c>
       <c r="L184">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M184">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="N184">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="O184">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P184">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q184">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R184">
+        <v>1.925</v>
+      </c>
+      <c r="S184">
+        <v>1.925</v>
+      </c>
+      <c r="T184">
+        <v>3.25</v>
+      </c>
+      <c r="U184">
+        <v>1.85</v>
+      </c>
+      <c r="V184">
         <v>2</v>
       </c>
-      <c r="S184">
-        <v>1.85</v>
-      </c>
-      <c r="T184">
-        <v>3</v>
-      </c>
-      <c r="U184">
-        <v>1.95</v>
-      </c>
-      <c r="V184">
-        <v>1.9</v>
-      </c>
       <c r="W184">
         <v>-1</v>
       </c>
       <c r="X184">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC184">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17093,7 +17093,7 @@
         <v>45243.625</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G187" t="s">
         <v>29</v>
@@ -17182,7 +17182,7 @@
         <v>45253.625</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
         <v>41</v>
@@ -17630,7 +17630,7 @@
         <v>43</v>
       </c>
       <c r="G193" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -17716,7 +17716,7 @@
         <v>45261.60416666666</v>
       </c>
       <c r="F194" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G194" t="s">
         <v>39</v>
@@ -17808,7 +17808,7 @@
         <v>44</v>
       </c>
       <c r="G195" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -18265,7 +18265,7 @@
         <v>4.333</v>
       </c>
       <c r="N200">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O200">
         <v>3.4</v>
@@ -18274,13 +18274,13 @@
         <v>3.5</v>
       </c>
       <c r="Q200">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R200">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S200">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T200">
         <v>2.5</v>
@@ -18339,7 +18339,7 @@
         <v>2.9</v>
       </c>
       <c r="N201">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O201">
         <v>3.75</v>
@@ -18351,10 +18351,10 @@
         <v>-0.25</v>
       </c>
       <c r="R201">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S201">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T201">
         <v>2.75</v>
@@ -18487,7 +18487,7 @@
         <v>2.9</v>
       </c>
       <c r="N203">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O203">
         <v>3.4</v>
@@ -18561,13 +18561,13 @@
         <v>2.9</v>
       </c>
       <c r="N204">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O204">
         <v>3.5</v>
       </c>
       <c r="P204">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q204">
         <v>0</v>
@@ -18600,6 +18600,80 @@
         <v>0</v>
       </c>
       <c r="AA204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>6799306</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>28</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45347.45833333334</v>
+      </c>
+      <c r="F205" t="s">
+        <v>35</v>
+      </c>
+      <c r="G205" t="s">
+        <v>34</v>
+      </c>
+      <c r="K205">
+        <v>2.4</v>
+      </c>
+      <c r="L205">
+        <v>3.25</v>
+      </c>
+      <c r="M205">
+        <v>2.8</v>
+      </c>
+      <c r="N205">
+        <v>2.3</v>
+      </c>
+      <c r="O205">
+        <v>3.25</v>
+      </c>
+      <c r="P205">
+        <v>3</v>
+      </c>
+      <c r="Q205">
+        <v>-0.25</v>
+      </c>
+      <c r="R205">
+        <v>2.05</v>
+      </c>
+      <c r="S205">
+        <v>1.8</v>
+      </c>
+      <c r="T205">
+        <v>2.5</v>
+      </c>
+      <c r="U205">
+        <v>1.95</v>
+      </c>
+      <c r="V205">
+        <v>1.9</v>
+      </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
+      <c r="Y205">
+        <v>0</v>
+      </c>
+      <c r="Z205">
+        <v>0</v>
+      </c>
+      <c r="AA205">
         <v>0</v>
       </c>
     </row>

--- a/Denmark Division 1/Denmark Division 1.xlsx
+++ b/Denmark Division 1/Denmark Division 1.xlsx
@@ -118,16 +118,16 @@
     <t>Naestved</t>
   </si>
   <si>
+    <t>Hobro IK</t>
+  </si>
+  <si>
     <t>FC Fredericia</t>
   </si>
   <si>
-    <t>Hobro IK</t>
+    <t>HB Kge</t>
   </si>
   <si>
     <t>Fremad Amager</t>
-  </si>
-  <si>
-    <t>HB Kge</t>
   </si>
   <si>
     <t>Sonderjyske</t>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5128299</v>
+        <v>5128520</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,73 +1076,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="L7">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M7">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="N7">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q7">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
+        <v>2.05</v>
+      </c>
+      <c r="S7">
+        <v>1.8</v>
+      </c>
+      <c r="T7">
+        <v>2.25</v>
+      </c>
+      <c r="U7">
+        <v>1.875</v>
+      </c>
+      <c r="V7">
         <v>1.975</v>
       </c>
-      <c r="S7">
-        <v>1.875</v>
-      </c>
-      <c r="T7">
-        <v>2.75</v>
-      </c>
-      <c r="U7">
-        <v>1.975</v>
-      </c>
-      <c r="V7">
-        <v>1.875</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
         <v>0.875</v>
       </c>
-      <c r="AB7">
-        <v>-1</v>
-      </c>
       <c r="AC7">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5128520</v>
+        <v>5128299</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="L8">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M8">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N8">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="O8">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P8">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q8">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T8">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
+        <v>1.975</v>
+      </c>
+      <c r="V8">
         <v>1.875</v>
       </c>
-      <c r="V8">
-        <v>1.975</v>
-      </c>
       <c r="W8">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z8">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB8">
+        <v>-1</v>
+      </c>
+      <c r="AC8">
         <v>0.875</v>
-      </c>
-      <c r="AC8">
-        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5128563</v>
+        <v>5128564</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9">
+        <v>3.5</v>
+      </c>
+      <c r="L9">
+        <v>3.75</v>
+      </c>
+      <c r="M9">
+        <v>1.909</v>
+      </c>
+      <c r="N9">
+        <v>4.333</v>
+      </c>
+      <c r="O9">
+        <v>4.2</v>
+      </c>
+      <c r="P9">
+        <v>1.666</v>
+      </c>
+      <c r="Q9">
+        <v>0.75</v>
+      </c>
+      <c r="R9">
+        <v>1.975</v>
+      </c>
+      <c r="S9">
+        <v>1.875</v>
+      </c>
+      <c r="T9">
+        <v>2.75</v>
+      </c>
+      <c r="U9">
+        <v>1.85</v>
+      </c>
+      <c r="V9">
         <v>2</v>
       </c>
-      <c r="I9">
+      <c r="W9">
+        <v>-1</v>
+      </c>
+      <c r="X9">
+        <v>3.2</v>
+      </c>
+      <c r="Y9">
+        <v>-1</v>
+      </c>
+      <c r="Z9">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA9">
+        <v>-1</v>
+      </c>
+      <c r="AB9">
+        <v>-1</v>
+      </c>
+      <c r="AC9">
         <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9">
-        <v>2.5</v>
-      </c>
-      <c r="L9">
-        <v>3.4</v>
-      </c>
-      <c r="M9">
-        <v>2.625</v>
-      </c>
-      <c r="N9">
-        <v>3.1</v>
-      </c>
-      <c r="O9">
-        <v>3.4</v>
-      </c>
-      <c r="P9">
-        <v>2.2</v>
-      </c>
-      <c r="Q9">
-        <v>0.25</v>
-      </c>
-      <c r="R9">
-        <v>1.9</v>
-      </c>
-      <c r="S9">
-        <v>1.95</v>
-      </c>
-      <c r="T9">
-        <v>2.5</v>
-      </c>
-      <c r="U9">
-        <v>1.95</v>
-      </c>
-      <c r="V9">
-        <v>1.9</v>
-      </c>
-      <c r="W9">
-        <v>2.1</v>
-      </c>
-      <c r="X9">
-        <v>-1</v>
-      </c>
-      <c r="Y9">
-        <v>-1</v>
-      </c>
-      <c r="Z9">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA9">
-        <v>-1</v>
-      </c>
-      <c r="AB9">
-        <v>0.95</v>
-      </c>
-      <c r="AC9">
-        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5128564</v>
+        <v>5128563</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,73 +1343,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L10">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="N10">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="O10">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P10">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="Q10">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R10">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S10">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T10">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X10">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1432,7 +1432,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1785,10 +1785,10 @@
         <v>44988.60416666666</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -2055,7 +2055,7 @@
         <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2141,7 +2141,7 @@
         <v>44990.41666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
         <v>40</v>
@@ -2408,7 +2408,7 @@
         <v>44996.375</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
         <v>30</v>
@@ -2500,7 +2500,7 @@
         <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23">
         <v>4</v>
@@ -2586,7 +2586,7 @@
         <v>44997.375</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
         <v>31</v>
@@ -2767,7 +2767,7 @@
         <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5128528</v>
+        <v>5128572</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,76 +2853,76 @@
         <v>45003.375</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M27">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="N27">
-        <v>1.444</v>
+        <v>1.7</v>
       </c>
       <c r="O27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P27">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Q27">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V27">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X27">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA27">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5128572</v>
+        <v>5128528</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,76 +2942,76 @@
         <v>45003.375</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="L28">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M28">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="N28">
-        <v>1.7</v>
+        <v>1.444</v>
       </c>
       <c r="O28">
+        <v>5</v>
+      </c>
+      <c r="P28">
+        <v>6</v>
+      </c>
+      <c r="Q28">
+        <v>-1.25</v>
+      </c>
+      <c r="R28">
+        <v>1.925</v>
+      </c>
+      <c r="S28">
+        <v>1.925</v>
+      </c>
+      <c r="T28">
+        <v>3.25</v>
+      </c>
+      <c r="U28">
+        <v>2</v>
+      </c>
+      <c r="V28">
+        <v>1.85</v>
+      </c>
+      <c r="W28">
+        <v>-1</v>
+      </c>
+      <c r="X28">
         <v>4</v>
       </c>
-      <c r="P28">
-        <v>4.5</v>
-      </c>
-      <c r="Q28">
-        <v>-0.75</v>
-      </c>
-      <c r="R28">
-        <v>1.9</v>
-      </c>
-      <c r="S28">
-        <v>1.95</v>
-      </c>
-      <c r="T28">
-        <v>3</v>
-      </c>
-      <c r="U28">
-        <v>2.05</v>
-      </c>
-      <c r="V28">
-        <v>1.8</v>
-      </c>
-      <c r="W28">
-        <v>0.7</v>
-      </c>
-      <c r="X28">
-        <v>-1</v>
-      </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3120,7 +3120,7 @@
         <v>45003.375</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
         <v>29</v>
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5128571</v>
+        <v>5128201</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,76 +3209,76 @@
         <v>45003.375</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>2</v>
       </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M31">
-        <v>3.6</v>
+        <v>1.714</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="O31">
         <v>3.5</v>
       </c>
       <c r="P31">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="Q31">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S31">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T31">
         <v>2.5</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V31">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5128201</v>
+        <v>5128571</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,76 +3298,76 @@
         <v>45003.375</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32">
+        <v>1.909</v>
+      </c>
+      <c r="L32">
+        <v>3.5</v>
+      </c>
+      <c r="M32">
+        <v>3.6</v>
+      </c>
+      <c r="N32">
         <v>2</v>
-      </c>
-      <c r="J32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K32">
-        <v>4.75</v>
-      </c>
-      <c r="L32">
-        <v>3.6</v>
-      </c>
-      <c r="M32">
-        <v>1.714</v>
-      </c>
-      <c r="N32">
-        <v>4.75</v>
       </c>
       <c r="O32">
         <v>3.5</v>
       </c>
       <c r="P32">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="Q32">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S32">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T32">
         <v>2.5</v>
       </c>
       <c r="U32">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA32">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3387,7 +3387,7 @@
         <v>45016.5625</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
         <v>40</v>
@@ -3568,7 +3568,7 @@
         <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3832,10 +3832,10 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6428343</v>
+        <v>6428314</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,73 +3921,73 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K39">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="L39">
         <v>3.6</v>
       </c>
       <c r="M39">
+        <v>4</v>
+      </c>
+      <c r="N39">
+        <v>1.75</v>
+      </c>
+      <c r="O39">
+        <v>3.8</v>
+      </c>
+      <c r="P39">
+        <v>4.5</v>
+      </c>
+      <c r="Q39">
+        <v>-0.75</v>
+      </c>
+      <c r="R39">
         <v>1.95</v>
       </c>
-      <c r="N39">
-        <v>3.75</v>
-      </c>
-      <c r="O39">
-        <v>3.6</v>
-      </c>
-      <c r="P39">
-        <v>1.95</v>
-      </c>
-      <c r="Q39">
-        <v>0.5</v>
-      </c>
-      <c r="R39">
-        <v>1.875</v>
-      </c>
       <c r="S39">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T39">
         <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA39">
+        <v>-0.5</v>
+      </c>
+      <c r="AB39">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB39">
-        <v>0.925</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6428314</v>
+        <v>6428343</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,73 +4010,73 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
         <v>3</v>
       </c>
-      <c r="I40">
-        <v>2</v>
-      </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K40">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="L40">
         <v>3.6</v>
       </c>
       <c r="M40">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N40">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="O40">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P40">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S40">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T40">
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V40">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z40">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB40">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4102,7 +4102,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4188,7 +4188,7 @@
         <v>45026.33333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6428347</v>
+        <v>6428348</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>45032.375</v>
       </c>
       <c r="F48" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" t="s">
         <v>36</v>
       </c>
-      <c r="G48" t="s">
-        <v>35</v>
-      </c>
       <c r="H48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K48">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="L48">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48">
         <v>2.2</v>
       </c>
-      <c r="N48">
-        <v>2.8</v>
-      </c>
       <c r="O48">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P48">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S48">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V48">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X48">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA48">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC48">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6428348</v>
+        <v>6428347</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>45032.375</v>
       </c>
       <c r="F49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" t="s">
         <v>34</v>
       </c>
-      <c r="G49" t="s">
-        <v>37</v>
-      </c>
       <c r="H49">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K49">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L49">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N49">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O49">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P49">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q49">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S49">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T49">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V49">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W49">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6428349</v>
+        <v>6428321</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,40 +4989,40 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K51">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="L51">
         <v>3.5</v>
       </c>
       <c r="M51">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="N51">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="O51">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P51">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R51">
         <v>1.925</v>
@@ -5031,7 +5031,7 @@
         <v>1.925</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
         <v>1.9</v>
@@ -5040,25 +5040,25 @@
         <v>1.95</v>
       </c>
       <c r="W51">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z51">
+        <v>-1</v>
+      </c>
+      <c r="AA51">
         <v>0.925</v>
       </c>
-      <c r="AA51">
-        <v>-1</v>
-      </c>
       <c r="AB51">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC51">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6428321</v>
+        <v>6428349</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,40 +5078,40 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K52">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="L52">
         <v>3.5</v>
       </c>
       <c r="M52">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="N52">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="O52">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P52">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="Q52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R52">
         <v>1.925</v>
@@ -5120,7 +5120,7 @@
         <v>1.925</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U52">
         <v>1.9</v>
@@ -5129,25 +5129,25 @@
         <v>1.95</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5256,7 +5256,7 @@
         <v>45039.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
         <v>29</v>
@@ -5345,10 +5345,10 @@
         <v>45039.375</v>
       </c>
       <c r="F55" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" t="s">
         <v>35</v>
-      </c>
-      <c r="G55" t="s">
-        <v>34</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5434,10 +5434,10 @@
         <v>45044.5625</v>
       </c>
       <c r="F56" t="s">
+        <v>37</v>
+      </c>
+      <c r="G56" t="s">
         <v>36</v>
-      </c>
-      <c r="G56" t="s">
-        <v>37</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         <v>45044.5625</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
         <v>40</v>
@@ -5704,7 +5704,7 @@
         <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -6057,10 +6057,10 @@
         <v>45051.5625</v>
       </c>
       <c r="F63" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63" t="s">
         <v>34</v>
-      </c>
-      <c r="G63" t="s">
-        <v>35</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6146,7 +6146,7 @@
         <v>45051.5625</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
         <v>29</v>
@@ -6235,7 +6235,7 @@
         <v>45052.33333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
         <v>40</v>
@@ -6591,10 +6591,10 @@
         <v>45057.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6428360</v>
+        <v>6428329</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,76 +6680,76 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H70">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K70">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L70">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M70">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="N70">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="O70">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P70">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="Q70">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R70">
+        <v>2.05</v>
+      </c>
+      <c r="S70">
+        <v>1.8</v>
+      </c>
+      <c r="T70">
+        <v>3.25</v>
+      </c>
+      <c r="U70">
         <v>1.975</v>
       </c>
-      <c r="S70">
+      <c r="V70">
         <v>1.875</v>
       </c>
-      <c r="T70">
-        <v>2.75</v>
-      </c>
-      <c r="U70">
-        <v>1.925</v>
-      </c>
-      <c r="V70">
-        <v>1.925</v>
-      </c>
       <c r="W70">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z70">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB70">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6428329</v>
+        <v>6428360</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,76 +6769,76 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K71">
+        <v>3.75</v>
+      </c>
+      <c r="L71">
+        <v>3.6</v>
+      </c>
+      <c r="M71">
+        <v>1.85</v>
+      </c>
+      <c r="N71">
         <v>3.8</v>
       </c>
-      <c r="L71">
-        <v>3.5</v>
-      </c>
-      <c r="M71">
-        <v>1.8</v>
-      </c>
-      <c r="N71">
-        <v>5.25</v>
-      </c>
       <c r="O71">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P71">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="Q71">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R71">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T71">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U71">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V71">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA71">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC71">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6858,10 +6858,10 @@
         <v>45059.33333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -7128,7 +7128,7 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7217,7 +7217,7 @@
         <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7392,10 +7392,10 @@
         <v>45067.375</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6428364</v>
+        <v>6428366</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,76 +7570,76 @@
         <v>45072.5625</v>
       </c>
       <c r="F80" t="s">
+        <v>34</v>
+      </c>
+      <c r="G80" t="s">
         <v>36</v>
       </c>
-      <c r="G80" t="s">
-        <v>40</v>
-      </c>
       <c r="H80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80" t="s">
+        <v>46</v>
+      </c>
+      <c r="K80">
+        <v>2.375</v>
+      </c>
+      <c r="L80">
+        <v>3.5</v>
+      </c>
+      <c r="M80">
+        <v>2.75</v>
+      </c>
+      <c r="N80">
+        <v>2.375</v>
+      </c>
+      <c r="O80">
+        <v>3.75</v>
+      </c>
+      <c r="P80">
+        <v>2.7</v>
+      </c>
+      <c r="Q80">
+        <v>-0.25</v>
+      </c>
+      <c r="R80">
+        <v>2.1</v>
+      </c>
+      <c r="S80">
+        <v>1.775</v>
+      </c>
+      <c r="T80">
         <v>3</v>
       </c>
-      <c r="J80" t="s">
-        <v>47</v>
-      </c>
-      <c r="K80">
-        <v>1.727</v>
-      </c>
-      <c r="L80">
-        <v>4.2</v>
-      </c>
-      <c r="M80">
-        <v>3.6</v>
-      </c>
-      <c r="N80">
-        <v>1.45</v>
-      </c>
-      <c r="O80">
-        <v>5.25</v>
-      </c>
-      <c r="P80">
-        <v>5.25</v>
-      </c>
-      <c r="Q80">
-        <v>-1.25</v>
-      </c>
-      <c r="R80">
+      <c r="U80">
         <v>1.95</v>
       </c>
-      <c r="S80">
+      <c r="V80">
         <v>1.9</v>
       </c>
-      <c r="T80">
-        <v>3.5</v>
-      </c>
-      <c r="U80">
-        <v>1.9</v>
-      </c>
-      <c r="V80">
-        <v>1.95</v>
-      </c>
       <c r="W80">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB80">
+        <v>-1</v>
+      </c>
+      <c r="AC80">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC80">
-        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6428366</v>
+        <v>6428364</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,76 +7659,76 @@
         <v>45072.5625</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K81">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L81">
+        <v>4.2</v>
+      </c>
+      <c r="M81">
+        <v>3.6</v>
+      </c>
+      <c r="N81">
+        <v>1.45</v>
+      </c>
+      <c r="O81">
+        <v>5.25</v>
+      </c>
+      <c r="P81">
+        <v>5.25</v>
+      </c>
+      <c r="Q81">
+        <v>-1.25</v>
+      </c>
+      <c r="R81">
+        <v>1.95</v>
+      </c>
+      <c r="S81">
+        <v>1.9</v>
+      </c>
+      <c r="T81">
         <v>3.5</v>
       </c>
-      <c r="M81">
-        <v>2.75</v>
-      </c>
-      <c r="N81">
-        <v>2.375</v>
-      </c>
-      <c r="O81">
-        <v>3.75</v>
-      </c>
-      <c r="P81">
-        <v>2.7</v>
-      </c>
-      <c r="Q81">
-        <v>-0.25</v>
-      </c>
-      <c r="R81">
-        <v>2.1</v>
-      </c>
-      <c r="S81">
-        <v>1.775</v>
-      </c>
-      <c r="T81">
-        <v>3</v>
-      </c>
       <c r="U81">
+        <v>1.9</v>
+      </c>
+      <c r="V81">
         <v>1.95</v>
       </c>
-      <c r="V81">
-        <v>1.9</v>
-      </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA81">
-        <v>0.7749999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC81">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7748,7 +7748,7 @@
         <v>45072.5625</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6428335</v>
+        <v>6428334</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,76 +7926,76 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>45</v>
       </c>
       <c r="K84">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M84">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="N84">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O84">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P84">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="Q84">
         <v>0.5</v>
       </c>
       <c r="R84">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S84">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U84">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6428334</v>
+        <v>6428335</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J85" t="s">
         <v>45</v>
       </c>
       <c r="K85">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M85">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="N85">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O85">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P85">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="Q85">
         <v>0.5</v>
       </c>
       <c r="R85">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S85">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V85">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC85">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6428368</v>
+        <v>6428369</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,73 +8104,73 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>5</v>
+      </c>
+      <c r="J86" t="s">
+        <v>46</v>
+      </c>
+      <c r="K86">
+        <v>4.2</v>
+      </c>
+      <c r="L86">
+        <v>4.2</v>
+      </c>
+      <c r="M86">
+        <v>1.65</v>
+      </c>
+      <c r="N86">
+        <v>6</v>
+      </c>
+      <c r="O86">
+        <v>5.75</v>
+      </c>
+      <c r="P86">
+        <v>1.444</v>
+      </c>
+      <c r="Q86">
+        <v>1.5</v>
+      </c>
+      <c r="R86">
+        <v>1.825</v>
+      </c>
+      <c r="S86">
+        <v>2.025</v>
+      </c>
+      <c r="T86">
         <v>4</v>
       </c>
-      <c r="I86">
-        <v>2</v>
-      </c>
-      <c r="J86" t="s">
-        <v>47</v>
-      </c>
-      <c r="K86">
-        <v>1.571</v>
-      </c>
-      <c r="L86">
-        <v>4.333</v>
-      </c>
-      <c r="M86">
-        <v>4.333</v>
-      </c>
-      <c r="N86">
-        <v>1.45</v>
-      </c>
-      <c r="O86">
-        <v>5</v>
-      </c>
-      <c r="P86">
-        <v>6</v>
-      </c>
-      <c r="Q86">
-        <v>-1.25</v>
-      </c>
-      <c r="R86">
-        <v>1.925</v>
-      </c>
-      <c r="S86">
-        <v>1.925</v>
-      </c>
-      <c r="T86">
-        <v>3.5</v>
-      </c>
       <c r="U86">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W86">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z86">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB86">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6428369</v>
+        <v>6428368</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,73 +8193,73 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87" t="s">
+        <v>47</v>
+      </c>
+      <c r="K87">
+        <v>1.571</v>
+      </c>
+      <c r="L87">
+        <v>4.333</v>
+      </c>
+      <c r="M87">
+        <v>4.333</v>
+      </c>
+      <c r="N87">
+        <v>1.45</v>
+      </c>
+      <c r="O87">
         <v>5</v>
       </c>
-      <c r="J87" t="s">
-        <v>46</v>
-      </c>
-      <c r="K87">
-        <v>4.2</v>
-      </c>
-      <c r="L87">
-        <v>4.2</v>
-      </c>
-      <c r="M87">
-        <v>1.65</v>
-      </c>
-      <c r="N87">
+      <c r="P87">
         <v>6</v>
       </c>
-      <c r="O87">
-        <v>5.75</v>
-      </c>
-      <c r="P87">
-        <v>1.444</v>
-      </c>
       <c r="Q87">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R87">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S87">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U87">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V87">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA87">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8285,7 +8285,7 @@
         <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6428337</v>
+        <v>6428338</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,73 +8371,73 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H89">
+        <v>3</v>
+      </c>
+      <c r="I89">
         <v>2</v>
       </c>
-      <c r="I89">
-        <v>3</v>
-      </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K89">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M89">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N89">
-        <v>1.571</v>
+        <v>1.363</v>
       </c>
       <c r="O89">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P89">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q89">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R89">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S89">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T89">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB89">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6428338</v>
+        <v>6428339</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,58 +8460,58 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H90">
+        <v>4</v>
+      </c>
+      <c r="I90">
         <v>3</v>
-      </c>
-      <c r="I90">
-        <v>2</v>
       </c>
       <c r="J90" t="s">
         <v>47</v>
       </c>
       <c r="K90">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="L90">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M90">
         <v>5</v>
       </c>
       <c r="N90">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="O90">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P90">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="Q90">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T90">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W90">
-        <v>0.363</v>
+        <v>1.2</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8520,13 +8520,13 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA90">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8537,7 +8537,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6428339</v>
+        <v>6428337</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8549,73 +8549,73 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I91">
         <v>3</v>
       </c>
       <c r="J91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K91">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="L91">
         <v>4</v>
       </c>
       <c r="M91">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N91">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="O91">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P91">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q91">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R91">
+        <v>1.975</v>
+      </c>
+      <c r="S91">
         <v>1.875</v>
       </c>
-      <c r="S91">
-        <v>1.975</v>
-      </c>
       <c r="T91">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U91">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V91">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W91">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z91">
+        <v>-1</v>
+      </c>
+      <c r="AA91">
         <v>0.875</v>
       </c>
-      <c r="AA91">
-        <v>-1</v>
-      </c>
       <c r="AB91">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6799246</v>
+        <v>6799245</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,76 +8638,76 @@
         <v>45128.58333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K92">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="L92">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M92">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="N92">
         <v>2.25</v>
       </c>
       <c r="O92">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P92">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q92">
         <v>-0.25</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S92">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T92">
         <v>2.75</v>
       </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V92">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z92">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6799245</v>
+        <v>6799246</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45128.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K93">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M93">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="N93">
         <v>2.25</v>
       </c>
       <c r="O93">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P93">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q93">
         <v>-0.25</v>
       </c>
       <c r="R93">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S93">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T93">
         <v>2.75</v>
       </c>
       <c r="U93">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y93">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA93">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AB93">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6799247</v>
+        <v>6799248</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45130.375</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K96">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="L96">
         <v>3.6</v>
       </c>
       <c r="M96">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N96">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O96">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P96">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q96">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R96">
+        <v>1.975</v>
+      </c>
+      <c r="S96">
         <v>1.875</v>
-      </c>
-      <c r="S96">
-        <v>1.975</v>
       </c>
       <c r="T96">
         <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V96">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA96">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC96">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6799248</v>
+        <v>6799247</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45130.375</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
         <v>2</v>
       </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K97">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="L97">
         <v>3.6</v>
       </c>
       <c r="M97">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N97">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O97">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P97">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
+        <v>1.875</v>
+      </c>
+      <c r="S97">
         <v>1.975</v>
-      </c>
-      <c r="S97">
-        <v>1.875</v>
       </c>
       <c r="T97">
         <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V97">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z97">
+        <v>-1</v>
+      </c>
+      <c r="AA97">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA97">
-        <v>-1</v>
-      </c>
       <c r="AB97">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6799250</v>
+        <v>6799251</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,73 +9172,73 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F98" t="s">
+        <v>38</v>
+      </c>
+      <c r="G98" t="s">
         <v>35</v>
       </c>
-      <c r="G98" t="s">
-        <v>33</v>
-      </c>
       <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
         <v>3</v>
       </c>
-      <c r="I98">
+      <c r="J98" t="s">
+        <v>46</v>
+      </c>
+      <c r="K98">
+        <v>1.7</v>
+      </c>
+      <c r="L98">
+        <v>3.8</v>
+      </c>
+      <c r="M98">
+        <v>4</v>
+      </c>
+      <c r="N98">
+        <v>1.7</v>
+      </c>
+      <c r="O98">
+        <v>4</v>
+      </c>
+      <c r="P98">
+        <v>4.5</v>
+      </c>
+      <c r="Q98">
+        <v>-0.75</v>
+      </c>
+      <c r="R98">
+        <v>1.875</v>
+      </c>
+      <c r="S98">
+        <v>1.975</v>
+      </c>
+      <c r="T98">
+        <v>3</v>
+      </c>
+      <c r="U98">
+        <v>1.85</v>
+      </c>
+      <c r="V98">
         <v>2</v>
       </c>
-      <c r="J98" t="s">
-        <v>47</v>
-      </c>
-      <c r="K98">
-        <v>2.3</v>
-      </c>
-      <c r="L98">
-        <v>3.3</v>
-      </c>
-      <c r="M98">
-        <v>2.75</v>
-      </c>
-      <c r="N98">
-        <v>2.8</v>
-      </c>
-      <c r="O98">
-        <v>3.3</v>
-      </c>
-      <c r="P98">
-        <v>2.5</v>
-      </c>
-      <c r="Q98">
-        <v>0</v>
-      </c>
-      <c r="R98">
-        <v>1.975</v>
-      </c>
-      <c r="S98">
-        <v>1.875</v>
-      </c>
-      <c r="T98">
-        <v>2.5</v>
-      </c>
-      <c r="U98">
-        <v>1.9</v>
-      </c>
-      <c r="V98">
-        <v>1.95</v>
-      </c>
       <c r="W98">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z98">
+        <v>-1</v>
+      </c>
+      <c r="AA98">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA98">
-        <v>-1</v>
-      </c>
       <c r="AB98">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6799249</v>
+        <v>6799250</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,58 +9261,58 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>3</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
         <v>47</v>
       </c>
       <c r="K99">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L99">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M99">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N99">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O99">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P99">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R99">
+        <v>1.975</v>
+      </c>
+      <c r="S99">
         <v>1.875</v>
       </c>
-      <c r="S99">
-        <v>1.975</v>
-      </c>
       <c r="T99">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W99">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9321,13 +9321,13 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6799251</v>
+        <v>6799249</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,40 +9350,40 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H100">
+        <v>3</v>
+      </c>
+      <c r="I100">
         <v>1</v>
       </c>
-      <c r="I100">
-        <v>3</v>
-      </c>
       <c r="J100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K100">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="L100">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M100">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N100">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="O100">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P100">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R100">
         <v>1.875</v>
@@ -9395,28 +9395,28 @@
         <v>3</v>
       </c>
       <c r="U100">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA100">
+        <v>-1</v>
+      </c>
+      <c r="AB100">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB100">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6799252</v>
+        <v>6799253</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,76 +9706,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K104">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="L104">
+        <v>3.5</v>
+      </c>
+      <c r="M104">
+        <v>2.5</v>
+      </c>
+      <c r="N104">
+        <v>3</v>
+      </c>
+      <c r="O104">
         <v>3.6</v>
       </c>
-      <c r="M104">
-        <v>4.75</v>
-      </c>
-      <c r="N104">
-        <v>1.727</v>
-      </c>
-      <c r="O104">
-        <v>4</v>
-      </c>
       <c r="P104">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q104">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S104">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T104">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U104">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W104">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z104">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6799253</v>
+        <v>6799252</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,76 +9795,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H105">
+        <v>2</v>
+      </c>
+      <c r="I105">
         <v>0</v>
       </c>
-      <c r="I105">
+      <c r="J105" t="s">
+        <v>47</v>
+      </c>
+      <c r="K105">
+        <v>1.7</v>
+      </c>
+      <c r="L105">
+        <v>3.6</v>
+      </c>
+      <c r="M105">
+        <v>4.75</v>
+      </c>
+      <c r="N105">
+        <v>1.727</v>
+      </c>
+      <c r="O105">
+        <v>4</v>
+      </c>
+      <c r="P105">
+        <v>4</v>
+      </c>
+      <c r="Q105">
+        <v>-0.75</v>
+      </c>
+      <c r="R105">
+        <v>2</v>
+      </c>
+      <c r="S105">
+        <v>1.85</v>
+      </c>
+      <c r="T105">
+        <v>3</v>
+      </c>
+      <c r="U105">
+        <v>1.95</v>
+      </c>
+      <c r="V105">
+        <v>1.9</v>
+      </c>
+      <c r="W105">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X105">
+        <v>-1</v>
+      </c>
+      <c r="Y105">
+        <v>-1</v>
+      </c>
+      <c r="Z105">
         <v>1</v>
       </c>
-      <c r="J105" t="s">
-        <v>46</v>
-      </c>
-      <c r="K105">
-        <v>2.6</v>
-      </c>
-      <c r="L105">
-        <v>3.5</v>
-      </c>
-      <c r="M105">
-        <v>2.5</v>
-      </c>
-      <c r="N105">
-        <v>3</v>
-      </c>
-      <c r="O105">
-        <v>3.6</v>
-      </c>
-      <c r="P105">
-        <v>2.25</v>
-      </c>
-      <c r="Q105">
-        <v>0.25</v>
-      </c>
-      <c r="R105">
-        <v>1.925</v>
-      </c>
-      <c r="S105">
-        <v>1.925</v>
-      </c>
-      <c r="T105">
-        <v>2.5</v>
-      </c>
-      <c r="U105">
-        <v>1.825</v>
-      </c>
-      <c r="V105">
-        <v>2.025</v>
-      </c>
-      <c r="W105">
-        <v>-1</v>
-      </c>
-      <c r="X105">
-        <v>-1</v>
-      </c>
-      <c r="Y105">
-        <v>1.25</v>
-      </c>
-      <c r="Z105">
-        <v>-1</v>
-      </c>
       <c r="AA105">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10154,7 +10154,7 @@
         <v>43</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H109">
         <v>4</v>
@@ -10240,7 +10240,7 @@
         <v>45149.5625</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
         <v>29</v>
@@ -10329,7 +10329,7 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
         <v>41</v>
@@ -10685,7 +10685,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G115" t="s">
         <v>39</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6799259</v>
+        <v>6800832</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,73 +10863,73 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J117" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K117">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L117">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N117">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O117">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P117">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R117">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S117">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T117">
         <v>3</v>
       </c>
       <c r="U117">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V117">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W117">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z117">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB117">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6800832</v>
+        <v>6798551</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,55 +10952,55 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
         <v>46</v>
       </c>
       <c r="K118">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L118">
         <v>3.4</v>
       </c>
       <c r="M118">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N118">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="O118">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P118">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S118">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T118">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V118">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -11009,16 +11009,16 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>1.8</v>
+        <v>1.375</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB118">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6798551</v>
+        <v>6799259</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,73 +11041,73 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H119">
+        <v>3</v>
+      </c>
+      <c r="I119">
         <v>1</v>
       </c>
-      <c r="I119">
+      <c r="J119" t="s">
+        <v>47</v>
+      </c>
+      <c r="K119">
+        <v>1.95</v>
+      </c>
+      <c r="L119">
+        <v>3.6</v>
+      </c>
+      <c r="M119">
+        <v>3.4</v>
+      </c>
+      <c r="N119">
+        <v>2.2</v>
+      </c>
+      <c r="O119">
+        <v>3.6</v>
+      </c>
+      <c r="P119">
+        <v>3.1</v>
+      </c>
+      <c r="Q119">
+        <v>-0.25</v>
+      </c>
+      <c r="R119">
+        <v>1.975</v>
+      </c>
+      <c r="S119">
+        <v>1.875</v>
+      </c>
+      <c r="T119">
         <v>3</v>
       </c>
-      <c r="J119" t="s">
-        <v>46</v>
-      </c>
-      <c r="K119">
-        <v>2.15</v>
-      </c>
-      <c r="L119">
-        <v>3.4</v>
-      </c>
-      <c r="M119">
-        <v>3.1</v>
-      </c>
-      <c r="N119">
-        <v>2.9</v>
-      </c>
-      <c r="O119">
-        <v>3.4</v>
-      </c>
-      <c r="P119">
-        <v>2.375</v>
-      </c>
-      <c r="Q119">
-        <v>0.25</v>
-      </c>
-      <c r="R119">
-        <v>1.8</v>
-      </c>
-      <c r="S119">
-        <v>2.05</v>
-      </c>
-      <c r="T119">
-        <v>2.75</v>
-      </c>
       <c r="U119">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V119">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA119">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11219,10 +11219,10 @@
         <v>45158.33333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
         <v>44</v>
@@ -11667,7 +11667,7 @@
         <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H126">
         <v>4</v>
@@ -11753,7 +11753,7 @@
         <v>45162.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G127" t="s">
         <v>43</v>
@@ -12109,10 +12109,10 @@
         <v>45165.33333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -12287,7 +12287,7 @@
         <v>45166.5625</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
         <v>38</v>
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6800829</v>
+        <v>6799268</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,76 +12376,76 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
         <v>45</v>
       </c>
       <c r="K134">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="L134">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M134">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="N134">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="O134">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P134">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q134">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R134">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S134">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T134">
         <v>3</v>
       </c>
       <c r="U134">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V134">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA134">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC134">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6799269</v>
+        <v>6800829</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K135">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M135">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="N135">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="O135">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P135">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S135">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T135">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U135">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V135">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y135">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB135">
         <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6799268</v>
+        <v>6799269</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136">
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K136">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="L136">
+        <v>3.6</v>
+      </c>
+      <c r="M136">
+        <v>3.25</v>
+      </c>
+      <c r="N136">
+        <v>2.45</v>
+      </c>
+      <c r="O136">
         <v>4</v>
       </c>
-      <c r="M136">
-        <v>1.571</v>
-      </c>
-      <c r="N136">
-        <v>4.2</v>
-      </c>
-      <c r="O136">
-        <v>3.75</v>
-      </c>
       <c r="P136">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="Q136">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S136">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T136">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U136">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V136">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z136">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB136">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12646,7 +12646,7 @@
         <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12824,7 +12824,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -12910,7 +12910,7 @@
         <v>45183.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
         <v>42</v>
@@ -12987,7 +12987,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6800827</v>
+        <v>6799273</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12999,10 +12999,10 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G141" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13014,40 +13014,40 @@
         <v>46</v>
       </c>
       <c r="K141">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L141">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M141">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N141">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O141">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P141">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q141">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S141">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V141">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13056,19 +13056,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6799273</v>
+        <v>6798871</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,76 +13088,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K142">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L142">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M142">
+        <v>2.5</v>
+      </c>
+      <c r="N142">
+        <v>2.55</v>
+      </c>
+      <c r="O142">
+        <v>3.5</v>
+      </c>
+      <c r="P142">
+        <v>2.625</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+      <c r="R142">
+        <v>1.825</v>
+      </c>
+      <c r="S142">
+        <v>2.025</v>
+      </c>
+      <c r="T142">
         <v>2.75</v>
       </c>
-      <c r="N142">
-        <v>2.25</v>
-      </c>
-      <c r="O142">
-        <v>3.4</v>
-      </c>
-      <c r="P142">
-        <v>3.1</v>
-      </c>
-      <c r="Q142">
-        <v>-0.25</v>
-      </c>
-      <c r="R142">
-        <v>2.05</v>
-      </c>
-      <c r="S142">
-        <v>1.8</v>
-      </c>
-      <c r="T142">
+      <c r="U142">
+        <v>1.9</v>
+      </c>
+      <c r="V142">
+        <v>1.95</v>
+      </c>
+      <c r="W142">
+        <v>-1</v>
+      </c>
+      <c r="X142">
         <v>2.5</v>
       </c>
-      <c r="U142">
-        <v>1.95</v>
-      </c>
-      <c r="V142">
-        <v>1.9</v>
-      </c>
-      <c r="W142">
-        <v>-1</v>
-      </c>
-      <c r="X142">
-        <v>-1</v>
-      </c>
       <c r="Y142">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA142">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6798871</v>
+        <v>6800827</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,76 +13177,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G143" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K143">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L143">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M143">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N143">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="O143">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P143">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="Q143">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S143">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
         <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V143">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13266,7 +13266,7 @@
         <v>45186.375</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
         <v>30</v>
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6800826</v>
+        <v>6798555</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,7 +13444,7 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G146" t="s">
         <v>35</v>
@@ -13459,40 +13459,40 @@
         <v>46</v>
       </c>
       <c r="K146">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="L146">
         <v>3.5</v>
       </c>
       <c r="M146">
-        <v>2.35</v>
+        <v>3.2</v>
       </c>
       <c r="N146">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="O146">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P146">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q146">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R146">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S146">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T146">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U146">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V146">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W146">
         <v>-1</v>
@@ -13501,19 +13501,19 @@
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB146">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6798555</v>
+        <v>6798872</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,76 +13533,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K147">
-        <v>2.05</v>
+        <v>1.2</v>
       </c>
       <c r="L147">
+        <v>6</v>
+      </c>
+      <c r="M147">
+        <v>13</v>
+      </c>
+      <c r="N147">
+        <v>1.2</v>
+      </c>
+      <c r="O147">
+        <v>6.5</v>
+      </c>
+      <c r="P147">
+        <v>13</v>
+      </c>
+      <c r="Q147">
+        <v>-2</v>
+      </c>
+      <c r="R147">
+        <v>1.975</v>
+      </c>
+      <c r="S147">
+        <v>1.875</v>
+      </c>
+      <c r="T147">
         <v>3.5</v>
       </c>
-      <c r="M147">
-        <v>3.2</v>
-      </c>
-      <c r="N147">
-        <v>2.4</v>
-      </c>
-      <c r="O147">
-        <v>3.5</v>
-      </c>
-      <c r="P147">
-        <v>2.75</v>
-      </c>
-      <c r="Q147">
+      <c r="U147">
+        <v>2.025</v>
+      </c>
+      <c r="V147">
+        <v>1.825</v>
+      </c>
+      <c r="W147">
+        <v>0.2</v>
+      </c>
+      <c r="X147">
+        <v>-1</v>
+      </c>
+      <c r="Y147">
+        <v>-1</v>
+      </c>
+      <c r="Z147">
         <v>0</v>
       </c>
-      <c r="R147">
-        <v>1.825</v>
-      </c>
-      <c r="S147">
-        <v>2.025</v>
-      </c>
-      <c r="T147">
-        <v>2.75</v>
-      </c>
-      <c r="U147">
-        <v>1.825</v>
-      </c>
-      <c r="V147">
-        <v>2.025</v>
-      </c>
-      <c r="W147">
-        <v>-1</v>
-      </c>
-      <c r="X147">
-        <v>-1</v>
-      </c>
-      <c r="Y147">
-        <v>1.75</v>
-      </c>
-      <c r="Z147">
-        <v>-1</v>
-      </c>
       <c r="AA147">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB147">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6798872</v>
+        <v>6800826</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,76 +13622,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G148" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
         <v>2</v>
       </c>
-      <c r="I148">
-        <v>0</v>
-      </c>
       <c r="J148" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K148">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="L148">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M148">
-        <v>13</v>
+        <v>2.35</v>
       </c>
       <c r="N148">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="O148">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P148">
-        <v>13</v>
+        <v>2.3</v>
       </c>
       <c r="Q148">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S148">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T148">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V148">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W148">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC148">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6799279</v>
+        <v>6798873</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,49 +13978,49 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K152">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="L152">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M152">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="N152">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="O152">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P152">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R152">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S152">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T152">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U152">
         <v>1.9</v>
@@ -14032,22 +14032,22 @@
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z152">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC152">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14055,7 +14055,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6798873</v>
+        <v>6799279</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14067,49 +14067,49 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K153">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="L153">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M153">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="N153">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="O153">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P153">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="Q153">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R153">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S153">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T153">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U153">
         <v>1.9</v>
@@ -14121,22 +14121,22 @@
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y153">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA153">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB153">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14245,7 +14245,7 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F155" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G155" t="s">
         <v>30</v>
@@ -14334,7 +14334,7 @@
         <v>45200.375</v>
       </c>
       <c r="F156" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G156" t="s">
         <v>33</v>
@@ -14423,7 +14423,7 @@
         <v>45200.5</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G157" t="s">
         <v>42</v>
@@ -14512,7 +14512,7 @@
         <v>45205.5625</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
         <v>38</v>
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6800824</v>
+        <v>6798874</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,55 +14601,55 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G159" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J159" t="s">
         <v>46</v>
       </c>
       <c r="K159">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L159">
         <v>3.75</v>
       </c>
       <c r="M159">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="N159">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O159">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P159">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q159">
         <v>0.5</v>
       </c>
       <c r="R159">
+        <v>1.975</v>
+      </c>
+      <c r="S159">
         <v>1.875</v>
       </c>
-      <c r="S159">
+      <c r="T159">
+        <v>2.5</v>
+      </c>
+      <c r="U159">
         <v>1.975</v>
       </c>
-      <c r="T159">
-        <v>3</v>
-      </c>
-      <c r="U159">
-        <v>2</v>
-      </c>
       <c r="V159">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14658,19 +14658,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
+        <v>0.875</v>
+      </c>
+      <c r="AB159">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB159">
-        <v>0</v>
-      </c>
       <c r="AC159">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6798874</v>
+        <v>6800824</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,55 +14690,55 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G160" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J160" t="s">
         <v>46</v>
       </c>
       <c r="K160">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L160">
         <v>3.75</v>
       </c>
       <c r="M160">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="N160">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O160">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P160">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q160">
         <v>0.5</v>
       </c>
       <c r="R160">
+        <v>1.875</v>
+      </c>
+      <c r="S160">
         <v>1.975</v>
       </c>
-      <c r="S160">
-        <v>1.875</v>
-      </c>
       <c r="T160">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U160">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V160">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14747,19 +14747,19 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB160">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14782,7 +14782,7 @@
         <v>42</v>
       </c>
       <c r="G161" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H161">
         <v>3</v>
@@ -14871,7 +14871,7 @@
         <v>33</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6799286</v>
+        <v>6798558</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,76 +15135,76 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G165" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K165">
-        <v>3.5</v>
+        <v>1.65</v>
       </c>
       <c r="L165">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M165">
+        <v>4.333</v>
+      </c>
+      <c r="N165">
         <v>1.909</v>
       </c>
-      <c r="N165">
-        <v>3.1</v>
-      </c>
       <c r="O165">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P165">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q165">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R165">
+        <v>1.925</v>
+      </c>
+      <c r="S165">
+        <v>1.925</v>
+      </c>
+      <c r="T165">
+        <v>2.75</v>
+      </c>
+      <c r="U165">
         <v>1.9</v>
       </c>
-      <c r="S165">
+      <c r="V165">
         <v>1.95</v>
       </c>
-      <c r="T165">
-        <v>3</v>
-      </c>
-      <c r="U165">
-        <v>2</v>
-      </c>
-      <c r="V165">
-        <v>1.85</v>
-      </c>
       <c r="W165">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X165">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AA165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC165">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15224,7 +15224,7 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G166" t="s">
         <v>30</v>
@@ -15301,7 +15301,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6798558</v>
+        <v>6799286</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15313,76 +15313,76 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H167">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K167">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M167">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N167">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O167">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P167">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q167">
+        <v>0.25</v>
+      </c>
+      <c r="R167">
+        <v>1.9</v>
+      </c>
+      <c r="S167">
+        <v>1.95</v>
+      </c>
+      <c r="T167">
+        <v>3</v>
+      </c>
+      <c r="U167">
+        <v>2</v>
+      </c>
+      <c r="V167">
+        <v>1.85</v>
+      </c>
+      <c r="W167">
+        <v>-1</v>
+      </c>
+      <c r="X167">
+        <v>2.6</v>
+      </c>
+      <c r="Y167">
+        <v>-1</v>
+      </c>
+      <c r="Z167">
+        <v>0.45</v>
+      </c>
+      <c r="AA167">
         <v>-0.5</v>
       </c>
-      <c r="R167">
-        <v>1.925</v>
-      </c>
-      <c r="S167">
-        <v>1.925</v>
-      </c>
-      <c r="T167">
-        <v>2.75</v>
-      </c>
-      <c r="U167">
-        <v>1.9</v>
-      </c>
-      <c r="V167">
-        <v>1.95</v>
-      </c>
-      <c r="W167">
-        <v>0.909</v>
-      </c>
-      <c r="X167">
-        <v>-1</v>
-      </c>
-      <c r="Y167">
-        <v>-1</v>
-      </c>
-      <c r="Z167">
-        <v>0.925</v>
-      </c>
-      <c r="AA167">
-        <v>-1</v>
-      </c>
       <c r="AB167">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15491,7 +15491,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F169" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G169" t="s">
         <v>33</v>
@@ -15568,7 +15568,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6799291</v>
+        <v>6800822</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15580,55 +15580,55 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G170" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J170" t="s">
         <v>46</v>
       </c>
       <c r="K170">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="L170">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M170">
-        <v>3.25</v>
+        <v>1.533</v>
       </c>
       <c r="N170">
-        <v>2.15</v>
+        <v>8</v>
       </c>
       <c r="O170">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P170">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="Q170">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R170">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S170">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T170">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U170">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V170">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W170">
         <v>-1</v>
@@ -15637,16 +15637,16 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>2.2</v>
+        <v>0.333</v>
       </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB170">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC170">
         <v>-1</v>
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6799288</v>
+        <v>6799291</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,76 +15669,76 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G171" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J171" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K171">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L171">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M171">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="N171">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O171">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P171">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q171">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R171">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S171">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T171">
         <v>2.75</v>
       </c>
       <c r="U171">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V171">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W171">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z171">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB171">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC171">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6800822</v>
+        <v>6799288</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,76 +15758,76 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F172" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K172">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="L172">
         <v>3.8</v>
       </c>
       <c r="M172">
-        <v>1.533</v>
+        <v>3.8</v>
       </c>
       <c r="N172">
-        <v>8</v>
+        <v>1.65</v>
       </c>
       <c r="O172">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P172">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q172">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R172">
+        <v>1.85</v>
+      </c>
+      <c r="S172">
+        <v>2</v>
+      </c>
+      <c r="T172">
+        <v>2.75</v>
+      </c>
+      <c r="U172">
         <v>1.925</v>
       </c>
-      <c r="S172">
+      <c r="V172">
         <v>1.925</v>
       </c>
-      <c r="T172">
-        <v>3.5</v>
-      </c>
-      <c r="U172">
-        <v>2.025</v>
-      </c>
-      <c r="V172">
-        <v>1.825</v>
-      </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA172">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB172">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15939,7 +15939,7 @@
         <v>30</v>
       </c>
       <c r="G174" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H174">
         <v>3</v>
@@ -16117,7 +16117,7 @@
         <v>38</v>
       </c>
       <c r="G176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16203,7 +16203,7 @@
         <v>45233.625</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G177" t="s">
         <v>44</v>
@@ -16381,7 +16381,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G179" t="s">
         <v>42</v>
@@ -16636,7 +16636,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6799296</v>
+        <v>6799295</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16648,76 +16648,76 @@
         <v>45240.625</v>
       </c>
       <c r="F182" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H182">
         <v>1</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J182" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K182">
-        <v>2.75</v>
+        <v>7.5</v>
       </c>
       <c r="L182">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M182">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="N182">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="O182">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P182">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q182">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R182">
+        <v>1.925</v>
+      </c>
+      <c r="S182">
+        <v>1.925</v>
+      </c>
+      <c r="T182">
+        <v>3.25</v>
+      </c>
+      <c r="U182">
+        <v>1.85</v>
+      </c>
+      <c r="V182">
         <v>2</v>
       </c>
-      <c r="S182">
-        <v>1.85</v>
-      </c>
-      <c r="T182">
-        <v>3</v>
-      </c>
-      <c r="U182">
-        <v>1.95</v>
-      </c>
-      <c r="V182">
-        <v>1.9</v>
-      </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC182">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6800819</v>
+        <v>6799296</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16737,76 +16737,76 @@
         <v>45240.625</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G183" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K183">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L183">
         <v>3.4</v>
       </c>
       <c r="M183">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="N183">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="O183">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P183">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q183">
         <v>0</v>
       </c>
       <c r="R183">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S183">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T183">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U183">
+        <v>1.95</v>
+      </c>
+      <c r="V183">
         <v>1.9</v>
       </c>
-      <c r="V183">
-        <v>1.95</v>
-      </c>
       <c r="W183">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16814,7 +16814,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6799295</v>
+        <v>6800819</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16826,76 +16826,76 @@
         <v>45240.625</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G184" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K184">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="L184">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M184">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="N184">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="O184">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P184">
+        <v>2.8</v>
+      </c>
+      <c r="Q184">
+        <v>0</v>
+      </c>
+      <c r="R184">
+        <v>1.8</v>
+      </c>
+      <c r="S184">
+        <v>2.05</v>
+      </c>
+      <c r="T184">
+        <v>2.75</v>
+      </c>
+      <c r="U184">
+        <v>1.9</v>
+      </c>
+      <c r="V184">
+        <v>1.95</v>
+      </c>
+      <c r="W184">
         <v>1.45</v>
       </c>
-      <c r="Q184">
-        <v>1.25</v>
-      </c>
-      <c r="R184">
-        <v>1.925</v>
-      </c>
-      <c r="S184">
-        <v>1.925</v>
-      </c>
-      <c r="T184">
-        <v>3.25</v>
-      </c>
-      <c r="U184">
-        <v>1.85</v>
-      </c>
-      <c r="V184">
-        <v>2</v>
-      </c>
-      <c r="W184">
-        <v>-1</v>
-      </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA184">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17093,7 +17093,7 @@
         <v>45243.625</v>
       </c>
       <c r="F187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G187" t="s">
         <v>29</v>
@@ -17182,7 +17182,7 @@
         <v>45253.625</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G188" t="s">
         <v>41</v>
@@ -17541,7 +17541,7 @@
         <v>39</v>
       </c>
       <c r="G192" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17630,7 +17630,7 @@
         <v>43</v>
       </c>
       <c r="G193" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -17716,7 +17716,7 @@
         <v>45261.60416666666</v>
       </c>
       <c r="F194" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G194" t="s">
         <v>39</v>
@@ -17808,7 +17808,7 @@
         <v>44</v>
       </c>
       <c r="G195" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -17983,7 +17983,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G197" t="s">
         <v>43</v>
@@ -18238,7 +18238,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6799307</v>
+        <v>6798562</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18250,46 +18250,46 @@
         <v>45345.625</v>
       </c>
       <c r="F200" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G200" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="K200">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="L200">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M200">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N200">
+        <v>2.75</v>
+      </c>
+      <c r="O200">
+        <v>3.5</v>
+      </c>
+      <c r="P200">
+        <v>2.3</v>
+      </c>
+      <c r="Q200">
+        <v>0.25</v>
+      </c>
+      <c r="R200">
+        <v>1.8</v>
+      </c>
+      <c r="S200">
         <v>2.05</v>
-      </c>
-      <c r="O200">
-        <v>3.4</v>
-      </c>
-      <c r="P200">
-        <v>3.5</v>
-      </c>
-      <c r="Q200">
-        <v>-0.25</v>
-      </c>
-      <c r="R200">
-        <v>1.875</v>
-      </c>
-      <c r="S200">
-        <v>1.975</v>
       </c>
       <c r="T200">
         <v>2.5</v>
       </c>
       <c r="U200">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V200">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W200">
         <v>0</v>
@@ -18312,7 +18312,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6799305</v>
+        <v>6799307</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18324,40 +18324,40 @@
         <v>45345.625</v>
       </c>
       <c r="F201" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G201" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K201">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L201">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M201">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="N201">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O201">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P201">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q201">
         <v>-0.25</v>
       </c>
       <c r="R201">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S201">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T201">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U201">
         <v>2</v>
@@ -18386,7 +18386,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6798562</v>
+        <v>6799305</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18398,46 +18398,46 @@
         <v>45345.625</v>
       </c>
       <c r="F202" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G202" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K202">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L202">
         <v>3.5</v>
       </c>
       <c r="M202">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N202">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O202">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P202">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="Q202">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R202">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S202">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T202">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U202">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V202">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W202">
         <v>0</v>
@@ -18499,10 +18499,10 @@
         <v>-0.25</v>
       </c>
       <c r="R203">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S203">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T203">
         <v>2.75</v>
@@ -18561,22 +18561,22 @@
         <v>2.9</v>
       </c>
       <c r="N204">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O204">
         <v>3.5</v>
       </c>
       <c r="P204">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q204">
         <v>0</v>
       </c>
       <c r="R204">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S204">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T204">
         <v>2.75</v>
@@ -18620,10 +18620,10 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F205" t="s">
+        <v>34</v>
+      </c>
+      <c r="G205" t="s">
         <v>35</v>
-      </c>
-      <c r="G205" t="s">
-        <v>34</v>
       </c>
       <c r="K205">
         <v>2.4</v>

--- a/Denmark Division 1/Denmark Division 1.xlsx
+++ b/Denmark Division 1/Denmark Division 1.xlsx
@@ -124,10 +124,10 @@
     <t>FC Fredericia</t>
   </si>
   <si>
-    <t>HB Kge</t>
+    <t>Fremad Amager</t>
   </si>
   <si>
-    <t>Fremad Amager</t>
+    <t>HB Kge</t>
   </si>
   <si>
     <t>Sonderjyske</t>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5128564</v>
+        <v>5128563</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L9">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="N9">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="O9">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P9">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="Q9">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S9">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X9">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5128563</v>
+        <v>5128564</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,73 +1343,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10">
+        <v>3.5</v>
+      </c>
+      <c r="L10">
+        <v>3.75</v>
+      </c>
+      <c r="M10">
+        <v>1.909</v>
+      </c>
+      <c r="N10">
+        <v>4.333</v>
+      </c>
+      <c r="O10">
+        <v>4.2</v>
+      </c>
+      <c r="P10">
+        <v>1.666</v>
+      </c>
+      <c r="Q10">
+        <v>0.75</v>
+      </c>
+      <c r="R10">
+        <v>1.975</v>
+      </c>
+      <c r="S10">
+        <v>1.875</v>
+      </c>
+      <c r="T10">
+        <v>2.75</v>
+      </c>
+      <c r="U10">
+        <v>1.85</v>
+      </c>
+      <c r="V10">
         <v>2</v>
       </c>
-      <c r="I10">
+      <c r="W10">
+        <v>-1</v>
+      </c>
+      <c r="X10">
+        <v>3.2</v>
+      </c>
+      <c r="Y10">
+        <v>-1</v>
+      </c>
+      <c r="Z10">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA10">
+        <v>-1</v>
+      </c>
+      <c r="AB10">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
         <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10">
-        <v>2.5</v>
-      </c>
-      <c r="L10">
-        <v>3.4</v>
-      </c>
-      <c r="M10">
-        <v>2.625</v>
-      </c>
-      <c r="N10">
-        <v>3.1</v>
-      </c>
-      <c r="O10">
-        <v>3.4</v>
-      </c>
-      <c r="P10">
-        <v>2.2</v>
-      </c>
-      <c r="Q10">
-        <v>0.25</v>
-      </c>
-      <c r="R10">
-        <v>1.9</v>
-      </c>
-      <c r="S10">
-        <v>1.95</v>
-      </c>
-      <c r="T10">
-        <v>2.5</v>
-      </c>
-      <c r="U10">
-        <v>1.95</v>
-      </c>
-      <c r="V10">
-        <v>1.9</v>
-      </c>
-      <c r="W10">
-        <v>2.1</v>
-      </c>
-      <c r="X10">
-        <v>-1</v>
-      </c>
-      <c r="Y10">
-        <v>-1</v>
-      </c>
-      <c r="Z10">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA10">
-        <v>-1</v>
-      </c>
-      <c r="AB10">
-        <v>0.95</v>
-      </c>
-      <c r="AC10">
-        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1788,7 +1788,7 @@
         <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -2055,7 +2055,7 @@
         <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2408,7 +2408,7 @@
         <v>44996.375</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
         <v>30</v>
@@ -2500,7 +2500,7 @@
         <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>4</v>
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5128572</v>
+        <v>5128571</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,10 +2853,10 @@
         <v>45003.375</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2868,43 +2868,43 @@
         <v>47</v>
       </c>
       <c r="K27">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L27">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M27">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N27">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O27">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S27">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W27">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2913,16 +2913,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AA27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5128527</v>
+        <v>5128572</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,13 +3031,13 @@
         <v>45003.375</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -3046,43 +3046,43 @@
         <v>47</v>
       </c>
       <c r="K29">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L29">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M29">
+        <v>4.2</v>
+      </c>
+      <c r="N29">
+        <v>1.7</v>
+      </c>
+      <c r="O29">
         <v>4</v>
       </c>
-      <c r="N29">
-        <v>1.8</v>
-      </c>
-      <c r="O29">
-        <v>3.8</v>
-      </c>
       <c r="P29">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q29">
         <v>-0.75</v>
       </c>
       <c r="R29">
+        <v>1.9</v>
+      </c>
+      <c r="S29">
+        <v>1.95</v>
+      </c>
+      <c r="T29">
+        <v>3</v>
+      </c>
+      <c r="U29">
         <v>2.05</v>
       </c>
-      <c r="S29">
+      <c r="V29">
         <v>1.8</v>
       </c>
-      <c r="T29">
-        <v>2.75</v>
-      </c>
-      <c r="U29">
-        <v>1.9</v>
-      </c>
-      <c r="V29">
-        <v>1.95</v>
-      </c>
       <c r="W29">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3091,16 +3091,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>1.05</v>
+        <v>0.45</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5128294</v>
+        <v>5128527</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,76 +3120,76 @@
         <v>45003.375</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M30">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N30">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="O30">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P30">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
+        <v>2.05</v>
+      </c>
+      <c r="S30">
         <v>1.8</v>
-      </c>
-      <c r="S30">
-        <v>2.05</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA30">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5128571</v>
+        <v>5128294</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,49 +3298,49 @@
         <v>45003.375</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L32">
         <v>3.5</v>
       </c>
       <c r="M32">
+        <v>3.2</v>
+      </c>
+      <c r="N32">
+        <v>2.375</v>
+      </c>
+      <c r="O32">
         <v>3.6</v>
       </c>
-      <c r="N32">
-        <v>2</v>
-      </c>
-      <c r="O32">
-        <v>3.5</v>
-      </c>
       <c r="P32">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q32">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S32">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T32">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U32">
         <v>2</v>
@@ -3349,25 +3349,25 @@
         <v>1.85</v>
       </c>
       <c r="W32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3568,7 +3568,7 @@
         <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3832,7 +3832,7 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s">
         <v>34</v>
@@ -4010,7 +4010,7 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
         <v>35</v>
@@ -4102,7 +4102,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6428348</v>
+        <v>6428347</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>45032.375</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H48">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K48">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L48">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M48">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N48">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O48">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P48">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q48">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S48">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T48">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V48">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W48">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB48">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6428347</v>
+        <v>6428348</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>45032.375</v>
       </c>
       <c r="F49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49" t="s">
         <v>37</v>
       </c>
-      <c r="G49" t="s">
-        <v>34</v>
-      </c>
       <c r="H49">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K49">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M49">
+        <v>3</v>
+      </c>
+      <c r="N49">
         <v>2.2</v>
       </c>
-      <c r="N49">
-        <v>2.8</v>
-      </c>
       <c r="O49">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P49">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S49">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U49">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V49">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X49">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA49">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC49">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6428321</v>
+        <v>6428349</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,40 +4989,40 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K51">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="L51">
         <v>3.5</v>
       </c>
       <c r="M51">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="N51">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="O51">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P51">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="Q51">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R51">
         <v>1.925</v>
@@ -5031,7 +5031,7 @@
         <v>1.925</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U51">
         <v>1.9</v>
@@ -5040,25 +5040,25 @@
         <v>1.95</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA51">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6428349</v>
+        <v>6428321</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,40 +5078,40 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K52">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="L52">
         <v>3.5</v>
       </c>
       <c r="M52">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="N52">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="O52">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P52">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R52">
         <v>1.925</v>
@@ -5120,7 +5120,7 @@
         <v>1.925</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
         <v>1.9</v>
@@ -5129,25 +5129,25 @@
         <v>1.95</v>
       </c>
       <c r="W52">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z52">
+        <v>-1</v>
+      </c>
+      <c r="AA52">
         <v>0.925</v>
       </c>
-      <c r="AA52">
-        <v>-1</v>
-      </c>
       <c r="AB52">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC52">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5256,7 +5256,7 @@
         <v>45039.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
         <v>29</v>
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6428352</v>
+        <v>6428353</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,76 +5434,76 @@
         <v>45044.5625</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K56">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L56">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M56">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="N56">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="O56">
         <v>3.8</v>
       </c>
       <c r="P56">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="Q56">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R56">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S56">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T56">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U56">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA56">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC56">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6428353</v>
+        <v>6428352</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,76 +5523,76 @@
         <v>45044.5625</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K57">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L57">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M57">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N57">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="O57">
         <v>3.8</v>
       </c>
       <c r="P57">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R57">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S57">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U57">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V57">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W57">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z57">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB57">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -6146,7 +6146,7 @@
         <v>45051.5625</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
         <v>29</v>
@@ -6235,7 +6235,7 @@
         <v>45052.33333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
         <v>40</v>
@@ -6594,7 +6594,7 @@
         <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6858,7 +6858,7 @@
         <v>45059.33333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
         <v>35</v>
@@ -7128,7 +7128,7 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7395,7 +7395,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6428366</v>
+        <v>6428365</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,76 +7570,76 @@
         <v>45072.5625</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H80">
+        <v>4</v>
+      </c>
+      <c r="I80">
         <v>0</v>
       </c>
-      <c r="I80">
+      <c r="J80" t="s">
+        <v>47</v>
+      </c>
+      <c r="K80">
         <v>2</v>
       </c>
-      <c r="J80" t="s">
-        <v>46</v>
-      </c>
-      <c r="K80">
-        <v>2.375</v>
-      </c>
       <c r="L80">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M80">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N80">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O80">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P80">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q80">
         <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S80">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T80">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U80">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V80">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA80">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC80">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7659,7 +7659,7 @@
         <v>45072.5625</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
         <v>40</v>
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6428365</v>
+        <v>6428366</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,76 +7748,76 @@
         <v>45072.5625</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H82">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K82">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L82">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M82">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N82">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O82">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P82">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q82">
         <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S82">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="T82">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U82">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V82">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W82">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6428368</v>
+        <v>6428367</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,76 +8193,76 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K87">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L87">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M87">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N87">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="O87">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P87">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="Q87">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T87">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V87">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W87">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6428367</v>
+        <v>6428368</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K88">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L88">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M88">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N88">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="O88">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P88">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R88">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S88">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U88">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V88">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X88">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA88">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC88">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6428338</v>
+        <v>6428337</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,73 +8371,73 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
         <v>3</v>
       </c>
-      <c r="I89">
+      <c r="J89" t="s">
+        <v>46</v>
+      </c>
+      <c r="K89">
+        <v>1.7</v>
+      </c>
+      <c r="L89">
+        <v>4</v>
+      </c>
+      <c r="M89">
+        <v>4.2</v>
+      </c>
+      <c r="N89">
+        <v>1.571</v>
+      </c>
+      <c r="O89">
+        <v>4.75</v>
+      </c>
+      <c r="P89">
+        <v>4.75</v>
+      </c>
+      <c r="Q89">
+        <v>-1</v>
+      </c>
+      <c r="R89">
+        <v>1.975</v>
+      </c>
+      <c r="S89">
+        <v>1.875</v>
+      </c>
+      <c r="T89">
+        <v>3.5</v>
+      </c>
+      <c r="U89">
         <v>2</v>
       </c>
-      <c r="J89" t="s">
-        <v>47</v>
-      </c>
-      <c r="K89">
-        <v>1.5</v>
-      </c>
-      <c r="L89">
-        <v>4.5</v>
-      </c>
-      <c r="M89">
-        <v>5</v>
-      </c>
-      <c r="N89">
-        <v>1.363</v>
-      </c>
-      <c r="O89">
-        <v>5.25</v>
-      </c>
-      <c r="P89">
-        <v>6.5</v>
-      </c>
-      <c r="Q89">
-        <v>-1.5</v>
-      </c>
-      <c r="R89">
-        <v>1.95</v>
-      </c>
-      <c r="S89">
-        <v>1.9</v>
-      </c>
-      <c r="T89">
+      <c r="V89">
+        <v>1.85</v>
+      </c>
+      <c r="W89">
+        <v>-1</v>
+      </c>
+      <c r="X89">
+        <v>-1</v>
+      </c>
+      <c r="Y89">
         <v>3.75</v>
       </c>
-      <c r="U89">
-        <v>1.9</v>
-      </c>
-      <c r="V89">
-        <v>1.95</v>
-      </c>
-      <c r="W89">
-        <v>0.363</v>
-      </c>
-      <c r="X89">
-        <v>-1</v>
-      </c>
-      <c r="Y89">
-        <v>-1</v>
-      </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB89">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6428339</v>
+        <v>6428338</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,58 +8460,58 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
         <v>47</v>
       </c>
       <c r="K90">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M90">
         <v>5</v>
       </c>
       <c r="N90">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="O90">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P90">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="Q90">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R90">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S90">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U90">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W90">
-        <v>1.2</v>
+        <v>0.363</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8520,13 +8520,13 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB90">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8537,7 +8537,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6428337</v>
+        <v>6428339</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8549,73 +8549,73 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I91">
         <v>3</v>
       </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K91">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="L91">
         <v>4</v>
       </c>
       <c r="M91">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N91">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O91">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P91">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q91">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R91">
+        <v>1.875</v>
+      </c>
+      <c r="S91">
         <v>1.975</v>
       </c>
-      <c r="S91">
-        <v>1.875</v>
-      </c>
       <c r="T91">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U91">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V91">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA91">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6799245</v>
+        <v>6799246</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,76 +8638,76 @@
         <v>45128.58333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K92">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M92">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="N92">
         <v>2.25</v>
       </c>
       <c r="O92">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P92">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q92">
         <v>-0.25</v>
       </c>
       <c r="R92">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S92">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T92">
         <v>2.75</v>
       </c>
       <c r="U92">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y92">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA92">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AB92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6799246</v>
+        <v>6799245</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45128.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K93">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="L93">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="N93">
         <v>2.25</v>
       </c>
       <c r="O93">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P93">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q93">
         <v>-0.25</v>
       </c>
       <c r="R93">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S93">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T93">
         <v>2.75</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V93">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC93">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9350,7 +9350,7 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
         <v>39</v>
@@ -9798,7 +9798,7 @@
         <v>44</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -10329,7 +10329,7 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G111" t="s">
         <v>41</v>
@@ -11219,7 +11219,7 @@
         <v>45158.33333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
         <v>34</v>
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6800831</v>
+        <v>6799262</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,34 +11308,34 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H122">
+        <v>2</v>
+      </c>
+      <c r="I122">
         <v>0</v>
       </c>
-      <c r="I122">
-        <v>1</v>
-      </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K122">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L122">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N122">
         <v>2.15</v>
       </c>
       <c r="O122">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P122">
         <v>3.1</v>
@@ -11344,40 +11344,40 @@
         <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S122">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T122">
         <v>3</v>
       </c>
       <c r="U122">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V122">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA122">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6799262</v>
+        <v>6800831</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,34 +11397,34 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K123">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M123">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="N123">
         <v>2.15</v>
       </c>
       <c r="O123">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P123">
         <v>3.1</v>
@@ -11433,40 +11433,40 @@
         <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S123">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T123">
         <v>3</v>
       </c>
       <c r="U123">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V123">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W123">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z123">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6798552</v>
+        <v>6799264</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,58 +11486,58 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G124" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
         <v>47</v>
       </c>
       <c r="K124">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L124">
+        <v>4.5</v>
+      </c>
+      <c r="M124">
+        <v>7</v>
+      </c>
+      <c r="N124">
+        <v>1.363</v>
+      </c>
+      <c r="O124">
+        <v>5</v>
+      </c>
+      <c r="P124">
+        <v>7.5</v>
+      </c>
+      <c r="Q124">
+        <v>-1.5</v>
+      </c>
+      <c r="R124">
+        <v>1.975</v>
+      </c>
+      <c r="S124">
+        <v>1.875</v>
+      </c>
+      <c r="T124">
         <v>3.5</v>
       </c>
-      <c r="M124">
-        <v>2.8</v>
-      </c>
-      <c r="N124">
-        <v>2.7</v>
-      </c>
-      <c r="O124">
-        <v>3.5</v>
-      </c>
-      <c r="P124">
-        <v>2.5</v>
-      </c>
-      <c r="Q124">
-        <v>0</v>
-      </c>
-      <c r="R124">
-        <v>2</v>
-      </c>
-      <c r="S124">
-        <v>1.85</v>
-      </c>
-      <c r="T124">
-        <v>2.5</v>
-      </c>
       <c r="U124">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V124">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
-        <v>1.7</v>
+        <v>0.363</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11546,13 +11546,13 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6799264</v>
+        <v>6798552</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,58 +11664,58 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G126" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H126">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
         <v>47</v>
       </c>
       <c r="K126">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L126">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M126">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="N126">
-        <v>1.363</v>
+        <v>2.7</v>
       </c>
       <c r="O126">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P126">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q126">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R126">
+        <v>2</v>
+      </c>
+      <c r="S126">
+        <v>1.85</v>
+      </c>
+      <c r="T126">
+        <v>2.5</v>
+      </c>
+      <c r="U126">
+        <v>1.875</v>
+      </c>
+      <c r="V126">
         <v>1.975</v>
       </c>
-      <c r="S126">
-        <v>1.875</v>
-      </c>
-      <c r="T126">
-        <v>3.5</v>
-      </c>
-      <c r="U126">
-        <v>2.025</v>
-      </c>
-      <c r="V126">
-        <v>1.825</v>
-      </c>
       <c r="W126">
-        <v>0.363</v>
+        <v>1.7</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11724,13 +11724,13 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -12109,7 +12109,7 @@
         <v>45165.33333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
         <v>35</v>
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6799268</v>
+        <v>6799269</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,76 +12376,76 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K134">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="L134">
+        <v>3.6</v>
+      </c>
+      <c r="M134">
+        <v>3.25</v>
+      </c>
+      <c r="N134">
+        <v>2.45</v>
+      </c>
+      <c r="O134">
         <v>4</v>
       </c>
-      <c r="M134">
-        <v>1.571</v>
-      </c>
-      <c r="N134">
-        <v>4.2</v>
-      </c>
-      <c r="O134">
-        <v>3.75</v>
-      </c>
       <c r="P134">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="Q134">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R134">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S134">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T134">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U134">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V134">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z134">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB134">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6799269</v>
+        <v>6799268</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136">
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K136">
+        <v>5</v>
+      </c>
+      <c r="L136">
+        <v>4</v>
+      </c>
+      <c r="M136">
+        <v>1.571</v>
+      </c>
+      <c r="N136">
+        <v>4.2</v>
+      </c>
+      <c r="O136">
+        <v>3.75</v>
+      </c>
+      <c r="P136">
+        <v>1.85</v>
+      </c>
+      <c r="Q136">
+        <v>0.5</v>
+      </c>
+      <c r="R136">
+        <v>1.975</v>
+      </c>
+      <c r="S136">
+        <v>1.875</v>
+      </c>
+      <c r="T136">
+        <v>3</v>
+      </c>
+      <c r="U136">
         <v>2.05</v>
       </c>
-      <c r="L136">
-        <v>3.6</v>
-      </c>
-      <c r="M136">
-        <v>3.25</v>
-      </c>
-      <c r="N136">
-        <v>2.45</v>
-      </c>
-      <c r="O136">
-        <v>4</v>
-      </c>
-      <c r="P136">
-        <v>2.55</v>
-      </c>
-      <c r="Q136">
-        <v>0</v>
-      </c>
-      <c r="R136">
-        <v>1.9</v>
-      </c>
-      <c r="S136">
-        <v>1.95</v>
-      </c>
-      <c r="T136">
-        <v>3.25</v>
-      </c>
-      <c r="U136">
-        <v>2.025</v>
-      </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y136">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA136">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC136">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12824,7 +12824,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -12910,7 +12910,7 @@
         <v>45183.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
         <v>42</v>
@@ -12987,7 +12987,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6799273</v>
+        <v>6798871</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12999,76 +12999,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K141">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L141">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M141">
+        <v>2.5</v>
+      </c>
+      <c r="N141">
+        <v>2.55</v>
+      </c>
+      <c r="O141">
+        <v>3.5</v>
+      </c>
+      <c r="P141">
+        <v>2.625</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <v>1.825</v>
+      </c>
+      <c r="S141">
+        <v>2.025</v>
+      </c>
+      <c r="T141">
         <v>2.75</v>
       </c>
-      <c r="N141">
-        <v>2.25</v>
-      </c>
-      <c r="O141">
-        <v>3.4</v>
-      </c>
-      <c r="P141">
-        <v>3.1</v>
-      </c>
-      <c r="Q141">
-        <v>-0.25</v>
-      </c>
-      <c r="R141">
-        <v>2.05</v>
-      </c>
-      <c r="S141">
-        <v>1.8</v>
-      </c>
-      <c r="T141">
+      <c r="U141">
+        <v>1.9</v>
+      </c>
+      <c r="V141">
+        <v>1.95</v>
+      </c>
+      <c r="W141">
+        <v>-1</v>
+      </c>
+      <c r="X141">
         <v>2.5</v>
       </c>
-      <c r="U141">
-        <v>1.95</v>
-      </c>
-      <c r="V141">
-        <v>1.9</v>
-      </c>
-      <c r="W141">
-        <v>-1</v>
-      </c>
-      <c r="X141">
-        <v>-1</v>
-      </c>
       <c r="Y141">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA141">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6798871</v>
+        <v>6799273</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,76 +13088,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K142">
+        <v>2.4</v>
+      </c>
+      <c r="L142">
+        <v>3.3</v>
+      </c>
+      <c r="M142">
+        <v>2.75</v>
+      </c>
+      <c r="N142">
+        <v>2.25</v>
+      </c>
+      <c r="O142">
+        <v>3.4</v>
+      </c>
+      <c r="P142">
+        <v>3.1</v>
+      </c>
+      <c r="Q142">
+        <v>-0.25</v>
+      </c>
+      <c r="R142">
+        <v>2.05</v>
+      </c>
+      <c r="S142">
+        <v>1.8</v>
+      </c>
+      <c r="T142">
         <v>2.5</v>
       </c>
-      <c r="L142">
-        <v>3.5</v>
-      </c>
-      <c r="M142">
-        <v>2.5</v>
-      </c>
-      <c r="N142">
-        <v>2.55</v>
-      </c>
-      <c r="O142">
-        <v>3.5</v>
-      </c>
-      <c r="P142">
-        <v>2.625</v>
-      </c>
-      <c r="Q142">
-        <v>0</v>
-      </c>
-      <c r="R142">
-        <v>1.825</v>
-      </c>
-      <c r="S142">
-        <v>2.025</v>
-      </c>
-      <c r="T142">
-        <v>2.75</v>
-      </c>
       <c r="U142">
+        <v>1.95</v>
+      </c>
+      <c r="V142">
         <v>1.9</v>
       </c>
-      <c r="V142">
-        <v>1.95</v>
-      </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6798555</v>
+        <v>6798872</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,76 +13444,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K146">
-        <v>2.05</v>
+        <v>1.2</v>
       </c>
       <c r="L146">
+        <v>6</v>
+      </c>
+      <c r="M146">
+        <v>13</v>
+      </c>
+      <c r="N146">
+        <v>1.2</v>
+      </c>
+      <c r="O146">
+        <v>6.5</v>
+      </c>
+      <c r="P146">
+        <v>13</v>
+      </c>
+      <c r="Q146">
+        <v>-2</v>
+      </c>
+      <c r="R146">
+        <v>1.975</v>
+      </c>
+      <c r="S146">
+        <v>1.875</v>
+      </c>
+      <c r="T146">
         <v>3.5</v>
       </c>
-      <c r="M146">
-        <v>3.2</v>
-      </c>
-      <c r="N146">
-        <v>2.4</v>
-      </c>
-      <c r="O146">
-        <v>3.5</v>
-      </c>
-      <c r="P146">
-        <v>2.75</v>
-      </c>
-      <c r="Q146">
+      <c r="U146">
+        <v>2.025</v>
+      </c>
+      <c r="V146">
+        <v>1.825</v>
+      </c>
+      <c r="W146">
+        <v>0.2</v>
+      </c>
+      <c r="X146">
+        <v>-1</v>
+      </c>
+      <c r="Y146">
+        <v>-1</v>
+      </c>
+      <c r="Z146">
         <v>0</v>
       </c>
-      <c r="R146">
-        <v>1.825</v>
-      </c>
-      <c r="S146">
-        <v>2.025</v>
-      </c>
-      <c r="T146">
-        <v>2.75</v>
-      </c>
-      <c r="U146">
-        <v>1.825</v>
-      </c>
-      <c r="V146">
-        <v>2.025</v>
-      </c>
-      <c r="W146">
-        <v>-1</v>
-      </c>
-      <c r="X146">
-        <v>-1</v>
-      </c>
-      <c r="Y146">
-        <v>1.75</v>
-      </c>
-      <c r="Z146">
-        <v>-1</v>
-      </c>
       <c r="AA146">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB146">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6798872</v>
+        <v>6800826</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,76 +13533,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G147" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
         <v>2</v>
       </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K147">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="L147">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M147">
-        <v>13</v>
+        <v>2.35</v>
       </c>
       <c r="N147">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="O147">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P147">
-        <v>13</v>
+        <v>2.3</v>
       </c>
       <c r="Q147">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R147">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S147">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T147">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U147">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V147">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W147">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC147">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6800826</v>
+        <v>6798555</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,10 +13622,10 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13637,40 +13637,40 @@
         <v>46</v>
       </c>
       <c r="K148">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="L148">
         <v>3.5</v>
       </c>
       <c r="M148">
-        <v>2.35</v>
+        <v>3.2</v>
       </c>
       <c r="N148">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="O148">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P148">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q148">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R148">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S148">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T148">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13679,19 +13679,19 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB148">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6798873</v>
+        <v>6799279</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,49 +13978,49 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G152" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K152">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="L152">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M152">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="N152">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="O152">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P152">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="Q152">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R152">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S152">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T152">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U152">
         <v>1.9</v>
@@ -14032,22 +14032,22 @@
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y152">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA152">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB152">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14055,7 +14055,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6799279</v>
+        <v>6798873</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14067,49 +14067,49 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G153" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J153" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K153">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="L153">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M153">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="N153">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="O153">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P153">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="Q153">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R153">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S153">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T153">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U153">
         <v>1.9</v>
@@ -14121,22 +14121,22 @@
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z153">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC153">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14245,7 +14245,7 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G155" t="s">
         <v>30</v>
@@ -14782,7 +14782,7 @@
         <v>42</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H161">
         <v>3</v>
@@ -15212,7 +15212,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6799287</v>
+        <v>6799286</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15224,67 +15224,67 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G166" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H166">
         <v>1</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K166">
+        <v>3.5</v>
+      </c>
+      <c r="L166">
+        <v>3.6</v>
+      </c>
+      <c r="M166">
+        <v>1.909</v>
+      </c>
+      <c r="N166">
+        <v>3.1</v>
+      </c>
+      <c r="O166">
+        <v>3.6</v>
+      </c>
+      <c r="P166">
+        <v>2.2</v>
+      </c>
+      <c r="Q166">
+        <v>0.25</v>
+      </c>
+      <c r="R166">
+        <v>1.9</v>
+      </c>
+      <c r="S166">
+        <v>1.95</v>
+      </c>
+      <c r="T166">
+        <v>3</v>
+      </c>
+      <c r="U166">
+        <v>2</v>
+      </c>
+      <c r="V166">
         <v>1.85</v>
       </c>
-      <c r="L166">
-        <v>3.75</v>
-      </c>
-      <c r="M166">
-        <v>3.8</v>
-      </c>
-      <c r="N166">
-        <v>1.8</v>
-      </c>
-      <c r="O166">
-        <v>3.75</v>
-      </c>
-      <c r="P166">
-        <v>4.75</v>
-      </c>
-      <c r="Q166">
-        <v>-0.75</v>
-      </c>
-      <c r="R166">
-        <v>2.025</v>
-      </c>
-      <c r="S166">
-        <v>1.825</v>
-      </c>
-      <c r="T166">
-        <v>2.5</v>
-      </c>
-      <c r="U166">
-        <v>2.025</v>
-      </c>
-      <c r="V166">
-        <v>1.825</v>
-      </c>
       <c r="W166">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.5125</v>
+        <v>0.45</v>
       </c>
       <c r="AA166">
         <v>-0.5</v>
@@ -15293,7 +15293,7 @@
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15301,7 +15301,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6799286</v>
+        <v>6799287</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15313,67 +15313,67 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G167" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H167">
         <v>1</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K167">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="L167">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M167">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="N167">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="O167">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P167">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q167">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S167">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T167">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U167">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V167">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X167">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.45</v>
+        <v>0.5125</v>
       </c>
       <c r="AA167">
         <v>-0.5</v>
@@ -15382,7 +15382,7 @@
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15491,7 +15491,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G169" t="s">
         <v>33</v>
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6799291</v>
+        <v>6799288</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,76 +15669,76 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G171" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H171">
+        <v>2</v>
+      </c>
+      <c r="I171">
         <v>1</v>
       </c>
-      <c r="I171">
-        <v>3</v>
-      </c>
       <c r="J171" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K171">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L171">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M171">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="N171">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O171">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P171">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R171">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S171">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T171">
         <v>2.75</v>
       </c>
       <c r="U171">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V171">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA171">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB171">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6799288</v>
+        <v>6799291</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,76 +15758,76 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G172" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J172" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K172">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L172">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M172">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="N172">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O172">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P172">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q172">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S172">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T172">
         <v>2.75</v>
       </c>
       <c r="U172">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W172">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z172">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB172">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC172">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6799294</v>
+        <v>6799293</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,76 +16114,76 @@
         <v>45233.625</v>
       </c>
       <c r="F176" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G176" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H176">
         <v>1</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J176" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K176">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="L176">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M176">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="N176">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="O176">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P176">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q176">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R176">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S176">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T176">
         <v>2.75</v>
       </c>
       <c r="U176">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V176">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W176">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z176">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC176">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16191,7 +16191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6799293</v>
+        <v>6799294</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16203,76 +16203,76 @@
         <v>45233.625</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G177" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H177">
         <v>1</v>
       </c>
       <c r="I177">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K177">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="L177">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M177">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="N177">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="O177">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P177">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="Q177">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R177">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V177">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA177">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB177">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16648,7 +16648,7 @@
         <v>45240.625</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G182" t="s">
         <v>38</v>
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6799296</v>
+        <v>6800819</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16737,76 +16737,76 @@
         <v>45240.625</v>
       </c>
       <c r="F183" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G183" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K183">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L183">
         <v>3.4</v>
       </c>
       <c r="M183">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="N183">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="O183">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P183">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q183">
         <v>0</v>
       </c>
       <c r="R183">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S183">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T183">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U183">
+        <v>1.9</v>
+      </c>
+      <c r="V183">
         <v>1.95</v>
       </c>
-      <c r="V183">
-        <v>1.9</v>
-      </c>
       <c r="W183">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X183">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA183">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16814,7 +16814,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6800819</v>
+        <v>6799296</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16826,76 +16826,76 @@
         <v>45240.625</v>
       </c>
       <c r="F184" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G184" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K184">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L184">
         <v>3.4</v>
       </c>
       <c r="M184">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="N184">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="O184">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P184">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q184">
         <v>0</v>
       </c>
       <c r="R184">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S184">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T184">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U184">
+        <v>1.95</v>
+      </c>
+      <c r="V184">
         <v>1.9</v>
       </c>
-      <c r="V184">
-        <v>1.95</v>
-      </c>
       <c r="W184">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17259,7 +17259,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6799298</v>
+        <v>6799300</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17271,73 +17271,73 @@
         <v>45254.625</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G189" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H189">
+        <v>4</v>
+      </c>
+      <c r="I189">
         <v>1</v>
       </c>
-      <c r="I189">
-        <v>2</v>
-      </c>
       <c r="J189" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K189">
-        <v>3.1</v>
+        <v>1.25</v>
       </c>
       <c r="L189">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M189">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="N189">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="O189">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P189">
-        <v>2.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q189">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R189">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S189">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U189">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V189">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA189">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6799300</v>
+        <v>6799298</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17360,73 +17360,73 @@
         <v>45254.625</v>
       </c>
       <c r="F190" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H190">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K190">
+        <v>3.1</v>
+      </c>
+      <c r="L190">
+        <v>3.6</v>
+      </c>
+      <c r="M190">
+        <v>2.1</v>
+      </c>
+      <c r="N190">
+        <v>3.2</v>
+      </c>
+      <c r="O190">
+        <v>3.4</v>
+      </c>
+      <c r="P190">
+        <v>2.25</v>
+      </c>
+      <c r="Q190">
+        <v>0.25</v>
+      </c>
+      <c r="R190">
+        <v>1.95</v>
+      </c>
+      <c r="S190">
+        <v>1.9</v>
+      </c>
+      <c r="T190">
+        <v>2.5</v>
+      </c>
+      <c r="U190">
+        <v>1.85</v>
+      </c>
+      <c r="V190">
+        <v>2</v>
+      </c>
+      <c r="W190">
+        <v>-1</v>
+      </c>
+      <c r="X190">
+        <v>-1</v>
+      </c>
+      <c r="Y190">
         <v>1.25</v>
       </c>
-      <c r="L190">
-        <v>6</v>
-      </c>
-      <c r="M190">
-        <v>8</v>
-      </c>
-      <c r="N190">
-        <v>1.3</v>
-      </c>
-      <c r="O190">
-        <v>6</v>
-      </c>
-      <c r="P190">
-        <v>8.5</v>
-      </c>
-      <c r="Q190">
-        <v>-1.5</v>
-      </c>
-      <c r="R190">
-        <v>1.875</v>
-      </c>
-      <c r="S190">
-        <v>1.975</v>
-      </c>
-      <c r="T190">
-        <v>3.25</v>
-      </c>
-      <c r="U190">
-        <v>1.925</v>
-      </c>
-      <c r="V190">
-        <v>1.925</v>
-      </c>
-      <c r="W190">
-        <v>0.3</v>
-      </c>
-      <c r="X190">
-        <v>-1</v>
-      </c>
-      <c r="Y190">
-        <v>-1</v>
-      </c>
       <c r="Z190">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB190">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17541,7 +17541,7 @@
         <v>39</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17983,7 +17983,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G197" t="s">
         <v>43</v>
@@ -18060,7 +18060,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7554250</v>
+        <v>6799302</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18072,76 +18072,76 @@
         <v>45265.60416666666</v>
       </c>
       <c r="F198" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G198" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K198">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L198">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M198">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N198">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O198">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P198">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q198">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R198">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S198">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T198">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U198">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V198">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y198">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA198">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC198">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18149,7 +18149,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6799302</v>
+        <v>7554250</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18161,76 +18161,76 @@
         <v>45265.60416666666</v>
       </c>
       <c r="F199" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G199" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K199">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="L199">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M199">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N199">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O199">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P199">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q199">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R199">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S199">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T199">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U199">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V199">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z199">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB199">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18238,7 +18238,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6798562</v>
+        <v>6799307</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18250,46 +18250,46 @@
         <v>45345.625</v>
       </c>
       <c r="F200" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G200" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="K200">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="L200">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M200">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="N200">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="O200">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P200">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q200">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R200">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S200">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T200">
         <v>2.5</v>
       </c>
       <c r="U200">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V200">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W200">
         <v>0</v>
@@ -18312,7 +18312,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6799307</v>
+        <v>6799305</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18324,28 +18324,28 @@
         <v>45345.625</v>
       </c>
       <c r="F201" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G201" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K201">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L201">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M201">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="N201">
         <v>2.05</v>
       </c>
       <c r="O201">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P201">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q201">
         <v>-0.25</v>
@@ -18357,7 +18357,7 @@
         <v>2</v>
       </c>
       <c r="T201">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U201">
         <v>2</v>
@@ -18386,7 +18386,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6799305</v>
+        <v>6798562</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18398,46 +18398,46 @@
         <v>45345.625</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G202" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K202">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L202">
         <v>3.5</v>
       </c>
       <c r="M202">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="N202">
+        <v>2.75</v>
+      </c>
+      <c r="O202">
+        <v>3.5</v>
+      </c>
+      <c r="P202">
+        <v>2.3</v>
+      </c>
+      <c r="Q202">
+        <v>0.25</v>
+      </c>
+      <c r="R202">
+        <v>1.8</v>
+      </c>
+      <c r="S202">
         <v>2.05</v>
       </c>
-      <c r="O202">
-        <v>3.75</v>
-      </c>
-      <c r="P202">
-        <v>3.2</v>
-      </c>
-      <c r="Q202">
-        <v>-0.25</v>
-      </c>
-      <c r="R202">
-        <v>1.85</v>
-      </c>
-      <c r="S202">
-        <v>2</v>
-      </c>
       <c r="T202">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U202">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V202">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W202">
         <v>0</v>

--- a/Denmark Division 1/Denmark Division 1.xlsx
+++ b/Denmark Division 1/Denmark Division 1.xlsx
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5128295</v>
+        <v>5128568</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,76 +2319,76 @@
         <v>44996.375</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K21">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L21">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="N21">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="O21">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P21">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R21">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V21">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W21">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z21">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5128568</v>
+        <v>5128295</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>44996.375</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
         <v>0</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L22">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M22">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="N22">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="O22">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P22">
+        <v>3</v>
+      </c>
+      <c r="Q22">
+        <v>-0.25</v>
+      </c>
+      <c r="R22">
+        <v>2.1</v>
+      </c>
+      <c r="S22">
+        <v>1.775</v>
+      </c>
+      <c r="T22">
+        <v>2.5</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22">
         <v>1.85</v>
       </c>
-      <c r="Q22">
-        <v>0.5</v>
-      </c>
-      <c r="R22">
-        <v>1.975</v>
-      </c>
-      <c r="S22">
-        <v>1.875</v>
-      </c>
-      <c r="T22">
-        <v>2.75</v>
-      </c>
-      <c r="U22">
-        <v>1.825</v>
-      </c>
-      <c r="V22">
-        <v>2.025</v>
-      </c>
       <c r="W22">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
+        <v>-1</v>
+      </c>
+      <c r="Z22">
+        <v>1.1</v>
+      </c>
+      <c r="AA22">
+        <v>-1</v>
+      </c>
+      <c r="AB22">
+        <v>-1</v>
+      </c>
+      <c r="AC22">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z22">
-        <v>-1</v>
-      </c>
-      <c r="AA22">
-        <v>0.875</v>
-      </c>
-      <c r="AB22">
-        <v>-1</v>
-      </c>
-      <c r="AC22">
-        <v>1.025</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5128571</v>
+        <v>5128201</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,76 +2853,76 @@
         <v>45003.375</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>2</v>
       </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="L27">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>3.6</v>
+        <v>1.714</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="O27">
         <v>3.5</v>
       </c>
       <c r="P27">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V27">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5128528</v>
+        <v>5128294</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,49 +2942,49 @@
         <v>45003.375</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K28">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L28">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M28">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="N28">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="O28">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P28">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q28">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T28">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
         <v>2</v>
@@ -2996,16 +2996,16 @@
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB28">
         <v>-1</v>
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5128572</v>
+        <v>5128527</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,13 +3031,13 @@
         <v>45003.375</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -3046,43 +3046,43 @@
         <v>47</v>
       </c>
       <c r="K29">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L29">
+        <v>3.6</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29">
+        <v>1.8</v>
+      </c>
+      <c r="O29">
         <v>3.8</v>
       </c>
-      <c r="M29">
-        <v>4.2</v>
-      </c>
-      <c r="N29">
-        <v>1.7</v>
-      </c>
-      <c r="O29">
+      <c r="P29">
         <v>4</v>
-      </c>
-      <c r="P29">
-        <v>4.5</v>
       </c>
       <c r="Q29">
         <v>-0.75</v>
       </c>
       <c r="R29">
+        <v>2.05</v>
+      </c>
+      <c r="S29">
+        <v>1.8</v>
+      </c>
+      <c r="T29">
+        <v>2.75</v>
+      </c>
+      <c r="U29">
         <v>1.9</v>
       </c>
-      <c r="S29">
+      <c r="V29">
         <v>1.95</v>
       </c>
-      <c r="T29">
-        <v>3</v>
-      </c>
-      <c r="U29">
-        <v>2.05</v>
-      </c>
-      <c r="V29">
-        <v>1.8</v>
-      </c>
       <c r="W29">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3091,16 +3091,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.45</v>
+        <v>1.05</v>
       </c>
       <c r="AA29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5128527</v>
+        <v>5128571</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,13 +3120,13 @@
         <v>45003.375</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -3135,43 +3135,43 @@
         <v>47</v>
       </c>
       <c r="K30">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L30">
+        <v>3.5</v>
+      </c>
+      <c r="M30">
         <v>3.6</v>
       </c>
-      <c r="M30">
-        <v>4</v>
-      </c>
       <c r="N30">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O30">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P30">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3180,13 +3180,13 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5128201</v>
+        <v>5128572</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,76 +3209,76 @@
         <v>45003.375</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31">
+        <v>1.666</v>
+      </c>
+      <c r="L31">
+        <v>3.8</v>
+      </c>
+      <c r="M31">
+        <v>4.2</v>
+      </c>
+      <c r="N31">
+        <v>1.7</v>
+      </c>
+      <c r="O31">
+        <v>4</v>
+      </c>
+      <c r="P31">
+        <v>4.5</v>
+      </c>
+      <c r="Q31">
+        <v>-0.75</v>
+      </c>
+      <c r="R31">
+        <v>1.9</v>
+      </c>
+      <c r="S31">
+        <v>1.95</v>
+      </c>
+      <c r="T31">
+        <v>3</v>
+      </c>
+      <c r="U31">
+        <v>2.05</v>
+      </c>
+      <c r="V31">
+        <v>1.8</v>
+      </c>
+      <c r="W31">
+        <v>0.7</v>
+      </c>
+      <c r="X31">
+        <v>-1</v>
+      </c>
+      <c r="Y31">
+        <v>-1</v>
+      </c>
+      <c r="Z31">
+        <v>0.45</v>
+      </c>
+      <c r="AA31">
+        <v>-0.5</v>
+      </c>
+      <c r="AB31">
         <v>0</v>
       </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
-      <c r="J31" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31">
-        <v>4.75</v>
-      </c>
-      <c r="L31">
-        <v>3.6</v>
-      </c>
-      <c r="M31">
-        <v>1.714</v>
-      </c>
-      <c r="N31">
-        <v>4.75</v>
-      </c>
-      <c r="O31">
-        <v>3.5</v>
-      </c>
-      <c r="P31">
-        <v>1.727</v>
-      </c>
-      <c r="Q31">
-        <v>0.75</v>
-      </c>
-      <c r="R31">
-        <v>1.875</v>
-      </c>
-      <c r="S31">
-        <v>1.975</v>
-      </c>
-      <c r="T31">
-        <v>2.5</v>
-      </c>
-      <c r="U31">
-        <v>1.95</v>
-      </c>
-      <c r="V31">
-        <v>1.9</v>
-      </c>
-      <c r="W31">
-        <v>-1</v>
-      </c>
-      <c r="X31">
-        <v>-1</v>
-      </c>
-      <c r="Y31">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Z31">
-        <v>-1</v>
-      </c>
-      <c r="AA31">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB31">
-        <v>-1</v>
-      </c>
       <c r="AC31">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5128294</v>
+        <v>5128528</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,49 +3298,49 @@
         <v>45003.375</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L32">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M32">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="N32">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="O32">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P32">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R32">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T32">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U32">
         <v>2</v>
@@ -3352,16 +3352,16 @@
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y32">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB32">
         <v>-1</v>
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6428347</v>
+        <v>6428348</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>45032.375</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K48">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="L48">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48">
         <v>2.2</v>
       </c>
-      <c r="N48">
-        <v>2.8</v>
-      </c>
       <c r="O48">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P48">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S48">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V48">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X48">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA48">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC48">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6428348</v>
+        <v>6428347</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>45032.375</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H49">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K49">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L49">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N49">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O49">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P49">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q49">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S49">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T49">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V49">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W49">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6428349</v>
+        <v>6428321</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,40 +4989,40 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K51">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="L51">
         <v>3.5</v>
       </c>
       <c r="M51">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="N51">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="O51">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P51">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R51">
         <v>1.925</v>
@@ -5031,7 +5031,7 @@
         <v>1.925</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
         <v>1.9</v>
@@ -5040,25 +5040,25 @@
         <v>1.95</v>
       </c>
       <c r="W51">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z51">
+        <v>-1</v>
+      </c>
+      <c r="AA51">
         <v>0.925</v>
       </c>
-      <c r="AA51">
-        <v>-1</v>
-      </c>
       <c r="AB51">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC51">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6428321</v>
+        <v>6428349</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,40 +5078,40 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K52">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="L52">
         <v>3.5</v>
       </c>
       <c r="M52">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="N52">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="O52">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P52">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="Q52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R52">
         <v>1.925</v>
@@ -5120,7 +5120,7 @@
         <v>1.925</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U52">
         <v>1.9</v>
@@ -5129,25 +5129,25 @@
         <v>1.95</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6428353</v>
+        <v>6428352</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,76 +5434,76 @@
         <v>45044.5625</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K56">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L56">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M56">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N56">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="O56">
         <v>3.8</v>
       </c>
       <c r="P56">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="Q56">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S56">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T56">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U56">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V56">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W56">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z56">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB56">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6428352</v>
+        <v>6428353</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,76 +5523,76 @@
         <v>45044.5625</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K57">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L57">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M57">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="N57">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="O57">
         <v>3.8</v>
       </c>
       <c r="P57">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="Q57">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S57">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T57">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V57">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA57">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC57">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6428365</v>
+        <v>6428364</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,58 +7570,58 @@
         <v>45072.5625</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H80">
         <v>4</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J80" t="s">
         <v>47</v>
       </c>
       <c r="K80">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L80">
+        <v>4.2</v>
+      </c>
+      <c r="M80">
         <v>3.6</v>
       </c>
-      <c r="M80">
-        <v>3.25</v>
-      </c>
       <c r="N80">
-        <v>2.05</v>
+        <v>1.45</v>
       </c>
       <c r="O80">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P80">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R80">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S80">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T80">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U80">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W80">
-        <v>1.05</v>
+        <v>0.45</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7630,13 +7630,13 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB80">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6428364</v>
+        <v>6428365</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,58 +7659,58 @@
         <v>45072.5625</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H81">
         <v>4</v>
       </c>
       <c r="I81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
         <v>47</v>
       </c>
       <c r="K81">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L81">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M81">
+        <v>3.25</v>
+      </c>
+      <c r="N81">
+        <v>2.05</v>
+      </c>
+      <c r="O81">
         <v>3.6</v>
       </c>
-      <c r="N81">
-        <v>1.45</v>
-      </c>
-      <c r="O81">
-        <v>5.25</v>
-      </c>
       <c r="P81">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q81">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S81">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T81">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V81">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W81">
-        <v>0.45</v>
+        <v>1.05</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7719,13 +7719,13 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA81">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6428334</v>
+        <v>6428335</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,76 +7926,76 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J84" t="s">
         <v>45</v>
       </c>
       <c r="K84">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M84">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="N84">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P84">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="Q84">
         <v>0.5</v>
       </c>
       <c r="R84">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T84">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V84">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC84">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6428335</v>
+        <v>6428334</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>45</v>
       </c>
       <c r="K85">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L85">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M85">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="N85">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O85">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P85">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="Q85">
         <v>0.5</v>
       </c>
       <c r="R85">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S85">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T85">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6428369</v>
+        <v>6428368</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,73 +8104,73 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86" t="s">
+        <v>47</v>
+      </c>
+      <c r="K86">
+        <v>1.571</v>
+      </c>
+      <c r="L86">
+        <v>4.333</v>
+      </c>
+      <c r="M86">
+        <v>4.333</v>
+      </c>
+      <c r="N86">
+        <v>1.45</v>
+      </c>
+      <c r="O86">
         <v>5</v>
       </c>
-      <c r="J86" t="s">
-        <v>46</v>
-      </c>
-      <c r="K86">
-        <v>4.2</v>
-      </c>
-      <c r="L86">
-        <v>4.2</v>
-      </c>
-      <c r="M86">
-        <v>1.65</v>
-      </c>
-      <c r="N86">
+      <c r="P86">
         <v>6</v>
       </c>
-      <c r="O86">
-        <v>5.75</v>
-      </c>
-      <c r="P86">
-        <v>1.444</v>
-      </c>
       <c r="Q86">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R86">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S86">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T86">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V86">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA86">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC86">
         <v>-1</v>
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6428368</v>
+        <v>6428369</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,73 +8282,73 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>5</v>
+      </c>
+      <c r="J88" t="s">
+        <v>46</v>
+      </c>
+      <c r="K88">
+        <v>4.2</v>
+      </c>
+      <c r="L88">
+        <v>4.2</v>
+      </c>
+      <c r="M88">
+        <v>1.65</v>
+      </c>
+      <c r="N88">
+        <v>6</v>
+      </c>
+      <c r="O88">
+        <v>5.75</v>
+      </c>
+      <c r="P88">
+        <v>1.444</v>
+      </c>
+      <c r="Q88">
+        <v>1.5</v>
+      </c>
+      <c r="R88">
+        <v>1.825</v>
+      </c>
+      <c r="S88">
+        <v>2.025</v>
+      </c>
+      <c r="T88">
         <v>4</v>
       </c>
-      <c r="I88">
-        <v>2</v>
-      </c>
-      <c r="J88" t="s">
-        <v>47</v>
-      </c>
-      <c r="K88">
-        <v>1.571</v>
-      </c>
-      <c r="L88">
-        <v>4.333</v>
-      </c>
-      <c r="M88">
-        <v>4.333</v>
-      </c>
-      <c r="N88">
-        <v>1.45</v>
-      </c>
-      <c r="O88">
-        <v>5</v>
-      </c>
-      <c r="P88">
-        <v>6</v>
-      </c>
-      <c r="Q88">
-        <v>-1.25</v>
-      </c>
-      <c r="R88">
-        <v>1.925</v>
-      </c>
-      <c r="S88">
-        <v>1.925</v>
-      </c>
-      <c r="T88">
-        <v>3.5</v>
-      </c>
       <c r="U88">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W88">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z88">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB88">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6428338</v>
+        <v>6428339</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,58 +8460,58 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H90">
+        <v>4</v>
+      </c>
+      <c r="I90">
         <v>3</v>
-      </c>
-      <c r="I90">
-        <v>2</v>
       </c>
       <c r="J90" t="s">
         <v>47</v>
       </c>
       <c r="K90">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="L90">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M90">
         <v>5</v>
       </c>
       <c r="N90">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="O90">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P90">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="Q90">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T90">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W90">
-        <v>0.363</v>
+        <v>1.2</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8520,13 +8520,13 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA90">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8537,7 +8537,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6428339</v>
+        <v>6428338</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8549,58 +8549,58 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
         <v>47</v>
       </c>
       <c r="K91">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M91">
         <v>5</v>
       </c>
       <c r="N91">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="O91">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P91">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="Q91">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S91">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U91">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W91">
-        <v>1.2</v>
+        <v>0.363</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8609,13 +8609,13 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB91">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6798548</v>
+        <v>6799248</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,10 +8905,10 @@
         <v>45130.375</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8920,19 +8920,19 @@
         <v>47</v>
       </c>
       <c r="K95">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="L95">
         <v>3.6</v>
       </c>
       <c r="M95">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N95">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P95">
         <v>2.55</v>
@@ -8941,22 +8941,22 @@
         <v>0</v>
       </c>
       <c r="R95">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T95">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V95">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
-        <v>1.8</v>
+        <v>1.625</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8965,16 +8965,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6799248</v>
+        <v>6799247</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45130.375</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
         <v>2</v>
       </c>
-      <c r="I96">
-        <v>1</v>
-      </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K96">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="L96">
         <v>3.6</v>
       </c>
       <c r="M96">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N96">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O96">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P96">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
+        <v>1.875</v>
+      </c>
+      <c r="S96">
         <v>1.975</v>
-      </c>
-      <c r="S96">
-        <v>1.875</v>
       </c>
       <c r="T96">
         <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W96">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z96">
+        <v>-1</v>
+      </c>
+      <c r="AA96">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA96">
-        <v>-1</v>
-      </c>
       <c r="AB96">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6799247</v>
+        <v>6798548</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45130.375</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K97">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="L97">
         <v>3.6</v>
       </c>
       <c r="M97">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="N97">
+        <v>2.8</v>
+      </c>
+      <c r="O97">
+        <v>3.4</v>
+      </c>
+      <c r="P97">
+        <v>2.55</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>2</v>
+      </c>
+      <c r="S97">
         <v>1.85</v>
       </c>
-      <c r="O97">
-        <v>3.6</v>
-      </c>
-      <c r="P97">
-        <v>4.2</v>
-      </c>
-      <c r="Q97">
-        <v>-0.5</v>
-      </c>
-      <c r="R97">
-        <v>1.875</v>
-      </c>
-      <c r="S97">
-        <v>1.975</v>
-      </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U97">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V97">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA97">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC97">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6799251</v>
+        <v>6799250</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,73 +9172,73 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K98">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="L98">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M98">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N98">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="O98">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P98">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R98">
+        <v>1.975</v>
+      </c>
+      <c r="S98">
         <v>1.875</v>
       </c>
-      <c r="S98">
-        <v>1.975</v>
-      </c>
       <c r="T98">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA98">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6799250</v>
+        <v>6799251</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,73 +9261,73 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
         <v>3</v>
       </c>
-      <c r="I99">
+      <c r="J99" t="s">
+        <v>46</v>
+      </c>
+      <c r="K99">
+        <v>1.7</v>
+      </c>
+      <c r="L99">
+        <v>3.8</v>
+      </c>
+      <c r="M99">
+        <v>4</v>
+      </c>
+      <c r="N99">
+        <v>1.7</v>
+      </c>
+      <c r="O99">
+        <v>4</v>
+      </c>
+      <c r="P99">
+        <v>4.5</v>
+      </c>
+      <c r="Q99">
+        <v>-0.75</v>
+      </c>
+      <c r="R99">
+        <v>1.875</v>
+      </c>
+      <c r="S99">
+        <v>1.975</v>
+      </c>
+      <c r="T99">
+        <v>3</v>
+      </c>
+      <c r="U99">
+        <v>1.85</v>
+      </c>
+      <c r="V99">
         <v>2</v>
       </c>
-      <c r="J99" t="s">
-        <v>47</v>
-      </c>
-      <c r="K99">
-        <v>2.3</v>
-      </c>
-      <c r="L99">
-        <v>3.3</v>
-      </c>
-      <c r="M99">
-        <v>2.75</v>
-      </c>
-      <c r="N99">
-        <v>2.8</v>
-      </c>
-      <c r="O99">
-        <v>3.3</v>
-      </c>
-      <c r="P99">
-        <v>2.5</v>
-      </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-      <c r="R99">
-        <v>1.975</v>
-      </c>
-      <c r="S99">
-        <v>1.875</v>
-      </c>
-      <c r="T99">
-        <v>2.5</v>
-      </c>
-      <c r="U99">
-        <v>1.9</v>
-      </c>
-      <c r="V99">
-        <v>1.95</v>
-      </c>
       <c r="W99">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z99">
+        <v>-1</v>
+      </c>
+      <c r="AA99">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA99">
-        <v>-1</v>
-      </c>
       <c r="AB99">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6800833</v>
+        <v>6798867</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,76 +10329,76 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
       <c r="I111">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K111">
+        <v>4.333</v>
+      </c>
+      <c r="L111">
+        <v>3.75</v>
+      </c>
+      <c r="M111">
+        <v>1.65</v>
+      </c>
+      <c r="N111">
+        <v>4.75</v>
+      </c>
+      <c r="O111">
+        <v>4</v>
+      </c>
+      <c r="P111">
         <v>1.615</v>
       </c>
-      <c r="L111">
-        <v>4</v>
-      </c>
-      <c r="M111">
-        <v>4.2</v>
-      </c>
-      <c r="N111">
-        <v>1.75</v>
-      </c>
-      <c r="O111">
-        <v>4.333</v>
-      </c>
-      <c r="P111">
-        <v>3.8</v>
-      </c>
       <c r="Q111">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R111">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S111">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T111">
         <v>3</v>
       </c>
       <c r="U111">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y111">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA111">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6798867</v>
+        <v>6800833</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,76 +10418,76 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J112" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K112">
+        <v>1.615</v>
+      </c>
+      <c r="L112">
+        <v>4</v>
+      </c>
+      <c r="M112">
+        <v>4.2</v>
+      </c>
+      <c r="N112">
+        <v>1.75</v>
+      </c>
+      <c r="O112">
         <v>4.333</v>
       </c>
-      <c r="L112">
-        <v>3.75</v>
-      </c>
-      <c r="M112">
-        <v>1.65</v>
-      </c>
-      <c r="N112">
-        <v>4.75</v>
-      </c>
-      <c r="O112">
-        <v>4</v>
-      </c>
       <c r="P112">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="Q112">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R112">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S112">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
         <v>3</v>
       </c>
       <c r="U112">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V112">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z112">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC112">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6800832</v>
+        <v>6798551</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,55 +10863,55 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J117" t="s">
         <v>46</v>
       </c>
       <c r="K117">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L117">
         <v>3.4</v>
       </c>
       <c r="M117">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N117">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="O117">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P117">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q117">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R117">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S117">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T117">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U117">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V117">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
         <v>-1</v>
@@ -10920,16 +10920,16 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>1.8</v>
+        <v>1.375</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB117">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6798551</v>
+        <v>6800832</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,56 +10952,56 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J118" t="s">
         <v>46</v>
       </c>
       <c r="K118">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L118">
         <v>3.4</v>
       </c>
       <c r="M118">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N118">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="O118">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P118">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="Q118">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R118">
+        <v>1.825</v>
+      </c>
+      <c r="S118">
+        <v>2.025</v>
+      </c>
+      <c r="T118">
+        <v>3</v>
+      </c>
+      <c r="U118">
         <v>1.8</v>
       </c>
-      <c r="S118">
+      <c r="V118">
         <v>2.05</v>
       </c>
-      <c r="T118">
-        <v>2.75</v>
-      </c>
-      <c r="U118">
-        <v>1.875</v>
-      </c>
-      <c r="V118">
-        <v>1.975</v>
-      </c>
       <c r="W118">
         <v>-1</v>
       </c>
@@ -11009,16 +11009,16 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>1.375</v>
+        <v>1.8</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB118">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6799262</v>
+        <v>6800831</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,34 +11308,34 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K122">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L122">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M122">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="N122">
         <v>2.15</v>
       </c>
       <c r="O122">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P122">
         <v>3.1</v>
@@ -11344,40 +11344,40 @@
         <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T122">
         <v>3</v>
       </c>
       <c r="U122">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V122">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W122">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z122">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB122">
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6800831</v>
+        <v>6799262</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,34 +11397,34 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H123">
+        <v>2</v>
+      </c>
+      <c r="I123">
         <v>0</v>
       </c>
-      <c r="I123">
-        <v>1</v>
-      </c>
       <c r="J123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L123">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N123">
         <v>2.15</v>
       </c>
       <c r="O123">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P123">
         <v>3.1</v>
@@ -11433,40 +11433,40 @@
         <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S123">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T123">
         <v>3</v>
       </c>
       <c r="U123">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V123">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA123">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6799263</v>
+        <v>6798552</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,40 +11575,40 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H125">
+        <v>2</v>
+      </c>
+      <c r="I125">
         <v>1</v>
       </c>
-      <c r="I125">
-        <v>6</v>
-      </c>
       <c r="J125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K125">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L125">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M125">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N125">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="O125">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P125">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="Q125">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R125">
         <v>2</v>
@@ -11617,31 +11617,31 @@
         <v>1.85</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA125">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6798552</v>
+        <v>6799263</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,40 +11664,40 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G126" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K126">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L126">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M126">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N126">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="O126">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P126">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q126">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R126">
         <v>2</v>
@@ -11706,31 +11706,31 @@
         <v>1.85</v>
       </c>
       <c r="T126">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U126">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V126">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W126">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z126">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB126">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6800829</v>
+        <v>6799268</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
         <v>45</v>
       </c>
       <c r="K135">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="L135">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M135">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="N135">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="O135">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P135">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q135">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R135">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T135">
         <v>3</v>
       </c>
       <c r="U135">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V135">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA135">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC135">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6799268</v>
+        <v>6800829</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
         <v>45</v>
       </c>
       <c r="K136">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="L136">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M136">
-        <v>1.571</v>
+        <v>3.8</v>
       </c>
       <c r="N136">
+        <v>1.666</v>
+      </c>
+      <c r="O136">
         <v>4.2</v>
       </c>
-      <c r="O136">
-        <v>3.75</v>
-      </c>
       <c r="P136">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="Q136">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S136">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T136">
         <v>3</v>
       </c>
       <c r="U136">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V136">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
+        <v>-1</v>
+      </c>
+      <c r="AA136">
+        <v>1.025</v>
+      </c>
+      <c r="AB136">
+        <v>-1</v>
+      </c>
+      <c r="AC136">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA136">
-        <v>-1</v>
-      </c>
-      <c r="AB136">
-        <v>1.05</v>
-      </c>
-      <c r="AC136">
-        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12987,7 +12987,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6798871</v>
+        <v>6800827</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12999,76 +12999,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K141">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L141">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M141">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N141">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="O141">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P141">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S141">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T141">
         <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V141">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6800827</v>
+        <v>6798871</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,76 +13177,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G143" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K143">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L143">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M143">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="N143">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="O143">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P143">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S143">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T143">
         <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y143">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA143">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6798872</v>
+        <v>6800826</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,76 +13444,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G146" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
         <v>2</v>
       </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
       <c r="J146" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K146">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="L146">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M146">
-        <v>13</v>
+        <v>2.35</v>
       </c>
       <c r="N146">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="O146">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P146">
-        <v>13</v>
+        <v>2.3</v>
       </c>
       <c r="Q146">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R146">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S146">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T146">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V146">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W146">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC146">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6800826</v>
+        <v>6798872</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,76 +13533,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K147">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="L147">
+        <v>6</v>
+      </c>
+      <c r="M147">
+        <v>13</v>
+      </c>
+      <c r="N147">
+        <v>1.2</v>
+      </c>
+      <c r="O147">
+        <v>6.5</v>
+      </c>
+      <c r="P147">
+        <v>13</v>
+      </c>
+      <c r="Q147">
+        <v>-2</v>
+      </c>
+      <c r="R147">
+        <v>1.975</v>
+      </c>
+      <c r="S147">
+        <v>1.875</v>
+      </c>
+      <c r="T147">
         <v>3.5</v>
       </c>
-      <c r="M147">
-        <v>2.35</v>
-      </c>
-      <c r="N147">
-        <v>2.8</v>
-      </c>
-      <c r="O147">
-        <v>3.4</v>
-      </c>
-      <c r="P147">
-        <v>2.3</v>
-      </c>
-      <c r="Q147">
-        <v>0.25</v>
-      </c>
-      <c r="R147">
-        <v>1.8</v>
-      </c>
-      <c r="S147">
-        <v>2.05</v>
-      </c>
-      <c r="T147">
-        <v>2.5</v>
-      </c>
       <c r="U147">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V147">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA147">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB147">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6799279</v>
+        <v>6798873</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,49 +13978,49 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J152" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K152">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="L152">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M152">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="N152">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="O152">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P152">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R152">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S152">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T152">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U152">
         <v>1.9</v>
@@ -14032,22 +14032,22 @@
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z152">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC152">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14055,7 +14055,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6798873</v>
+        <v>6799279</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14067,49 +14067,49 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G153" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K153">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="L153">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M153">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="N153">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="O153">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P153">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="Q153">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R153">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S153">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T153">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U153">
         <v>1.9</v>
@@ -14121,22 +14121,22 @@
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y153">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA153">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB153">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6798874</v>
+        <v>6800824</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,55 +14601,55 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G159" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J159" t="s">
         <v>46</v>
       </c>
       <c r="K159">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L159">
         <v>3.75</v>
       </c>
       <c r="M159">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="N159">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O159">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P159">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q159">
         <v>0.5</v>
       </c>
       <c r="R159">
+        <v>1.875</v>
+      </c>
+      <c r="S159">
         <v>1.975</v>
       </c>
-      <c r="S159">
-        <v>1.875</v>
-      </c>
       <c r="T159">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U159">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V159">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14658,19 +14658,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB159">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6800824</v>
+        <v>6798874</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,55 +14690,55 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G160" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J160" t="s">
         <v>46</v>
       </c>
       <c r="K160">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L160">
         <v>3.75</v>
       </c>
       <c r="M160">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="N160">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O160">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P160">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q160">
         <v>0.5</v>
       </c>
       <c r="R160">
+        <v>1.975</v>
+      </c>
+      <c r="S160">
         <v>1.875</v>
       </c>
-      <c r="S160">
+      <c r="T160">
+        <v>2.5</v>
+      </c>
+      <c r="U160">
         <v>1.975</v>
       </c>
-      <c r="T160">
-        <v>3</v>
-      </c>
-      <c r="U160">
-        <v>2</v>
-      </c>
       <c r="V160">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14747,19 +14747,19 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
+        <v>0.875</v>
+      </c>
+      <c r="AB160">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB160">
-        <v>0</v>
-      </c>
       <c r="AC160">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6798558</v>
+        <v>6799287</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,13 +15135,13 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G165" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H165">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -15150,61 +15150,61 @@
         <v>47</v>
       </c>
       <c r="K165">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="L165">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M165">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="N165">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O165">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P165">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q165">
+        <v>-0.75</v>
+      </c>
+      <c r="R165">
+        <v>2.025</v>
+      </c>
+      <c r="S165">
+        <v>1.825</v>
+      </c>
+      <c r="T165">
+        <v>2.5</v>
+      </c>
+      <c r="U165">
+        <v>2.025</v>
+      </c>
+      <c r="V165">
+        <v>1.825</v>
+      </c>
+      <c r="W165">
+        <v>0.8</v>
+      </c>
+      <c r="X165">
+        <v>-1</v>
+      </c>
+      <c r="Y165">
+        <v>-1</v>
+      </c>
+      <c r="Z165">
+        <v>0.5125</v>
+      </c>
+      <c r="AA165">
         <v>-0.5</v>
       </c>
-      <c r="R165">
-        <v>1.925</v>
-      </c>
-      <c r="S165">
-        <v>1.925</v>
-      </c>
-      <c r="T165">
-        <v>2.75</v>
-      </c>
-      <c r="U165">
-        <v>1.9</v>
-      </c>
-      <c r="V165">
-        <v>1.95</v>
-      </c>
-      <c r="W165">
-        <v>0.909</v>
-      </c>
-      <c r="X165">
-        <v>-1</v>
-      </c>
-      <c r="Y165">
-        <v>-1</v>
-      </c>
-      <c r="Z165">
-        <v>0.925</v>
-      </c>
-      <c r="AA165">
-        <v>-1</v>
-      </c>
       <c r="AB165">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15301,7 +15301,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6799287</v>
+        <v>6798558</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15313,13 +15313,13 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G167" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -15328,43 +15328,43 @@
         <v>47</v>
       </c>
       <c r="K167">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="L167">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M167">
+        <v>4.333</v>
+      </c>
+      <c r="N167">
+        <v>1.909</v>
+      </c>
+      <c r="O167">
         <v>3.8</v>
       </c>
-      <c r="N167">
-        <v>1.8</v>
-      </c>
-      <c r="O167">
-        <v>3.75</v>
-      </c>
       <c r="P167">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q167">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S167">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T167">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U167">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V167">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W167">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15373,16 +15373,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.5125</v>
+        <v>0.925</v>
       </c>
       <c r="AA167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC167">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15568,7 +15568,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6800822</v>
+        <v>6799288</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15580,76 +15580,76 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G170" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K170">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="L170">
         <v>3.8</v>
       </c>
       <c r="M170">
-        <v>1.533</v>
+        <v>3.8</v>
       </c>
       <c r="N170">
-        <v>8</v>
+        <v>1.65</v>
       </c>
       <c r="O170">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P170">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q170">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R170">
+        <v>1.85</v>
+      </c>
+      <c r="S170">
+        <v>2</v>
+      </c>
+      <c r="T170">
+        <v>2.75</v>
+      </c>
+      <c r="U170">
         <v>1.925</v>
       </c>
-      <c r="S170">
+      <c r="V170">
         <v>1.925</v>
       </c>
-      <c r="T170">
-        <v>3.5</v>
-      </c>
-      <c r="U170">
-        <v>2.025</v>
-      </c>
-      <c r="V170">
-        <v>1.825</v>
-      </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA170">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB170">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6799288</v>
+        <v>6799291</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,76 +15669,76 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G171" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J171" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K171">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L171">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M171">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="N171">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O171">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P171">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q171">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R171">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S171">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T171">
         <v>2.75</v>
       </c>
       <c r="U171">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V171">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W171">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z171">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB171">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC171">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6799291</v>
+        <v>6800822</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,55 +15758,55 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F172" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G172" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J172" t="s">
         <v>46</v>
       </c>
       <c r="K172">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="L172">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M172">
-        <v>3.25</v>
+        <v>1.533</v>
       </c>
       <c r="N172">
-        <v>2.15</v>
+        <v>8</v>
       </c>
       <c r="O172">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P172">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="Q172">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R172">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S172">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T172">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U172">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V172">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W172">
         <v>-1</v>
@@ -15815,16 +15815,16 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>2.2</v>
+        <v>0.333</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB172">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC172">
         <v>-1</v>
@@ -16636,7 +16636,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6799295</v>
+        <v>6800819</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16648,76 +16648,76 @@
         <v>45240.625</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G182" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K182">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="L182">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M182">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="N182">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="O182">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P182">
+        <v>2.8</v>
+      </c>
+      <c r="Q182">
+        <v>0</v>
+      </c>
+      <c r="R182">
+        <v>1.8</v>
+      </c>
+      <c r="S182">
+        <v>2.05</v>
+      </c>
+      <c r="T182">
+        <v>2.75</v>
+      </c>
+      <c r="U182">
+        <v>1.9</v>
+      </c>
+      <c r="V182">
+        <v>1.95</v>
+      </c>
+      <c r="W182">
         <v>1.45</v>
       </c>
-      <c r="Q182">
-        <v>1.25</v>
-      </c>
-      <c r="R182">
-        <v>1.925</v>
-      </c>
-      <c r="S182">
-        <v>1.925</v>
-      </c>
-      <c r="T182">
-        <v>3.25</v>
-      </c>
-      <c r="U182">
-        <v>1.85</v>
-      </c>
-      <c r="V182">
-        <v>2</v>
-      </c>
-      <c r="W182">
-        <v>-1</v>
-      </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA182">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6800819</v>
+        <v>6799296</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16737,76 +16737,76 @@
         <v>45240.625</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G183" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K183">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L183">
         <v>3.4</v>
       </c>
       <c r="M183">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="N183">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="O183">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P183">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q183">
         <v>0</v>
       </c>
       <c r="R183">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S183">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T183">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U183">
+        <v>1.95</v>
+      </c>
+      <c r="V183">
         <v>1.9</v>
       </c>
-      <c r="V183">
-        <v>1.95</v>
-      </c>
       <c r="W183">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16814,7 +16814,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6799296</v>
+        <v>6799295</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16826,76 +16826,76 @@
         <v>45240.625</v>
       </c>
       <c r="F184" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H184">
         <v>1</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J184" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K184">
-        <v>2.75</v>
+        <v>7.5</v>
       </c>
       <c r="L184">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M184">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="N184">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="O184">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P184">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q184">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R184">
+        <v>1.925</v>
+      </c>
+      <c r="S184">
+        <v>1.925</v>
+      </c>
+      <c r="T184">
+        <v>3.25</v>
+      </c>
+      <c r="U184">
+        <v>1.85</v>
+      </c>
+      <c r="V184">
         <v>2</v>
       </c>
-      <c r="S184">
-        <v>1.85</v>
-      </c>
-      <c r="T184">
-        <v>3</v>
-      </c>
-      <c r="U184">
-        <v>1.95</v>
-      </c>
-      <c r="V184">
-        <v>1.9</v>
-      </c>
       <c r="W184">
         <v>-1</v>
       </c>
       <c r="X184">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC184">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -18060,7 +18060,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6799302</v>
+        <v>7554250</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18072,76 +18072,76 @@
         <v>45265.60416666666</v>
       </c>
       <c r="F198" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G198" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K198">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="L198">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M198">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N198">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O198">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P198">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q198">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R198">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S198">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T198">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V198">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z198">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB198">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18149,7 +18149,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7554250</v>
+        <v>6799302</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18161,76 +18161,76 @@
         <v>45265.60416666666</v>
       </c>
       <c r="F199" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G199" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K199">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L199">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M199">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N199">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O199">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P199">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q199">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R199">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S199">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T199">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V199">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y199">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA199">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC199">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18265,7 +18265,7 @@
         <v>4.333</v>
       </c>
       <c r="N200">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O200">
         <v>3.4</v>
@@ -18339,31 +18339,31 @@
         <v>2.9</v>
       </c>
       <c r="N201">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O201">
         <v>3.75</v>
       </c>
       <c r="P201">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q201">
         <v>-0.25</v>
       </c>
       <c r="R201">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S201">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T201">
         <v>2.75</v>
       </c>
       <c r="U201">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V201">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W201">
         <v>0</v>
@@ -18413,13 +18413,13 @@
         <v>2.4</v>
       </c>
       <c r="N202">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="O202">
         <v>3.5</v>
       </c>
       <c r="P202">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="Q202">
         <v>0.25</v>
@@ -18656,10 +18656,10 @@
         <v>2.5</v>
       </c>
       <c r="U205">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V205">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W205">
         <v>0</v>

--- a/Denmark Division 1/Denmark Division 1.xlsx
+++ b/Denmark Division 1/Denmark Division 1.xlsx
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5128199</v>
+        <v>5128297</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,40 +1518,40 @@
         <v>44982.375</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="L12">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="M12">
+        <v>1.7</v>
+      </c>
+      <c r="N12">
+        <v>3.6</v>
+      </c>
+      <c r="O12">
         <v>3.8</v>
       </c>
-      <c r="N12">
-        <v>2.2</v>
-      </c>
-      <c r="O12">
-        <v>3.5</v>
-      </c>
       <c r="P12">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R12">
         <v>1.925</v>
@@ -1560,19 +1560,19 @@
         <v>1.925</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V12">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W12">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y12">
         <v>-1</v>
@@ -1584,10 +1584,10 @@
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5128297</v>
+        <v>5128199</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1607,40 +1607,40 @@
         <v>44982.375</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="L13">
+        <v>3.7</v>
+      </c>
+      <c r="M13">
         <v>3.8</v>
       </c>
-      <c r="M13">
-        <v>1.7</v>
-      </c>
       <c r="N13">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="O13">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P13">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q13">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
         <v>1.925</v>
@@ -1649,19 +1649,19 @@
         <v>1.925</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X13">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
@@ -1673,10 +1673,10 @@
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC13">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5128568</v>
+        <v>5128295</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,76 +2319,76 @@
         <v>44996.375</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
         <v>0</v>
       </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="N21">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="O21">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P21">
+        <v>3</v>
+      </c>
+      <c r="Q21">
+        <v>-0.25</v>
+      </c>
+      <c r="R21">
+        <v>2.1</v>
+      </c>
+      <c r="S21">
+        <v>1.775</v>
+      </c>
+      <c r="T21">
+        <v>2.5</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21">
         <v>1.85</v>
       </c>
-      <c r="Q21">
-        <v>0.5</v>
-      </c>
-      <c r="R21">
-        <v>1.975</v>
-      </c>
-      <c r="S21">
-        <v>1.875</v>
-      </c>
-      <c r="T21">
-        <v>2.75</v>
-      </c>
-      <c r="U21">
-        <v>1.825</v>
-      </c>
-      <c r="V21">
-        <v>2.025</v>
-      </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
+        <v>-1</v>
+      </c>
+      <c r="Z21">
+        <v>1.1</v>
+      </c>
+      <c r="AA21">
+        <v>-1</v>
+      </c>
+      <c r="AB21">
+        <v>-1</v>
+      </c>
+      <c r="AC21">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z21">
-        <v>-1</v>
-      </c>
-      <c r="AA21">
-        <v>0.875</v>
-      </c>
-      <c r="AB21">
-        <v>-1</v>
-      </c>
-      <c r="AC21">
-        <v>1.025</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5128295</v>
+        <v>5128568</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>44996.375</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K22">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L22">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="N22">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="O22">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P22">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R22">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S22">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W22">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z22">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5128201</v>
+        <v>5128528</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,76 +2853,76 @@
         <v>45003.375</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27">
+        <v>1.333</v>
+      </c>
+      <c r="L27">
+        <v>5</v>
+      </c>
+      <c r="M27">
+        <v>7.5</v>
+      </c>
+      <c r="N27">
+        <v>1.444</v>
+      </c>
+      <c r="O27">
+        <v>5</v>
+      </c>
+      <c r="P27">
+        <v>6</v>
+      </c>
+      <c r="Q27">
+        <v>-1.25</v>
+      </c>
+      <c r="R27">
+        <v>1.925</v>
+      </c>
+      <c r="S27">
+        <v>1.925</v>
+      </c>
+      <c r="T27">
+        <v>3.25</v>
+      </c>
+      <c r="U27">
         <v>2</v>
       </c>
-      <c r="J27" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27">
-        <v>4.75</v>
-      </c>
-      <c r="L27">
-        <v>3.6</v>
-      </c>
-      <c r="M27">
-        <v>1.714</v>
-      </c>
-      <c r="N27">
-        <v>4.75</v>
-      </c>
-      <c r="O27">
-        <v>3.5</v>
-      </c>
-      <c r="P27">
-        <v>1.727</v>
-      </c>
-      <c r="Q27">
-        <v>0.75</v>
-      </c>
-      <c r="R27">
-        <v>1.875</v>
-      </c>
-      <c r="S27">
-        <v>1.975</v>
-      </c>
-      <c r="T27">
-        <v>2.5</v>
-      </c>
-      <c r="U27">
-        <v>1.95</v>
-      </c>
       <c r="V27">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y27">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5128294</v>
+        <v>5128527</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,76 +2942,76 @@
         <v>45003.375</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L28">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M28">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N28">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P28">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
+        <v>2.05</v>
+      </c>
+      <c r="S28">
         <v>1.8</v>
-      </c>
-      <c r="S28">
-        <v>2.05</v>
       </c>
       <c r="T28">
         <v>2.75</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA28">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC28">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5128527</v>
+        <v>5128572</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,13 +3031,13 @@
         <v>45003.375</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -3046,43 +3046,43 @@
         <v>47</v>
       </c>
       <c r="K29">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L29">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M29">
+        <v>4.2</v>
+      </c>
+      <c r="N29">
+        <v>1.7</v>
+      </c>
+      <c r="O29">
         <v>4</v>
       </c>
-      <c r="N29">
-        <v>1.8</v>
-      </c>
-      <c r="O29">
-        <v>3.8</v>
-      </c>
       <c r="P29">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q29">
         <v>-0.75</v>
       </c>
       <c r="R29">
+        <v>1.9</v>
+      </c>
+      <c r="S29">
+        <v>1.95</v>
+      </c>
+      <c r="T29">
+        <v>3</v>
+      </c>
+      <c r="U29">
         <v>2.05</v>
       </c>
-      <c r="S29">
+      <c r="V29">
         <v>1.8</v>
       </c>
-      <c r="T29">
-        <v>2.75</v>
-      </c>
-      <c r="U29">
-        <v>1.9</v>
-      </c>
-      <c r="V29">
-        <v>1.95</v>
-      </c>
       <c r="W29">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3091,16 +3091,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>1.05</v>
+        <v>0.45</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5128571</v>
+        <v>5128294</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,49 +3120,49 @@
         <v>45003.375</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L30">
         <v>3.5</v>
       </c>
       <c r="M30">
+        <v>3.2</v>
+      </c>
+      <c r="N30">
+        <v>2.375</v>
+      </c>
+      <c r="O30">
         <v>3.6</v>
       </c>
-      <c r="N30">
-        <v>2</v>
-      </c>
-      <c r="O30">
-        <v>3.5</v>
-      </c>
       <c r="P30">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q30">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
         <v>2</v>
@@ -3171,25 +3171,25 @@
         <v>1.85</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5128572</v>
+        <v>5128571</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,10 +3209,10 @@
         <v>45003.375</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3224,43 +3224,43 @@
         <v>47</v>
       </c>
       <c r="K31">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L31">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M31">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N31">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O31">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P31">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R31">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T31">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U31">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W31">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3269,16 +3269,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AA31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5128528</v>
+        <v>5128201</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,76 +3298,76 @@
         <v>45003.375</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="L32">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
-        <v>7.5</v>
+        <v>1.714</v>
       </c>
       <c r="N32">
-        <v>1.444</v>
+        <v>4.75</v>
       </c>
       <c r="O32">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="Q32">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S32">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T32">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V32">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB32">
         <v>-1</v>
       </c>
       <c r="AC32">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6428314</v>
+        <v>6428343</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,73 +3921,73 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
         <v>3</v>
       </c>
-      <c r="I39">
-        <v>2</v>
-      </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K39">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="L39">
         <v>3.6</v>
       </c>
       <c r="M39">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N39">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="O39">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P39">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T39">
         <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z39">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB39">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6428343</v>
+        <v>6428314</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,73 +4010,73 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K40">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="L40">
         <v>3.6</v>
       </c>
       <c r="M40">
+        <v>4</v>
+      </c>
+      <c r="N40">
+        <v>1.75</v>
+      </c>
+      <c r="O40">
+        <v>3.8</v>
+      </c>
+      <c r="P40">
+        <v>4.5</v>
+      </c>
+      <c r="Q40">
+        <v>-0.75</v>
+      </c>
+      <c r="R40">
         <v>1.95</v>
       </c>
-      <c r="N40">
-        <v>3.75</v>
-      </c>
-      <c r="O40">
-        <v>3.6</v>
-      </c>
-      <c r="P40">
-        <v>1.95</v>
-      </c>
-      <c r="Q40">
-        <v>0.5</v>
-      </c>
-      <c r="R40">
-        <v>1.875</v>
-      </c>
       <c r="S40">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T40">
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V40">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA40">
+        <v>-0.5</v>
+      </c>
+      <c r="AB40">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB40">
-        <v>0.925</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6428321</v>
+        <v>6428349</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,40 +4989,40 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K51">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="L51">
         <v>3.5</v>
       </c>
       <c r="M51">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="N51">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="O51">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P51">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="Q51">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R51">
         <v>1.925</v>
@@ -5031,7 +5031,7 @@
         <v>1.925</v>
       </c>
       <c r="T51">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U51">
         <v>1.9</v>
@@ -5040,25 +5040,25 @@
         <v>1.95</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA51">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6428349</v>
+        <v>6428321</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,40 +5078,40 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K52">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="L52">
         <v>3.5</v>
       </c>
       <c r="M52">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="N52">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="O52">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P52">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R52">
         <v>1.925</v>
@@ -5120,7 +5120,7 @@
         <v>1.925</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
         <v>1.9</v>
@@ -5129,25 +5129,25 @@
         <v>1.95</v>
       </c>
       <c r="W52">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z52">
+        <v>-1</v>
+      </c>
+      <c r="AA52">
         <v>0.925</v>
       </c>
-      <c r="AA52">
-        <v>-1</v>
-      </c>
       <c r="AB52">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC52">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6428352</v>
+        <v>6428353</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,76 +5434,76 @@
         <v>45044.5625</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K56">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L56">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M56">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="N56">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="O56">
         <v>3.8</v>
       </c>
       <c r="P56">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="Q56">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R56">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S56">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T56">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U56">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA56">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC56">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6428353</v>
+        <v>6428352</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,76 +5523,76 @@
         <v>45044.5625</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K57">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L57">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M57">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N57">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="O57">
         <v>3.8</v>
       </c>
       <c r="P57">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R57">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S57">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U57">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V57">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W57">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z57">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB57">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6428357</v>
+        <v>6428328</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,76 +6235,76 @@
         <v>45052.33333333334</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K65">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L65">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M65">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="N65">
-        <v>1.333</v>
+        <v>3.25</v>
       </c>
       <c r="O65">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P65">
-        <v>8.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q65">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R65">
+        <v>1.925</v>
+      </c>
+      <c r="S65">
+        <v>1.925</v>
+      </c>
+      <c r="T65">
+        <v>3</v>
+      </c>
+      <c r="U65">
+        <v>2.025</v>
+      </c>
+      <c r="V65">
         <v>1.825</v>
       </c>
-      <c r="S65">
-        <v>2.025</v>
-      </c>
-      <c r="T65">
-        <v>3.5</v>
-      </c>
-      <c r="U65">
-        <v>1.9</v>
-      </c>
-      <c r="V65">
-        <v>1.95</v>
-      </c>
       <c r="W65">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z65">
+        <v>-1</v>
+      </c>
+      <c r="AA65">
+        <v>0.925</v>
+      </c>
+      <c r="AB65">
+        <v>-1</v>
+      </c>
+      <c r="AC65">
         <v>0.825</v>
-      </c>
-      <c r="AA65">
-        <v>-1</v>
-      </c>
-      <c r="AB65">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC65">
-        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6428328</v>
+        <v>6428357</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,76 +6324,76 @@
         <v>45052.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K66">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L66">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M66">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="N66">
-        <v>3.25</v>
+        <v>1.333</v>
       </c>
       <c r="O66">
+        <v>5.5</v>
+      </c>
+      <c r="P66">
+        <v>8.5</v>
+      </c>
+      <c r="Q66">
+        <v>-1.5</v>
+      </c>
+      <c r="R66">
+        <v>1.825</v>
+      </c>
+      <c r="S66">
+        <v>2.025</v>
+      </c>
+      <c r="T66">
         <v>3.5</v>
       </c>
-      <c r="P66">
-        <v>2.2</v>
-      </c>
-      <c r="Q66">
-        <v>0.25</v>
-      </c>
-      <c r="R66">
-        <v>1.925</v>
-      </c>
-      <c r="S66">
-        <v>1.925</v>
-      </c>
-      <c r="T66">
-        <v>3</v>
-      </c>
       <c r="U66">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V66">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA66">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC66">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6428364</v>
+        <v>6428366</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,76 +7570,76 @@
         <v>45072.5625</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80" t="s">
+        <v>46</v>
+      </c>
+      <c r="K80">
+        <v>2.375</v>
+      </c>
+      <c r="L80">
+        <v>3.5</v>
+      </c>
+      <c r="M80">
+        <v>2.75</v>
+      </c>
+      <c r="N80">
+        <v>2.375</v>
+      </c>
+      <c r="O80">
+        <v>3.75</v>
+      </c>
+      <c r="P80">
+        <v>2.7</v>
+      </c>
+      <c r="Q80">
+        <v>-0.25</v>
+      </c>
+      <c r="R80">
+        <v>2.1</v>
+      </c>
+      <c r="S80">
+        <v>1.775</v>
+      </c>
+      <c r="T80">
         <v>3</v>
       </c>
-      <c r="J80" t="s">
-        <v>47</v>
-      </c>
-      <c r="K80">
-        <v>1.727</v>
-      </c>
-      <c r="L80">
-        <v>4.2</v>
-      </c>
-      <c r="M80">
-        <v>3.6</v>
-      </c>
-      <c r="N80">
-        <v>1.45</v>
-      </c>
-      <c r="O80">
-        <v>5.25</v>
-      </c>
-      <c r="P80">
-        <v>5.25</v>
-      </c>
-      <c r="Q80">
-        <v>-1.25</v>
-      </c>
-      <c r="R80">
+      <c r="U80">
         <v>1.95</v>
       </c>
-      <c r="S80">
+      <c r="V80">
         <v>1.9</v>
       </c>
-      <c r="T80">
-        <v>3.5</v>
-      </c>
-      <c r="U80">
-        <v>1.9</v>
-      </c>
-      <c r="V80">
-        <v>1.95</v>
-      </c>
       <c r="W80">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB80">
+        <v>-1</v>
+      </c>
+      <c r="AC80">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC80">
-        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6428366</v>
+        <v>6428364</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,76 +7748,76 @@
         <v>45072.5625</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K82">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L82">
+        <v>4.2</v>
+      </c>
+      <c r="M82">
+        <v>3.6</v>
+      </c>
+      <c r="N82">
+        <v>1.45</v>
+      </c>
+      <c r="O82">
+        <v>5.25</v>
+      </c>
+      <c r="P82">
+        <v>5.25</v>
+      </c>
+      <c r="Q82">
+        <v>-1.25</v>
+      </c>
+      <c r="R82">
+        <v>1.95</v>
+      </c>
+      <c r="S82">
+        <v>1.9</v>
+      </c>
+      <c r="T82">
         <v>3.5</v>
       </c>
-      <c r="M82">
-        <v>2.75</v>
-      </c>
-      <c r="N82">
-        <v>2.375</v>
-      </c>
-      <c r="O82">
-        <v>3.75</v>
-      </c>
-      <c r="P82">
-        <v>2.7</v>
-      </c>
-      <c r="Q82">
-        <v>-0.25</v>
-      </c>
-      <c r="R82">
-        <v>2.1</v>
-      </c>
-      <c r="S82">
-        <v>1.775</v>
-      </c>
-      <c r="T82">
-        <v>3</v>
-      </c>
       <c r="U82">
+        <v>1.9</v>
+      </c>
+      <c r="V82">
         <v>1.95</v>
       </c>
-      <c r="V82">
-        <v>1.9</v>
-      </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>0.7749999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC82">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6428368</v>
+        <v>6428367</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K86">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L86">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M86">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N86">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="O86">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P86">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="Q86">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S86">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T86">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V86">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W86">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6428367</v>
+        <v>6428368</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,76 +8193,76 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K87">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L87">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M87">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N87">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="O87">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P87">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R87">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S87">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U87">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V87">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X87">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA87">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6428337</v>
+        <v>6428338</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,73 +8371,73 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H89">
+        <v>3</v>
+      </c>
+      <c r="I89">
         <v>2</v>
       </c>
-      <c r="I89">
-        <v>3</v>
-      </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K89">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M89">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N89">
-        <v>1.571</v>
+        <v>1.363</v>
       </c>
       <c r="O89">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P89">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q89">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R89">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S89">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T89">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB89">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8537,7 +8537,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6428338</v>
+        <v>6428337</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8549,73 +8549,73 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91">
         <v>3</v>
       </c>
-      <c r="I91">
+      <c r="J91" t="s">
+        <v>46</v>
+      </c>
+      <c r="K91">
+        <v>1.7</v>
+      </c>
+      <c r="L91">
+        <v>4</v>
+      </c>
+      <c r="M91">
+        <v>4.2</v>
+      </c>
+      <c r="N91">
+        <v>1.571</v>
+      </c>
+      <c r="O91">
+        <v>4.75</v>
+      </c>
+      <c r="P91">
+        <v>4.75</v>
+      </c>
+      <c r="Q91">
+        <v>-1</v>
+      </c>
+      <c r="R91">
+        <v>1.975</v>
+      </c>
+      <c r="S91">
+        <v>1.875</v>
+      </c>
+      <c r="T91">
+        <v>3.5</v>
+      </c>
+      <c r="U91">
         <v>2</v>
       </c>
-      <c r="J91" t="s">
-        <v>47</v>
-      </c>
-      <c r="K91">
-        <v>1.5</v>
-      </c>
-      <c r="L91">
-        <v>4.5</v>
-      </c>
-      <c r="M91">
-        <v>5</v>
-      </c>
-      <c r="N91">
-        <v>1.363</v>
-      </c>
-      <c r="O91">
-        <v>5.25</v>
-      </c>
-      <c r="P91">
-        <v>6.5</v>
-      </c>
-      <c r="Q91">
-        <v>-1.5</v>
-      </c>
-      <c r="R91">
-        <v>1.95</v>
-      </c>
-      <c r="S91">
-        <v>1.9</v>
-      </c>
-      <c r="T91">
+      <c r="V91">
+        <v>1.85</v>
+      </c>
+      <c r="W91">
+        <v>-1</v>
+      </c>
+      <c r="X91">
+        <v>-1</v>
+      </c>
+      <c r="Y91">
         <v>3.75</v>
       </c>
-      <c r="U91">
-        <v>1.9</v>
-      </c>
-      <c r="V91">
-        <v>1.95</v>
-      </c>
-      <c r="W91">
-        <v>0.363</v>
-      </c>
-      <c r="X91">
-        <v>-1</v>
-      </c>
-      <c r="Y91">
-        <v>-1</v>
-      </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB91">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6799246</v>
+        <v>6799245</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,76 +8638,76 @@
         <v>45128.58333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K92">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="L92">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M92">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="N92">
         <v>2.25</v>
       </c>
       <c r="O92">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P92">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q92">
         <v>-0.25</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S92">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T92">
         <v>2.75</v>
       </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V92">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z92">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6799245</v>
+        <v>6799246</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45128.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K93">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M93">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="N93">
         <v>2.25</v>
       </c>
       <c r="O93">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P93">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q93">
         <v>-0.25</v>
       </c>
       <c r="R93">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S93">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T93">
         <v>2.75</v>
       </c>
       <c r="U93">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y93">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA93">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AB93">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6799248</v>
+        <v>6798548</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,10 +8905,10 @@
         <v>45130.375</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8920,19 +8920,19 @@
         <v>47</v>
       </c>
       <c r="K95">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="L95">
         <v>3.6</v>
       </c>
       <c r="M95">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="N95">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="O95">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
         <v>2.55</v>
@@ -8941,22 +8941,22 @@
         <v>0</v>
       </c>
       <c r="R95">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S95">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W95">
-        <v>1.625</v>
+        <v>1.8</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8965,16 +8965,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6798548</v>
+        <v>6799248</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,10 +9083,10 @@
         <v>45130.375</v>
       </c>
       <c r="F97" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9098,19 +9098,19 @@
         <v>47</v>
       </c>
       <c r="K97">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="L97">
         <v>3.6</v>
       </c>
       <c r="M97">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N97">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="O97">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P97">
         <v>2.55</v>
@@ -9119,22 +9119,22 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S97">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T97">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V97">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W97">
-        <v>1.8</v>
+        <v>1.625</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9143,16 +9143,16 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6799250</v>
+        <v>6799251</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,73 +9172,73 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
         <v>3</v>
       </c>
-      <c r="I98">
+      <c r="J98" t="s">
+        <v>46</v>
+      </c>
+      <c r="K98">
+        <v>1.7</v>
+      </c>
+      <c r="L98">
+        <v>3.8</v>
+      </c>
+      <c r="M98">
+        <v>4</v>
+      </c>
+      <c r="N98">
+        <v>1.7</v>
+      </c>
+      <c r="O98">
+        <v>4</v>
+      </c>
+      <c r="P98">
+        <v>4.5</v>
+      </c>
+      <c r="Q98">
+        <v>-0.75</v>
+      </c>
+      <c r="R98">
+        <v>1.875</v>
+      </c>
+      <c r="S98">
+        <v>1.975</v>
+      </c>
+      <c r="T98">
+        <v>3</v>
+      </c>
+      <c r="U98">
+        <v>1.85</v>
+      </c>
+      <c r="V98">
         <v>2</v>
       </c>
-      <c r="J98" t="s">
-        <v>47</v>
-      </c>
-      <c r="K98">
-        <v>2.3</v>
-      </c>
-      <c r="L98">
-        <v>3.3</v>
-      </c>
-      <c r="M98">
-        <v>2.75</v>
-      </c>
-      <c r="N98">
-        <v>2.8</v>
-      </c>
-      <c r="O98">
-        <v>3.3</v>
-      </c>
-      <c r="P98">
-        <v>2.5</v>
-      </c>
-      <c r="Q98">
-        <v>0</v>
-      </c>
-      <c r="R98">
-        <v>1.975</v>
-      </c>
-      <c r="S98">
-        <v>1.875</v>
-      </c>
-      <c r="T98">
-        <v>2.5</v>
-      </c>
-      <c r="U98">
-        <v>1.9</v>
-      </c>
-      <c r="V98">
-        <v>1.95</v>
-      </c>
       <c r="W98">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z98">
+        <v>-1</v>
+      </c>
+      <c r="AA98">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA98">
-        <v>-1</v>
-      </c>
       <c r="AB98">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6799251</v>
+        <v>6799250</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,73 +9261,73 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K99">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="L99">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M99">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N99">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="O99">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P99">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q99">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R99">
+        <v>1.975</v>
+      </c>
+      <c r="S99">
         <v>1.875</v>
       </c>
-      <c r="S99">
-        <v>1.975</v>
-      </c>
       <c r="T99">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA99">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6798549</v>
+        <v>6798865</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,58 +9439,58 @@
         <v>45136.375</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
         <v>47</v>
       </c>
       <c r="K101">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M101">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N101">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O101">
         <v>4.333</v>
       </c>
       <c r="P101">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q101">
         <v>-1</v>
       </c>
       <c r="R101">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S101">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T101">
         <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V101">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W101">
-        <v>0.5</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9505,10 +9505,10 @@
         <v>-0</v>
       </c>
       <c r="AB101">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6798865</v>
+        <v>6798549</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,58 +9528,58 @@
         <v>45136.375</v>
       </c>
       <c r="F102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G102" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H102">
+        <v>2</v>
+      </c>
+      <c r="I102">
         <v>1</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>47</v>
       </c>
       <c r="K102">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M102">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N102">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="O102">
         <v>4.333</v>
       </c>
       <c r="P102">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q102">
         <v>-1</v>
       </c>
       <c r="R102">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S102">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T102">
         <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V102">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
-        <v>0.6000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9594,10 +9594,10 @@
         <v>-0</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC102">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6798867</v>
+        <v>6800833</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,76 +10329,76 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G111" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K111">
+        <v>1.615</v>
+      </c>
+      <c r="L111">
+        <v>4</v>
+      </c>
+      <c r="M111">
+        <v>4.2</v>
+      </c>
+      <c r="N111">
+        <v>1.75</v>
+      </c>
+      <c r="O111">
         <v>4.333</v>
       </c>
-      <c r="L111">
-        <v>3.75</v>
-      </c>
-      <c r="M111">
-        <v>1.65</v>
-      </c>
-      <c r="N111">
-        <v>4.75</v>
-      </c>
-      <c r="O111">
-        <v>4</v>
-      </c>
       <c r="P111">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="Q111">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R111">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S111">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T111">
         <v>3</v>
       </c>
       <c r="U111">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V111">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z111">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC111">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6800833</v>
+        <v>6798867</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,76 +10418,76 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K112">
+        <v>4.333</v>
+      </c>
+      <c r="L112">
+        <v>3.75</v>
+      </c>
+      <c r="M112">
+        <v>1.65</v>
+      </c>
+      <c r="N112">
+        <v>4.75</v>
+      </c>
+      <c r="O112">
+        <v>4</v>
+      </c>
+      <c r="P112">
         <v>1.615</v>
       </c>
-      <c r="L112">
-        <v>4</v>
-      </c>
-      <c r="M112">
-        <v>4.2</v>
-      </c>
-      <c r="N112">
-        <v>1.75</v>
-      </c>
-      <c r="O112">
-        <v>4.333</v>
-      </c>
-      <c r="P112">
-        <v>3.8</v>
-      </c>
       <c r="Q112">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R112">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S112">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T112">
         <v>3</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y112">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6798551</v>
+        <v>6800832</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,56 +10863,56 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J117" t="s">
         <v>46</v>
       </c>
       <c r="K117">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L117">
         <v>3.4</v>
       </c>
       <c r="M117">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N117">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="O117">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P117">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="Q117">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R117">
+        <v>1.825</v>
+      </c>
+      <c r="S117">
+        <v>2.025</v>
+      </c>
+      <c r="T117">
+        <v>3</v>
+      </c>
+      <c r="U117">
         <v>1.8</v>
       </c>
-      <c r="S117">
+      <c r="V117">
         <v>2.05</v>
       </c>
-      <c r="T117">
-        <v>2.75</v>
-      </c>
-      <c r="U117">
-        <v>1.875</v>
-      </c>
-      <c r="V117">
-        <v>1.975</v>
-      </c>
       <c r="W117">
         <v>-1</v>
       </c>
@@ -10920,16 +10920,16 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>1.375</v>
+        <v>1.8</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB117">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6800832</v>
+        <v>6799259</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,73 +10952,73 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K118">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L118">
+        <v>3.6</v>
+      </c>
+      <c r="M118">
         <v>3.4</v>
       </c>
-      <c r="M118">
-        <v>3.2</v>
-      </c>
       <c r="N118">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O118">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S118">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T118">
         <v>3</v>
       </c>
       <c r="U118">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V118">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA118">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6799259</v>
+        <v>6798551</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,73 +11041,73 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
         <v>3</v>
       </c>
-      <c r="I119">
-        <v>1</v>
-      </c>
       <c r="J119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K119">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L119">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M119">
+        <v>3.1</v>
+      </c>
+      <c r="N119">
+        <v>2.9</v>
+      </c>
+      <c r="O119">
         <v>3.4</v>
       </c>
-      <c r="N119">
-        <v>2.2</v>
-      </c>
-      <c r="O119">
-        <v>3.6</v>
-      </c>
       <c r="P119">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R119">
+        <v>1.8</v>
+      </c>
+      <c r="S119">
+        <v>2.05</v>
+      </c>
+      <c r="T119">
+        <v>2.75</v>
+      </c>
+      <c r="U119">
+        <v>1.875</v>
+      </c>
+      <c r="V119">
         <v>1.975</v>
       </c>
-      <c r="S119">
-        <v>1.875</v>
-      </c>
-      <c r="T119">
-        <v>3</v>
-      </c>
-      <c r="U119">
-        <v>2</v>
-      </c>
-      <c r="V119">
-        <v>1.85</v>
-      </c>
       <c r="W119">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z119">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB119">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6799264</v>
+        <v>6799263</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,73 +11486,73 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>6</v>
+      </c>
+      <c r="J124" t="s">
+        <v>46</v>
+      </c>
+      <c r="K124">
+        <v>1.75</v>
+      </c>
+      <c r="L124">
+        <v>3.8</v>
+      </c>
+      <c r="M124">
         <v>4</v>
       </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-      <c r="J124" t="s">
-        <v>47</v>
-      </c>
-      <c r="K124">
-        <v>1.4</v>
-      </c>
-      <c r="L124">
-        <v>4.5</v>
-      </c>
-      <c r="M124">
-        <v>7</v>
-      </c>
       <c r="N124">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="O124">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P124">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q124">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R124">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S124">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T124">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U124">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z124">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB124">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6799263</v>
+        <v>6799264</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,73 +11664,73 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I126">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K126">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L126">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M126">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N126">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="O126">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P126">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="Q126">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R126">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S126">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T126">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U126">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V126">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA126">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6799269</v>
+        <v>6800829</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,76 +12376,76 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K134">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M134">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="N134">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="O134">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P134">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R134">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S134">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T134">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U134">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V134">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y134">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6800829</v>
+        <v>6799269</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136" t="s">
+        <v>46</v>
+      </c>
+      <c r="K136">
+        <v>2.05</v>
+      </c>
+      <c r="L136">
+        <v>3.6</v>
+      </c>
+      <c r="M136">
+        <v>3.25</v>
+      </c>
+      <c r="N136">
+        <v>2.45</v>
+      </c>
+      <c r="O136">
+        <v>4</v>
+      </c>
+      <c r="P136">
+        <v>2.55</v>
+      </c>
+      <c r="Q136">
         <v>0</v>
       </c>
-      <c r="J136" t="s">
-        <v>45</v>
-      </c>
-      <c r="K136">
-        <v>1.8</v>
-      </c>
-      <c r="L136">
-        <v>3.8</v>
-      </c>
-      <c r="M136">
-        <v>3.8</v>
-      </c>
-      <c r="N136">
-        <v>1.666</v>
-      </c>
-      <c r="O136">
-        <v>4.2</v>
-      </c>
-      <c r="P136">
-        <v>4.5</v>
-      </c>
-      <c r="Q136">
-        <v>-0.75</v>
-      </c>
       <c r="R136">
+        <v>1.9</v>
+      </c>
+      <c r="S136">
+        <v>1.95</v>
+      </c>
+      <c r="T136">
+        <v>3.25</v>
+      </c>
+      <c r="U136">
+        <v>2.025</v>
+      </c>
+      <c r="V136">
         <v>1.825</v>
       </c>
-      <c r="S136">
-        <v>2.025</v>
-      </c>
-      <c r="T136">
-        <v>3</v>
-      </c>
-      <c r="U136">
-        <v>1.875</v>
-      </c>
-      <c r="V136">
-        <v>1.975</v>
-      </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB136">
         <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12987,7 +12987,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6800827</v>
+        <v>6799273</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12999,10 +12999,10 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G141" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13014,40 +13014,40 @@
         <v>46</v>
       </c>
       <c r="K141">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L141">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M141">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N141">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O141">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P141">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q141">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S141">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V141">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13056,19 +13056,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6799273</v>
+        <v>6798871</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,76 +13088,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K142">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L142">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M142">
+        <v>2.5</v>
+      </c>
+      <c r="N142">
+        <v>2.55</v>
+      </c>
+      <c r="O142">
+        <v>3.5</v>
+      </c>
+      <c r="P142">
+        <v>2.625</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+      <c r="R142">
+        <v>1.825</v>
+      </c>
+      <c r="S142">
+        <v>2.025</v>
+      </c>
+      <c r="T142">
         <v>2.75</v>
       </c>
-      <c r="N142">
-        <v>2.25</v>
-      </c>
-      <c r="O142">
-        <v>3.4</v>
-      </c>
-      <c r="P142">
-        <v>3.1</v>
-      </c>
-      <c r="Q142">
-        <v>-0.25</v>
-      </c>
-      <c r="R142">
-        <v>2.05</v>
-      </c>
-      <c r="S142">
-        <v>1.8</v>
-      </c>
-      <c r="T142">
+      <c r="U142">
+        <v>1.9</v>
+      </c>
+      <c r="V142">
+        <v>1.95</v>
+      </c>
+      <c r="W142">
+        <v>-1</v>
+      </c>
+      <c r="X142">
         <v>2.5</v>
       </c>
-      <c r="U142">
-        <v>1.95</v>
-      </c>
-      <c r="V142">
-        <v>1.9</v>
-      </c>
-      <c r="W142">
-        <v>-1</v>
-      </c>
-      <c r="X142">
-        <v>-1</v>
-      </c>
       <c r="Y142">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA142">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6798871</v>
+        <v>6800827</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,76 +13177,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G143" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K143">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L143">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M143">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N143">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="O143">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P143">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="Q143">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S143">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
         <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V143">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6800826</v>
+        <v>6798872</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,76 +13444,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K146">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="L146">
+        <v>6</v>
+      </c>
+      <c r="M146">
+        <v>13</v>
+      </c>
+      <c r="N146">
+        <v>1.2</v>
+      </c>
+      <c r="O146">
+        <v>6.5</v>
+      </c>
+      <c r="P146">
+        <v>13</v>
+      </c>
+      <c r="Q146">
+        <v>-2</v>
+      </c>
+      <c r="R146">
+        <v>1.975</v>
+      </c>
+      <c r="S146">
+        <v>1.875</v>
+      </c>
+      <c r="T146">
         <v>3.5</v>
       </c>
-      <c r="M146">
-        <v>2.35</v>
-      </c>
-      <c r="N146">
-        <v>2.8</v>
-      </c>
-      <c r="O146">
-        <v>3.4</v>
-      </c>
-      <c r="P146">
-        <v>2.3</v>
-      </c>
-      <c r="Q146">
-        <v>0.25</v>
-      </c>
-      <c r="R146">
-        <v>1.8</v>
-      </c>
-      <c r="S146">
-        <v>2.05</v>
-      </c>
-      <c r="T146">
-        <v>2.5</v>
-      </c>
       <c r="U146">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V146">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA146">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB146">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6798872</v>
+        <v>6800826</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,76 +13533,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G147" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
         <v>2</v>
       </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K147">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="L147">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M147">
-        <v>13</v>
+        <v>2.35</v>
       </c>
       <c r="N147">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="O147">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P147">
-        <v>13</v>
+        <v>2.3</v>
       </c>
       <c r="Q147">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R147">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S147">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T147">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U147">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V147">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W147">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC147">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6800824</v>
+        <v>6798874</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,55 +14601,55 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G159" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J159" t="s">
         <v>46</v>
       </c>
       <c r="K159">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L159">
         <v>3.75</v>
       </c>
       <c r="M159">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="N159">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O159">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P159">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q159">
         <v>0.5</v>
       </c>
       <c r="R159">
+        <v>1.975</v>
+      </c>
+      <c r="S159">
         <v>1.875</v>
       </c>
-      <c r="S159">
+      <c r="T159">
+        <v>2.5</v>
+      </c>
+      <c r="U159">
         <v>1.975</v>
       </c>
-      <c r="T159">
-        <v>3</v>
-      </c>
-      <c r="U159">
-        <v>2</v>
-      </c>
       <c r="V159">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14658,19 +14658,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
+        <v>0.875</v>
+      </c>
+      <c r="AB159">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB159">
-        <v>0</v>
-      </c>
       <c r="AC159">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6798874</v>
+        <v>6800824</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,55 +14690,55 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G160" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J160" t="s">
         <v>46</v>
       </c>
       <c r="K160">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L160">
         <v>3.75</v>
       </c>
       <c r="M160">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="N160">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O160">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P160">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q160">
         <v>0.5</v>
       </c>
       <c r="R160">
+        <v>1.875</v>
+      </c>
+      <c r="S160">
         <v>1.975</v>
       </c>
-      <c r="S160">
-        <v>1.875</v>
-      </c>
       <c r="T160">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U160">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V160">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14747,19 +14747,19 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB160">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -15212,7 +15212,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6799286</v>
+        <v>6798558</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15224,76 +15224,76 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G166" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K166">
-        <v>3.5</v>
+        <v>1.65</v>
       </c>
       <c r="L166">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M166">
+        <v>4.333</v>
+      </c>
+      <c r="N166">
         <v>1.909</v>
       </c>
-      <c r="N166">
-        <v>3.1</v>
-      </c>
       <c r="O166">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P166">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q166">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R166">
+        <v>1.925</v>
+      </c>
+      <c r="S166">
+        <v>1.925</v>
+      </c>
+      <c r="T166">
+        <v>2.75</v>
+      </c>
+      <c r="U166">
         <v>1.9</v>
       </c>
-      <c r="S166">
+      <c r="V166">
         <v>1.95</v>
       </c>
-      <c r="T166">
-        <v>3</v>
-      </c>
-      <c r="U166">
-        <v>2</v>
-      </c>
-      <c r="V166">
-        <v>1.85</v>
-      </c>
       <c r="W166">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X166">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AA166">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC166">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15301,7 +15301,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6798558</v>
+        <v>6799286</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15313,76 +15313,76 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H167">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K167">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M167">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N167">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O167">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P167">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q167">
+        <v>0.25</v>
+      </c>
+      <c r="R167">
+        <v>1.9</v>
+      </c>
+      <c r="S167">
+        <v>1.95</v>
+      </c>
+      <c r="T167">
+        <v>3</v>
+      </c>
+      <c r="U167">
+        <v>2</v>
+      </c>
+      <c r="V167">
+        <v>1.85</v>
+      </c>
+      <c r="W167">
+        <v>-1</v>
+      </c>
+      <c r="X167">
+        <v>2.6</v>
+      </c>
+      <c r="Y167">
+        <v>-1</v>
+      </c>
+      <c r="Z167">
+        <v>0.45</v>
+      </c>
+      <c r="AA167">
         <v>-0.5</v>
       </c>
-      <c r="R167">
-        <v>1.925</v>
-      </c>
-      <c r="S167">
-        <v>1.925</v>
-      </c>
-      <c r="T167">
-        <v>2.75</v>
-      </c>
-      <c r="U167">
-        <v>1.9</v>
-      </c>
-      <c r="V167">
-        <v>1.95</v>
-      </c>
-      <c r="W167">
-        <v>0.909</v>
-      </c>
-      <c r="X167">
-        <v>-1</v>
-      </c>
-      <c r="Y167">
-        <v>-1</v>
-      </c>
-      <c r="Z167">
-        <v>0.925</v>
-      </c>
-      <c r="AA167">
-        <v>-1</v>
-      </c>
       <c r="AB167">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6799293</v>
+        <v>6799294</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,76 +16114,76 @@
         <v>45233.625</v>
       </c>
       <c r="F176" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G176" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H176">
         <v>1</v>
       </c>
       <c r="I176">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K176">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="L176">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M176">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="N176">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="O176">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P176">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="Q176">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R176">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S176">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T176">
         <v>2.75</v>
       </c>
       <c r="U176">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V176">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA176">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB176">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16191,7 +16191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6799294</v>
+        <v>6799293</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16203,76 +16203,76 @@
         <v>45233.625</v>
       </c>
       <c r="F177" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H177">
         <v>1</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J177" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K177">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="L177">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M177">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="N177">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="O177">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="Q177">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S177">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T177">
         <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V177">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W177">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC177">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -17259,7 +17259,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6799300</v>
+        <v>6799298</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17271,73 +17271,73 @@
         <v>45254.625</v>
       </c>
       <c r="F189" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H189">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K189">
+        <v>3.1</v>
+      </c>
+      <c r="L189">
+        <v>3.6</v>
+      </c>
+      <c r="M189">
+        <v>2.1</v>
+      </c>
+      <c r="N189">
+        <v>3.2</v>
+      </c>
+      <c r="O189">
+        <v>3.4</v>
+      </c>
+      <c r="P189">
+        <v>2.25</v>
+      </c>
+      <c r="Q189">
+        <v>0.25</v>
+      </c>
+      <c r="R189">
+        <v>1.95</v>
+      </c>
+      <c r="S189">
+        <v>1.9</v>
+      </c>
+      <c r="T189">
+        <v>2.5</v>
+      </c>
+      <c r="U189">
+        <v>1.85</v>
+      </c>
+      <c r="V189">
+        <v>2</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
         <v>1.25</v>
       </c>
-      <c r="L189">
-        <v>6</v>
-      </c>
-      <c r="M189">
-        <v>8</v>
-      </c>
-      <c r="N189">
-        <v>1.3</v>
-      </c>
-      <c r="O189">
-        <v>6</v>
-      </c>
-      <c r="P189">
-        <v>8.5</v>
-      </c>
-      <c r="Q189">
-        <v>-1.5</v>
-      </c>
-      <c r="R189">
-        <v>1.875</v>
-      </c>
-      <c r="S189">
-        <v>1.975</v>
-      </c>
-      <c r="T189">
-        <v>3.25</v>
-      </c>
-      <c r="U189">
-        <v>1.925</v>
-      </c>
-      <c r="V189">
-        <v>1.925</v>
-      </c>
-      <c r="W189">
-        <v>0.3</v>
-      </c>
-      <c r="X189">
-        <v>-1</v>
-      </c>
-      <c r="Y189">
-        <v>-1</v>
-      </c>
       <c r="Z189">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB189">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6799298</v>
+        <v>6799300</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17360,73 +17360,73 @@
         <v>45254.625</v>
       </c>
       <c r="F190" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G190" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H190">
+        <v>4</v>
+      </c>
+      <c r="I190">
         <v>1</v>
       </c>
-      <c r="I190">
-        <v>2</v>
-      </c>
       <c r="J190" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K190">
-        <v>3.1</v>
+        <v>1.25</v>
       </c>
       <c r="L190">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M190">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="N190">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="O190">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P190">
-        <v>2.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q190">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R190">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S190">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T190">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U190">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA190">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -18060,7 +18060,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7554250</v>
+        <v>6799302</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18072,76 +18072,76 @@
         <v>45265.60416666666</v>
       </c>
       <c r="F198" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G198" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K198">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L198">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M198">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N198">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O198">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P198">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q198">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R198">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S198">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T198">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U198">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V198">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y198">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA198">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC198">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18149,7 +18149,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6799302</v>
+        <v>7554250</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18161,76 +18161,76 @@
         <v>45265.60416666666</v>
       </c>
       <c r="F199" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G199" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K199">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="L199">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M199">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N199">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O199">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P199">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q199">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R199">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S199">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T199">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U199">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V199">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z199">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB199">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18265,10 +18265,10 @@
         <v>4.333</v>
       </c>
       <c r="N200">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O200">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P200">
         <v>3.4</v>
@@ -18277,19 +18277,19 @@
         <v>-0.25</v>
       </c>
       <c r="R200">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S200">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T200">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U200">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V200">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W200">
         <v>0</v>
@@ -18339,31 +18339,31 @@
         <v>2.9</v>
       </c>
       <c r="N201">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O201">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P201">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q201">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R201">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S201">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T201">
         <v>2.75</v>
       </c>
       <c r="U201">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V201">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W201">
         <v>0</v>
@@ -18413,31 +18413,31 @@
         <v>2.4</v>
       </c>
       <c r="N202">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="O202">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P202">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="Q202">
         <v>0.25</v>
       </c>
       <c r="R202">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S202">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T202">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U202">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V202">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W202">
         <v>0</v>
@@ -18487,10 +18487,10 @@
         <v>2.9</v>
       </c>
       <c r="N203">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O203">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P203">
         <v>3.3</v>
@@ -18561,22 +18561,22 @@
         <v>2.9</v>
       </c>
       <c r="N204">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O204">
         <v>3.5</v>
       </c>
       <c r="P204">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="Q204">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R204">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="S204">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T204">
         <v>2.75</v>
@@ -18635,10 +18635,10 @@
         <v>2.8</v>
       </c>
       <c r="N205">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O205">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P205">
         <v>3</v>
@@ -18647,10 +18647,10 @@
         <v>-0.25</v>
       </c>
       <c r="R205">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S205">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T205">
         <v>2.5</v>

--- a/Denmark Division 1/Denmark Division 1.xlsx
+++ b/Denmark Division 1/Denmark Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -109,10 +109,10 @@
     <t>FC Helsingor</t>
   </si>
   <si>
-    <t>Hvidovre IF</t>
+    <t>Vejle</t>
   </si>
   <si>
-    <t>Vejle</t>
+    <t>Hvidovre IF</t>
   </si>
   <si>
     <t>Naestved</t>
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5128521</v>
+        <v>5128562</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,10 +809,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -821,43 +821,43 @@
         <v>47</v>
       </c>
       <c r="K4">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="L4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M4">
         <v>7</v>
       </c>
       <c r="N4">
-        <v>1.333</v>
+        <v>1.3</v>
       </c>
       <c r="O4">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="P4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q4">
         <v>-1.5</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S4">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T4">
         <v>3</v>
       </c>
       <c r="U4">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W4">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -866,13 +866,13 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5128562</v>
+        <v>5128521</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,10 +898,10 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -910,43 +910,43 @@
         <v>47</v>
       </c>
       <c r="K5">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M5">
         <v>7</v>
       </c>
       <c r="N5">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="O5">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q5">
         <v>-1.5</v>
       </c>
       <c r="R5">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T5">
         <v>3</v>
       </c>
       <c r="U5">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -955,13 +955,13 @@
         <v>-1</v>
       </c>
       <c r="Z5">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA5">
+        <v>-1</v>
+      </c>
+      <c r="AB5">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA5">
-        <v>-1</v>
-      </c>
-      <c r="AB5">
-        <v>1.05</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -1343,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5128297</v>
+        <v>5128199</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,40 +1518,40 @@
         <v>44982.375</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="L12">
+        <v>3.7</v>
+      </c>
+      <c r="M12">
         <v>3.8</v>
       </c>
-      <c r="M12">
-        <v>1.7</v>
-      </c>
       <c r="N12">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="O12">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P12">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q12">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
         <v>1.925</v>
@@ -1560,19 +1560,19 @@
         <v>1.925</v>
       </c>
       <c r="T12">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X12">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
@@ -1584,10 +1584,10 @@
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC12">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5128199</v>
+        <v>5128297</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1607,40 +1607,40 @@
         <v>44982.375</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="L13">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="M13">
+        <v>1.7</v>
+      </c>
+      <c r="N13">
+        <v>3.6</v>
+      </c>
+      <c r="O13">
         <v>3.8</v>
       </c>
-      <c r="N13">
-        <v>2.2</v>
-      </c>
-      <c r="O13">
-        <v>3.5</v>
-      </c>
       <c r="P13">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R13">
         <v>1.925</v>
@@ -1649,19 +1649,19 @@
         <v>1.925</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V13">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W13">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y13">
         <v>-1</v>
@@ -1673,10 +1673,10 @@
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1963,7 +1963,7 @@
         <v>44989.375</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
@@ -2230,7 +2230,7 @@
         <v>44990.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
         <v>39</v>
@@ -2589,7 +2589,7 @@
         <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2764,7 +2764,7 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
         <v>35</v>
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5128528</v>
+        <v>5128294</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,49 +2853,49 @@
         <v>45003.375</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M27">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="N27">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="O27">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P27">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="Q27">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T27">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U27">
         <v>2</v>
@@ -2907,16 +2907,16 @@
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB27">
         <v>-1</v>
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5128527</v>
+        <v>5128201</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,76 +2942,76 @@
         <v>45003.375</v>
       </c>
       <c r="F28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" t="s">
         <v>31</v>
       </c>
-      <c r="G28" t="s">
-        <v>39</v>
-      </c>
       <c r="H28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K28">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="L28">
         <v>3.6</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>1.714</v>
       </c>
       <c r="N28">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="O28">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R28">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S28">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T28">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
+        <v>1.95</v>
+      </c>
+      <c r="V28">
         <v>1.9</v>
       </c>
-      <c r="V28">
-        <v>1.95</v>
-      </c>
       <c r="W28">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z28">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB28">
+        <v>-1</v>
+      </c>
+      <c r="AC28">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC28">
-        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5128572</v>
+        <v>5128527</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,13 +3031,13 @@
         <v>45003.375</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -3046,43 +3046,43 @@
         <v>47</v>
       </c>
       <c r="K29">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L29">
+        <v>3.6</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29">
+        <v>1.8</v>
+      </c>
+      <c r="O29">
         <v>3.8</v>
       </c>
-      <c r="M29">
-        <v>4.2</v>
-      </c>
-      <c r="N29">
-        <v>1.7</v>
-      </c>
-      <c r="O29">
+      <c r="P29">
         <v>4</v>
-      </c>
-      <c r="P29">
-        <v>4.5</v>
       </c>
       <c r="Q29">
         <v>-0.75</v>
       </c>
       <c r="R29">
+        <v>2.05</v>
+      </c>
+      <c r="S29">
+        <v>1.8</v>
+      </c>
+      <c r="T29">
+        <v>2.75</v>
+      </c>
+      <c r="U29">
         <v>1.9</v>
       </c>
-      <c r="S29">
+      <c r="V29">
         <v>1.95</v>
       </c>
-      <c r="T29">
-        <v>3</v>
-      </c>
-      <c r="U29">
-        <v>2.05</v>
-      </c>
-      <c r="V29">
-        <v>1.8</v>
-      </c>
       <c r="W29">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3091,16 +3091,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.45</v>
+        <v>1.05</v>
       </c>
       <c r="AA29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5128294</v>
+        <v>5128528</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,49 +3120,49 @@
         <v>45003.375</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M30">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="N30">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="O30">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P30">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S30">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U30">
         <v>2</v>
@@ -3174,16 +3174,16 @@
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y30">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB30">
         <v>-1</v>
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5128201</v>
+        <v>5128572</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,76 +3298,76 @@
         <v>45003.375</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32">
+        <v>1.666</v>
+      </c>
+      <c r="L32">
+        <v>3.8</v>
+      </c>
+      <c r="M32">
+        <v>4.2</v>
+      </c>
+      <c r="N32">
+        <v>1.7</v>
+      </c>
+      <c r="O32">
+        <v>4</v>
+      </c>
+      <c r="P32">
+        <v>4.5</v>
+      </c>
+      <c r="Q32">
+        <v>-0.75</v>
+      </c>
+      <c r="R32">
+        <v>1.9</v>
+      </c>
+      <c r="S32">
+        <v>1.95</v>
+      </c>
+      <c r="T32">
+        <v>3</v>
+      </c>
+      <c r="U32">
+        <v>2.05</v>
+      </c>
+      <c r="V32">
+        <v>1.8</v>
+      </c>
+      <c r="W32">
+        <v>0.7</v>
+      </c>
+      <c r="X32">
+        <v>-1</v>
+      </c>
+      <c r="Y32">
+        <v>-1</v>
+      </c>
+      <c r="Z32">
+        <v>0.45</v>
+      </c>
+      <c r="AA32">
+        <v>-0.5</v>
+      </c>
+      <c r="AB32">
         <v>0</v>
       </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
-      <c r="J32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K32">
-        <v>4.75</v>
-      </c>
-      <c r="L32">
-        <v>3.6</v>
-      </c>
-      <c r="M32">
-        <v>1.714</v>
-      </c>
-      <c r="N32">
-        <v>4.75</v>
-      </c>
-      <c r="O32">
-        <v>3.5</v>
-      </c>
-      <c r="P32">
-        <v>1.727</v>
-      </c>
-      <c r="Q32">
-        <v>0.75</v>
-      </c>
-      <c r="R32">
-        <v>1.875</v>
-      </c>
-      <c r="S32">
-        <v>1.975</v>
-      </c>
-      <c r="T32">
-        <v>2.5</v>
-      </c>
-      <c r="U32">
-        <v>1.95</v>
-      </c>
-      <c r="V32">
-        <v>1.9</v>
-      </c>
-      <c r="W32">
-        <v>-1</v>
-      </c>
-      <c r="X32">
-        <v>-1</v>
-      </c>
-      <c r="Y32">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Z32">
-        <v>-1</v>
-      </c>
-      <c r="AA32">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB32">
-        <v>-1</v>
-      </c>
       <c r="AC32">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>45017.4375</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
         <v>38</v>
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6428313</v>
+        <v>6428342</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,73 +3743,73 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
         <v>3</v>
       </c>
-      <c r="I37">
+      <c r="J37" t="s">
+        <v>46</v>
+      </c>
+      <c r="K37">
+        <v>2.4</v>
+      </c>
+      <c r="L37">
+        <v>3.5</v>
+      </c>
+      <c r="M37">
+        <v>2.6</v>
+      </c>
+      <c r="N37">
         <v>2</v>
       </c>
-      <c r="J37" t="s">
-        <v>47</v>
-      </c>
-      <c r="K37">
-        <v>3.4</v>
-      </c>
-      <c r="L37">
-        <v>3.3</v>
-      </c>
-      <c r="M37">
-        <v>2.1</v>
-      </c>
-      <c r="N37">
-        <v>3.8</v>
-      </c>
       <c r="O37">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P37">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="Q37">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S37">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T37">
         <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V37">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W37">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB37">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6428342</v>
+        <v>6428313</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,73 +3832,73 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="L38">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M38">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N38">
+        <v>3.8</v>
+      </c>
+      <c r="O38">
+        <v>3.75</v>
+      </c>
+      <c r="P38">
+        <v>1.909</v>
+      </c>
+      <c r="Q38">
+        <v>0.5</v>
+      </c>
+      <c r="R38">
         <v>2</v>
       </c>
-      <c r="O38">
-        <v>3.6</v>
-      </c>
-      <c r="P38">
-        <v>3.6</v>
-      </c>
-      <c r="Q38">
-        <v>-0.5</v>
-      </c>
-      <c r="R38">
-        <v>2.025</v>
-      </c>
       <c r="S38">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T38">
         <v>2.75</v>
       </c>
       <c r="U38">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA38">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC38">
         <v>-1</v>
@@ -4010,7 +4010,7 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
         <v>30</v>
@@ -4280,7 +4280,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4455,10 +4455,10 @@
         <v>45029.54166666666</v>
       </c>
       <c r="F45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" t="s">
         <v>32</v>
-      </c>
-      <c r="G45" t="s">
-        <v>31</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6428348</v>
+        <v>6428347</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>45032.375</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H48">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K48">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L48">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M48">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N48">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O48">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P48">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q48">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S48">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T48">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V48">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W48">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB48">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6428347</v>
+        <v>6428348</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,76 +4811,76 @@
         <v>45032.375</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K49">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M49">
+        <v>3</v>
+      </c>
+      <c r="N49">
         <v>2.2</v>
       </c>
-      <c r="N49">
-        <v>2.8</v>
-      </c>
       <c r="O49">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P49">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S49">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U49">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V49">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X49">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA49">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC49">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4903,7 +4903,7 @@
         <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6428349</v>
+        <v>6428321</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,40 +4989,40 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K51">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="L51">
         <v>3.5</v>
       </c>
       <c r="M51">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="N51">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="O51">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P51">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R51">
         <v>1.925</v>
@@ -5031,7 +5031,7 @@
         <v>1.925</v>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U51">
         <v>1.9</v>
@@ -5040,25 +5040,25 @@
         <v>1.95</v>
       </c>
       <c r="W51">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z51">
+        <v>-1</v>
+      </c>
+      <c r="AA51">
         <v>0.925</v>
       </c>
-      <c r="AA51">
-        <v>-1</v>
-      </c>
       <c r="AB51">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC51">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6428321</v>
+        <v>6428349</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,40 +5078,40 @@
         <v>45037.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K52">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="L52">
         <v>3.5</v>
       </c>
       <c r="M52">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="N52">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="O52">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P52">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="Q52">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R52">
         <v>1.925</v>
@@ -5120,7 +5120,7 @@
         <v>1.925</v>
       </c>
       <c r="T52">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U52">
         <v>1.9</v>
@@ -5129,25 +5129,25 @@
         <v>1.95</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>45038.33333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G53" t="s">
         <v>39</v>
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6428353</v>
+        <v>6428352</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,76 +5434,76 @@
         <v>45044.5625</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K56">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L56">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M56">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N56">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="O56">
         <v>3.8</v>
       </c>
       <c r="P56">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="Q56">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S56">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T56">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U56">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V56">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W56">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z56">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB56">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6428352</v>
+        <v>6428353</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,76 +5523,76 @@
         <v>45044.5625</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K57">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L57">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M57">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="N57">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="O57">
         <v>3.8</v>
       </c>
       <c r="P57">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="Q57">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S57">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T57">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V57">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA57">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC57">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5615,7 +5615,7 @@
         <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5879,7 +5879,7 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
         <v>30</v>
@@ -5968,10 +5968,10 @@
         <v>45051.54166666666</v>
       </c>
       <c r="F62" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" t="s">
         <v>31</v>
-      </c>
-      <c r="G62" t="s">
-        <v>32</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6505,7 +6505,7 @@
         <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6683,7 +6683,7 @@
         <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -7036,7 +7036,7 @@
         <v>45064.375</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7481,7 +7481,7 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
         <v>33</v>
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6428366</v>
+        <v>6428365</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,76 +7570,76 @@
         <v>45072.5625</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H80">
+        <v>4</v>
+      </c>
+      <c r="I80">
         <v>0</v>
       </c>
-      <c r="I80">
+      <c r="J80" t="s">
+        <v>47</v>
+      </c>
+      <c r="K80">
         <v>2</v>
       </c>
-      <c r="J80" t="s">
-        <v>46</v>
-      </c>
-      <c r="K80">
-        <v>2.375</v>
-      </c>
       <c r="L80">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M80">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N80">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O80">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P80">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q80">
         <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S80">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T80">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U80">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V80">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA80">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC80">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6428365</v>
+        <v>6428366</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,76 +7659,76 @@
         <v>45072.5625</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K81">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L81">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M81">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N81">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="O81">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P81">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q81">
         <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S81">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="T81">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U81">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V81">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W81">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB81">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7840,7 +7840,7 @@
         <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -8018,7 +8018,7 @@
         <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6428367</v>
+        <v>6428368</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K86">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L86">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M86">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N86">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="O86">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P86">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R86">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S86">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U86">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V86">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X86">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA86">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6428368</v>
+        <v>6428367</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,76 +8193,76 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K87">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L87">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M87">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N87">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="O87">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P87">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="Q87">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T87">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V87">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W87">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6428338</v>
+        <v>6428337</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,73 +8371,73 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
         <v>3</v>
       </c>
-      <c r="I89">
+      <c r="J89" t="s">
+        <v>46</v>
+      </c>
+      <c r="K89">
+        <v>1.7</v>
+      </c>
+      <c r="L89">
+        <v>4</v>
+      </c>
+      <c r="M89">
+        <v>4.2</v>
+      </c>
+      <c r="N89">
+        <v>1.571</v>
+      </c>
+      <c r="O89">
+        <v>4.75</v>
+      </c>
+      <c r="P89">
+        <v>4.75</v>
+      </c>
+      <c r="Q89">
+        <v>-1</v>
+      </c>
+      <c r="R89">
+        <v>1.975</v>
+      </c>
+      <c r="S89">
+        <v>1.875</v>
+      </c>
+      <c r="T89">
+        <v>3.5</v>
+      </c>
+      <c r="U89">
         <v>2</v>
       </c>
-      <c r="J89" t="s">
-        <v>47</v>
-      </c>
-      <c r="K89">
-        <v>1.5</v>
-      </c>
-      <c r="L89">
-        <v>4.5</v>
-      </c>
-      <c r="M89">
-        <v>5</v>
-      </c>
-      <c r="N89">
-        <v>1.363</v>
-      </c>
-      <c r="O89">
-        <v>5.25</v>
-      </c>
-      <c r="P89">
-        <v>6.5</v>
-      </c>
-      <c r="Q89">
-        <v>-1.5</v>
-      </c>
-      <c r="R89">
-        <v>1.95</v>
-      </c>
-      <c r="S89">
-        <v>1.9</v>
-      </c>
-      <c r="T89">
+      <c r="V89">
+        <v>1.85</v>
+      </c>
+      <c r="W89">
+        <v>-1</v>
+      </c>
+      <c r="X89">
+        <v>-1</v>
+      </c>
+      <c r="Y89">
         <v>3.75</v>
       </c>
-      <c r="U89">
-        <v>1.9</v>
-      </c>
-      <c r="V89">
-        <v>1.95</v>
-      </c>
-      <c r="W89">
-        <v>0.363</v>
-      </c>
-      <c r="X89">
-        <v>-1</v>
-      </c>
-      <c r="Y89">
-        <v>-1</v>
-      </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB89">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8460,7 +8460,7 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
         <v>39</v>
@@ -8537,7 +8537,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6428337</v>
+        <v>6428338</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8549,73 +8549,73 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H91">
+        <v>3</v>
+      </c>
+      <c r="I91">
         <v>2</v>
       </c>
-      <c r="I91">
-        <v>3</v>
-      </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K91">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M91">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N91">
-        <v>1.571</v>
+        <v>1.363</v>
       </c>
       <c r="O91">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P91">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q91">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R91">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S91">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T91">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U91">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6799251</v>
+        <v>6799250</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,73 +9172,73 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K98">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="L98">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M98">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N98">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="O98">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P98">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R98">
+        <v>1.975</v>
+      </c>
+      <c r="S98">
         <v>1.875</v>
       </c>
-      <c r="S98">
-        <v>1.975</v>
-      </c>
       <c r="T98">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA98">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6799250</v>
+        <v>6799251</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,73 +9261,73 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
         <v>3</v>
       </c>
-      <c r="I99">
+      <c r="J99" t="s">
+        <v>46</v>
+      </c>
+      <c r="K99">
+        <v>1.7</v>
+      </c>
+      <c r="L99">
+        <v>3.8</v>
+      </c>
+      <c r="M99">
+        <v>4</v>
+      </c>
+      <c r="N99">
+        <v>1.7</v>
+      </c>
+      <c r="O99">
+        <v>4</v>
+      </c>
+      <c r="P99">
+        <v>4.5</v>
+      </c>
+      <c r="Q99">
+        <v>-0.75</v>
+      </c>
+      <c r="R99">
+        <v>1.875</v>
+      </c>
+      <c r="S99">
+        <v>1.975</v>
+      </c>
+      <c r="T99">
+        <v>3</v>
+      </c>
+      <c r="U99">
+        <v>1.85</v>
+      </c>
+      <c r="V99">
         <v>2</v>
       </c>
-      <c r="J99" t="s">
-        <v>47</v>
-      </c>
-      <c r="K99">
-        <v>2.3</v>
-      </c>
-      <c r="L99">
-        <v>3.3</v>
-      </c>
-      <c r="M99">
-        <v>2.75</v>
-      </c>
-      <c r="N99">
-        <v>2.8</v>
-      </c>
-      <c r="O99">
-        <v>3.3</v>
-      </c>
-      <c r="P99">
-        <v>2.5</v>
-      </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-      <c r="R99">
-        <v>1.975</v>
-      </c>
-      <c r="S99">
-        <v>1.875</v>
-      </c>
-      <c r="T99">
-        <v>2.5</v>
-      </c>
-      <c r="U99">
-        <v>1.9</v>
-      </c>
-      <c r="V99">
-        <v>1.95</v>
-      </c>
       <c r="W99">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z99">
+        <v>-1</v>
+      </c>
+      <c r="AA99">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA99">
-        <v>-1</v>
-      </c>
       <c r="AB99">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6800833</v>
+        <v>6798867</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,76 +10329,76 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
       <c r="I111">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K111">
+        <v>4.333</v>
+      </c>
+      <c r="L111">
+        <v>3.75</v>
+      </c>
+      <c r="M111">
+        <v>1.65</v>
+      </c>
+      <c r="N111">
+        <v>4.75</v>
+      </c>
+      <c r="O111">
+        <v>4</v>
+      </c>
+      <c r="P111">
         <v>1.615</v>
       </c>
-      <c r="L111">
-        <v>4</v>
-      </c>
-      <c r="M111">
-        <v>4.2</v>
-      </c>
-      <c r="N111">
-        <v>1.75</v>
-      </c>
-      <c r="O111">
-        <v>4.333</v>
-      </c>
-      <c r="P111">
-        <v>3.8</v>
-      </c>
       <c r="Q111">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R111">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S111">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T111">
         <v>3</v>
       </c>
       <c r="U111">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y111">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA111">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6798867</v>
+        <v>6800833</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,76 +10418,76 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J112" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K112">
+        <v>1.615</v>
+      </c>
+      <c r="L112">
+        <v>4</v>
+      </c>
+      <c r="M112">
+        <v>4.2</v>
+      </c>
+      <c r="N112">
+        <v>1.75</v>
+      </c>
+      <c r="O112">
         <v>4.333</v>
       </c>
-      <c r="L112">
-        <v>3.75</v>
-      </c>
-      <c r="M112">
-        <v>1.65</v>
-      </c>
-      <c r="N112">
-        <v>4.75</v>
-      </c>
-      <c r="O112">
-        <v>4</v>
-      </c>
       <c r="P112">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="Q112">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R112">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S112">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
         <v>3</v>
       </c>
       <c r="U112">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V112">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z112">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC112">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6800831</v>
+        <v>6799262</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,34 +11308,34 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H122">
+        <v>2</v>
+      </c>
+      <c r="I122">
         <v>0</v>
       </c>
-      <c r="I122">
-        <v>1</v>
-      </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K122">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L122">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N122">
         <v>2.15</v>
       </c>
       <c r="O122">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P122">
         <v>3.1</v>
@@ -11344,40 +11344,40 @@
         <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S122">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T122">
         <v>3</v>
       </c>
       <c r="U122">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V122">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA122">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6799262</v>
+        <v>6800831</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,34 +11397,34 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K123">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M123">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="N123">
         <v>2.15</v>
       </c>
       <c r="O123">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P123">
         <v>3.1</v>
@@ -11433,40 +11433,40 @@
         <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S123">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T123">
         <v>3</v>
       </c>
       <c r="U123">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V123">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W123">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z123">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6799263</v>
+        <v>6799264</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,73 +11486,73 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I124">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K124">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="L124">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M124">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N124">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="O124">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P124">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="Q124">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R124">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S124">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U124">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V124">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA124">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6798552</v>
+        <v>6799263</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,40 +11575,40 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K125">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L125">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M125">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N125">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="O125">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P125">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R125">
         <v>2</v>
@@ -11617,31 +11617,31 @@
         <v>1.85</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V125">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z125">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB125">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6799264</v>
+        <v>6798552</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,58 +11664,58 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G126" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H126">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
         <v>47</v>
       </c>
       <c r="K126">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L126">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M126">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="N126">
-        <v>1.363</v>
+        <v>2.7</v>
       </c>
       <c r="O126">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P126">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q126">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R126">
+        <v>2</v>
+      </c>
+      <c r="S126">
+        <v>1.85</v>
+      </c>
+      <c r="T126">
+        <v>2.5</v>
+      </c>
+      <c r="U126">
+        <v>1.875</v>
+      </c>
+      <c r="V126">
         <v>1.975</v>
       </c>
-      <c r="S126">
-        <v>1.875</v>
-      </c>
-      <c r="T126">
-        <v>3.5</v>
-      </c>
-      <c r="U126">
-        <v>2.025</v>
-      </c>
-      <c r="V126">
-        <v>1.825</v>
-      </c>
       <c r="W126">
-        <v>0.363</v>
+        <v>1.7</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11724,13 +11724,13 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6800829</v>
+        <v>6799268</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,76 +12376,76 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
         <v>45</v>
       </c>
       <c r="K134">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="L134">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M134">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="N134">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="O134">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P134">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q134">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R134">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S134">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T134">
         <v>3</v>
       </c>
       <c r="U134">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V134">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA134">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC134">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6799268</v>
+        <v>6799269</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K135">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="L135">
+        <v>3.6</v>
+      </c>
+      <c r="M135">
+        <v>3.25</v>
+      </c>
+      <c r="N135">
+        <v>2.45</v>
+      </c>
+      <c r="O135">
         <v>4</v>
       </c>
-      <c r="M135">
-        <v>1.571</v>
-      </c>
-      <c r="N135">
-        <v>4.2</v>
-      </c>
-      <c r="O135">
-        <v>3.75</v>
-      </c>
       <c r="P135">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="Q135">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S135">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T135">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U135">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V135">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z135">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB135">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6799269</v>
+        <v>6800829</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K136">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L136">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M136">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="N136">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="O136">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P136">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S136">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T136">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U136">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y136">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB136">
         <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12987,7 +12987,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6799273</v>
+        <v>6800827</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12999,10 +12999,10 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13014,40 +13014,40 @@
         <v>46</v>
       </c>
       <c r="K141">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L141">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M141">
+        <v>2.9</v>
+      </c>
+      <c r="N141">
+        <v>2</v>
+      </c>
+      <c r="O141">
+        <v>3.6</v>
+      </c>
+      <c r="P141">
+        <v>3.6</v>
+      </c>
+      <c r="Q141">
+        <v>-0.5</v>
+      </c>
+      <c r="R141">
+        <v>2</v>
+      </c>
+      <c r="S141">
+        <v>1.85</v>
+      </c>
+      <c r="T141">
         <v>2.75</v>
       </c>
-      <c r="N141">
-        <v>2.25</v>
-      </c>
-      <c r="O141">
-        <v>3.4</v>
-      </c>
-      <c r="P141">
-        <v>3.1</v>
-      </c>
-      <c r="Q141">
-        <v>-0.25</v>
-      </c>
-      <c r="R141">
-        <v>2.05</v>
-      </c>
-      <c r="S141">
-        <v>1.8</v>
-      </c>
-      <c r="T141">
-        <v>2.5</v>
-      </c>
       <c r="U141">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V141">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13056,19 +13056,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6800827</v>
+        <v>6799273</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,10 +13177,10 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G143" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13192,40 +13192,40 @@
         <v>46</v>
       </c>
       <c r="K143">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L143">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M143">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N143">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O143">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P143">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S143">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V143">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
         <v>-1</v>
@@ -13234,19 +13234,19 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6798872</v>
+        <v>6800826</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,76 +13444,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G146" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
         <v>2</v>
       </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
       <c r="J146" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K146">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="L146">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M146">
-        <v>13</v>
+        <v>2.35</v>
       </c>
       <c r="N146">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="O146">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P146">
-        <v>13</v>
+        <v>2.3</v>
       </c>
       <c r="Q146">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R146">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S146">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T146">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V146">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W146">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC146">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6800826</v>
+        <v>6798555</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,10 +13533,10 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13548,40 +13548,40 @@
         <v>46</v>
       </c>
       <c r="K147">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="L147">
         <v>3.5</v>
       </c>
       <c r="M147">
-        <v>2.35</v>
+        <v>3.2</v>
       </c>
       <c r="N147">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="O147">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P147">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q147">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R147">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S147">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T147">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U147">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V147">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W147">
         <v>-1</v>
@@ -13590,19 +13590,19 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB147">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6798555</v>
+        <v>6798872</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,76 +13622,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K148">
-        <v>2.05</v>
+        <v>1.2</v>
       </c>
       <c r="L148">
+        <v>6</v>
+      </c>
+      <c r="M148">
+        <v>13</v>
+      </c>
+      <c r="N148">
+        <v>1.2</v>
+      </c>
+      <c r="O148">
+        <v>6.5</v>
+      </c>
+      <c r="P148">
+        <v>13</v>
+      </c>
+      <c r="Q148">
+        <v>-2</v>
+      </c>
+      <c r="R148">
+        <v>1.975</v>
+      </c>
+      <c r="S148">
+        <v>1.875</v>
+      </c>
+      <c r="T148">
         <v>3.5</v>
       </c>
-      <c r="M148">
-        <v>3.2</v>
-      </c>
-      <c r="N148">
-        <v>2.4</v>
-      </c>
-      <c r="O148">
-        <v>3.5</v>
-      </c>
-      <c r="P148">
-        <v>2.75</v>
-      </c>
-      <c r="Q148">
+      <c r="U148">
+        <v>2.025</v>
+      </c>
+      <c r="V148">
+        <v>1.825</v>
+      </c>
+      <c r="W148">
+        <v>0.2</v>
+      </c>
+      <c r="X148">
+        <v>-1</v>
+      </c>
+      <c r="Y148">
+        <v>-1</v>
+      </c>
+      <c r="Z148">
         <v>0</v>
       </c>
-      <c r="R148">
-        <v>1.825</v>
-      </c>
-      <c r="S148">
-        <v>2.025</v>
-      </c>
-      <c r="T148">
-        <v>2.75</v>
-      </c>
-      <c r="U148">
-        <v>1.825</v>
-      </c>
-      <c r="V148">
-        <v>2.025</v>
-      </c>
-      <c r="W148">
-        <v>-1</v>
-      </c>
-      <c r="X148">
-        <v>-1</v>
-      </c>
-      <c r="Y148">
-        <v>1.75</v>
-      </c>
-      <c r="Z148">
-        <v>-1</v>
-      </c>
       <c r="AA148">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB148">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6798874</v>
+        <v>6800824</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,55 +14601,55 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G159" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J159" t="s">
         <v>46</v>
       </c>
       <c r="K159">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L159">
         <v>3.75</v>
       </c>
       <c r="M159">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="N159">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O159">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P159">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="Q159">
         <v>0.5</v>
       </c>
       <c r="R159">
+        <v>1.875</v>
+      </c>
+      <c r="S159">
         <v>1.975</v>
       </c>
-      <c r="S159">
-        <v>1.875</v>
-      </c>
       <c r="T159">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U159">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V159">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14658,19 +14658,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB159">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6800824</v>
+        <v>6798874</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,55 +14690,55 @@
         <v>45205.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G160" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J160" t="s">
         <v>46</v>
       </c>
       <c r="K160">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L160">
         <v>3.75</v>
       </c>
       <c r="M160">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="N160">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O160">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P160">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q160">
         <v>0.5</v>
       </c>
       <c r="R160">
+        <v>1.975</v>
+      </c>
+      <c r="S160">
         <v>1.875</v>
       </c>
-      <c r="S160">
+      <c r="T160">
+        <v>2.5</v>
+      </c>
+      <c r="U160">
         <v>1.975</v>
       </c>
-      <c r="T160">
-        <v>3</v>
-      </c>
-      <c r="U160">
-        <v>2</v>
-      </c>
       <c r="V160">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14747,19 +14747,19 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
+        <v>0.875</v>
+      </c>
+      <c r="AB160">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB160">
-        <v>0</v>
-      </c>
       <c r="AC160">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6799287</v>
+        <v>6798558</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,13 +15135,13 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -15150,43 +15150,43 @@
         <v>47</v>
       </c>
       <c r="K165">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="L165">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M165">
+        <v>4.333</v>
+      </c>
+      <c r="N165">
+        <v>1.909</v>
+      </c>
+      <c r="O165">
         <v>3.8</v>
       </c>
-      <c r="N165">
-        <v>1.8</v>
-      </c>
-      <c r="O165">
-        <v>3.75</v>
-      </c>
       <c r="P165">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q165">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R165">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S165">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U165">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V165">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W165">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15195,16 +15195,16 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.5125</v>
+        <v>0.925</v>
       </c>
       <c r="AA165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC165">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15212,7 +15212,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6798558</v>
+        <v>6799287</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15224,13 +15224,13 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G166" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H166">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -15239,61 +15239,61 @@
         <v>47</v>
       </c>
       <c r="K166">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="L166">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M166">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="N166">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O166">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P166">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q166">
+        <v>-0.75</v>
+      </c>
+      <c r="R166">
+        <v>2.025</v>
+      </c>
+      <c r="S166">
+        <v>1.825</v>
+      </c>
+      <c r="T166">
+        <v>2.5</v>
+      </c>
+      <c r="U166">
+        <v>2.025</v>
+      </c>
+      <c r="V166">
+        <v>1.825</v>
+      </c>
+      <c r="W166">
+        <v>0.8</v>
+      </c>
+      <c r="X166">
+        <v>-1</v>
+      </c>
+      <c r="Y166">
+        <v>-1</v>
+      </c>
+      <c r="Z166">
+        <v>0.5125</v>
+      </c>
+      <c r="AA166">
         <v>-0.5</v>
       </c>
-      <c r="R166">
-        <v>1.925</v>
-      </c>
-      <c r="S166">
-        <v>1.925</v>
-      </c>
-      <c r="T166">
-        <v>2.75</v>
-      </c>
-      <c r="U166">
-        <v>1.9</v>
-      </c>
-      <c r="V166">
-        <v>1.95</v>
-      </c>
-      <c r="W166">
-        <v>0.909</v>
-      </c>
-      <c r="X166">
-        <v>-1</v>
-      </c>
-      <c r="Y166">
-        <v>-1</v>
-      </c>
-      <c r="Z166">
-        <v>0.925</v>
-      </c>
-      <c r="AA166">
-        <v>-1</v>
-      </c>
       <c r="AB166">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15568,7 +15568,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6799288</v>
+        <v>6799291</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15580,76 +15580,76 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G170" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K170">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L170">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M170">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="N170">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O170">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P170">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q170">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S170">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T170">
         <v>2.75</v>
       </c>
       <c r="U170">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V170">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W170">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z170">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB170">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC170">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6799291</v>
+        <v>6800822</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,55 +15669,55 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G171" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J171" t="s">
         <v>46</v>
       </c>
       <c r="K171">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="L171">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M171">
-        <v>3.25</v>
+        <v>1.533</v>
       </c>
       <c r="N171">
-        <v>2.15</v>
+        <v>8</v>
       </c>
       <c r="O171">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P171">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R171">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S171">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T171">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U171">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V171">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W171">
         <v>-1</v>
@@ -15726,16 +15726,16 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>2.2</v>
+        <v>0.333</v>
       </c>
       <c r="Z171">
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB171">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC171">
         <v>-1</v>
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6800822</v>
+        <v>6799288</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,76 +15758,76 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F172" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K172">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="L172">
         <v>3.8</v>
       </c>
       <c r="M172">
-        <v>1.533</v>
+        <v>3.8</v>
       </c>
       <c r="N172">
-        <v>8</v>
+        <v>1.65</v>
       </c>
       <c r="O172">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P172">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q172">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R172">
+        <v>1.85</v>
+      </c>
+      <c r="S172">
+        <v>2</v>
+      </c>
+      <c r="T172">
+        <v>2.75</v>
+      </c>
+      <c r="U172">
         <v>1.925</v>
       </c>
-      <c r="S172">
+      <c r="V172">
         <v>1.925</v>
       </c>
-      <c r="T172">
-        <v>3.5</v>
-      </c>
-      <c r="U172">
-        <v>2.025</v>
-      </c>
-      <c r="V172">
-        <v>1.825</v>
-      </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA172">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB172">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -17259,7 +17259,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6799298</v>
+        <v>6799300</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17271,73 +17271,73 @@
         <v>45254.625</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G189" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H189">
+        <v>4</v>
+      </c>
+      <c r="I189">
         <v>1</v>
       </c>
-      <c r="I189">
-        <v>2</v>
-      </c>
       <c r="J189" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K189">
-        <v>3.1</v>
+        <v>1.25</v>
       </c>
       <c r="L189">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M189">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="N189">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="O189">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P189">
-        <v>2.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q189">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R189">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S189">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U189">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V189">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA189">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6799300</v>
+        <v>6799298</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17360,73 +17360,73 @@
         <v>45254.625</v>
       </c>
       <c r="F190" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H190">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K190">
+        <v>3.1</v>
+      </c>
+      <c r="L190">
+        <v>3.6</v>
+      </c>
+      <c r="M190">
+        <v>2.1</v>
+      </c>
+      <c r="N190">
+        <v>3.2</v>
+      </c>
+      <c r="O190">
+        <v>3.4</v>
+      </c>
+      <c r="P190">
+        <v>2.25</v>
+      </c>
+      <c r="Q190">
+        <v>0.25</v>
+      </c>
+      <c r="R190">
+        <v>1.95</v>
+      </c>
+      <c r="S190">
+        <v>1.9</v>
+      </c>
+      <c r="T190">
+        <v>2.5</v>
+      </c>
+      <c r="U190">
+        <v>1.85</v>
+      </c>
+      <c r="V190">
+        <v>2</v>
+      </c>
+      <c r="W190">
+        <v>-1</v>
+      </c>
+      <c r="X190">
+        <v>-1</v>
+      </c>
+      <c r="Y190">
         <v>1.25</v>
       </c>
-      <c r="L190">
-        <v>6</v>
-      </c>
-      <c r="M190">
-        <v>8</v>
-      </c>
-      <c r="N190">
-        <v>1.3</v>
-      </c>
-      <c r="O190">
-        <v>6</v>
-      </c>
-      <c r="P190">
-        <v>8.5</v>
-      </c>
-      <c r="Q190">
-        <v>-1.5</v>
-      </c>
-      <c r="R190">
-        <v>1.875</v>
-      </c>
-      <c r="S190">
-        <v>1.975</v>
-      </c>
-      <c r="T190">
-        <v>3.25</v>
-      </c>
-      <c r="U190">
-        <v>1.925</v>
-      </c>
-      <c r="V190">
-        <v>1.925</v>
-      </c>
-      <c r="W190">
-        <v>0.3</v>
-      </c>
-      <c r="X190">
-        <v>-1</v>
-      </c>
-      <c r="Y190">
-        <v>-1</v>
-      </c>
       <c r="Z190">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB190">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -18238,7 +18238,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6799307</v>
+        <v>6799305</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18250,61 +18250,76 @@
         <v>45345.625</v>
       </c>
       <c r="F200" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G200" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200" t="s">
+        <v>46</v>
       </c>
       <c r="K200">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L200">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M200">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="N200">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O200">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P200">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q200">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R200">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S200">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T200">
+        <v>2.75</v>
+      </c>
+      <c r="U200">
+        <v>2.025</v>
+      </c>
+      <c r="V200">
+        <v>1.825</v>
+      </c>
+      <c r="W200">
+        <v>-1</v>
+      </c>
+      <c r="X200">
+        <v>-1</v>
+      </c>
+      <c r="Y200">
         <v>2.25</v>
       </c>
-      <c r="U200">
-        <v>1.825</v>
-      </c>
-      <c r="V200">
-        <v>2.025</v>
-      </c>
-      <c r="W200">
-        <v>0</v>
-      </c>
-      <c r="X200">
-        <v>0</v>
-      </c>
-      <c r="Y200">
-        <v>0</v>
-      </c>
       <c r="Z200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB200">
+        <v>-1</v>
+      </c>
+      <c r="AC200">
+        <v>0.825</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18312,7 +18327,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6799305</v>
+        <v>6799307</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18324,61 +18339,76 @@
         <v>45345.625</v>
       </c>
       <c r="F201" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G201" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="H201">
+        <v>4</v>
+      </c>
+      <c r="I201">
+        <v>4</v>
+      </c>
+      <c r="J201" t="s">
+        <v>45</v>
       </c>
       <c r="K201">
+        <v>1.75</v>
+      </c>
+      <c r="L201">
+        <v>3.6</v>
+      </c>
+      <c r="M201">
+        <v>4.333</v>
+      </c>
+      <c r="N201">
+        <v>2.4</v>
+      </c>
+      <c r="O201">
+        <v>3.2</v>
+      </c>
+      <c r="P201">
+        <v>3</v>
+      </c>
+      <c r="Q201">
+        <v>-0.25</v>
+      </c>
+      <c r="R201">
         <v>2.1</v>
       </c>
-      <c r="L201">
-        <v>3.5</v>
-      </c>
-      <c r="M201">
-        <v>2.9</v>
-      </c>
-      <c r="N201">
-        <v>1.95</v>
-      </c>
-      <c r="O201">
-        <v>4</v>
-      </c>
-      <c r="P201">
-        <v>3.3</v>
-      </c>
-      <c r="Q201">
+      <c r="S201">
+        <v>1.775</v>
+      </c>
+      <c r="T201">
+        <v>2.25</v>
+      </c>
+      <c r="U201">
+        <v>1.85</v>
+      </c>
+      <c r="V201">
+        <v>2</v>
+      </c>
+      <c r="W201">
+        <v>-1</v>
+      </c>
+      <c r="X201">
+        <v>2.2</v>
+      </c>
+      <c r="Y201">
+        <v>-1</v>
+      </c>
+      <c r="Z201">
         <v>-0.5</v>
       </c>
-      <c r="R201">
-        <v>2</v>
-      </c>
-      <c r="S201">
-        <v>1.85</v>
-      </c>
-      <c r="T201">
-        <v>2.75</v>
-      </c>
-      <c r="U201">
-        <v>1.875</v>
-      </c>
-      <c r="V201">
-        <v>1.975</v>
-      </c>
-      <c r="W201">
-        <v>0</v>
-      </c>
-      <c r="X201">
-        <v>0</v>
-      </c>
-      <c r="Y201">
-        <v>0</v>
-      </c>
-      <c r="Z201">
-        <v>0</v>
-      </c>
       <c r="AA201">
-        <v>0</v>
+        <v>0.3875</v>
+      </c>
+      <c r="AB201">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC201">
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18403,6 +18433,15 @@
       <c r="G202" t="s">
         <v>42</v>
       </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="I202">
+        <v>2</v>
+      </c>
+      <c r="J202" t="s">
+        <v>46</v>
+      </c>
       <c r="K202">
         <v>2.4</v>
       </c>
@@ -18413,46 +18452,52 @@
         <v>2.4</v>
       </c>
       <c r="N202">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O202">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P202">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q202">
         <v>0.25</v>
       </c>
       <c r="R202">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S202">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T202">
         <v>2.25</v>
       </c>
       <c r="U202">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V202">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W202">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X202">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="Z202">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB202">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC202">
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18487,22 +18532,22 @@
         <v>2.9</v>
       </c>
       <c r="N203">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O203">
         <v>3.5</v>
       </c>
       <c r="P203">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q203">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R203">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S203">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T203">
         <v>2.75</v>
@@ -18561,22 +18606,22 @@
         <v>2.9</v>
       </c>
       <c r="N204">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O204">
         <v>3.5</v>
       </c>
       <c r="P204">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="Q204">
         <v>-0.25</v>
       </c>
       <c r="R204">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S204">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T204">
         <v>2.75</v>
@@ -18656,10 +18701,10 @@
         <v>2.5</v>
       </c>
       <c r="U205">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V205">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W205">
         <v>0</v>

--- a/Denmark Division 1/Denmark Division 1.xlsx
+++ b/Denmark Division 1/Denmark Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -124,10 +124,10 @@
     <t>FC Fredericia</t>
   </si>
   <si>
-    <t>Fremad Amager</t>
+    <t>HB Kge</t>
   </si>
   <si>
-    <t>HB Kge</t>
+    <t>Fremad Amager</t>
   </si>
   <si>
     <t>Sonderjyske</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC205"/>
+  <dimension ref="A1:AC203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5128563</v>
+        <v>5128564</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9">
+        <v>3.5</v>
+      </c>
+      <c r="L9">
+        <v>3.75</v>
+      </c>
+      <c r="M9">
+        <v>1.909</v>
+      </c>
+      <c r="N9">
+        <v>4.333</v>
+      </c>
+      <c r="O9">
+        <v>4.2</v>
+      </c>
+      <c r="P9">
+        <v>1.666</v>
+      </c>
+      <c r="Q9">
+        <v>0.75</v>
+      </c>
+      <c r="R9">
+        <v>1.975</v>
+      </c>
+      <c r="S9">
+        <v>1.875</v>
+      </c>
+      <c r="T9">
+        <v>2.75</v>
+      </c>
+      <c r="U9">
+        <v>1.85</v>
+      </c>
+      <c r="V9">
         <v>2</v>
       </c>
-      <c r="I9">
+      <c r="W9">
+        <v>-1</v>
+      </c>
+      <c r="X9">
+        <v>3.2</v>
+      </c>
+      <c r="Y9">
+        <v>-1</v>
+      </c>
+      <c r="Z9">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA9">
+        <v>-1</v>
+      </c>
+      <c r="AB9">
+        <v>-1</v>
+      </c>
+      <c r="AC9">
         <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9">
-        <v>2.5</v>
-      </c>
-      <c r="L9">
-        <v>3.4</v>
-      </c>
-      <c r="M9">
-        <v>2.625</v>
-      </c>
-      <c r="N9">
-        <v>3.1</v>
-      </c>
-      <c r="O9">
-        <v>3.4</v>
-      </c>
-      <c r="P9">
-        <v>2.2</v>
-      </c>
-      <c r="Q9">
-        <v>0.25</v>
-      </c>
-      <c r="R9">
-        <v>1.9</v>
-      </c>
-      <c r="S9">
-        <v>1.95</v>
-      </c>
-      <c r="T9">
-        <v>2.5</v>
-      </c>
-      <c r="U9">
-        <v>1.95</v>
-      </c>
-      <c r="V9">
-        <v>1.9</v>
-      </c>
-      <c r="W9">
-        <v>2.1</v>
-      </c>
-      <c r="X9">
-        <v>-1</v>
-      </c>
-      <c r="Y9">
-        <v>-1</v>
-      </c>
-      <c r="Z9">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA9">
-        <v>-1</v>
-      </c>
-      <c r="AB9">
-        <v>0.95</v>
-      </c>
-      <c r="AC9">
-        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5128564</v>
+        <v>5128563</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,73 +1343,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L10">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="N10">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="O10">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P10">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="Q10">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R10">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S10">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T10">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X10">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5128199</v>
+        <v>5128297</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,40 +1518,40 @@
         <v>44982.375</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="L12">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="M12">
+        <v>1.7</v>
+      </c>
+      <c r="N12">
+        <v>3.6</v>
+      </c>
+      <c r="O12">
         <v>3.8</v>
       </c>
-      <c r="N12">
-        <v>2.2</v>
-      </c>
-      <c r="O12">
-        <v>3.5</v>
-      </c>
       <c r="P12">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R12">
         <v>1.925</v>
@@ -1560,19 +1560,19 @@
         <v>1.925</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V12">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W12">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y12">
         <v>-1</v>
@@ -1584,10 +1584,10 @@
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5128297</v>
+        <v>5128199</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1607,40 +1607,40 @@
         <v>44982.375</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="L13">
+        <v>3.7</v>
+      </c>
+      <c r="M13">
         <v>3.8</v>
       </c>
-      <c r="M13">
-        <v>1.7</v>
-      </c>
       <c r="N13">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="O13">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P13">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q13">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
         <v>1.925</v>
@@ -1649,19 +1649,19 @@
         <v>1.925</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X13">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
@@ -1673,10 +1673,10 @@
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC13">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1788,7 +1788,7 @@
         <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -2055,7 +2055,7 @@
         <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2408,7 +2408,7 @@
         <v>44996.375</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
         <v>30</v>
@@ -2500,7 +2500,7 @@
         <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23">
         <v>4</v>
@@ -2853,7 +2853,7 @@
         <v>45003.375</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>29</v>
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5128201</v>
+        <v>5128527</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,76 +2942,76 @@
         <v>45003.375</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="L28">
         <v>3.6</v>
       </c>
       <c r="M28">
-        <v>1.714</v>
+        <v>4</v>
       </c>
       <c r="N28">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P28">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="Q28">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S28">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
+        <v>1.9</v>
+      </c>
+      <c r="V28">
         <v>1.95</v>
       </c>
-      <c r="V28">
-        <v>1.9</v>
-      </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA28">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC28">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5128527</v>
+        <v>5128528</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,76 +3031,76 @@
         <v>45003.375</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="L29">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M29">
+        <v>7.5</v>
+      </c>
+      <c r="N29">
+        <v>1.444</v>
+      </c>
+      <c r="O29">
+        <v>5</v>
+      </c>
+      <c r="P29">
+        <v>6</v>
+      </c>
+      <c r="Q29">
+        <v>-1.25</v>
+      </c>
+      <c r="R29">
+        <v>1.925</v>
+      </c>
+      <c r="S29">
+        <v>1.925</v>
+      </c>
+      <c r="T29">
+        <v>3.25</v>
+      </c>
+      <c r="U29">
+        <v>2</v>
+      </c>
+      <c r="V29">
+        <v>1.85</v>
+      </c>
+      <c r="W29">
+        <v>-1</v>
+      </c>
+      <c r="X29">
         <v>4</v>
       </c>
-      <c r="N29">
-        <v>1.8</v>
-      </c>
-      <c r="O29">
-        <v>3.8</v>
-      </c>
-      <c r="P29">
-        <v>4</v>
-      </c>
-      <c r="Q29">
-        <v>-0.75</v>
-      </c>
-      <c r="R29">
-        <v>2.05</v>
-      </c>
-      <c r="S29">
-        <v>1.8</v>
-      </c>
-      <c r="T29">
-        <v>2.75</v>
-      </c>
-      <c r="U29">
-        <v>1.9</v>
-      </c>
-      <c r="V29">
-        <v>1.95</v>
-      </c>
-      <c r="W29">
-        <v>0.8</v>
-      </c>
-      <c r="X29">
-        <v>-1</v>
-      </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5128528</v>
+        <v>5128201</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,76 +3120,76 @@
         <v>45003.375</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="L30">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M30">
-        <v>7.5</v>
+        <v>1.714</v>
       </c>
       <c r="N30">
-        <v>1.444</v>
+        <v>4.75</v>
       </c>
       <c r="O30">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P30">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="Q30">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R30">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S30">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T30">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3301,7 +3301,7 @@
         <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3568,7 +3568,7 @@
         <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3743,7 +3743,7 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
         <v>34</v>
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6428343</v>
+        <v>6428314</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,73 +3921,73 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K39">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="L39">
         <v>3.6</v>
       </c>
       <c r="M39">
+        <v>4</v>
+      </c>
+      <c r="N39">
+        <v>1.75</v>
+      </c>
+      <c r="O39">
+        <v>3.8</v>
+      </c>
+      <c r="P39">
+        <v>4.5</v>
+      </c>
+      <c r="Q39">
+        <v>-0.75</v>
+      </c>
+      <c r="R39">
         <v>1.95</v>
       </c>
-      <c r="N39">
-        <v>3.75</v>
-      </c>
-      <c r="O39">
-        <v>3.6</v>
-      </c>
-      <c r="P39">
-        <v>1.95</v>
-      </c>
-      <c r="Q39">
-        <v>0.5</v>
-      </c>
-      <c r="R39">
-        <v>1.875</v>
-      </c>
       <c r="S39">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T39">
         <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA39">
+        <v>-0.5</v>
+      </c>
+      <c r="AB39">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB39">
-        <v>0.925</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6428314</v>
+        <v>6428343</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,73 +4010,73 @@
         <v>45025.33333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
         <v>3</v>
       </c>
-      <c r="I40">
-        <v>2</v>
-      </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K40">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="L40">
         <v>3.6</v>
       </c>
       <c r="M40">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N40">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="O40">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P40">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S40">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T40">
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V40">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z40">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB40">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4102,7 +4102,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4722,7 +4722,7 @@
         <v>45032.375</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s">
         <v>34</v>
@@ -4814,7 +4814,7 @@
         <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H49">
         <v>6</v>
@@ -5081,7 +5081,7 @@
         <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5256,7 +5256,7 @@
         <v>45039.33333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
         <v>29</v>
@@ -5434,10 +5434,10 @@
         <v>45044.5625</v>
       </c>
       <c r="F56" t="s">
+        <v>37</v>
+      </c>
+      <c r="G56" t="s">
         <v>36</v>
-      </c>
-      <c r="G56" t="s">
-        <v>37</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -6146,7 +6146,7 @@
         <v>45051.5625</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
         <v>29</v>
@@ -6324,7 +6324,7 @@
         <v>45052.33333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
         <v>40</v>
@@ -6594,7 +6594,7 @@
         <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6428329</v>
+        <v>6428360</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,76 +6680,76 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K70">
+        <v>3.75</v>
+      </c>
+      <c r="L70">
+        <v>3.6</v>
+      </c>
+      <c r="M70">
+        <v>1.85</v>
+      </c>
+      <c r="N70">
         <v>3.8</v>
       </c>
-      <c r="L70">
-        <v>3.5</v>
-      </c>
-      <c r="M70">
-        <v>1.8</v>
-      </c>
-      <c r="N70">
-        <v>5.25</v>
-      </c>
       <c r="O70">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P70">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="Q70">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R70">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S70">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T70">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V70">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA70">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC70">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6428360</v>
+        <v>6428329</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,76 +6769,76 @@
         <v>45058.58333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H71">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K71">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L71">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M71">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="N71">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="O71">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P71">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="Q71">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R71">
+        <v>2.05</v>
+      </c>
+      <c r="S71">
+        <v>1.8</v>
+      </c>
+      <c r="T71">
+        <v>3.25</v>
+      </c>
+      <c r="U71">
         <v>1.975</v>
       </c>
-      <c r="S71">
+      <c r="V71">
         <v>1.875</v>
       </c>
-      <c r="T71">
-        <v>2.75</v>
-      </c>
-      <c r="U71">
-        <v>1.925</v>
-      </c>
-      <c r="V71">
-        <v>1.925</v>
-      </c>
       <c r="W71">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z71">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB71">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6858,7 +6858,7 @@
         <v>45059.33333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
         <v>35</v>
@@ -7128,7 +7128,7 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7395,7 +7395,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7662,7 +7662,7 @@
         <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7748,7 +7748,7 @@
         <v>45072.5625</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
         <v>40</v>
@@ -8104,10 +8104,10 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F86" t="s">
+        <v>36</v>
+      </c>
+      <c r="G86" t="s">
         <v>37</v>
-      </c>
-      <c r="G86" t="s">
-        <v>36</v>
       </c>
       <c r="H86">
         <v>4</v>
@@ -8641,7 +8641,7 @@
         <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -9350,7 +9350,7 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
         <v>39</v>
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6799253</v>
+        <v>6799252</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,76 +9706,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
-      <c r="I104">
+      <c r="J104" t="s">
+        <v>47</v>
+      </c>
+      <c r="K104">
+        <v>1.7</v>
+      </c>
+      <c r="L104">
+        <v>3.6</v>
+      </c>
+      <c r="M104">
+        <v>4.75</v>
+      </c>
+      <c r="N104">
+        <v>1.727</v>
+      </c>
+      <c r="O104">
+        <v>4</v>
+      </c>
+      <c r="P104">
+        <v>4</v>
+      </c>
+      <c r="Q104">
+        <v>-0.75</v>
+      </c>
+      <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
+        <v>1.85</v>
+      </c>
+      <c r="T104">
+        <v>3</v>
+      </c>
+      <c r="U104">
+        <v>1.95</v>
+      </c>
+      <c r="V104">
+        <v>1.9</v>
+      </c>
+      <c r="W104">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X104">
+        <v>-1</v>
+      </c>
+      <c r="Y104">
+        <v>-1</v>
+      </c>
+      <c r="Z104">
         <v>1</v>
       </c>
-      <c r="J104" t="s">
-        <v>46</v>
-      </c>
-      <c r="K104">
-        <v>2.6</v>
-      </c>
-      <c r="L104">
-        <v>3.5</v>
-      </c>
-      <c r="M104">
-        <v>2.5</v>
-      </c>
-      <c r="N104">
-        <v>3</v>
-      </c>
-      <c r="O104">
-        <v>3.6</v>
-      </c>
-      <c r="P104">
-        <v>2.25</v>
-      </c>
-      <c r="Q104">
-        <v>0.25</v>
-      </c>
-      <c r="R104">
-        <v>1.925</v>
-      </c>
-      <c r="S104">
-        <v>1.925</v>
-      </c>
-      <c r="T104">
-        <v>2.5</v>
-      </c>
-      <c r="U104">
-        <v>1.825</v>
-      </c>
-      <c r="V104">
-        <v>2.025</v>
-      </c>
-      <c r="W104">
-        <v>-1</v>
-      </c>
-      <c r="X104">
-        <v>-1</v>
-      </c>
-      <c r="Y104">
-        <v>1.25</v>
-      </c>
-      <c r="Z104">
-        <v>-1</v>
-      </c>
       <c r="AA104">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9783,7 +9783,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6799252</v>
+        <v>6799253</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9795,76 +9795,76 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K105">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="L105">
+        <v>3.5</v>
+      </c>
+      <c r="M105">
+        <v>2.5</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105">
         <v>3.6</v>
       </c>
-      <c r="M105">
-        <v>4.75</v>
-      </c>
-      <c r="N105">
-        <v>1.727</v>
-      </c>
-      <c r="O105">
-        <v>4</v>
-      </c>
       <c r="P105">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T105">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W105">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z105">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10418,7 +10418,7 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
         <v>41</v>
@@ -11219,7 +11219,7 @@
         <v>45158.33333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
         <v>34</v>
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6799262</v>
+        <v>6800831</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,34 +11308,34 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K122">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L122">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M122">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="N122">
         <v>2.15</v>
       </c>
       <c r="O122">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P122">
         <v>3.1</v>
@@ -11344,40 +11344,40 @@
         <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T122">
         <v>3</v>
       </c>
       <c r="U122">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V122">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W122">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z122">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB122">
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6800831</v>
+        <v>6799262</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,34 +11397,34 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H123">
+        <v>2</v>
+      </c>
+      <c r="I123">
         <v>0</v>
       </c>
-      <c r="I123">
-        <v>1</v>
-      </c>
       <c r="J123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L123">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N123">
         <v>2.15</v>
       </c>
       <c r="O123">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P123">
         <v>3.1</v>
@@ -11433,40 +11433,40 @@
         <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S123">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T123">
         <v>3</v>
       </c>
       <c r="U123">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V123">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA123">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6799264</v>
+        <v>6798552</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,58 +11486,58 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
         <v>47</v>
       </c>
       <c r="K124">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L124">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="N124">
-        <v>1.363</v>
+        <v>2.7</v>
       </c>
       <c r="O124">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P124">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q124">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R124">
+        <v>2</v>
+      </c>
+      <c r="S124">
+        <v>1.85</v>
+      </c>
+      <c r="T124">
+        <v>2.5</v>
+      </c>
+      <c r="U124">
+        <v>1.875</v>
+      </c>
+      <c r="V124">
         <v>1.975</v>
       </c>
-      <c r="S124">
-        <v>1.875</v>
-      </c>
-      <c r="T124">
-        <v>3.5</v>
-      </c>
-      <c r="U124">
-        <v>2.025</v>
-      </c>
-      <c r="V124">
-        <v>1.825</v>
-      </c>
       <c r="W124">
-        <v>0.363</v>
+        <v>1.7</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11546,13 +11546,13 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6798552</v>
+        <v>6799264</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,58 +11664,58 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
         <v>47</v>
       </c>
       <c r="K126">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L126">
+        <v>4.5</v>
+      </c>
+      <c r="M126">
+        <v>7</v>
+      </c>
+      <c r="N126">
+        <v>1.363</v>
+      </c>
+      <c r="O126">
+        <v>5</v>
+      </c>
+      <c r="P126">
+        <v>7.5</v>
+      </c>
+      <c r="Q126">
+        <v>-1.5</v>
+      </c>
+      <c r="R126">
+        <v>1.975</v>
+      </c>
+      <c r="S126">
+        <v>1.875</v>
+      </c>
+      <c r="T126">
         <v>3.5</v>
       </c>
-      <c r="M126">
-        <v>2.8</v>
-      </c>
-      <c r="N126">
-        <v>2.7</v>
-      </c>
-      <c r="O126">
-        <v>3.5</v>
-      </c>
-      <c r="P126">
-        <v>2.5</v>
-      </c>
-      <c r="Q126">
-        <v>0</v>
-      </c>
-      <c r="R126">
-        <v>2</v>
-      </c>
-      <c r="S126">
-        <v>1.85</v>
-      </c>
-      <c r="T126">
-        <v>2.5</v>
-      </c>
       <c r="U126">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V126">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W126">
-        <v>1.7</v>
+        <v>0.363</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11724,13 +11724,13 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -12109,7 +12109,7 @@
         <v>45165.33333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
         <v>35</v>
@@ -12824,7 +12824,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -12910,7 +12910,7 @@
         <v>45183.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
         <v>42</v>
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6798871</v>
+        <v>6799273</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,76 +13088,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K142">
+        <v>2.4</v>
+      </c>
+      <c r="L142">
+        <v>3.3</v>
+      </c>
+      <c r="M142">
+        <v>2.75</v>
+      </c>
+      <c r="N142">
+        <v>2.25</v>
+      </c>
+      <c r="O142">
+        <v>3.4</v>
+      </c>
+      <c r="P142">
+        <v>3.1</v>
+      </c>
+      <c r="Q142">
+        <v>-0.25</v>
+      </c>
+      <c r="R142">
+        <v>2.05</v>
+      </c>
+      <c r="S142">
+        <v>1.8</v>
+      </c>
+      <c r="T142">
         <v>2.5</v>
       </c>
-      <c r="L142">
-        <v>3.5</v>
-      </c>
-      <c r="M142">
-        <v>2.5</v>
-      </c>
-      <c r="N142">
-        <v>2.55</v>
-      </c>
-      <c r="O142">
-        <v>3.5</v>
-      </c>
-      <c r="P142">
-        <v>2.625</v>
-      </c>
-      <c r="Q142">
-        <v>0</v>
-      </c>
-      <c r="R142">
-        <v>1.825</v>
-      </c>
-      <c r="S142">
-        <v>2.025</v>
-      </c>
-      <c r="T142">
-        <v>2.75</v>
-      </c>
       <c r="U142">
+        <v>1.95</v>
+      </c>
+      <c r="V142">
         <v>1.9</v>
       </c>
-      <c r="V142">
-        <v>1.95</v>
-      </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6799273</v>
+        <v>6798871</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,76 +13177,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G143" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K143">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L143">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M143">
+        <v>2.5</v>
+      </c>
+      <c r="N143">
+        <v>2.55</v>
+      </c>
+      <c r="O143">
+        <v>3.5</v>
+      </c>
+      <c r="P143">
+        <v>2.625</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>1.825</v>
+      </c>
+      <c r="S143">
+        <v>2.025</v>
+      </c>
+      <c r="T143">
         <v>2.75</v>
       </c>
-      <c r="N143">
-        <v>2.25</v>
-      </c>
-      <c r="O143">
-        <v>3.4</v>
-      </c>
-      <c r="P143">
-        <v>3.1</v>
-      </c>
-      <c r="Q143">
-        <v>-0.25</v>
-      </c>
-      <c r="R143">
-        <v>2.05</v>
-      </c>
-      <c r="S143">
-        <v>1.8</v>
-      </c>
-      <c r="T143">
+      <c r="U143">
+        <v>1.9</v>
+      </c>
+      <c r="V143">
+        <v>1.95</v>
+      </c>
+      <c r="W143">
+        <v>-1</v>
+      </c>
+      <c r="X143">
         <v>2.5</v>
       </c>
-      <c r="U143">
-        <v>1.95</v>
-      </c>
-      <c r="V143">
-        <v>1.9</v>
-      </c>
-      <c r="W143">
-        <v>-1</v>
-      </c>
-      <c r="X143">
-        <v>-1</v>
-      </c>
       <c r="Y143">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA143">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13625,7 +13625,7 @@
         <v>43</v>
       </c>
       <c r="G148" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -14245,7 +14245,7 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F155" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G155" t="s">
         <v>30</v>
@@ -14782,7 +14782,7 @@
         <v>42</v>
       </c>
       <c r="G161" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H161">
         <v>3</v>
@@ -15212,7 +15212,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6799287</v>
+        <v>6799286</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15224,67 +15224,67 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G166" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H166">
         <v>1</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K166">
+        <v>3.5</v>
+      </c>
+      <c r="L166">
+        <v>3.6</v>
+      </c>
+      <c r="M166">
+        <v>1.909</v>
+      </c>
+      <c r="N166">
+        <v>3.1</v>
+      </c>
+      <c r="O166">
+        <v>3.6</v>
+      </c>
+      <c r="P166">
+        <v>2.2</v>
+      </c>
+      <c r="Q166">
+        <v>0.25</v>
+      </c>
+      <c r="R166">
+        <v>1.9</v>
+      </c>
+      <c r="S166">
+        <v>1.95</v>
+      </c>
+      <c r="T166">
+        <v>3</v>
+      </c>
+      <c r="U166">
+        <v>2</v>
+      </c>
+      <c r="V166">
         <v>1.85</v>
       </c>
-      <c r="L166">
-        <v>3.75</v>
-      </c>
-      <c r="M166">
-        <v>3.8</v>
-      </c>
-      <c r="N166">
-        <v>1.8</v>
-      </c>
-      <c r="O166">
-        <v>3.75</v>
-      </c>
-      <c r="P166">
-        <v>4.75</v>
-      </c>
-      <c r="Q166">
-        <v>-0.75</v>
-      </c>
-      <c r="R166">
-        <v>2.025</v>
-      </c>
-      <c r="S166">
-        <v>1.825</v>
-      </c>
-      <c r="T166">
-        <v>2.5</v>
-      </c>
-      <c r="U166">
-        <v>2.025</v>
-      </c>
-      <c r="V166">
-        <v>1.825</v>
-      </c>
       <c r="W166">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.5125</v>
+        <v>0.45</v>
       </c>
       <c r="AA166">
         <v>-0.5</v>
@@ -15293,7 +15293,7 @@
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15301,7 +15301,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6799286</v>
+        <v>6799287</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15313,67 +15313,67 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G167" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H167">
         <v>1</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K167">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="L167">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M167">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="N167">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="O167">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P167">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q167">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S167">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T167">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U167">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V167">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X167">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.45</v>
+        <v>0.5125</v>
       </c>
       <c r="AA167">
         <v>-0.5</v>
@@ -15382,7 +15382,7 @@
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15491,7 +15491,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F169" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G169" t="s">
         <v>33</v>
@@ -15761,7 +15761,7 @@
         <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -16203,7 +16203,7 @@
         <v>45233.625</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G177" t="s">
         <v>44</v>
@@ -16826,7 +16826,7 @@
         <v>45240.625</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G184" t="s">
         <v>38</v>
@@ -17541,7 +17541,7 @@
         <v>39</v>
       </c>
       <c r="G192" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -17983,7 +17983,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G197" t="s">
         <v>43</v>
@@ -18253,7 +18253,7 @@
         <v>30</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -18505,7 +18505,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6798879</v>
+        <v>6799306</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18514,49 +18514,49 @@
         <v>28</v>
       </c>
       <c r="E203" s="2">
-        <v>45346.375</v>
+        <v>45347.45833333334</v>
       </c>
       <c r="F203" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G203" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K203">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L203">
+        <v>3.25</v>
+      </c>
+      <c r="M203">
+        <v>2.8</v>
+      </c>
+      <c r="N203">
+        <v>2.375</v>
+      </c>
+      <c r="O203">
         <v>3.4</v>
       </c>
-      <c r="M203">
-        <v>2.9</v>
-      </c>
-      <c r="N203">
-        <v>2.05</v>
-      </c>
-      <c r="O203">
-        <v>3.5</v>
-      </c>
       <c r="P203">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q203">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S203">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T203">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U203">
+        <v>2</v>
+      </c>
+      <c r="V203">
         <v>1.85</v>
-      </c>
-      <c r="V203">
-        <v>2</v>
       </c>
       <c r="W203">
         <v>0</v>
@@ -18571,154 +18571,6 @@
         <v>0</v>
       </c>
       <c r="AA203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:29">
-      <c r="A204" s="1">
-        <v>202</v>
-      </c>
-      <c r="B204">
-        <v>6800816</v>
-      </c>
-      <c r="C204" t="s">
-        <v>28</v>
-      </c>
-      <c r="D204" t="s">
-        <v>28</v>
-      </c>
-      <c r="E204" s="2">
-        <v>45346.45833333334</v>
-      </c>
-      <c r="F204" t="s">
-        <v>41</v>
-      </c>
-      <c r="G204" t="s">
-        <v>33</v>
-      </c>
-      <c r="K204">
-        <v>2.25</v>
-      </c>
-      <c r="L204">
-        <v>3.5</v>
-      </c>
-      <c r="M204">
-        <v>2.9</v>
-      </c>
-      <c r="N204">
-        <v>2.3</v>
-      </c>
-      <c r="O204">
-        <v>3.5</v>
-      </c>
-      <c r="P204">
-        <v>3</v>
-      </c>
-      <c r="Q204">
-        <v>-0.25</v>
-      </c>
-      <c r="R204">
-        <v>2.025</v>
-      </c>
-      <c r="S204">
-        <v>1.825</v>
-      </c>
-      <c r="T204">
-        <v>2.75</v>
-      </c>
-      <c r="U204">
-        <v>1.975</v>
-      </c>
-      <c r="V204">
-        <v>1.875</v>
-      </c>
-      <c r="W204">
-        <v>0</v>
-      </c>
-      <c r="X204">
-        <v>0</v>
-      </c>
-      <c r="Y204">
-        <v>0</v>
-      </c>
-      <c r="Z204">
-        <v>0</v>
-      </c>
-      <c r="AA204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:29">
-      <c r="A205" s="1">
-        <v>203</v>
-      </c>
-      <c r="B205">
-        <v>6799306</v>
-      </c>
-      <c r="C205" t="s">
-        <v>28</v>
-      </c>
-      <c r="D205" t="s">
-        <v>28</v>
-      </c>
-      <c r="E205" s="2">
-        <v>45347.45833333334</v>
-      </c>
-      <c r="F205" t="s">
-        <v>34</v>
-      </c>
-      <c r="G205" t="s">
-        <v>35</v>
-      </c>
-      <c r="K205">
-        <v>2.4</v>
-      </c>
-      <c r="L205">
-        <v>3.25</v>
-      </c>
-      <c r="M205">
-        <v>2.8</v>
-      </c>
-      <c r="N205">
-        <v>2.375</v>
-      </c>
-      <c r="O205">
-        <v>3.4</v>
-      </c>
-      <c r="P205">
-        <v>3</v>
-      </c>
-      <c r="Q205">
-        <v>-0.25</v>
-      </c>
-      <c r="R205">
-        <v>2.1</v>
-      </c>
-      <c r="S205">
-        <v>1.775</v>
-      </c>
-      <c r="T205">
-        <v>2.5</v>
-      </c>
-      <c r="U205">
-        <v>2</v>
-      </c>
-      <c r="V205">
-        <v>1.85</v>
-      </c>
-      <c r="W205">
-        <v>0</v>
-      </c>
-      <c r="X205">
-        <v>0</v>
-      </c>
-      <c r="Y205">
-        <v>0</v>
-      </c>
-      <c r="Z205">
-        <v>0</v>
-      </c>
-      <c r="AA205">
         <v>0</v>
       </c>
     </row>

--- a/Denmark Division 1/Denmark Division 1.xlsx
+++ b/Denmark Division 1/Denmark Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -118,10 +118,10 @@
     <t>Naestved</t>
   </si>
   <si>
-    <t>Hobro IK</t>
+    <t>FC Fredericia</t>
   </si>
   <si>
-    <t>FC Fredericia</t>
+    <t>Hobro IK</t>
   </si>
   <si>
     <t>HB Kge</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC203"/>
+  <dimension ref="A1:AC205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5128520</v>
+        <v>5128299</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,73 +1076,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M7">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N7">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P7">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S7">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
+        <v>1.975</v>
+      </c>
+      <c r="V7">
         <v>1.875</v>
       </c>
-      <c r="V7">
-        <v>1.975</v>
-      </c>
       <c r="W7">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z7">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB7">
+        <v>-1</v>
+      </c>
+      <c r="AC7">
         <v>0.875</v>
-      </c>
-      <c r="AC7">
-        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5128299</v>
+        <v>5128520</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="L8">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="N8">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="O8">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P8">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q8">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
+        <v>2.05</v>
+      </c>
+      <c r="S8">
+        <v>1.8</v>
+      </c>
+      <c r="T8">
+        <v>2.25</v>
+      </c>
+      <c r="U8">
+        <v>1.875</v>
+      </c>
+      <c r="V8">
         <v>1.975</v>
       </c>
-      <c r="S8">
-        <v>1.875</v>
-      </c>
-      <c r="T8">
-        <v>2.75</v>
-      </c>
-      <c r="U8">
-        <v>1.975</v>
-      </c>
-      <c r="V8">
-        <v>1.875</v>
-      </c>
       <c r="W8">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA8">
+        <v>-1</v>
+      </c>
+      <c r="AB8">
         <v>0.875</v>
       </c>
-      <c r="AB8">
-        <v>-1</v>
-      </c>
       <c r="AC8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1343,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1432,7 +1432,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1785,7 +1785,7 @@
         <v>44988.60416666666</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
         <v>36</v>
@@ -2141,7 +2141,7 @@
         <v>44990.41666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
         <v>40</v>
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5128295</v>
+        <v>5128568</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,76 +2319,76 @@
         <v>44996.375</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K21">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L21">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="N21">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="O21">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P21">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R21">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V21">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W21">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z21">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5128568</v>
+        <v>5128295</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>44996.375</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
         <v>0</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L22">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M22">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="N22">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="O22">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P22">
+        <v>3</v>
+      </c>
+      <c r="Q22">
+        <v>-0.25</v>
+      </c>
+      <c r="R22">
+        <v>2.1</v>
+      </c>
+      <c r="S22">
+        <v>1.775</v>
+      </c>
+      <c r="T22">
+        <v>2.5</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22">
         <v>1.85</v>
       </c>
-      <c r="Q22">
-        <v>0.5</v>
-      </c>
-      <c r="R22">
-        <v>1.975</v>
-      </c>
-      <c r="S22">
-        <v>1.875</v>
-      </c>
-      <c r="T22">
-        <v>2.75</v>
-      </c>
-      <c r="U22">
-        <v>1.825</v>
-      </c>
-      <c r="V22">
-        <v>2.025</v>
-      </c>
       <c r="W22">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
+        <v>-1</v>
+      </c>
+      <c r="Z22">
+        <v>1.1</v>
+      </c>
+      <c r="AA22">
+        <v>-1</v>
+      </c>
+      <c r="AB22">
+        <v>-1</v>
+      </c>
+      <c r="AC22">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z22">
-        <v>-1</v>
-      </c>
-      <c r="AA22">
-        <v>0.875</v>
-      </c>
-      <c r="AB22">
-        <v>-1</v>
-      </c>
-      <c r="AC22">
-        <v>1.025</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2586,7 +2586,7 @@
         <v>44997.375</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
         <v>32</v>
@@ -2767,7 +2767,7 @@
         <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5128294</v>
+        <v>5128572</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,76 +2853,76 @@
         <v>45003.375</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L27">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M27">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N27">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P27">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q27">
+        <v>-0.75</v>
+      </c>
+      <c r="R27">
+        <v>1.9</v>
+      </c>
+      <c r="S27">
+        <v>1.95</v>
+      </c>
+      <c r="T27">
+        <v>3</v>
+      </c>
+      <c r="U27">
+        <v>2.05</v>
+      </c>
+      <c r="V27">
+        <v>1.8</v>
+      </c>
+      <c r="W27">
+        <v>0.7</v>
+      </c>
+      <c r="X27">
+        <v>-1</v>
+      </c>
+      <c r="Y27">
+        <v>-1</v>
+      </c>
+      <c r="Z27">
+        <v>0.45</v>
+      </c>
+      <c r="AA27">
+        <v>-0.5</v>
+      </c>
+      <c r="AB27">
         <v>0</v>
       </c>
-      <c r="R27">
-        <v>1.8</v>
-      </c>
-      <c r="S27">
-        <v>2.05</v>
-      </c>
-      <c r="T27">
-        <v>2.75</v>
-      </c>
-      <c r="U27">
-        <v>2</v>
-      </c>
-      <c r="V27">
-        <v>1.85</v>
-      </c>
-      <c r="W27">
-        <v>-1</v>
-      </c>
-      <c r="X27">
-        <v>-1</v>
-      </c>
-      <c r="Y27">
-        <v>1.7</v>
-      </c>
-      <c r="Z27">
-        <v>-1</v>
-      </c>
-      <c r="AA27">
-        <v>1.05</v>
-      </c>
-      <c r="AB27">
-        <v>-1</v>
-      </c>
       <c r="AC27">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5128527</v>
+        <v>5128528</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,76 +2942,76 @@
         <v>45003.375</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>1.8</v>
+        <v>1.333</v>
       </c>
       <c r="L28">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M28">
+        <v>7.5</v>
+      </c>
+      <c r="N28">
+        <v>1.444</v>
+      </c>
+      <c r="O28">
+        <v>5</v>
+      </c>
+      <c r="P28">
+        <v>6</v>
+      </c>
+      <c r="Q28">
+        <v>-1.25</v>
+      </c>
+      <c r="R28">
+        <v>1.925</v>
+      </c>
+      <c r="S28">
+        <v>1.925</v>
+      </c>
+      <c r="T28">
+        <v>3.25</v>
+      </c>
+      <c r="U28">
+        <v>2</v>
+      </c>
+      <c r="V28">
+        <v>1.85</v>
+      </c>
+      <c r="W28">
+        <v>-1</v>
+      </c>
+      <c r="X28">
         <v>4</v>
       </c>
-      <c r="N28">
-        <v>1.8</v>
-      </c>
-      <c r="O28">
-        <v>3.8</v>
-      </c>
-      <c r="P28">
-        <v>4</v>
-      </c>
-      <c r="Q28">
-        <v>-0.75</v>
-      </c>
-      <c r="R28">
-        <v>2.05</v>
-      </c>
-      <c r="S28">
-        <v>1.8</v>
-      </c>
-      <c r="T28">
-        <v>2.75</v>
-      </c>
-      <c r="U28">
-        <v>1.9</v>
-      </c>
-      <c r="V28">
-        <v>1.95</v>
-      </c>
-      <c r="W28">
-        <v>0.8</v>
-      </c>
-      <c r="X28">
-        <v>-1</v>
-      </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB28">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5128528</v>
+        <v>5128201</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,76 +3031,76 @@
         <v>45003.375</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M29">
-        <v>7.5</v>
+        <v>1.714</v>
       </c>
       <c r="N29">
-        <v>1.444</v>
+        <v>4.75</v>
       </c>
       <c r="O29">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P29">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="Q29">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R29">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S29">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T29">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V29">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5128201</v>
+        <v>5128294</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,55 +3120,55 @@
         <v>45003.375</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
         <v>46</v>
       </c>
       <c r="K30">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="L30">
+        <v>3.5</v>
+      </c>
+      <c r="M30">
+        <v>3.2</v>
+      </c>
+      <c r="N30">
+        <v>2.375</v>
+      </c>
+      <c r="O30">
         <v>3.6</v>
       </c>
-      <c r="M30">
-        <v>1.714</v>
-      </c>
-      <c r="N30">
-        <v>4.75</v>
-      </c>
-      <c r="O30">
-        <v>3.5</v>
-      </c>
       <c r="P30">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="Q30">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3177,19 +3177,19 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.7270000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5128571</v>
+        <v>5128527</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,13 +3209,13 @@
         <v>45003.375</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -3224,43 +3224,43 @@
         <v>47</v>
       </c>
       <c r="K31">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L31">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M31">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O31">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P31">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q31">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S31">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T31">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V31">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3269,13 +3269,13 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA31">
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5128572</v>
+        <v>5128571</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,10 +3298,10 @@
         <v>45003.375</v>
       </c>
       <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
         <v>35</v>
-      </c>
-      <c r="G32" t="s">
-        <v>37</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3313,43 +3313,43 @@
         <v>47</v>
       </c>
       <c r="K32">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L32">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M32">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N32">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O32">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q32">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S32">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T32">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W32">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3358,16 +3358,16 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC32">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3387,7 +3387,7 @@
         <v>45016.5625</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
         <v>40</v>
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6428342</v>
+        <v>6428313</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,73 +3743,73 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="L37">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M37">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N37">
+        <v>3.8</v>
+      </c>
+      <c r="O37">
+        <v>3.75</v>
+      </c>
+      <c r="P37">
+        <v>1.909</v>
+      </c>
+      <c r="Q37">
+        <v>0.5</v>
+      </c>
+      <c r="R37">
         <v>2</v>
       </c>
-      <c r="O37">
-        <v>3.6</v>
-      </c>
-      <c r="P37">
-        <v>3.6</v>
-      </c>
-      <c r="Q37">
-        <v>-0.5</v>
-      </c>
-      <c r="R37">
-        <v>2.025</v>
-      </c>
       <c r="S37">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
         <v>2.75</v>
       </c>
       <c r="U37">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V37">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA37">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6428313</v>
+        <v>6428342</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,73 +3832,73 @@
         <v>45018.33333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
         <v>3</v>
       </c>
-      <c r="I38">
+      <c r="J38" t="s">
+        <v>46</v>
+      </c>
+      <c r="K38">
+        <v>2.4</v>
+      </c>
+      <c r="L38">
+        <v>3.5</v>
+      </c>
+      <c r="M38">
+        <v>2.6</v>
+      </c>
+      <c r="N38">
         <v>2</v>
       </c>
-      <c r="J38" t="s">
-        <v>47</v>
-      </c>
-      <c r="K38">
-        <v>3.4</v>
-      </c>
-      <c r="L38">
-        <v>3.3</v>
-      </c>
-      <c r="M38">
-        <v>2.1</v>
-      </c>
-      <c r="N38">
-        <v>3.8</v>
-      </c>
       <c r="O38">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P38">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="Q38">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T38">
         <v>2.75</v>
       </c>
       <c r="U38">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V38">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB38">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC38">
         <v>-1</v>
@@ -4013,7 +4013,7 @@
         <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4188,7 +4188,7 @@
         <v>45026.33333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
@@ -4725,7 +4725,7 @@
         <v>37</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4811,7 +4811,7 @@
         <v>45032.375</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
         <v>36</v>
@@ -5345,10 +5345,10 @@
         <v>45039.375</v>
       </c>
       <c r="F55" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" t="s">
         <v>34</v>
-      </c>
-      <c r="G55" t="s">
-        <v>35</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6428352</v>
+        <v>6428353</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,76 +5434,76 @@
         <v>45044.5625</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K56">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L56">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M56">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="N56">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="O56">
         <v>3.8</v>
       </c>
       <c r="P56">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="Q56">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R56">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S56">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T56">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U56">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA56">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC56">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6428353</v>
+        <v>6428352</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,76 +5523,76 @@
         <v>45044.5625</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K57">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L57">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M57">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N57">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="O57">
         <v>3.8</v>
       </c>
       <c r="P57">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R57">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S57">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U57">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V57">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W57">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z57">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB57">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5704,7 +5704,7 @@
         <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6428356</v>
+        <v>6428355</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45051.5625</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K63">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L63">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M63">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="N63">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="O63">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P63">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q63">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R63">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S63">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X63">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA63">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6428355</v>
+        <v>6428356</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,76 +6146,76 @@
         <v>45051.5625</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <v>2</v>
+      </c>
+      <c r="J64" t="s">
+        <v>45</v>
+      </c>
+      <c r="K64">
+        <v>1.909</v>
+      </c>
+      <c r="L64">
+        <v>3.3</v>
+      </c>
+      <c r="M64">
+        <v>3.75</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64">
+        <v>3.5</v>
+      </c>
+      <c r="P64">
+        <v>3.8</v>
+      </c>
+      <c r="Q64">
+        <v>-0.5</v>
+      </c>
+      <c r="R64">
+        <v>2.05</v>
+      </c>
+      <c r="S64">
+        <v>1.8</v>
+      </c>
+      <c r="T64">
+        <v>2.75</v>
+      </c>
+      <c r="U64">
+        <v>2</v>
+      </c>
+      <c r="V64">
+        <v>1.85</v>
+      </c>
+      <c r="W64">
+        <v>-1</v>
+      </c>
+      <c r="X64">
+        <v>2.5</v>
+      </c>
+      <c r="Y64">
+        <v>-1</v>
+      </c>
+      <c r="Z64">
+        <v>-1</v>
+      </c>
+      <c r="AA64">
+        <v>0.8</v>
+      </c>
+      <c r="AB64">
         <v>1</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64" t="s">
-        <v>47</v>
-      </c>
-      <c r="K64">
-        <v>2.625</v>
-      </c>
-      <c r="L64">
-        <v>3.2</v>
-      </c>
-      <c r="M64">
-        <v>2.4</v>
-      </c>
-      <c r="N64">
-        <v>3.5</v>
-      </c>
-      <c r="O64">
-        <v>3.2</v>
-      </c>
-      <c r="P64">
-        <v>2.15</v>
-      </c>
-      <c r="Q64">
-        <v>0.25</v>
-      </c>
-      <c r="R64">
-        <v>1.975</v>
-      </c>
-      <c r="S64">
-        <v>1.875</v>
-      </c>
-      <c r="T64">
-        <v>2.25</v>
-      </c>
-      <c r="U64">
-        <v>1.875</v>
-      </c>
-      <c r="V64">
-        <v>1.975</v>
-      </c>
-      <c r="W64">
-        <v>2.5</v>
-      </c>
-      <c r="X64">
-        <v>-1</v>
-      </c>
-      <c r="Y64">
-        <v>-1</v>
-      </c>
-      <c r="Z64">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA64">
-        <v>-1</v>
-      </c>
-      <c r="AB64">
-        <v>-1</v>
-      </c>
       <c r="AC64">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6591,7 +6591,7 @@
         <v>45057.58333333334</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
         <v>37</v>
@@ -6861,7 +6861,7 @@
         <v>36</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -7217,7 +7217,7 @@
         <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7392,7 +7392,7 @@
         <v>45067.375</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
         <v>37</v>
@@ -7570,7 +7570,7 @@
         <v>45072.5625</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
         <v>29</v>
@@ -7659,7 +7659,7 @@
         <v>45072.5625</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
         <v>36</v>
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6428335</v>
+        <v>6428334</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,76 +7926,76 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>45</v>
       </c>
       <c r="K84">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M84">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="N84">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O84">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P84">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="Q84">
         <v>0.5</v>
       </c>
       <c r="R84">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S84">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U84">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6428334</v>
+        <v>6428335</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45074.33333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J85" t="s">
         <v>45</v>
       </c>
       <c r="K85">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M85">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="N85">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O85">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P85">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="Q85">
         <v>0.5</v>
       </c>
       <c r="R85">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S85">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V85">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC85">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6428368</v>
+        <v>6428367</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H86">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K86">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L86">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M86">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N86">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="O86">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P86">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="Q86">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S86">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T86">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V86">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W86">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6428367</v>
+        <v>6428368</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,76 +8193,76 @@
         <v>45079.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K87">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L87">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M87">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N87">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="O87">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P87">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R87">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S87">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U87">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V87">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X87">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA87">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8285,7 +8285,7 @@
         <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6428337</v>
+        <v>6428338</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,73 +8371,73 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H89">
+        <v>3</v>
+      </c>
+      <c r="I89">
         <v>2</v>
       </c>
-      <c r="I89">
-        <v>3</v>
-      </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K89">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M89">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N89">
-        <v>1.571</v>
+        <v>1.363</v>
       </c>
       <c r="O89">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P89">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q89">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R89">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S89">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T89">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB89">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8537,7 +8537,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6428338</v>
+        <v>6428337</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8549,73 +8549,73 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91">
         <v>3</v>
       </c>
-      <c r="I91">
+      <c r="J91" t="s">
+        <v>46</v>
+      </c>
+      <c r="K91">
+        <v>1.7</v>
+      </c>
+      <c r="L91">
+        <v>4</v>
+      </c>
+      <c r="M91">
+        <v>4.2</v>
+      </c>
+      <c r="N91">
+        <v>1.571</v>
+      </c>
+      <c r="O91">
+        <v>4.75</v>
+      </c>
+      <c r="P91">
+        <v>4.75</v>
+      </c>
+      <c r="Q91">
+        <v>-1</v>
+      </c>
+      <c r="R91">
+        <v>1.975</v>
+      </c>
+      <c r="S91">
+        <v>1.875</v>
+      </c>
+      <c r="T91">
+        <v>3.5</v>
+      </c>
+      <c r="U91">
         <v>2</v>
       </c>
-      <c r="J91" t="s">
-        <v>47</v>
-      </c>
-      <c r="K91">
-        <v>1.5</v>
-      </c>
-      <c r="L91">
-        <v>4.5</v>
-      </c>
-      <c r="M91">
-        <v>5</v>
-      </c>
-      <c r="N91">
-        <v>1.363</v>
-      </c>
-      <c r="O91">
-        <v>5.25</v>
-      </c>
-      <c r="P91">
-        <v>6.5</v>
-      </c>
-      <c r="Q91">
-        <v>-1.5</v>
-      </c>
-      <c r="R91">
-        <v>1.95</v>
-      </c>
-      <c r="S91">
-        <v>1.9</v>
-      </c>
-      <c r="T91">
+      <c r="V91">
+        <v>1.85</v>
+      </c>
+      <c r="W91">
+        <v>-1</v>
+      </c>
+      <c r="X91">
+        <v>-1</v>
+      </c>
+      <c r="Y91">
         <v>3.75</v>
       </c>
-      <c r="U91">
-        <v>1.9</v>
-      </c>
-      <c r="V91">
-        <v>1.95</v>
-      </c>
-      <c r="W91">
-        <v>0.363</v>
-      </c>
-      <c r="X91">
-        <v>-1</v>
-      </c>
-      <c r="Y91">
-        <v>-1</v>
-      </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB91">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6799247</v>
+        <v>6799248</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45130.375</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K96">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="L96">
         <v>3.6</v>
       </c>
       <c r="M96">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N96">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="O96">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P96">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q96">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R96">
+        <v>1.975</v>
+      </c>
+      <c r="S96">
         <v>1.875</v>
-      </c>
-      <c r="S96">
-        <v>1.975</v>
       </c>
       <c r="T96">
         <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V96">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA96">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC96">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6799248</v>
+        <v>6799247</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45130.375</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
         <v>2</v>
       </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K97">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="L97">
         <v>3.6</v>
       </c>
       <c r="M97">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N97">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O97">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P97">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
+        <v>1.875</v>
+      </c>
+      <c r="S97">
         <v>1.975</v>
-      </c>
-      <c r="S97">
-        <v>1.875</v>
       </c>
       <c r="T97">
         <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V97">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z97">
+        <v>-1</v>
+      </c>
+      <c r="AA97">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA97">
-        <v>-1</v>
-      </c>
       <c r="AB97">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6799250</v>
+        <v>6799249</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,59 +9172,59 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H98">
         <v>3</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
         <v>47</v>
       </c>
       <c r="K98">
+        <v>2.7</v>
+      </c>
+      <c r="L98">
+        <v>3.5</v>
+      </c>
+      <c r="M98">
+        <v>2.25</v>
+      </c>
+      <c r="N98">
+        <v>2.9</v>
+      </c>
+      <c r="O98">
+        <v>3.6</v>
+      </c>
+      <c r="P98">
         <v>2.3</v>
       </c>
-      <c r="L98">
-        <v>3.3</v>
-      </c>
-      <c r="M98">
-        <v>2.75</v>
-      </c>
-      <c r="N98">
-        <v>2.8</v>
-      </c>
-      <c r="O98">
-        <v>3.3</v>
-      </c>
-      <c r="P98">
-        <v>2.5</v>
-      </c>
       <c r="Q98">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
+        <v>1.875</v>
+      </c>
+      <c r="S98">
         <v>1.975</v>
       </c>
-      <c r="S98">
+      <c r="T98">
+        <v>3</v>
+      </c>
+      <c r="U98">
+        <v>1.975</v>
+      </c>
+      <c r="V98">
         <v>1.875</v>
       </c>
-      <c r="T98">
-        <v>2.5</v>
-      </c>
-      <c r="U98">
+      <c r="W98">
         <v>1.9</v>
       </c>
-      <c r="V98">
-        <v>1.95</v>
-      </c>
-      <c r="W98">
-        <v>1.8</v>
-      </c>
       <c r="X98">
         <v>-1</v>
       </c>
@@ -9232,13 +9232,13 @@
         <v>-1</v>
       </c>
       <c r="Z98">
+        <v>0.875</v>
+      </c>
+      <c r="AA98">
+        <v>-1</v>
+      </c>
+      <c r="AB98">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA98">
-        <v>-1</v>
-      </c>
-      <c r="AB98">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9264,7 +9264,7 @@
         <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6799249</v>
+        <v>6799250</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,58 +9350,58 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H100">
         <v>3</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
         <v>47</v>
       </c>
       <c r="K100">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M100">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N100">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O100">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P100">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R100">
+        <v>1.975</v>
+      </c>
+      <c r="S100">
         <v>1.875</v>
       </c>
-      <c r="S100">
-        <v>1.975</v>
-      </c>
       <c r="T100">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W100">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9410,13 +9410,13 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9798,7 +9798,7 @@
         <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>43</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H109">
         <v>4</v>
@@ -10240,7 +10240,7 @@
         <v>45149.5625</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
         <v>29</v>
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6798867</v>
+        <v>6800833</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,76 +10329,76 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K111">
+        <v>1.615</v>
+      </c>
+      <c r="L111">
+        <v>4</v>
+      </c>
+      <c r="M111">
+        <v>4.2</v>
+      </c>
+      <c r="N111">
+        <v>1.75</v>
+      </c>
+      <c r="O111">
         <v>4.333</v>
       </c>
-      <c r="L111">
-        <v>3.75</v>
-      </c>
-      <c r="M111">
-        <v>1.65</v>
-      </c>
-      <c r="N111">
-        <v>4.75</v>
-      </c>
-      <c r="O111">
-        <v>4</v>
-      </c>
       <c r="P111">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="Q111">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R111">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S111">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T111">
         <v>3</v>
       </c>
       <c r="U111">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V111">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z111">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC111">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6800833</v>
+        <v>6798867</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,76 +10418,76 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K112">
+        <v>4.333</v>
+      </c>
+      <c r="L112">
+        <v>3.75</v>
+      </c>
+      <c r="M112">
+        <v>1.65</v>
+      </c>
+      <c r="N112">
+        <v>4.75</v>
+      </c>
+      <c r="O112">
+        <v>4</v>
+      </c>
+      <c r="P112">
         <v>1.615</v>
       </c>
-      <c r="L112">
-        <v>4</v>
-      </c>
-      <c r="M112">
-        <v>4.2</v>
-      </c>
-      <c r="N112">
-        <v>1.75</v>
-      </c>
-      <c r="O112">
-        <v>4.333</v>
-      </c>
-      <c r="P112">
-        <v>3.8</v>
-      </c>
       <c r="Q112">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R112">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S112">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T112">
         <v>3</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y112">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10685,7 +10685,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
         <v>39</v>
@@ -10866,7 +10866,7 @@
         <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6799259</v>
+        <v>6798551</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,73 +10952,73 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
         <v>3</v>
       </c>
-      <c r="I118">
-        <v>1</v>
-      </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K118">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L118">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
+        <v>3.1</v>
+      </c>
+      <c r="N118">
+        <v>2.9</v>
+      </c>
+      <c r="O118">
         <v>3.4</v>
       </c>
-      <c r="N118">
-        <v>2.2</v>
-      </c>
-      <c r="O118">
-        <v>3.6</v>
-      </c>
       <c r="P118">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
+        <v>1.8</v>
+      </c>
+      <c r="S118">
+        <v>2.05</v>
+      </c>
+      <c r="T118">
+        <v>2.75</v>
+      </c>
+      <c r="U118">
+        <v>1.875</v>
+      </c>
+      <c r="V118">
         <v>1.975</v>
       </c>
-      <c r="S118">
-        <v>1.875</v>
-      </c>
-      <c r="T118">
-        <v>3</v>
-      </c>
-      <c r="U118">
-        <v>2</v>
-      </c>
-      <c r="V118">
-        <v>1.85</v>
-      </c>
       <c r="W118">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB118">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6798551</v>
+        <v>6799259</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,73 +11041,73 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H119">
+        <v>3</v>
+      </c>
+      <c r="I119">
         <v>1</v>
       </c>
-      <c r="I119">
+      <c r="J119" t="s">
+        <v>47</v>
+      </c>
+      <c r="K119">
+        <v>1.95</v>
+      </c>
+      <c r="L119">
+        <v>3.6</v>
+      </c>
+      <c r="M119">
+        <v>3.4</v>
+      </c>
+      <c r="N119">
+        <v>2.2</v>
+      </c>
+      <c r="O119">
+        <v>3.6</v>
+      </c>
+      <c r="P119">
+        <v>3.1</v>
+      </c>
+      <c r="Q119">
+        <v>-0.25</v>
+      </c>
+      <c r="R119">
+        <v>1.975</v>
+      </c>
+      <c r="S119">
+        <v>1.875</v>
+      </c>
+      <c r="T119">
         <v>3</v>
       </c>
-      <c r="J119" t="s">
-        <v>46</v>
-      </c>
-      <c r="K119">
-        <v>2.15</v>
-      </c>
-      <c r="L119">
-        <v>3.4</v>
-      </c>
-      <c r="M119">
-        <v>3.1</v>
-      </c>
-      <c r="N119">
-        <v>2.9</v>
-      </c>
-      <c r="O119">
-        <v>3.4</v>
-      </c>
-      <c r="P119">
-        <v>2.375</v>
-      </c>
-      <c r="Q119">
-        <v>0.25</v>
-      </c>
-      <c r="R119">
-        <v>1.8</v>
-      </c>
-      <c r="S119">
-        <v>2.05</v>
-      </c>
-      <c r="T119">
-        <v>2.75</v>
-      </c>
       <c r="U119">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V119">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA119">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11222,7 +11222,7 @@
         <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G123" t="s">
         <v>44</v>
@@ -11753,7 +11753,7 @@
         <v>45162.58333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
         <v>43</v>
@@ -12112,7 +12112,7 @@
         <v>36</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -12287,7 +12287,7 @@
         <v>45166.5625</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
         <v>38</v>
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6799268</v>
+        <v>6800829</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,76 +12376,76 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
         <v>45</v>
       </c>
       <c r="K134">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M134">
-        <v>1.571</v>
+        <v>3.8</v>
       </c>
       <c r="N134">
+        <v>1.666</v>
+      </c>
+      <c r="O134">
         <v>4.2</v>
       </c>
-      <c r="O134">
-        <v>3.75</v>
-      </c>
       <c r="P134">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="Q134">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R134">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S134">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T134">
         <v>3</v>
       </c>
       <c r="U134">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V134">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
+        <v>-1</v>
+      </c>
+      <c r="AA134">
+        <v>1.025</v>
+      </c>
+      <c r="AB134">
+        <v>-1</v>
+      </c>
+      <c r="AC134">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA134">
-        <v>-1</v>
-      </c>
-      <c r="AB134">
-        <v>1.05</v>
-      </c>
-      <c r="AC134">
-        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12468,7 +12468,7 @@
         <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6800829</v>
+        <v>6799268</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
         <v>45</v>
       </c>
       <c r="K136">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="L136">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M136">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="N136">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="O136">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P136">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q136">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R136">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T136">
         <v>3</v>
       </c>
       <c r="U136">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V136">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA136">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC136">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12646,7 +12646,7 @@
         <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12987,7 +12987,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6800827</v>
+        <v>6799273</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12999,10 +12999,10 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G141" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13014,40 +13014,40 @@
         <v>46</v>
       </c>
       <c r="K141">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L141">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M141">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N141">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O141">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P141">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q141">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S141">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V141">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13056,19 +13056,19 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6799273</v>
+        <v>6798871</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,76 +13088,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K142">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L142">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M142">
+        <v>2.5</v>
+      </c>
+      <c r="N142">
+        <v>2.55</v>
+      </c>
+      <c r="O142">
+        <v>3.5</v>
+      </c>
+      <c r="P142">
+        <v>2.625</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+      <c r="R142">
+        <v>1.825</v>
+      </c>
+      <c r="S142">
+        <v>2.025</v>
+      </c>
+      <c r="T142">
         <v>2.75</v>
       </c>
-      <c r="N142">
-        <v>2.25</v>
-      </c>
-      <c r="O142">
-        <v>3.4</v>
-      </c>
-      <c r="P142">
-        <v>3.1</v>
-      </c>
-      <c r="Q142">
-        <v>-0.25</v>
-      </c>
-      <c r="R142">
-        <v>2.05</v>
-      </c>
-      <c r="S142">
-        <v>1.8</v>
-      </c>
-      <c r="T142">
+      <c r="U142">
+        <v>1.9</v>
+      </c>
+      <c r="V142">
+        <v>1.95</v>
+      </c>
+      <c r="W142">
+        <v>-1</v>
+      </c>
+      <c r="X142">
         <v>2.5</v>
       </c>
-      <c r="U142">
-        <v>1.95</v>
-      </c>
-      <c r="V142">
-        <v>1.9</v>
-      </c>
-      <c r="W142">
-        <v>-1</v>
-      </c>
-      <c r="X142">
-        <v>-1</v>
-      </c>
       <c r="Y142">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA142">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6798871</v>
+        <v>6800827</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,76 +13177,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G143" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K143">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L143">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M143">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N143">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="O143">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P143">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="Q143">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S143">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
         <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V143">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13266,7 +13266,7 @@
         <v>45186.375</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G144" t="s">
         <v>30</v>
@@ -13447,7 +13447,7 @@
         <v>41</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6798555</v>
+        <v>6798872</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,76 +13533,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K147">
-        <v>2.05</v>
+        <v>1.2</v>
       </c>
       <c r="L147">
+        <v>6</v>
+      </c>
+      <c r="M147">
+        <v>13</v>
+      </c>
+      <c r="N147">
+        <v>1.2</v>
+      </c>
+      <c r="O147">
+        <v>6.5</v>
+      </c>
+      <c r="P147">
+        <v>13</v>
+      </c>
+      <c r="Q147">
+        <v>-2</v>
+      </c>
+      <c r="R147">
+        <v>1.975</v>
+      </c>
+      <c r="S147">
+        <v>1.875</v>
+      </c>
+      <c r="T147">
         <v>3.5</v>
       </c>
-      <c r="M147">
-        <v>3.2</v>
-      </c>
-      <c r="N147">
-        <v>2.4</v>
-      </c>
-      <c r="O147">
-        <v>3.5</v>
-      </c>
-      <c r="P147">
-        <v>2.75</v>
-      </c>
-      <c r="Q147">
+      <c r="U147">
+        <v>2.025</v>
+      </c>
+      <c r="V147">
+        <v>1.825</v>
+      </c>
+      <c r="W147">
+        <v>0.2</v>
+      </c>
+      <c r="X147">
+        <v>-1</v>
+      </c>
+      <c r="Y147">
+        <v>-1</v>
+      </c>
+      <c r="Z147">
         <v>0</v>
       </c>
-      <c r="R147">
-        <v>1.825</v>
-      </c>
-      <c r="S147">
-        <v>2.025</v>
-      </c>
-      <c r="T147">
-        <v>2.75</v>
-      </c>
-      <c r="U147">
-        <v>1.825</v>
-      </c>
-      <c r="V147">
-        <v>2.025</v>
-      </c>
-      <c r="W147">
-        <v>-1</v>
-      </c>
-      <c r="X147">
-        <v>-1</v>
-      </c>
-      <c r="Y147">
-        <v>1.75</v>
-      </c>
-      <c r="Z147">
-        <v>-1</v>
-      </c>
       <c r="AA147">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB147">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6798872</v>
+        <v>6798555</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,76 +13622,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G148" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
         <v>2</v>
       </c>
-      <c r="I148">
+      <c r="J148" t="s">
+        <v>46</v>
+      </c>
+      <c r="K148">
+        <v>2.05</v>
+      </c>
+      <c r="L148">
+        <v>3.5</v>
+      </c>
+      <c r="M148">
+        <v>3.2</v>
+      </c>
+      <c r="N148">
+        <v>2.4</v>
+      </c>
+      <c r="O148">
+        <v>3.5</v>
+      </c>
+      <c r="P148">
+        <v>2.75</v>
+      </c>
+      <c r="Q148">
         <v>0</v>
       </c>
-      <c r="J148" t="s">
-        <v>47</v>
-      </c>
-      <c r="K148">
-        <v>1.2</v>
-      </c>
-      <c r="L148">
-        <v>6</v>
-      </c>
-      <c r="M148">
-        <v>13</v>
-      </c>
-      <c r="N148">
-        <v>1.2</v>
-      </c>
-      <c r="O148">
-        <v>6.5</v>
-      </c>
-      <c r="P148">
-        <v>13</v>
-      </c>
-      <c r="Q148">
-        <v>-2</v>
-      </c>
       <c r="R148">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S148">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T148">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U148">
+        <v>1.825</v>
+      </c>
+      <c r="V148">
         <v>2.025</v>
       </c>
-      <c r="V148">
-        <v>1.825</v>
-      </c>
       <c r="W148">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC148">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6798873</v>
+        <v>6799279</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,49 +13978,49 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G152" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K152">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="L152">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M152">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="N152">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="O152">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P152">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="Q152">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R152">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S152">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T152">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U152">
         <v>1.9</v>
@@ -14032,22 +14032,22 @@
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y152">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA152">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB152">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14055,7 +14055,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6799279</v>
+        <v>6798873</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14067,49 +14067,49 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G153" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J153" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K153">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="L153">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M153">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="N153">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="O153">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P153">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="Q153">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R153">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S153">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T153">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U153">
         <v>1.9</v>
@@ -14121,22 +14121,22 @@
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z153">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC153">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14334,7 +14334,7 @@
         <v>45200.375</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G156" t="s">
         <v>33</v>
@@ -14423,7 +14423,7 @@
         <v>45200.5</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
         <v>42</v>
@@ -14512,7 +14512,7 @@
         <v>45205.5625</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G158" t="s">
         <v>38</v>
@@ -14871,7 +14871,7 @@
         <v>33</v>
       </c>
       <c r="G162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6798558</v>
+        <v>6799287</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,13 +15135,13 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G165" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H165">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -15150,61 +15150,61 @@
         <v>47</v>
       </c>
       <c r="K165">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="L165">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M165">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="N165">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O165">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P165">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q165">
+        <v>-0.75</v>
+      </c>
+      <c r="R165">
+        <v>2.025</v>
+      </c>
+      <c r="S165">
+        <v>1.825</v>
+      </c>
+      <c r="T165">
+        <v>2.5</v>
+      </c>
+      <c r="U165">
+        <v>2.025</v>
+      </c>
+      <c r="V165">
+        <v>1.825</v>
+      </c>
+      <c r="W165">
+        <v>0.8</v>
+      </c>
+      <c r="X165">
+        <v>-1</v>
+      </c>
+      <c r="Y165">
+        <v>-1</v>
+      </c>
+      <c r="Z165">
+        <v>0.5125</v>
+      </c>
+      <c r="AA165">
         <v>-0.5</v>
       </c>
-      <c r="R165">
-        <v>1.925</v>
-      </c>
-      <c r="S165">
-        <v>1.925</v>
-      </c>
-      <c r="T165">
-        <v>2.75</v>
-      </c>
-      <c r="U165">
-        <v>1.9</v>
-      </c>
-      <c r="V165">
-        <v>1.95</v>
-      </c>
-      <c r="W165">
-        <v>0.909</v>
-      </c>
-      <c r="X165">
-        <v>-1</v>
-      </c>
-      <c r="Y165">
-        <v>-1</v>
-      </c>
-      <c r="Z165">
-        <v>0.925</v>
-      </c>
-      <c r="AA165">
-        <v>-1</v>
-      </c>
       <c r="AB165">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15227,7 +15227,7 @@
         <v>29</v>
       </c>
       <c r="G166" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15301,7 +15301,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6799287</v>
+        <v>6798558</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15313,13 +15313,13 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G167" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -15328,43 +15328,43 @@
         <v>47</v>
       </c>
       <c r="K167">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="L167">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M167">
+        <v>4.333</v>
+      </c>
+      <c r="N167">
+        <v>1.909</v>
+      </c>
+      <c r="O167">
         <v>3.8</v>
       </c>
-      <c r="N167">
-        <v>1.8</v>
-      </c>
-      <c r="O167">
-        <v>3.75</v>
-      </c>
       <c r="P167">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q167">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S167">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T167">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U167">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V167">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W167">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15373,16 +15373,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.5125</v>
+        <v>0.925</v>
       </c>
       <c r="AA167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC167">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15758,7 +15758,7 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G172" t="s">
         <v>36</v>
@@ -15939,7 +15939,7 @@
         <v>30</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H174">
         <v>3</v>
@@ -16117,7 +16117,7 @@
         <v>38</v>
       </c>
       <c r="G176" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16381,7 +16381,7 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G179" t="s">
         <v>42</v>
@@ -16636,7 +16636,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6800819</v>
+        <v>6799295</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16648,76 +16648,76 @@
         <v>45240.625</v>
       </c>
       <c r="F182" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <v>4</v>
+      </c>
+      <c r="J182" t="s">
+        <v>46</v>
+      </c>
+      <c r="K182">
+        <v>7.5</v>
+      </c>
+      <c r="L182">
+        <v>5</v>
+      </c>
+      <c r="M182">
+        <v>1.333</v>
+      </c>
+      <c r="N182">
+        <v>6.5</v>
+      </c>
+      <c r="O182">
+        <v>4.75</v>
+      </c>
+      <c r="P182">
+        <v>1.45</v>
+      </c>
+      <c r="Q182">
+        <v>1.25</v>
+      </c>
+      <c r="R182">
+        <v>1.925</v>
+      </c>
+      <c r="S182">
+        <v>1.925</v>
+      </c>
+      <c r="T182">
+        <v>3.25</v>
+      </c>
+      <c r="U182">
+        <v>1.85</v>
+      </c>
+      <c r="V182">
         <v>2</v>
       </c>
-      <c r="I182">
-        <v>0</v>
-      </c>
-      <c r="J182" t="s">
-        <v>47</v>
-      </c>
-      <c r="K182">
-        <v>2.5</v>
-      </c>
-      <c r="L182">
-        <v>3.4</v>
-      </c>
-      <c r="M182">
-        <v>2.55</v>
-      </c>
-      <c r="N182">
-        <v>2.45</v>
-      </c>
-      <c r="O182">
-        <v>3.5</v>
-      </c>
-      <c r="P182">
-        <v>2.8</v>
-      </c>
-      <c r="Q182">
-        <v>0</v>
-      </c>
-      <c r="R182">
-        <v>1.8</v>
-      </c>
-      <c r="S182">
-        <v>2.05</v>
-      </c>
-      <c r="T182">
-        <v>2.75</v>
-      </c>
-      <c r="U182">
-        <v>1.9</v>
-      </c>
-      <c r="V182">
-        <v>1.95</v>
-      </c>
       <c r="W182">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z182">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC182">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6799296</v>
+        <v>6800819</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16737,76 +16737,76 @@
         <v>45240.625</v>
       </c>
       <c r="F183" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G183" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K183">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L183">
         <v>3.4</v>
       </c>
       <c r="M183">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="N183">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="O183">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P183">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q183">
         <v>0</v>
       </c>
       <c r="R183">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S183">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T183">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U183">
+        <v>1.9</v>
+      </c>
+      <c r="V183">
         <v>1.95</v>
       </c>
-      <c r="V183">
-        <v>1.9</v>
-      </c>
       <c r="W183">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X183">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA183">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16814,7 +16814,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6799295</v>
+        <v>6799296</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16826,76 +16826,76 @@
         <v>45240.625</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G184" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H184">
         <v>1</v>
       </c>
       <c r="I184">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K184">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="L184">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M184">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="N184">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="O184">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P184">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="Q184">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R184">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S184">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T184">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U184">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V184">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W184">
         <v>-1</v>
       </c>
       <c r="X184">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y184">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA184">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB184">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17093,7 +17093,7 @@
         <v>45243.625</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G187" t="s">
         <v>29</v>
@@ -17182,7 +17182,7 @@
         <v>45253.625</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
         <v>41</v>
@@ -17259,7 +17259,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6799300</v>
+        <v>6799298</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17271,73 +17271,73 @@
         <v>45254.625</v>
       </c>
       <c r="F189" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H189">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K189">
+        <v>3.1</v>
+      </c>
+      <c r="L189">
+        <v>3.6</v>
+      </c>
+      <c r="M189">
+        <v>2.1</v>
+      </c>
+      <c r="N189">
+        <v>3.2</v>
+      </c>
+      <c r="O189">
+        <v>3.4</v>
+      </c>
+      <c r="P189">
+        <v>2.25</v>
+      </c>
+      <c r="Q189">
+        <v>0.25</v>
+      </c>
+      <c r="R189">
+        <v>1.95</v>
+      </c>
+      <c r="S189">
+        <v>1.9</v>
+      </c>
+      <c r="T189">
+        <v>2.5</v>
+      </c>
+      <c r="U189">
+        <v>1.85</v>
+      </c>
+      <c r="V189">
+        <v>2</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
         <v>1.25</v>
       </c>
-      <c r="L189">
-        <v>6</v>
-      </c>
-      <c r="M189">
-        <v>8</v>
-      </c>
-      <c r="N189">
-        <v>1.3</v>
-      </c>
-      <c r="O189">
-        <v>6</v>
-      </c>
-      <c r="P189">
-        <v>8.5</v>
-      </c>
-      <c r="Q189">
-        <v>-1.5</v>
-      </c>
-      <c r="R189">
-        <v>1.875</v>
-      </c>
-      <c r="S189">
-        <v>1.975</v>
-      </c>
-      <c r="T189">
-        <v>3.25</v>
-      </c>
-      <c r="U189">
-        <v>1.925</v>
-      </c>
-      <c r="V189">
-        <v>1.925</v>
-      </c>
-      <c r="W189">
-        <v>0.3</v>
-      </c>
-      <c r="X189">
-        <v>-1</v>
-      </c>
-      <c r="Y189">
-        <v>-1</v>
-      </c>
       <c r="Z189">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB189">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6799298</v>
+        <v>6799300</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17360,73 +17360,73 @@
         <v>45254.625</v>
       </c>
       <c r="F190" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G190" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H190">
+        <v>4</v>
+      </c>
+      <c r="I190">
         <v>1</v>
       </c>
-      <c r="I190">
-        <v>2</v>
-      </c>
       <c r="J190" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K190">
-        <v>3.1</v>
+        <v>1.25</v>
       </c>
       <c r="L190">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M190">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="N190">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="O190">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P190">
-        <v>2.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q190">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R190">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S190">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T190">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U190">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA190">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17630,7 +17630,7 @@
         <v>43</v>
       </c>
       <c r="G193" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -17716,7 +17716,7 @@
         <v>45261.60416666666</v>
       </c>
       <c r="F194" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G194" t="s">
         <v>39</v>
@@ -17808,7 +17808,7 @@
         <v>44</v>
       </c>
       <c r="G195" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -18238,7 +18238,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6799305</v>
+        <v>6799307</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18250,76 +18250,76 @@
         <v>45345.625</v>
       </c>
       <c r="F200" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G200" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I200">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J200" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K200">
+        <v>1.75</v>
+      </c>
+      <c r="L200">
+        <v>3.6</v>
+      </c>
+      <c r="M200">
+        <v>4.333</v>
+      </c>
+      <c r="N200">
+        <v>2.4</v>
+      </c>
+      <c r="O200">
+        <v>3.2</v>
+      </c>
+      <c r="P200">
+        <v>3</v>
+      </c>
+      <c r="Q200">
+        <v>-0.25</v>
+      </c>
+      <c r="R200">
         <v>2.1</v>
       </c>
-      <c r="L200">
-        <v>3.5</v>
-      </c>
-      <c r="M200">
-        <v>2.9</v>
-      </c>
-      <c r="N200">
+      <c r="S200">
+        <v>1.775</v>
+      </c>
+      <c r="T200">
+        <v>2.25</v>
+      </c>
+      <c r="U200">
+        <v>1.85</v>
+      </c>
+      <c r="V200">
         <v>2</v>
       </c>
-      <c r="O200">
-        <v>3.75</v>
-      </c>
-      <c r="P200">
-        <v>3.25</v>
-      </c>
-      <c r="Q200">
+      <c r="W200">
+        <v>-1</v>
+      </c>
+      <c r="X200">
+        <v>2.2</v>
+      </c>
+      <c r="Y200">
+        <v>-1</v>
+      </c>
+      <c r="Z200">
         <v>-0.5</v>
       </c>
-      <c r="R200">
-        <v>2.05</v>
-      </c>
-      <c r="S200">
-        <v>1.8</v>
-      </c>
-      <c r="T200">
-        <v>2.75</v>
-      </c>
-      <c r="U200">
-        <v>2.025</v>
-      </c>
-      <c r="V200">
-        <v>1.825</v>
-      </c>
-      <c r="W200">
-        <v>-1</v>
-      </c>
-      <c r="X200">
-        <v>-1</v>
-      </c>
-      <c r="Y200">
-        <v>2.25</v>
-      </c>
-      <c r="Z200">
-        <v>-1</v>
-      </c>
       <c r="AA200">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC200">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18327,7 +18327,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6799307</v>
+        <v>6798562</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18339,73 +18339,73 @@
         <v>45345.625</v>
       </c>
       <c r="F201" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G201" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H201">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I201">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K201">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="L201">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M201">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N201">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="O201">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P201">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="Q201">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R201">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S201">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T201">
         <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V201">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W201">
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z201">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0.3875</v>
+        <v>0.875</v>
       </c>
       <c r="AB201">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC201">
         <v>-1</v>
@@ -18416,7 +18416,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6798562</v>
+        <v>6799305</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18428,76 +18428,76 @@
         <v>45345.625</v>
       </c>
       <c r="F202" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G202" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
         <v>1</v>
-      </c>
-      <c r="I202">
-        <v>2</v>
       </c>
       <c r="J202" t="s">
         <v>46</v>
       </c>
       <c r="K202">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L202">
         <v>3.5</v>
       </c>
       <c r="M202">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N202">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="O202">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P202">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q202">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R202">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S202">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T202">
+        <v>2.75</v>
+      </c>
+      <c r="U202">
+        <v>2.025</v>
+      </c>
+      <c r="V202">
+        <v>1.825</v>
+      </c>
+      <c r="W202">
+        <v>-1</v>
+      </c>
+      <c r="X202">
+        <v>-1</v>
+      </c>
+      <c r="Y202">
         <v>2.25</v>
       </c>
-      <c r="U202">
-        <v>1.975</v>
-      </c>
-      <c r="V202">
-        <v>1.875</v>
-      </c>
-      <c r="W202">
-        <v>-1</v>
-      </c>
-      <c r="X202">
-        <v>-1</v>
-      </c>
-      <c r="Y202">
-        <v>1.15</v>
-      </c>
       <c r="Z202">
         <v>-1</v>
       </c>
       <c r="AA202">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB202">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC202">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18505,7 +18505,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6799306</v>
+        <v>6798879</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18514,63 +18514,241 @@
         <v>28</v>
       </c>
       <c r="E203" s="2">
-        <v>45347.45833333334</v>
+        <v>45346.375</v>
       </c>
       <c r="F203" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G203" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="H203">
+        <v>2</v>
+      </c>
+      <c r="I203">
+        <v>2</v>
+      </c>
+      <c r="J203" t="s">
+        <v>45</v>
       </c>
       <c r="K203">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L203">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M203">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="N203">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O203">
         <v>3.4</v>
       </c>
       <c r="P203">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q203">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R203">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S203">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T203">
         <v>2.5</v>
       </c>
       <c r="U203">
+        <v>1.925</v>
+      </c>
+      <c r="V203">
+        <v>1.925</v>
+      </c>
+      <c r="W203">
+        <v>-1</v>
+      </c>
+      <c r="X203">
+        <v>2.4</v>
+      </c>
+      <c r="Y203">
+        <v>-1</v>
+      </c>
+      <c r="Z203">
+        <v>-1</v>
+      </c>
+      <c r="AA203">
+        <v>0.8</v>
+      </c>
+      <c r="AB203">
+        <v>0.925</v>
+      </c>
+      <c r="AC203">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>6800816</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45346.45833333334</v>
+      </c>
+      <c r="F204" t="s">
+        <v>41</v>
+      </c>
+      <c r="G204" t="s">
+        <v>33</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204" t="s">
+        <v>45</v>
+      </c>
+      <c r="K204">
+        <v>2.25</v>
+      </c>
+      <c r="L204">
+        <v>3.5</v>
+      </c>
+      <c r="M204">
+        <v>2.9</v>
+      </c>
+      <c r="N204">
+        <v>2.875</v>
+      </c>
+      <c r="O204">
+        <v>3.6</v>
+      </c>
+      <c r="P204">
+        <v>2.3</v>
+      </c>
+      <c r="Q204">
+        <v>0.25</v>
+      </c>
+      <c r="R204">
+        <v>1.875</v>
+      </c>
+      <c r="S204">
+        <v>1.975</v>
+      </c>
+      <c r="T204">
+        <v>2.75</v>
+      </c>
+      <c r="U204">
+        <v>1.925</v>
+      </c>
+      <c r="V204">
+        <v>1.925</v>
+      </c>
+      <c r="W204">
+        <v>-1</v>
+      </c>
+      <c r="X204">
+        <v>2.6</v>
+      </c>
+      <c r="Y204">
+        <v>-1</v>
+      </c>
+      <c r="Z204">
+        <v>0.4375</v>
+      </c>
+      <c r="AA204">
+        <v>-0.5</v>
+      </c>
+      <c r="AB204">
+        <v>-1</v>
+      </c>
+      <c r="AC204">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>6799306</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>28</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45347.45833333334</v>
+      </c>
+      <c r="F205" t="s">
+        <v>35</v>
+      </c>
+      <c r="G205" t="s">
+        <v>34</v>
+      </c>
+      <c r="K205">
+        <v>2.4</v>
+      </c>
+      <c r="L205">
+        <v>3.25</v>
+      </c>
+      <c r="M205">
+        <v>2.8</v>
+      </c>
+      <c r="N205">
+        <v>2.45</v>
+      </c>
+      <c r="O205">
+        <v>3.4</v>
+      </c>
+      <c r="P205">
+        <v>2.9</v>
+      </c>
+      <c r="Q205">
+        <v>0</v>
+      </c>
+      <c r="R205">
+        <v>1.775</v>
+      </c>
+      <c r="S205">
+        <v>2.1</v>
+      </c>
+      <c r="T205">
+        <v>2.5</v>
+      </c>
+      <c r="U205">
         <v>2</v>
       </c>
-      <c r="V203">
+      <c r="V205">
         <v>1.85</v>
       </c>
-      <c r="W203">
+      <c r="W205">
         <v>0</v>
       </c>
-      <c r="X203">
+      <c r="X205">
         <v>0</v>
       </c>
-      <c r="Y203">
+      <c r="Y205">
         <v>0</v>
       </c>
-      <c r="Z203">
+      <c r="Z205">
         <v>0</v>
       </c>
-      <c r="AA203">
+      <c r="AA205">
         <v>0</v>
       </c>
     </row>

--- a/Denmark Division 1/Denmark Division 1.xlsx
+++ b/Denmark Division 1/Denmark Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -103,16 +103,13 @@
     <t>Denmark Division 1</t>
   </si>
   <si>
-    <t>Hillerd</t>
-  </si>
-  <si>
     <t>Nykobing</t>
   </si>
   <si>
     <t>HB Kge</t>
   </si>
   <si>
-    <t>Vejle</t>
+    <t>Hillerd</t>
   </si>
   <si>
     <t>Sonderjyske</t>
@@ -121,19 +118,22 @@
     <t>Hvidovre IF</t>
   </si>
   <si>
+    <t>Vejle</t>
+  </si>
+  <si>
     <t>Vendsyssel FF</t>
   </si>
   <si>
     <t>B93 Copenhagen</t>
   </si>
   <si>
+    <t>Kolding IF</t>
+  </si>
+  <si>
     <t>FC Fredericia</t>
   </si>
   <si>
     <t>FC Helsingor</t>
-  </si>
-  <si>
-    <t>Kolding IF</t>
   </si>
   <si>
     <t>Hobro IK</t>
@@ -151,13 +151,13 @@
     <t>Fremad Amager</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC125"/>
+  <dimension ref="A1:AC127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6428367</v>
+        <v>6428369</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,73 +631,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
       </c>
       <c r="K2">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="L2">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M2">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="N2">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="O2">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="P2">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="Q2">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R2">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S2">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T2">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U2">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V2">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC2">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6428369</v>
+        <v>6428368</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,70 +720,70 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="L3">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="M3">
-        <v>1.65</v>
+        <v>4.333</v>
       </c>
       <c r="N3">
+        <v>1.45</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
         <v>6</v>
       </c>
-      <c r="O3">
-        <v>5.75</v>
-      </c>
-      <c r="P3">
-        <v>1.444</v>
-      </c>
       <c r="Q3">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R3">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S3">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U3">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA3">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6428368</v>
+        <v>6428367</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,73 +809,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>47</v>
       </c>
       <c r="K4">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L4">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M4">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N4">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="O4">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P4">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="Q4">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T4">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W4">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6428339</v>
+        <v>6428338</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,55 +898,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M5">
         <v>5</v>
       </c>
       <c r="N5">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="O5">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P5">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U5">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
-        <v>1.2</v>
+        <v>0.363</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -955,13 +955,13 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB5">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6428338</v>
+        <v>6428337</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,70 +987,70 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
         <v>3</v>
       </c>
-      <c r="I6">
+      <c r="J6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6">
+        <v>1.7</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>4.2</v>
+      </c>
+      <c r="N6">
+        <v>1.571</v>
+      </c>
+      <c r="O6">
+        <v>4.75</v>
+      </c>
+      <c r="P6">
+        <v>4.75</v>
+      </c>
+      <c r="Q6">
+        <v>-1</v>
+      </c>
+      <c r="R6">
+        <v>1.975</v>
+      </c>
+      <c r="S6">
+        <v>1.875</v>
+      </c>
+      <c r="T6">
+        <v>3.5</v>
+      </c>
+      <c r="U6">
         <v>2</v>
       </c>
-      <c r="J6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6">
-        <v>1.5</v>
-      </c>
-      <c r="L6">
-        <v>4.5</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="N6">
-        <v>1.363</v>
-      </c>
-      <c r="O6">
-        <v>5.25</v>
-      </c>
-      <c r="P6">
-        <v>6.5</v>
-      </c>
-      <c r="Q6">
-        <v>-1.5</v>
-      </c>
-      <c r="R6">
-        <v>1.95</v>
-      </c>
-      <c r="S6">
-        <v>1.9</v>
-      </c>
-      <c r="T6">
+      <c r="V6">
+        <v>1.85</v>
+      </c>
+      <c r="W6">
+        <v>-1</v>
+      </c>
+      <c r="X6">
+        <v>-1</v>
+      </c>
+      <c r="Y6">
         <v>3.75</v>
       </c>
-      <c r="U6">
-        <v>1.9</v>
-      </c>
-      <c r="V6">
-        <v>1.95</v>
-      </c>
-      <c r="W6">
-        <v>0.363</v>
-      </c>
-      <c r="X6">
-        <v>-1</v>
-      </c>
-      <c r="Y6">
-        <v>-1</v>
-      </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB6">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6428337</v>
+        <v>6428339</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,10 +1076,10 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -1088,58 +1088,58 @@
         <v>46</v>
       </c>
       <c r="K7">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="L7">
         <v>4</v>
       </c>
       <c r="M7">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N7">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O7">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P7">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
+        <v>1.875</v>
+      </c>
+      <c r="S7">
         <v>1.975</v>
       </c>
-      <c r="S7">
-        <v>1.875</v>
-      </c>
       <c r="T7">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V7">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA7">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6799246</v>
+        <v>6799245</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1162,76 +1162,76 @@
         <v>45128.58333333334</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J8" t="s">
         <v>45</v>
       </c>
       <c r="K8">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="N8">
         <v>2.25</v>
       </c>
       <c r="O8">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P8">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q8">
         <v>-0.25</v>
       </c>
       <c r="R8">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S8">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T8">
         <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6799245</v>
+        <v>6799246</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1251,76 +1251,76 @@
         <v>45128.58333333334</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="N9">
         <v>2.25</v>
       </c>
       <c r="O9">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q9">
         <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S9">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T9">
         <v>2.75</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1352,7 +1352,7 @@
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10">
         <v>5.5</v>
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6799247</v>
+        <v>6798548</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,73 +1432,73 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
         <v>46</v>
       </c>
       <c r="K11">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="L11">
         <v>3.6</v>
       </c>
       <c r="M11">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="N11">
+        <v>2.8</v>
+      </c>
+      <c r="O11">
+        <v>3.4</v>
+      </c>
+      <c r="P11">
+        <v>2.55</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
         <v>1.85</v>
       </c>
-      <c r="O11">
-        <v>3.6</v>
-      </c>
-      <c r="P11">
-        <v>4.2</v>
-      </c>
-      <c r="Q11">
-        <v>-0.5</v>
-      </c>
-      <c r="R11">
-        <v>1.875</v>
-      </c>
-      <c r="S11">
-        <v>1.975</v>
-      </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6799248</v>
+        <v>6799247</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,73 +1521,73 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>2</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="L12">
         <v>3.6</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N12">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="O12">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P12">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R12">
+        <v>1.875</v>
+      </c>
+      <c r="S12">
         <v>1.975</v>
-      </c>
-      <c r="S12">
-        <v>1.875</v>
       </c>
       <c r="T12">
         <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W12">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z12">
+        <v>-1</v>
+      </c>
+      <c r="AA12">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA12">
-        <v>-1</v>
-      </c>
       <c r="AB12">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6798548</v>
+        <v>6799248</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1610,7 +1610,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1619,22 +1619,22 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="L13">
         <v>3.6</v>
       </c>
       <c r="M13">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N13">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="O13">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P13">
         <v>2.55</v>
@@ -1643,22 +1643,22 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S13">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T13">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
-        <v>1.8</v>
+        <v>1.625</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1667,16 +1667,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6799251</v>
+        <v>6799250</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1696,73 +1696,73 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
         <v>46</v>
       </c>
       <c r="K14">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="L14">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M14">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N14">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="O14">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P14">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R14">
+        <v>1.975</v>
+      </c>
+      <c r="S14">
         <v>1.875</v>
       </c>
-      <c r="S14">
-        <v>1.975</v>
-      </c>
       <c r="T14">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1785,7 +1785,7 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -1797,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15">
         <v>2.7</v>
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6799250</v>
+        <v>6799251</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1874,73 +1874,73 @@
         <v>45135.58333333334</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
         <v>3</v>
       </c>
-      <c r="I16">
+      <c r="J16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16">
+        <v>1.7</v>
+      </c>
+      <c r="L16">
+        <v>3.8</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="N16">
+        <v>1.7</v>
+      </c>
+      <c r="O16">
+        <v>4</v>
+      </c>
+      <c r="P16">
+        <v>4.5</v>
+      </c>
+      <c r="Q16">
+        <v>-0.75</v>
+      </c>
+      <c r="R16">
+        <v>1.875</v>
+      </c>
+      <c r="S16">
+        <v>1.975</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+      <c r="U16">
+        <v>1.85</v>
+      </c>
+      <c r="V16">
         <v>2</v>
       </c>
-      <c r="J16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16">
-        <v>2.3</v>
-      </c>
-      <c r="L16">
-        <v>3.3</v>
-      </c>
-      <c r="M16">
-        <v>2.75</v>
-      </c>
-      <c r="N16">
-        <v>2.8</v>
-      </c>
-      <c r="O16">
-        <v>3.3</v>
-      </c>
-      <c r="P16">
-        <v>2.5</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>1.975</v>
-      </c>
-      <c r="S16">
-        <v>1.875</v>
-      </c>
-      <c r="T16">
-        <v>2.5</v>
-      </c>
-      <c r="U16">
-        <v>1.9</v>
-      </c>
-      <c r="V16">
-        <v>1.95</v>
-      </c>
       <c r="W16">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z16">
+        <v>-1</v>
+      </c>
+      <c r="AA16">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
       <c r="AB16">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC16">
         <v>-1</v>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K17">
         <v>1.7</v>
@@ -2052,10 +2052,10 @@
         <v>45136.375</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2064,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18">
         <v>1.909</v>
@@ -2141,7 +2141,7 @@
         <v>45137.375</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
         <v>36</v>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19">
         <v>1.666</v>
@@ -2230,7 +2230,7 @@
         <v>45142.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
         <v>40</v>
@@ -2242,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K20">
         <v>2.6</v>
@@ -2322,7 +2322,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K21">
         <v>1.7</v>
@@ -2411,7 +2411,7 @@
         <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2420,7 +2420,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K22">
         <v>1.75</v>
@@ -2500,7 +2500,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2509,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K23">
         <v>3.2</v>
@@ -2589,7 +2589,7 @@
         <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2598,7 +2598,7 @@
         <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -2678,7 +2678,7 @@
         <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K25">
         <v>1.333</v>
@@ -2764,10 +2764,10 @@
         <v>45149.5625</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2776,7 +2776,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K26">
         <v>1.727</v>
@@ -2853,7 +2853,7 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
         <v>41</v>
@@ -2865,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K27">
         <v>4.333</v>
@@ -2942,7 +2942,7 @@
         <v>45149.58333333334</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
         <v>36</v>
@@ -2954,7 +2954,7 @@
         <v>7</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K28">
         <v>1.615</v>
@@ -3031,7 +3031,7 @@
         <v>45150.35416666666</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
         <v>42</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -3123,7 +3123,7 @@
         <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3132,7 +3132,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
         <v>2.7</v>
@@ -3221,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31">
         <v>2.5</v>
@@ -3310,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K32">
         <v>1.222</v>
@@ -3375,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6800832</v>
+        <v>6798551</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3387,55 +3387,55 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L33">
         <v>3.4</v>
       </c>
       <c r="M33">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N33">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="O33">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P33">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R33">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S33">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T33">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U33">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V33">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W33">
         <v>-1</v>
@@ -3444,16 +3444,16 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>1.8</v>
+        <v>1.375</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB33">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3479,7 +3479,7 @@
         <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3488,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34">
         <v>1.95</v>
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6798551</v>
+        <v>6800832</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,56 +3565,56 @@
         <v>45156.58333333334</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K35">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L35">
         <v>3.4</v>
       </c>
       <c r="M35">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N35">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="O35">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P35">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="Q35">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R35">
+        <v>1.825</v>
+      </c>
+      <c r="S35">
+        <v>2.025</v>
+      </c>
+      <c r="T35">
+        <v>3</v>
+      </c>
+      <c r="U35">
         <v>1.8</v>
       </c>
-      <c r="S35">
+      <c r="V35">
         <v>2.05</v>
       </c>
-      <c r="T35">
-        <v>2.75</v>
-      </c>
-      <c r="U35">
-        <v>1.875</v>
-      </c>
-      <c r="V35">
-        <v>1.975</v>
-      </c>
       <c r="W35">
         <v>-1</v>
       </c>
@@ -3622,16 +3622,16 @@
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>1.375</v>
+        <v>1.8</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB35">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3654,7 +3654,7 @@
         <v>45157.33333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
         <v>35</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K36">
         <v>3.25</v>
@@ -3743,7 +3743,7 @@
         <v>45158.33333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -3755,7 +3755,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K37">
         <v>2.25</v>
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6799262</v>
+        <v>6800831</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,34 +3832,34 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K38">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L38">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M38">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="N38">
         <v>2.15</v>
       </c>
       <c r="O38">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P38">
         <v>3.1</v>
@@ -3868,40 +3868,40 @@
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T38">
         <v>3</v>
       </c>
       <c r="U38">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W38">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z38">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6800831</v>
+        <v>6799262</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,34 +3921,34 @@
         <v>45160.58333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>46</v>
       </c>
       <c r="K39">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L39">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N39">
         <v>2.15</v>
       </c>
       <c r="O39">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P39">
         <v>3.1</v>
@@ -3957,40 +3957,40 @@
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T39">
         <v>3</v>
       </c>
       <c r="U39">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA39">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6798552</v>
+        <v>6799263</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,40 +4010,40 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K40">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L40">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M40">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N40">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="O40">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P40">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
         <v>2</v>
@@ -4052,31 +4052,31 @@
         <v>1.85</v>
       </c>
       <c r="T40">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U40">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V40">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z40">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB40">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC40">
         <v>-1</v>
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6799263</v>
+        <v>6798552</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,40 +4099,40 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
         <v>1</v>
-      </c>
-      <c r="I41">
-        <v>6</v>
       </c>
       <c r="J41" t="s">
         <v>46</v>
       </c>
       <c r="K41">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L41">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M41">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N41">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P41">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R41">
         <v>2</v>
@@ -4141,31 +4141,31 @@
         <v>1.85</v>
       </c>
       <c r="T41">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC41">
         <v>-1</v>
@@ -4188,10 +4188,10 @@
         <v>45161.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H42">
         <v>4</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K42">
         <v>1.4</v>
@@ -4289,7 +4289,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K43">
         <v>4</v>
@@ -4378,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K44">
         <v>1.65</v>
@@ -4467,7 +4467,7 @@
         <v>5</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K45">
         <v>3</v>
@@ -4544,10 +4544,10 @@
         <v>45164.375</v>
       </c>
       <c r="F46" t="s">
+        <v>37</v>
+      </c>
+      <c r="G46" t="s">
         <v>39</v>
-      </c>
-      <c r="G46" t="s">
-        <v>38</v>
       </c>
       <c r="H46">
         <v>4</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K46">
         <v>1.85</v>
@@ -4633,10 +4633,10 @@
         <v>45165.33333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4645,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K47">
         <v>3.2</v>
@@ -4725,7 +4725,7 @@
         <v>41</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K48">
         <v>1.2</v>
@@ -4814,7 +4814,7 @@
         <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4823,7 +4823,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K49">
         <v>2.8</v>
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6799268</v>
+        <v>6799269</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,13 +4900,13 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>2</v>
@@ -4915,61 +4915,61 @@
         <v>45</v>
       </c>
       <c r="K50">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="L50">
+        <v>3.6</v>
+      </c>
+      <c r="M50">
+        <v>3.25</v>
+      </c>
+      <c r="N50">
+        <v>2.45</v>
+      </c>
+      <c r="O50">
         <v>4</v>
       </c>
-      <c r="M50">
-        <v>1.571</v>
-      </c>
-      <c r="N50">
-        <v>4.2</v>
-      </c>
-      <c r="O50">
-        <v>3.75</v>
-      </c>
       <c r="P50">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="Q50">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S50">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U50">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V50">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z50">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB50">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K51">
         <v>1.8</v>
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6799269</v>
+        <v>6799268</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,76 +5078,76 @@
         <v>45170.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52">
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K52">
+        <v>5</v>
+      </c>
+      <c r="L52">
+        <v>4</v>
+      </c>
+      <c r="M52">
+        <v>1.571</v>
+      </c>
+      <c r="N52">
+        <v>4.2</v>
+      </c>
+      <c r="O52">
+        <v>3.75</v>
+      </c>
+      <c r="P52">
+        <v>1.85</v>
+      </c>
+      <c r="Q52">
+        <v>0.5</v>
+      </c>
+      <c r="R52">
+        <v>1.975</v>
+      </c>
+      <c r="S52">
+        <v>1.875</v>
+      </c>
+      <c r="T52">
+        <v>3</v>
+      </c>
+      <c r="U52">
         <v>2.05</v>
       </c>
-      <c r="L52">
-        <v>3.6</v>
-      </c>
-      <c r="M52">
-        <v>3.25</v>
-      </c>
-      <c r="N52">
-        <v>2.45</v>
-      </c>
-      <c r="O52">
-        <v>4</v>
-      </c>
-      <c r="P52">
-        <v>2.55</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>1.9</v>
-      </c>
-      <c r="S52">
-        <v>1.95</v>
-      </c>
-      <c r="T52">
-        <v>3.25</v>
-      </c>
-      <c r="U52">
-        <v>2.025</v>
-      </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y52">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC52">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>45172.375</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s">
         <v>40</v>
@@ -5179,7 +5179,7 @@
         <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K53">
         <v>2.15</v>
@@ -5259,7 +5259,7 @@
         <v>41</v>
       </c>
       <c r="G54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5268,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K54">
         <v>1.45</v>
@@ -5348,7 +5348,7 @@
         <v>43</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -5357,7 +5357,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K55">
         <v>2.15</v>
@@ -5434,10 +5434,10 @@
         <v>45183.58333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K56">
         <v>3.75</v>
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6799273</v>
+        <v>6798871</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,76 +5523,76 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K57">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L57">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M57">
+        <v>2.5</v>
+      </c>
+      <c r="N57">
+        <v>2.55</v>
+      </c>
+      <c r="O57">
+        <v>3.5</v>
+      </c>
+      <c r="P57">
+        <v>2.625</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>1.825</v>
+      </c>
+      <c r="S57">
+        <v>2.025</v>
+      </c>
+      <c r="T57">
         <v>2.75</v>
       </c>
-      <c r="N57">
-        <v>2.25</v>
-      </c>
-      <c r="O57">
-        <v>3.4</v>
-      </c>
-      <c r="P57">
-        <v>3.1</v>
-      </c>
-      <c r="Q57">
-        <v>-0.25</v>
-      </c>
-      <c r="R57">
-        <v>2.05</v>
-      </c>
-      <c r="S57">
-        <v>1.8</v>
-      </c>
-      <c r="T57">
+      <c r="U57">
+        <v>1.9</v>
+      </c>
+      <c r="V57">
+        <v>1.95</v>
+      </c>
+      <c r="W57">
+        <v>-1</v>
+      </c>
+      <c r="X57">
         <v>2.5</v>
       </c>
-      <c r="U57">
-        <v>1.95</v>
-      </c>
-      <c r="V57">
-        <v>1.9</v>
-      </c>
-      <c r="W57">
-        <v>-1</v>
-      </c>
-      <c r="X57">
-        <v>-1</v>
-      </c>
       <c r="Y57">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA57">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5612,7 +5612,7 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
@@ -5624,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K58">
         <v>2.15</v>
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6798871</v>
+        <v>6799273</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,13 +5701,13 @@
         <v>45184.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -5716,61 +5716,61 @@
         <v>45</v>
       </c>
       <c r="K59">
+        <v>2.4</v>
+      </c>
+      <c r="L59">
+        <v>3.3</v>
+      </c>
+      <c r="M59">
+        <v>2.75</v>
+      </c>
+      <c r="N59">
+        <v>2.25</v>
+      </c>
+      <c r="O59">
+        <v>3.4</v>
+      </c>
+      <c r="P59">
+        <v>3.1</v>
+      </c>
+      <c r="Q59">
+        <v>-0.25</v>
+      </c>
+      <c r="R59">
+        <v>2.05</v>
+      </c>
+      <c r="S59">
+        <v>1.8</v>
+      </c>
+      <c r="T59">
         <v>2.5</v>
       </c>
-      <c r="L59">
-        <v>3.5</v>
-      </c>
-      <c r="M59">
-        <v>2.5</v>
-      </c>
-      <c r="N59">
-        <v>2.55</v>
-      </c>
-      <c r="O59">
-        <v>3.5</v>
-      </c>
-      <c r="P59">
-        <v>2.625</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>1.825</v>
-      </c>
-      <c r="S59">
-        <v>2.025</v>
-      </c>
-      <c r="T59">
-        <v>2.75</v>
-      </c>
       <c r="U59">
+        <v>1.95</v>
+      </c>
+      <c r="V59">
         <v>1.9</v>
       </c>
-      <c r="V59">
-        <v>1.95</v>
-      </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5790,10 +5790,10 @@
         <v>45186.375</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G60" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5802,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K60">
         <v>1.85</v>
@@ -5891,7 +5891,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K61">
         <v>1.714</v>
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6798872</v>
+        <v>6800826</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,76 +5968,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
         <v>2</v>
       </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K62">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="L62">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M62">
-        <v>13</v>
+        <v>2.35</v>
       </c>
       <c r="N62">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="O62">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P62">
-        <v>13</v>
+        <v>2.3</v>
       </c>
       <c r="Q62">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R62">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S62">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T62">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U62">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V62">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W62">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC62">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6800826</v>
+        <v>6798555</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,10 +6057,10 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6069,43 +6069,43 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K63">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="L63">
         <v>3.5</v>
       </c>
       <c r="M63">
-        <v>2.35</v>
+        <v>3.2</v>
       </c>
       <c r="N63">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="O63">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P63">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q63">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S63">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V63">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W63">
         <v>-1</v>
@@ -6114,19 +6114,19 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB63">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6798555</v>
+        <v>6798872</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,76 +6146,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
         <v>46</v>
       </c>
       <c r="K64">
-        <v>2.05</v>
+        <v>1.2</v>
       </c>
       <c r="L64">
+        <v>6</v>
+      </c>
+      <c r="M64">
+        <v>13</v>
+      </c>
+      <c r="N64">
+        <v>1.2</v>
+      </c>
+      <c r="O64">
+        <v>6.5</v>
+      </c>
+      <c r="P64">
+        <v>13</v>
+      </c>
+      <c r="Q64">
+        <v>-2</v>
+      </c>
+      <c r="R64">
+        <v>1.975</v>
+      </c>
+      <c r="S64">
+        <v>1.875</v>
+      </c>
+      <c r="T64">
         <v>3.5</v>
       </c>
-      <c r="M64">
-        <v>3.2</v>
-      </c>
-      <c r="N64">
-        <v>2.4</v>
-      </c>
-      <c r="O64">
-        <v>3.5</v>
-      </c>
-      <c r="P64">
-        <v>2.75</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
+      <c r="U64">
+        <v>2.025</v>
+      </c>
+      <c r="V64">
         <v>1.825</v>
       </c>
-      <c r="S64">
-        <v>2.025</v>
-      </c>
-      <c r="T64">
-        <v>2.75</v>
-      </c>
-      <c r="U64">
-        <v>1.825</v>
-      </c>
-      <c r="V64">
-        <v>2.025</v>
-      </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA64">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB64">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6247,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K65">
         <v>2.15</v>
@@ -6327,7 +6327,7 @@
         <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6336,7 +6336,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K66">
         <v>2.3</v>
@@ -6413,10 +6413,10 @@
         <v>45193.375</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6425,7 +6425,7 @@
         <v>4</v>
       </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K67">
         <v>4.2</v>
@@ -6502,7 +6502,7 @@
         <v>45198.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
         <v>42</v>
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K68">
         <v>3.25</v>
@@ -6603,7 +6603,7 @@
         <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K69">
         <v>5</v>
@@ -6680,7 +6680,7 @@
         <v>45199.375</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>36</v>
@@ -6692,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K70">
         <v>1.363</v>
@@ -6769,10 +6769,10 @@
         <v>45200.33333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6781,7 +6781,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K71">
         <v>2.875</v>
@@ -6858,7 +6858,7 @@
         <v>45200.375</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
         <v>43</v>
@@ -6870,7 +6870,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K72">
         <v>1.5</v>
@@ -6950,7 +6950,7 @@
         <v>40</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -6959,7 +6959,7 @@
         <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K73">
         <v>2.625</v>
@@ -7036,10 +7036,10 @@
         <v>45205.5625</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7048,7 +7048,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K74">
         <v>2.75</v>
@@ -7137,7 +7137,7 @@
         <v>4</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K75">
         <v>4</v>
@@ -7217,7 +7217,7 @@
         <v>36</v>
       </c>
       <c r="G76" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7226,7 +7226,7 @@
         <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K76">
         <v>2.625</v>
@@ -7303,10 +7303,10 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -7315,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K77">
         <v>1.5</v>
@@ -7404,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K78">
         <v>3.1</v>
@@ -7481,7 +7481,7 @@
         <v>45208.58333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G79" t="s">
         <v>35</v>
@@ -7493,7 +7493,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K79">
         <v>2.55</v>
@@ -7582,7 +7582,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K80">
         <v>2.3</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6799287</v>
+        <v>6798558</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,58 +7659,58 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K81">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="L81">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M81">
+        <v>4.333</v>
+      </c>
+      <c r="N81">
+        <v>1.909</v>
+      </c>
+      <c r="O81">
         <v>3.8</v>
       </c>
-      <c r="N81">
-        <v>1.8</v>
-      </c>
-      <c r="O81">
-        <v>3.75</v>
-      </c>
       <c r="P81">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q81">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R81">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S81">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U81">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V81">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W81">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7719,16 +7719,16 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.5125</v>
+        <v>0.925</v>
       </c>
       <c r="AA81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7748,10 +7748,10 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7760,7 +7760,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K82">
         <v>3.5</v>
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6798558</v>
+        <v>6799287</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,76 +7837,76 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G83" t="s">
         <v>39</v>
       </c>
       <c r="H83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K83">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M83">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="N83">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O83">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P83">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q83">
+        <v>-0.75</v>
+      </c>
+      <c r="R83">
+        <v>2.025</v>
+      </c>
+      <c r="S83">
+        <v>1.825</v>
+      </c>
+      <c r="T83">
+        <v>2.5</v>
+      </c>
+      <c r="U83">
+        <v>2.025</v>
+      </c>
+      <c r="V83">
+        <v>1.825</v>
+      </c>
+      <c r="W83">
+        <v>0.8</v>
+      </c>
+      <c r="X83">
+        <v>-1</v>
+      </c>
+      <c r="Y83">
+        <v>-1</v>
+      </c>
+      <c r="Z83">
+        <v>0.5125</v>
+      </c>
+      <c r="AA83">
         <v>-0.5</v>
       </c>
-      <c r="R83">
-        <v>1.925</v>
-      </c>
-      <c r="S83">
-        <v>1.925</v>
-      </c>
-      <c r="T83">
-        <v>2.75</v>
-      </c>
-      <c r="U83">
-        <v>1.9</v>
-      </c>
-      <c r="V83">
-        <v>1.95</v>
-      </c>
-      <c r="W83">
-        <v>0.909</v>
-      </c>
-      <c r="X83">
-        <v>-1</v>
-      </c>
-      <c r="Y83">
-        <v>-1</v>
-      </c>
-      <c r="Z83">
-        <v>0.925</v>
-      </c>
-      <c r="AA83">
-        <v>-1</v>
-      </c>
       <c r="AB83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7938,7 +7938,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K84">
         <v>1.181</v>
@@ -8015,7 +8015,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s">
         <v>43</v>
@@ -8027,7 +8027,7 @@
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K85">
         <v>2.5</v>
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6800822</v>
+        <v>6799288</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>46</v>
       </c>
       <c r="K86">
-        <v>5.25</v>
+        <v>1.8</v>
       </c>
       <c r="L86">
         <v>3.8</v>
       </c>
       <c r="M86">
-        <v>1.533</v>
+        <v>3.8</v>
       </c>
       <c r="N86">
-        <v>8</v>
+        <v>1.65</v>
       </c>
       <c r="O86">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P86">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q86">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R86">
+        <v>1.85</v>
+      </c>
+      <c r="S86">
+        <v>2</v>
+      </c>
+      <c r="T86">
+        <v>2.75</v>
+      </c>
+      <c r="U86">
         <v>1.925</v>
       </c>
-      <c r="S86">
+      <c r="V86">
         <v>1.925</v>
       </c>
-      <c r="T86">
-        <v>3.5</v>
-      </c>
-      <c r="U86">
-        <v>2.025</v>
-      </c>
-      <c r="V86">
-        <v>1.825</v>
-      </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA86">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB86">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8196,7 +8196,7 @@
         <v>42</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8205,7 +8205,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K87">
         <v>1.95</v>
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6799288</v>
+        <v>6800822</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45226.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K88">
-        <v>1.8</v>
+        <v>5.25</v>
       </c>
       <c r="L88">
         <v>3.8</v>
       </c>
       <c r="M88">
-        <v>3.8</v>
+        <v>1.533</v>
       </c>
       <c r="N88">
-        <v>1.65</v>
+        <v>8</v>
       </c>
       <c r="O88">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P88">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="Q88">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R88">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U88">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V88">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Z88">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB88">
-        <v>0.4625</v>
+        <v>1.025</v>
       </c>
       <c r="AC88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8371,7 +8371,7 @@
         <v>45227.33333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
         <v>41</v>
@@ -8383,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K89">
         <v>3.75</v>
@@ -8460,10 +8460,10 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F90" t="s">
+        <v>39</v>
+      </c>
+      <c r="G90" t="s">
         <v>38</v>
-      </c>
-      <c r="G90" t="s">
-        <v>37</v>
       </c>
       <c r="H90">
         <v>3</v>
@@ -8472,7 +8472,7 @@
         <v>3</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K90">
         <v>3.3</v>
@@ -8561,7 +8561,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K91">
         <v>2.625</v>
@@ -8638,7 +8638,7 @@
         <v>45233.625</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
         <v>42</v>
@@ -8650,7 +8650,7 @@
         <v>4</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K92">
         <v>3.2</v>
@@ -8727,7 +8727,7 @@
         <v>45233.625</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
         <v>40</v>
@@ -8739,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K93">
         <v>1.45</v>
@@ -8828,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K94">
         <v>1.65</v>
@@ -8905,10 +8905,10 @@
         <v>45235.41666666666</v>
       </c>
       <c r="F95" t="s">
+        <v>38</v>
+      </c>
+      <c r="G95" t="s">
         <v>37</v>
-      </c>
-      <c r="G95" t="s">
-        <v>39</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K95">
         <v>2.2</v>
@@ -8997,7 +8997,7 @@
         <v>41</v>
       </c>
       <c r="G96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9006,7 +9006,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K96">
         <v>1.25</v>
@@ -9083,7 +9083,7 @@
         <v>45236.625</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
         <v>43</v>
@@ -9095,7 +9095,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K97">
         <v>2.05</v>
@@ -9172,10 +9172,10 @@
         <v>45240.625</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9184,7 +9184,7 @@
         <v>4</v>
       </c>
       <c r="J98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K98">
         <v>7.5</v>
@@ -9264,7 +9264,7 @@
         <v>42</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9273,7 +9273,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K99">
         <v>2.75</v>
@@ -9353,7 +9353,7 @@
         <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9362,7 +9362,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K100">
         <v>2.5</v>
@@ -9451,7 +9451,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K101">
         <v>6</v>
@@ -9528,7 +9528,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
         <v>35</v>
@@ -9540,7 +9540,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K102">
         <v>1.85</v>
@@ -9620,7 +9620,7 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K103">
         <v>2</v>
@@ -9706,7 +9706,7 @@
         <v>45253.625</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G104" t="s">
         <v>36</v>
@@ -9718,7 +9718,7 @@
         <v>4</v>
       </c>
       <c r="J104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K104">
         <v>1.4</v>
@@ -9795,7 +9795,7 @@
         <v>45254.625</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
         <v>42</v>
@@ -9807,7 +9807,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K105">
         <v>3.1</v>
@@ -9884,7 +9884,7 @@
         <v>45254.625</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
         <v>43</v>
@@ -9896,7 +9896,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K106">
         <v>1.25</v>
@@ -9973,10 +9973,10 @@
         <v>45255.47916666666</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -9985,7 +9985,7 @@
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K107">
         <v>2.9</v>
@@ -10065,7 +10065,7 @@
         <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10074,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K108">
         <v>1.75</v>
@@ -10163,7 +10163,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K109">
         <v>1.4</v>
@@ -10240,7 +10240,7 @@
         <v>45261.60416666666</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G110" t="s">
         <v>35</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K110">
         <v>2.05</v>
@@ -10341,7 +10341,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K111">
         <v>2.1</v>
@@ -10418,10 +10418,10 @@
         <v>45262.375</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K112">
         <v>1.444</v>
@@ -10507,7 +10507,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
         <v>41</v>
@@ -10519,7 +10519,7 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K113">
         <v>7.5</v>
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7554250</v>
+        <v>6799302</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45265.60416666666</v>
       </c>
       <c r="F114" t="s">
+        <v>43</v>
+      </c>
+      <c r="G114" t="s">
         <v>39</v>
       </c>
-      <c r="G114" t="s">
-        <v>36</v>
-      </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K114">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L114">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M114">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N114">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O114">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P114">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q114">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S114">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T114">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V114">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y114">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA114">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC114">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6799302</v>
+        <v>7554250</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45265.60416666666</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
         <v>45</v>
       </c>
       <c r="K115">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="L115">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M115">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N115">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O115">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P115">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R115">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S115">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB115">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6799305</v>
+        <v>6798562</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,55 +10774,55 @@
         <v>45345.625</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K116">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L116">
         <v>3.5</v>
       </c>
       <c r="M116">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="N116">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="O116">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P116">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q116">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R116">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S116">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T116">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
         <v>-1</v>
@@ -10831,19 +10831,19 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>2.25</v>
+        <v>1.15</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC116">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6798562</v>
+        <v>6799307</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,73 +10863,73 @@
         <v>45345.625</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K117">
+        <v>1.75</v>
+      </c>
+      <c r="L117">
+        <v>3.6</v>
+      </c>
+      <c r="M117">
+        <v>4.333</v>
+      </c>
+      <c r="N117">
         <v>2.4</v>
       </c>
-      <c r="L117">
-        <v>3.5</v>
-      </c>
-      <c r="M117">
-        <v>2.4</v>
-      </c>
-      <c r="N117">
-        <v>3.4</v>
-      </c>
       <c r="O117">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P117">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="Q117">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S117">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T117">
         <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V117">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y117">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA117">
-        <v>0.875</v>
+        <v>0.3875</v>
       </c>
       <c r="AB117">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6799307</v>
+        <v>6799305</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45345.625</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
         <v>45</v>
       </c>
       <c r="K118">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L118">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M118">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="N118">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O118">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P118">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R118">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S118">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T118">
+        <v>2.75</v>
+      </c>
+      <c r="U118">
+        <v>2.025</v>
+      </c>
+      <c r="V118">
+        <v>1.825</v>
+      </c>
+      <c r="W118">
+        <v>-1</v>
+      </c>
+      <c r="X118">
+        <v>-1</v>
+      </c>
+      <c r="Y118">
         <v>2.25</v>
       </c>
-      <c r="U118">
-        <v>1.85</v>
-      </c>
-      <c r="V118">
-        <v>2</v>
-      </c>
-      <c r="W118">
-        <v>-1</v>
-      </c>
-      <c r="X118">
-        <v>2.2</v>
-      </c>
-      <c r="Y118">
-        <v>-1</v>
-      </c>
       <c r="Z118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
       <c r="AB118">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>41</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -11053,7 +11053,7 @@
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K119">
         <v>2.25</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K120">
         <v>2.25</v>
@@ -11222,7 +11222,7 @@
         <v>40</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11231,7 +11231,7 @@
         <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K121">
         <v>2.4</v>
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6798563</v>
+        <v>6798880</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11305,43 +11305,43 @@
         <v>28</v>
       </c>
       <c r="E122" s="2">
-        <v>45353.375</v>
+        <v>45352.60416666666</v>
       </c>
       <c r="F122" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K122">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="L122">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M122">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="N122">
+        <v>3.8</v>
+      </c>
+      <c r="O122">
+        <v>3.75</v>
+      </c>
+      <c r="P122">
         <v>1.85</v>
       </c>
-      <c r="O122">
-        <v>3.5</v>
-      </c>
-      <c r="P122">
-        <v>4.333</v>
-      </c>
       <c r="Q122">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R122">
+        <v>1.975</v>
+      </c>
+      <c r="S122">
         <v>1.875</v>
       </c>
-      <c r="S122">
-        <v>1.975</v>
-      </c>
       <c r="T122">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U122">
         <v>1.875</v>
@@ -11370,7 +11370,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6800815</v>
+        <v>6799310</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11379,49 +11379,49 @@
         <v>28</v>
       </c>
       <c r="E123" s="2">
-        <v>45353.45833333334</v>
+        <v>45352.625</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K123">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M123">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N123">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="O123">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P123">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R123">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S123">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T123">
         <v>2.75</v>
       </c>
       <c r="U123">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V123">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W123">
         <v>0</v>
@@ -11444,7 +11444,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6799308</v>
+        <v>6798563</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11453,49 +11453,49 @@
         <v>28</v>
       </c>
       <c r="E124" s="2">
-        <v>45353.45833333334</v>
+        <v>45353.375</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K124">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
         <v>4.5</v>
       </c>
       <c r="N124">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O124">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P124">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q124">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R124">
+        <v>1.875</v>
+      </c>
+      <c r="S124">
         <v>1.975</v>
       </c>
-      <c r="S124">
-        <v>1.875</v>
-      </c>
       <c r="T124">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V124">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W124">
         <v>0</v>
@@ -11518,72 +11518,220 @@
         <v>123</v>
       </c>
       <c r="B125">
+        <v>6800815</v>
+      </c>
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" t="s">
+        <v>28</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45353.45833333334</v>
+      </c>
+      <c r="F125" t="s">
+        <v>36</v>
+      </c>
+      <c r="G125" t="s">
+        <v>30</v>
+      </c>
+      <c r="K125">
+        <v>2.375</v>
+      </c>
+      <c r="L125">
+        <v>3.4</v>
+      </c>
+      <c r="M125">
+        <v>2.75</v>
+      </c>
+      <c r="N125">
+        <v>2.375</v>
+      </c>
+      <c r="O125">
+        <v>3.4</v>
+      </c>
+      <c r="P125">
+        <v>2.8</v>
+      </c>
+      <c r="Q125">
+        <v>-0.25</v>
+      </c>
+      <c r="R125">
+        <v>2.05</v>
+      </c>
+      <c r="S125">
+        <v>1.8</v>
+      </c>
+      <c r="T125">
+        <v>2.75</v>
+      </c>
+      <c r="U125">
+        <v>1.925</v>
+      </c>
+      <c r="V125">
+        <v>1.925</v>
+      </c>
+      <c r="W125">
+        <v>0</v>
+      </c>
+      <c r="X125">
+        <v>0</v>
+      </c>
+      <c r="Y125">
+        <v>0</v>
+      </c>
+      <c r="Z125">
+        <v>0</v>
+      </c>
+      <c r="AA125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>6799308</v>
+      </c>
+      <c r="C126" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" t="s">
+        <v>28</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45353.45833333334</v>
+      </c>
+      <c r="F126" t="s">
+        <v>32</v>
+      </c>
+      <c r="G126" t="s">
+        <v>35</v>
+      </c>
+      <c r="K126">
+        <v>1.666</v>
+      </c>
+      <c r="L126">
+        <v>4</v>
+      </c>
+      <c r="M126">
+        <v>4.5</v>
+      </c>
+      <c r="N126">
+        <v>1.727</v>
+      </c>
+      <c r="O126">
+        <v>3.9</v>
+      </c>
+      <c r="P126">
+        <v>4.333</v>
+      </c>
+      <c r="Q126">
+        <v>-0.75</v>
+      </c>
+      <c r="R126">
+        <v>1.975</v>
+      </c>
+      <c r="S126">
+        <v>1.875</v>
+      </c>
+      <c r="T126">
+        <v>2.75</v>
+      </c>
+      <c r="U126">
+        <v>1.9</v>
+      </c>
+      <c r="V126">
+        <v>1.95</v>
+      </c>
+      <c r="W126">
+        <v>0</v>
+      </c>
+      <c r="X126">
+        <v>0</v>
+      </c>
+      <c r="Y126">
+        <v>0</v>
+      </c>
+      <c r="Z126">
+        <v>0</v>
+      </c>
+      <c r="AA126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
         <v>6799309</v>
       </c>
-      <c r="C125" t="s">
-        <v>28</v>
-      </c>
-      <c r="D125" t="s">
-        <v>28</v>
-      </c>
-      <c r="E125" s="2">
+      <c r="C127" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" s="2">
         <v>45354.375</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F127" t="s">
         <v>43</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G127" t="s">
         <v>42</v>
       </c>
-      <c r="K125">
+      <c r="K127">
         <v>2.4</v>
       </c>
-      <c r="L125">
+      <c r="L127">
         <v>3.5</v>
       </c>
-      <c r="M125">
+      <c r="M127">
         <v>2.7</v>
       </c>
-      <c r="N125">
-        <v>2.4</v>
-      </c>
-      <c r="O125">
+      <c r="N127">
+        <v>2.2</v>
+      </c>
+      <c r="O127">
         <v>3.5</v>
       </c>
-      <c r="P125">
-        <v>2.7</v>
-      </c>
-      <c r="Q125">
-        <v>0</v>
-      </c>
-      <c r="R125">
-        <v>1.8</v>
-      </c>
-      <c r="S125">
-        <v>2.05</v>
-      </c>
-      <c r="T125">
+      <c r="P127">
+        <v>3</v>
+      </c>
+      <c r="Q127">
+        <v>-0.25</v>
+      </c>
+      <c r="R127">
+        <v>1.975</v>
+      </c>
+      <c r="S127">
+        <v>1.875</v>
+      </c>
+      <c r="T127">
         <v>2.5</v>
       </c>
-      <c r="U125">
+      <c r="U127">
         <v>1.825</v>
       </c>
-      <c r="V125">
+      <c r="V127">
         <v>2.025</v>
       </c>
-      <c r="W125">
-        <v>0</v>
-      </c>
-      <c r="X125">
-        <v>0</v>
-      </c>
-      <c r="Y125">
-        <v>0</v>
-      </c>
-      <c r="Z125">
-        <v>0</v>
-      </c>
-      <c r="AA125">
+      <c r="W127">
+        <v>0</v>
+      </c>
+      <c r="X127">
+        <v>0</v>
+      </c>
+      <c r="Y127">
+        <v>0</v>
+      </c>
+      <c r="Z127">
+        <v>0</v>
+      </c>
+      <c r="AA127">
         <v>0</v>
       </c>
     </row>

--- a/Denmark Division 1/Denmark Division 1.xlsx
+++ b/Denmark Division 1/Denmark Division 1.xlsx
@@ -103,22 +103,22 @@
     <t>Denmark Division 1</t>
   </si>
   <si>
-    <t>Nykobing</t>
-  </si>
-  <si>
     <t>HB Kge</t>
   </si>
   <si>
     <t>Hillerd</t>
   </si>
   <si>
+    <t>Nykobing</t>
+  </si>
+  <si>
+    <t>Vejle</t>
+  </si>
+  <si>
     <t>Sonderjyske</t>
   </si>
   <si>
     <t>Hvidovre IF</t>
-  </si>
-  <si>
-    <t>Vejle</t>
   </si>
   <si>
     <t>Vendsyssel FF</t>
@@ -130,10 +130,10 @@
     <t>Kolding IF</t>
   </si>
   <si>
-    <t>FC Fredericia</t>
+    <t>FC Helsingor</t>
   </si>
   <si>
-    <t>FC Helsingor</t>
+    <t>FC Fredericia</t>
   </si>
   <si>
     <t>Hobro IK</t>
@@ -151,13 +151,13 @@
     <t>Fremad Amager</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6428369</v>
+        <v>6428368</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,70 +631,70 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
       </c>
       <c r="K2">
-        <v>4.2</v>
+   